--- a/NewData.xlsx
+++ b/NewData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8718ADCD-D379-4C71-9F49-EF308059E714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D69348D-DF2E-41E9-8E07-1C11907E0E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="345" windowWidth="12450" windowHeight="14160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeometryV3" sheetId="2" r:id="rId1"/>
@@ -789,42 +789,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,6 +830,42 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,114 +1427,114 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:40" ht="60" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="85" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="85" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88" t="s">
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="88" t="s">
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="91" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="91" t="s">
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="94" t="s">
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="94" t="s">
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="96"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="84"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="27"/>
       <c r="C4" s="28" t="e">
@@ -1770,7 +1770,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="e">
@@ -1884,7 +1884,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="27"/>
       <c r="C6" s="28" t="e">
@@ -1998,7 +1998,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="27"/>
       <c r="C7" s="28" t="e">
@@ -2112,7 +2112,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28" t="e">
@@ -2226,7 +2226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28" t="e">
@@ -2340,7 +2340,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28" t="e">
@@ -2454,7 +2454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28" t="e">
@@ -2568,7 +2568,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28" t="e">
@@ -2682,7 +2682,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="28" t="e">
@@ -2796,7 +2796,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
       <c r="C14" s="28" t="e">
@@ -2910,7 +2910,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28" t="e">
@@ -3024,7 +3024,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28" t="e">
@@ -3138,7 +3138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28" t="e">
@@ -3252,7 +3252,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28" t="e">
@@ -3366,7 +3366,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28" t="e">
@@ -3480,7 +3480,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28" t="e">
@@ -3594,7 +3594,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28" t="e">
@@ -3708,7 +3708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28" t="e">
@@ -3822,7 +3822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="e">
@@ -3936,7 +3936,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28" t="e">
@@ -4050,7 +4050,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28" t="e">
@@ -4164,7 +4164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28" t="e">
@@ -4278,7 +4278,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28" t="e">
@@ -4392,7 +4392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28" t="e">
@@ -4506,7 +4506,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28" t="e">
@@ -4620,7 +4620,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28" t="e">
@@ -4734,7 +4734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28" t="e">
@@ -4848,7 +4848,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28" t="e">
@@ -4962,7 +4962,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
       <c r="C33" s="28" t="e">
@@ -5076,25 +5076,25 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="1:40" ht="23" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="71" t="s">
+    <row r="34" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="G35" s="73" t="s">
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="G35" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
-    </row>
-    <row r="36" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="89"/>
+    </row>
+    <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>23</v>
       </c>
@@ -5110,18 +5110,18 @@
       <c r="E36" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="76" t="s">
+      <c r="G36" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="78" t="s">
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="78"/>
-      <c r="L36" s="79"/>
-    </row>
-    <row r="37" spans="1:40" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="92"/>
+      <c r="L36" s="93"/>
+    </row>
+    <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>17</v>
       </c>
@@ -5129,18 +5129,18 @@
       <c r="C37" s="62"/>
       <c r="D37" s="62"/>
       <c r="E37" s="62"/>
-      <c r="G37" s="80">
+      <c r="G37" s="94">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81">
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95">
         <v>996.55</v>
       </c>
-      <c r="K37" s="81"/>
-      <c r="L37" s="82"/>
-    </row>
-    <row r="38" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K37" s="95"/>
+      <c r="L37" s="96"/>
+    </row>
+    <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>18</v>
       </c>
@@ -5149,7 +5149,7 @@
       <c r="D38" s="62"/>
       <c r="E38" s="62"/>
     </row>
-    <row r="39" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>19</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>20</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="63" t="s">
         <v>21</v>
       </c>
@@ -5214,6 +5214,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -5223,12 +5229,6 @@
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5239,121 +5239,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="9.36328125" style="70" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="70" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.90625" customWidth="1"/>
-    <col min="29" max="29" width="10.54296875" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:40" ht="60" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="85" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="85" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88" t="s">
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="88" t="s">
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="91" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="91" t="s">
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="94" t="s">
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="94" t="s">
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="96"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="84"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5475,19 +5475,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="27"/>
       <c r="C4" s="28">
-        <f>(A4/($J$43*$B$45))</f>
+        <f t="shared" ref="C4:C39" si="0">(A4/($J$43*$B$45))</f>
         <v>0</v>
       </c>
       <c r="D4" s="29">
-        <f>((A4*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" ref="D4:D39" si="1">((A4*$B$46)/($G$43*$B$45))</f>
         <v>0</v>
       </c>
       <c r="E4" s="65" t="e">
-        <f>((B4*$B$46)/(2*$B$47*$J$43*(C4^2)))</f>
+        <f t="shared" ref="E4:E39" si="2">((B4*$B$46)/(2*$B$47*$J$43*(C4^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F4" s="32">
@@ -5497,29 +5497,29 @@
         <v>225.61286199999998</v>
       </c>
       <c r="H4" s="31">
-        <f>(F4/($J$43*$B$45))</f>
+        <f t="shared" ref="H4:H39" si="3">(F4/($J$43*$B$45))</f>
         <v>4.1940522184770367E-2</v>
       </c>
       <c r="I4" s="31">
-        <f>((F4*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" ref="I4:I39" si="4">((F4*$B$46)/($G$43*$B$45))</f>
         <v>122.59980024419286</v>
       </c>
       <c r="J4" s="30">
-        <f>((G4*$B$46)/(2*$B$47*$J$43*(H4^2)))</f>
+        <f t="shared" ref="J4:J39" si="5">((G4*$B$46)/(2*$B$47*$J$43*(H4^2)))</f>
         <v>1.3429801172920961</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="34"/>
       <c r="M4" s="35">
-        <f>(K4/($J$43*$C$45))</f>
+        <f t="shared" ref="M4:M39" si="6">(K4/($J$43*$C$45))</f>
         <v>0</v>
       </c>
       <c r="N4" s="36">
-        <f>((K4*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" ref="N4:N39" si="7">((K4*$C$46)/($G$43*$C$45))</f>
         <v>0</v>
       </c>
       <c r="O4" s="38" t="e">
-        <f>((L4*$C$46)/(2*$C$47*$J$43*(M4^2)))</f>
+        <f t="shared" ref="O4:O39" si="8">((L4*$C$46)/(2*$C$47*$J$43*(M4^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P4" s="37">
@@ -5529,29 +5529,29 @@
         <v>107.102194</v>
       </c>
       <c r="R4" s="35">
-        <f>(P4/($J$43*$C$45))</f>
+        <f t="shared" ref="R4:R17" si="9">(P4/($J$43*$C$45))</f>
         <v>3.7582844333550004E-2</v>
       </c>
       <c r="S4" s="35">
-        <f>((P4*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" ref="S4:S17" si="10">((P4*$C$46)/($G$43*$C$45))</f>
         <v>154.94844259055924</v>
       </c>
       <c r="T4" s="66">
-        <f>((Q4*$C$46)/(2*$C$47*$J$43*(R4^2)))</f>
+        <f t="shared" ref="T4:T17" si="11">((Q4*$C$46)/(2*$C$47*$J$43*(R4^2)))</f>
         <v>1.1197836274607396</v>
       </c>
       <c r="U4" s="39"/>
       <c r="V4" s="40"/>
       <c r="W4" s="40">
-        <f>(U4/($J$43*$D$45))</f>
+        <f t="shared" ref="W4:W17" si="12">(U4/($J$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="X4" s="40">
-        <f>((U4*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="X4:X17" si="13">((U4*$D$46)/($G$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="Y4" s="68" t="e">
-        <f>((V4*$D$46)/(2*$D$47*$J$43*(W4^2)))</f>
+        <f t="shared" ref="Y4:Y17" si="14">((V4*$D$46)/(2*$D$47*$J$43*(W4^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z4" s="41">
@@ -5561,29 +5561,29 @@
         <v>70</v>
       </c>
       <c r="AB4" s="41">
-        <f>(Z4/($J$43*$D$45))</f>
+        <f t="shared" ref="AB4:AB17" si="15">(Z4/($J$43*$D$45))</f>
         <v>3.5261774354942807E-2</v>
       </c>
       <c r="AC4" s="41">
-        <f>((Z4*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="AC4:AC17" si="16">((Z4*$D$46)/($G$43*$D$45))</f>
         <v>181.71048897574227</v>
       </c>
       <c r="AD4" s="41">
-        <f>((AA4*$D$46)/(2*$D$47*$J$43*(AB4^2)))</f>
+        <f t="shared" ref="AD4:AD17" si="17">((AA4*$D$46)/(2*$D$47*$J$43*(AB4^2)))</f>
         <v>1.0391614253001562</v>
       </c>
       <c r="AE4" s="42"/>
       <c r="AF4" s="43"/>
       <c r="AG4" s="43">
-        <f>(AE4/($J$43*$E$45))</f>
+        <f t="shared" ref="AG4:AG17" si="18">(AE4/($J$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AH4" s="43">
-        <f>((AE4*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" ref="AH4:AH17" si="19">((AE4*$E$46)/($G$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AI4" s="69" t="e">
-        <f>((AF4*$E$46)/(2*$E$47*$J$43*(AG4^2)))</f>
+        <f t="shared" ref="AI4:AI17" si="20">((AF4*$E$46)/(2*$E$47*$J$43*(AG4^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ4" s="44">
@@ -5593,31 +5593,31 @@
         <v>53.282062999999994</v>
       </c>
       <c r="AL4" s="44">
-        <f>(AJ4/($J$43*$E$45))</f>
+        <f t="shared" ref="AL4:AL17" si="21">(AJ4/($J$43*$E$45))</f>
         <v>3.3921751435205982E-2</v>
       </c>
       <c r="AM4" s="44">
-        <f>((AJ4*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" ref="AM4:AM17" si="22">((AJ4*$E$46)/($G$43*$E$45))</f>
         <v>207.49572776049752</v>
       </c>
       <c r="AN4" s="44">
-        <f>((AK4*$E$46)/(2*$E$47*$J$43*(AL4^2)))</f>
+        <f t="shared" ref="AN4:AN17" si="23">((AK4*$E$46)/(2*$E$47*$J$43*(AL4^2)))</f>
         <v>1.014548596207161</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="27"/>
       <c r="C5" s="28">
-        <f>(A5/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="29">
-        <f>((A5*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="65" t="e">
-        <f>((B5*$B$46)/(2*$B$47*$J$43*(C5^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F5" s="32">
@@ -5627,29 +5627,29 @@
         <v>303.54630700000001</v>
       </c>
       <c r="H5" s="31">
-        <f>(F5/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>5.0328626621724437E-2</v>
       </c>
       <c r="I5" s="31">
-        <f>((F5*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>147.11976029303145</v>
       </c>
       <c r="J5" s="30">
-        <f>((G5*$B$46)/(2*$B$47*$J$43*(H5^2)))</f>
+        <f t="shared" si="5"/>
         <v>1.2547817388646272</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="34"/>
       <c r="M5" s="35">
-        <f>(K5/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N5" s="36">
-        <f>((K5*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O5" s="38" t="e">
-        <f>((L5*$C$46)/(2*$C$47*$J$43*(M5^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P5" s="37">
@@ -5659,29 +5659,29 @@
         <v>144.164737</v>
       </c>
       <c r="R5" s="35">
-        <f>(P5/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>4.5099413200260001E-2</v>
       </c>
       <c r="S5" s="35">
-        <f>((P5*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>185.93813110867106</v>
       </c>
       <c r="T5" s="66">
-        <f>((Q5*$C$46)/(2*$C$47*$J$43*(R5^2)))</f>
+        <f t="shared" si="11"/>
         <v>1.0467242787825897</v>
       </c>
       <c r="U5" s="39"/>
       <c r="V5" s="40"/>
       <c r="W5" s="40">
-        <f>(U5/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X5" s="40">
-        <f>((U5*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y5" s="68" t="e">
-        <f>((V5*$D$46)/(2*$D$47*$J$43*(W5^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z5" s="41">
@@ -5691,29 +5691,29 @@
         <v>95.7</v>
       </c>
       <c r="AB5" s="41">
-        <f>(Z5/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>4.231412922593137E-2</v>
       </c>
       <c r="AC5" s="41">
-        <f>((Z5*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>218.05258677089071</v>
       </c>
       <c r="AD5" s="41">
-        <f>((AA5*$D$46)/(2*$D$47*$J$43*(AB5^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.98658480556770767</v>
       </c>
       <c r="AE5" s="42"/>
       <c r="AF5" s="43"/>
       <c r="AG5" s="43">
-        <f>(AE5/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH5" s="43">
-        <f>((AE5*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI5" s="69" t="e">
-        <f>((AF5*$E$46)/(2*$E$47*$J$43*(AG5^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ5" s="44">
@@ -5723,31 +5723,31 @@
         <v>106.213736</v>
       </c>
       <c r="AL5" s="44">
-        <f>(AJ5/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>5.0882627152808974E-2</v>
       </c>
       <c r="AM5" s="44">
-        <f>((AJ5*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>311.24359164074622</v>
       </c>
       <c r="AN5" s="44">
-        <f>((AK5*$E$46)/(2*$E$47*$J$43*(AL5^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.89885572650274859</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="27"/>
       <c r="C6" s="28">
-        <f>(A6/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="29">
-        <f>((A6*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E6" s="65" t="e">
-        <f>((B6*$B$46)/(2*$B$47*$J$43*(C6^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F6" s="32">
@@ -5757,29 +5757,29 @@
         <v>394.18150199999997</v>
       </c>
       <c r="H6" s="31">
-        <f>(F6/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>5.8716731058678508E-2</v>
       </c>
       <c r="I6" s="31">
-        <f>((F6*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>171.63972034187003</v>
       </c>
       <c r="J6" s="30">
-        <f>((G6*$B$46)/(2*$B$47*$J$43*(H6^2)))</f>
+        <f t="shared" si="5"/>
         <v>1.1971426318914034</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="34"/>
       <c r="M6" s="35">
-        <f>(K6/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N6" s="36">
-        <f>((K6*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O6" s="38" t="e">
-        <f>((L6*$C$46)/(2*$C$47*$J$43*(M6^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P6" s="37">
@@ -5789,29 +5789,29 @@
         <v>187.15303100000003</v>
       </c>
       <c r="R6" s="35">
-        <f>(P6/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>5.2615982066970005E-2</v>
       </c>
       <c r="S6" s="35">
-        <f>((P6*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>216.92781962678291</v>
       </c>
       <c r="T6" s="66">
-        <f>((Q6*$C$46)/(2*$C$47*$J$43*(R6^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.99833555737035307</v>
       </c>
       <c r="U6" s="39"/>
       <c r="V6" s="40"/>
       <c r="W6" s="40">
-        <f>(U6/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X6" s="40">
-        <f>((U6*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y6" s="68" t="e">
-        <f>((V6*$D$46)/(2*$D$47*$J$43*(W6^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z6" s="41">
@@ -5821,29 +5821,29 @@
         <v>124.5</v>
       </c>
       <c r="AB6" s="41">
-        <f>(Z6/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>4.9366484096919933E-2</v>
       </c>
       <c r="AC6" s="41">
-        <f>((Z6*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>254.39468456603916</v>
       </c>
       <c r="AD6" s="41">
-        <f>((AA6*$D$46)/(2*$D$47*$J$43*(AB6^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.94297082689409195</v>
       </c>
       <c r="AE6" s="42"/>
       <c r="AF6" s="43"/>
       <c r="AG6" s="43">
-        <f>(AE6/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH6" s="43">
-        <f>((AE6*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI6" s="69" t="e">
-        <f>((AF6*$E$46)/(2*$E$47*$J$43*(AG6^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ6" s="44">
@@ -5853,31 +5853,31 @@
         <v>175.719413</v>
       </c>
       <c r="AL6" s="44">
-        <f>(AJ6/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>6.7843502870411965E-2</v>
       </c>
       <c r="AM6" s="44">
-        <f>((AJ6*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>414.99145552099503</v>
       </c>
       <c r="AN6" s="44">
-        <f>((AK6*$E$46)/(2*$E$47*$J$43*(AL6^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.83647232177128905</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="27"/>
       <c r="C7" s="28">
-        <f>(A7/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="29">
-        <f>((A7*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E7" s="65" t="e">
-        <f>((B7*$B$46)/(2*$B$47*$J$43*(C7^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F7" s="32">
@@ -5887,29 +5887,29 @@
         <v>493.28894700000001</v>
       </c>
       <c r="H7" s="31">
-        <f>(F7/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>6.7104835495632578E-2</v>
       </c>
       <c r="I7" s="31">
-        <f>((F7*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>196.15968039070859</v>
       </c>
       <c r="J7" s="30">
-        <f>((G7*$B$46)/(2*$B$47*$J$43*(H7^2)))</f>
+        <f t="shared" si="5"/>
         <v>1.1470098498254522</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="34"/>
       <c r="M7" s="35">
-        <f>(K7/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N7" s="36">
-        <f>((K7*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O7" s="38" t="e">
-        <f>((L7*$C$46)/(2*$C$47*$J$43*(M7^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P7" s="37">
@@ -5919,29 +5919,29 @@
         <v>234.18391599999998</v>
       </c>
       <c r="R7" s="35">
-        <f>(P7/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>6.0132550933680001E-2</v>
       </c>
       <c r="S7" s="35">
-        <f>((P7*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>247.91750814489475</v>
       </c>
       <c r="T7" s="66">
-        <f>((Q7*$C$46)/(2*$C$47*$J$43*(R7^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.95642923900239329</v>
       </c>
       <c r="U7" s="39"/>
       <c r="V7" s="40"/>
       <c r="W7" s="40">
-        <f>(U7/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X7" s="40">
-        <f>((U7*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y7" s="68" t="e">
-        <f>((V7*$D$46)/(2*$D$47*$J$43*(W7^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z7" s="41">
@@ -5951,29 +5951,29 @@
         <v>156.83000000000001</v>
       </c>
       <c r="AB7" s="41">
-        <f>(Z7/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>5.6418838967908495E-2</v>
       </c>
       <c r="AC7" s="41">
-        <f>((Z7*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>290.73678236118758</v>
       </c>
       <c r="AD7" s="41">
-        <f>((AA7*$D$46)/(2*$D$47*$J$43*(AB7^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.90944021389410434</v>
       </c>
       <c r="AE7" s="42"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="43">
-        <f>(AE7/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH7" s="43">
-        <f>((AE7*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI7" s="69" t="e">
-        <f>((AF7*$E$46)/(2*$E$47*$J$43*(AG7^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ7" s="44">
@@ -5983,31 +5983,31 @@
         <v>261.324524</v>
       </c>
       <c r="AL7" s="44">
-        <f>(AJ7/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>8.4804378588014956E-2</v>
       </c>
       <c r="AM7" s="44">
-        <f>((AJ7*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>518.73931940124373</v>
       </c>
       <c r="AN7" s="44">
-        <f>((AK7*$E$46)/(2*$E$47*$J$43*(AL7^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.79614463570212601</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28">
-        <f>(A8/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8" s="29">
-        <f>((A8*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8" s="65" t="e">
-        <f>((B8*$B$46)/(2*$B$47*$J$43*(C8^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F8" s="32">
@@ -6017,29 +6017,29 @@
         <v>603.33843200000001</v>
       </c>
       <c r="H8" s="31">
-        <f>(F8/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>7.5492939932586642E-2</v>
       </c>
       <c r="I8" s="31">
-        <f>((F8*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>220.67964043954711</v>
       </c>
       <c r="J8" s="30">
-        <f>((G8*$B$46)/(2*$B$47*$J$43*(H8^2)))</f>
+        <f t="shared" si="5"/>
         <v>1.1084642944940528</v>
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="34"/>
       <c r="M8" s="35">
-        <f>(K8/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N8" s="36">
-        <f>((K8*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O8" s="38" t="e">
-        <f>((L8*$C$46)/(2*$C$47*$J$43*(M8^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P8" s="37">
@@ -6049,29 +6049,29 @@
         <v>288.839111</v>
       </c>
       <c r="R8" s="35">
-        <f>(P8/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>6.7649119800389998E-2</v>
       </c>
       <c r="S8" s="35">
-        <f>((P8*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>278.90719666300657</v>
       </c>
       <c r="T8" s="66">
-        <f>((Q8*$C$46)/(2*$C$47*$J$43*(R8^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.9320661485745817</v>
       </c>
       <c r="U8" s="39"/>
       <c r="V8" s="40"/>
       <c r="W8" s="40">
-        <f>(U8/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X8" s="40">
-        <f>((U8*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y8" s="68" t="e">
-        <f>((V8*$D$46)/(2*$D$47*$J$43*(W8^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z8" s="41">
@@ -6081,29 +6081,29 @@
         <v>193.6</v>
       </c>
       <c r="AB8" s="41">
-        <f>(Z8/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>6.3471193838897044E-2</v>
       </c>
       <c r="AC8" s="41">
-        <f>((Z8*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>327.07888015633603</v>
       </c>
       <c r="AD8" s="41">
-        <f>((AA8*$D$46)/(2*$D$47*$J$43*(AB8^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.88704432071477191</v>
       </c>
       <c r="AE8" s="42"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="43">
-        <f>(AE8/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH8" s="43">
-        <f>((AE8*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI8" s="69" t="e">
-        <f>((AF8*$E$46)/(2*$E$47*$J$43*(AG8^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ8" s="44">
@@ -6113,31 +6113,31 @@
         <v>362.73926</v>
       </c>
       <c r="AL8" s="44">
-        <f>(AJ8/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>0.10176525430561795</v>
       </c>
       <c r="AM8" s="44">
-        <f>((AJ8*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>622.48718328149243</v>
       </c>
       <c r="AN8" s="44">
-        <f>((AK8*$E$46)/(2*$E$47*$J$43*(AL8^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.76743901814726079</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28">
-        <f>(A9/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D9" s="29">
-        <f>((A9*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9" s="65" t="e">
-        <f>((B9*$B$46)/(2*$B$47*$J$43*(C9^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F9" s="32">
@@ -6147,29 +6147,29 @@
         <v>722.01938299999995</v>
       </c>
       <c r="H9" s="31">
-        <f>(F9/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>8.3881044369540733E-2</v>
       </c>
       <c r="I9" s="31">
-        <f>((F9*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>245.19960048838573</v>
       </c>
       <c r="J9" s="30">
-        <f>((G9*$B$46)/(2*$B$47*$J$43*(H9^2)))</f>
+        <f t="shared" si="5"/>
         <v>1.0744707405782863</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="34"/>
       <c r="M9" s="35">
-        <f>(K9/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N9" s="36">
-        <f>((K9*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O9" s="38" t="e">
-        <f>((L9*$C$46)/(2*$C$47*$J$43*(M9^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P9" s="37">
@@ -6179,29 +6179,29 @@
         <v>347.038769</v>
       </c>
       <c r="R9" s="35">
-        <f>(P9/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>7.5165688667100009E-2</v>
       </c>
       <c r="S9" s="35">
-        <f>((P9*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>309.89688518111848</v>
       </c>
       <c r="T9" s="66">
-        <f>((Q9*$C$46)/(2*$C$47*$J$43*(R9^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.90709703766743022</v>
       </c>
       <c r="U9" s="39"/>
       <c r="V9" s="40"/>
       <c r="W9" s="40">
-        <f>(U9/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X9" s="40">
-        <f>((U9*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y9" s="68" t="e">
-        <f>((V9*$D$46)/(2*$D$47*$J$43*(W9^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z9" s="41">
@@ -6211,29 +6211,29 @@
         <v>233.6</v>
       </c>
       <c r="AB9" s="41">
-        <f>(Z9/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>7.0523548709885614E-2</v>
       </c>
       <c r="AC9" s="41">
-        <f>((Z9*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>363.42097795148453</v>
       </c>
       <c r="AD9" s="41">
-        <f>((AA9*$D$46)/(2*$D$47*$J$43*(AB9^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.86695753196470182</v>
       </c>
       <c r="AE9" s="42"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="43">
-        <f>(AE9/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH9" s="43">
-        <f>((AE9*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI9" s="69" t="e">
-        <f>((AF9*$E$46)/(2*$E$47*$J$43*(AG9^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ9" s="44">
@@ -6243,31 +6243,31 @@
         <v>479.65449399999994</v>
       </c>
       <c r="AL9" s="44">
-        <f>(AJ9/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>0.11872613002322095</v>
       </c>
       <c r="AM9" s="44">
-        <f>((AJ9*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>726.23504716174136</v>
       </c>
       <c r="AN9" s="44">
-        <f>((AK9*$E$46)/(2*$E$47*$J$43*(AL9^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.74556283611348961</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28">
-        <f>(A10/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10" s="29">
-        <f>((A10*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E10" s="65" t="e">
-        <f>((B10*$B$46)/(2*$B$47*$J$43*(C10^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F10" s="32">
@@ -6277,29 +6277,29 @@
         <v>850.27435100000002</v>
       </c>
       <c r="H10" s="31">
-        <f>(F10/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>9.2269148806494797E-2</v>
       </c>
       <c r="I10" s="31">
-        <f>((F10*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>269.71956053722425</v>
       </c>
       <c r="J10" s="30">
-        <f>((G10*$B$46)/(2*$B$47*$J$43*(H10^2)))</f>
+        <f t="shared" si="5"/>
         <v>1.0457297058964261</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="34"/>
       <c r="M10" s="35">
-        <f>(K10/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N10" s="36">
-        <f>((K10*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O10" s="38" t="e">
-        <f>((L10*$C$46)/(2*$C$47*$J$43*(M10^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P10" s="37">
@@ -6309,29 +6309,29 @@
         <v>411.76295600000003</v>
       </c>
       <c r="R10" s="35">
-        <f>(P10/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>8.2682257533810005E-2</v>
       </c>
       <c r="S10" s="35">
-        <f>((P10*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>340.88657369923027</v>
       </c>
       <c r="T10" s="66">
-        <f>((Q10*$C$46)/(2*$C$47*$J$43*(R10^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.88948301027681353</v>
       </c>
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="40">
-        <f>(U10/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X10" s="40">
-        <f>((U10*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y10" s="68" t="e">
-        <f>((V10*$D$46)/(2*$D$47*$J$43*(W10^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z10" s="41">
@@ -6341,29 +6341,29 @@
         <v>280.60000000000002</v>
       </c>
       <c r="AB10" s="41">
-        <f>(Z10/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>7.757590358087417E-2</v>
       </c>
       <c r="AC10" s="41">
-        <f>((Z10*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>399.76307574663292</v>
       </c>
       <c r="AD10" s="41">
-        <f>((AA10*$D$46)/(2*$D$47*$J$43*(AB10^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.86065140477929136</v>
       </c>
       <c r="AE10" s="42"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="43">
-        <f>(AE10/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH10" s="43">
-        <f>((AE10*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI10" s="69" t="e">
-        <f>((AF10*$E$46)/(2*$E$47*$J$43*(AG10^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ10" s="44">
@@ -6373,31 +6373,31 @@
         <v>611.76517100000001</v>
       </c>
       <c r="AL10" s="44">
-        <f>(AJ10/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>0.13568700574082393</v>
       </c>
       <c r="AM10" s="44">
-        <f>((AJ10*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>829.98291104199006</v>
       </c>
       <c r="AN10" s="44">
-        <f>((AK10*$E$46)/(2*$E$47*$J$43*(AL10^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.72804225814990009</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28">
-        <f>(A11/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D11" s="29">
-        <f>((A11*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="65" t="e">
-        <f>((B11*$B$46)/(2*$B$47*$J$43*(C11^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F11" s="32">
@@ -6407,29 +6407,29 @@
         <v>989.92234600000006</v>
       </c>
       <c r="H11" s="31">
-        <f>(F11/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.10065725324344887</v>
       </c>
       <c r="I11" s="31">
-        <f>((F11*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>294.23952058606289</v>
       </c>
       <c r="J11" s="30">
-        <f>((G11*$B$46)/(2*$B$47*$J$43*(H11^2)))</f>
+        <f t="shared" si="5"/>
         <v>1.0230205853359557</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="34"/>
       <c r="M11" s="35">
-        <f>(K11/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N11" s="36">
-        <f>((K11*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O11" s="38" t="e">
-        <f>((L11*$C$46)/(2*$C$47*$J$43*(M11^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P11" s="37">
@@ -6439,29 +6439,29 @@
         <v>484.57939399999998</v>
       </c>
       <c r="R11" s="35">
-        <f>(P11/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>9.0198826400520002E-2</v>
       </c>
       <c r="S11" s="35">
-        <f>((P11*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>371.87626221734212</v>
       </c>
       <c r="T11" s="66">
-        <f>((Q11*$C$46)/(2*$C$47*$J$43*(R11^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.87958579062498887</v>
       </c>
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="40">
-        <f>(U11/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X11" s="40">
-        <f>((U11*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y11" s="68" t="e">
-        <f>((V11*$D$46)/(2*$D$47*$J$43*(W11^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z11" s="41">
@@ -6471,29 +6471,29 @@
         <v>324.7</v>
       </c>
       <c r="AB11" s="41">
-        <f>(Z11/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>8.462825845186274E-2</v>
       </c>
       <c r="AC11" s="41">
-        <f>((Z11*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>436.10517354178143</v>
       </c>
       <c r="AD11" s="41">
-        <f>((AA11*$D$46)/(2*$D$47*$J$43*(AB11^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.83684453074146992</v>
       </c>
       <c r="AE11" s="42"/>
       <c r="AF11" s="43"/>
       <c r="AG11" s="43">
-        <f>(AE11/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH11" s="43">
-        <f>((AE11*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI11" s="69" t="e">
-        <f>((AF11*$E$46)/(2*$E$47*$J$43*(AG11^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ11" s="44">
@@ -6503,31 +6503,31 @@
         <v>758.728746</v>
       </c>
       <c r="AL11" s="44">
-        <f>(AJ11/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>0.15264788145842692</v>
       </c>
       <c r="AM11" s="44">
-        <f>((AJ11*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>933.73077492223877</v>
       </c>
       <c r="AN11" s="44">
-        <f>((AK11*$E$46)/(2*$E$47*$J$43*(AL11^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.71343322947770293</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28">
-        <f>(A12/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D12" s="29">
-        <f>((A12*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12" s="65" t="e">
-        <f>((B12*$B$46)/(2*$B$47*$J$43*(C12^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F12" s="32">
@@ -6537,29 +6537,29 @@
         <v>1137.5726749999999</v>
       </c>
       <c r="H12" s="31">
-        <f>(F12/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.10904535768040294</v>
       </c>
       <c r="I12" s="31">
-        <f>((F12*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>318.75948063490142</v>
       </c>
       <c r="J12" s="30">
-        <f>((G12*$B$46)/(2*$B$47*$J$43*(H12^2)))</f>
+        <f t="shared" si="5"/>
         <v>1.001701176525573</v>
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="34"/>
       <c r="M12" s="35">
-        <f>(K12/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N12" s="36">
-        <f>((K12*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O12" s="38" t="e">
-        <f>((L12*$C$46)/(2*$C$47*$J$43*(M12^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P12" s="37">
@@ -6569,29 +6569,29 @@
         <v>559.28774800000008</v>
       </c>
       <c r="R12" s="35">
-        <f>(P12/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>9.7715395267229999E-2</v>
       </c>
       <c r="S12" s="35">
-        <f>((P12*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>402.86595073545391</v>
       </c>
       <c r="T12" s="66">
-        <f>((Q12*$C$46)/(2*$C$47*$J$43*(R12^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.86501642800586931</v>
       </c>
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="40">
-        <f>(U12/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X12" s="40">
-        <f>((U12*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y12" s="68" t="e">
-        <f>((V12*$D$46)/(2*$D$47*$J$43*(W12^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z12" s="41">
@@ -6601,29 +6601,29 @@
         <v>383</v>
       </c>
       <c r="AB12" s="41">
-        <f>(Z12/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>9.1680613322851295E-2</v>
       </c>
       <c r="AC12" s="41">
-        <f>((Z12*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>472.44727133692982</v>
       </c>
       <c r="AD12" s="41">
-        <f>((AA12*$D$46)/(2*$D$47*$J$43*(AB12^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.84107951371504619</v>
       </c>
       <c r="AE12" s="42"/>
       <c r="AF12" s="43"/>
       <c r="AG12" s="43">
-        <f>(AE12/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH12" s="43">
-        <f>((AE12*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI12" s="69" t="e">
-        <f>((AF12*$E$46)/(2*$E$47*$J$43*(AG12^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ12" s="44">
@@ -6633,31 +6633,31 @@
         <v>920.35295500000007</v>
       </c>
       <c r="AL12" s="44">
-        <f>(AJ12/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>0.16960875717602991</v>
       </c>
       <c r="AM12" s="44">
-        <f>((AJ12*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>1037.4786388024875</v>
       </c>
       <c r="AN12" s="44">
-        <f>((AK12*$E$46)/(2*$E$47*$J$43*(AL12^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.70098096502784624</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="28">
-        <f>(A13/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="29">
-        <f>((A13*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E13" s="65" t="e">
-        <f>((B13*$B$46)/(2*$B$47*$J$43*(C13^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="32">
@@ -6667,29 +6667,29 @@
         <v>1296.4593010000001</v>
       </c>
       <c r="H13" s="31">
-        <f>(F13/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.11743346211735702</v>
       </c>
       <c r="I13" s="31">
-        <f>((F13*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>343.27944068374006</v>
       </c>
       <c r="J13" s="30">
-        <f>((G13*$B$46)/(2*$B$47*$J$43*(H13^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.98434775088661397</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="34"/>
       <c r="M13" s="35">
-        <f>(K13/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N13" s="36">
-        <f>((K13*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O13" s="38" t="e">
-        <f>((L13*$C$46)/(2*$C$47*$J$43*(M13^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P13" s="37">
@@ -6699,29 +6699,29 @@
         <v>632.29990700000008</v>
       </c>
       <c r="R13" s="35">
-        <f>(P13/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>0.10523196413394001</v>
       </c>
       <c r="S13" s="35">
-        <f>((P13*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>433.85563925356581</v>
       </c>
       <c r="T13" s="66">
-        <f>((Q13*$C$46)/(2*$C$47*$J$43*(R13^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.84322369334225133</v>
       </c>
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="40">
-        <f>(U13/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X13" s="40">
-        <f>((U13*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y13" s="68" t="e">
-        <f>((V13*$D$46)/(2*$D$47*$J$43*(W13^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z13" s="41">
@@ -6731,29 +6731,29 @@
         <v>437</v>
       </c>
       <c r="AB13" s="41">
-        <f>(Z13/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>9.8732968193839865E-2</v>
       </c>
       <c r="AC13" s="41">
-        <f>((Z13*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>508.78936913207832</v>
       </c>
       <c r="AD13" s="41">
-        <f>((AA13*$D$46)/(2*$D$47*$J$43*(AB13^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.82746636817814889</v>
       </c>
       <c r="AE13" s="42"/>
       <c r="AF13" s="43"/>
       <c r="AG13" s="43">
-        <f>(AE13/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH13" s="43">
-        <f>((AE13*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI13" s="69" t="e">
-        <f>((AF13*$E$46)/(2*$E$47*$J$43*(AG13^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ13" s="44">
@@ -6763,31 +6763,31 @@
         <v>1096.473731</v>
       </c>
       <c r="AL13" s="44">
-        <f>(AJ13/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>0.1865696328936329</v>
       </c>
       <c r="AM13" s="44">
-        <f>((AJ13*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>1141.2265026827363</v>
       </c>
       <c r="AN13" s="44">
-        <f>((AK13*$E$46)/(2*$E$47*$J$43*(AL13^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.69018366287876232</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
       <c r="C14" s="28">
-        <f>(A14/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14" s="29">
-        <f>((A14*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14" s="65" t="e">
-        <f>((B14*$B$46)/(2*$B$47*$J$43*(C14^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="32">
@@ -6797,29 +6797,29 @@
         <v>1465.944031</v>
       </c>
       <c r="H14" s="31">
-        <f>(F14/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.12582156655431109</v>
       </c>
       <c r="I14" s="31">
-        <f>((F14*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>367.79940073257853</v>
       </c>
       <c r="J14" s="30">
-        <f>((G14*$B$46)/(2*$B$47*$J$43*(H14^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.96957321258869467</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="34"/>
       <c r="M14" s="35">
-        <f>(K14/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N14" s="36">
-        <f>((K14*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O14" s="38" t="e">
-        <f>((L14*$C$46)/(2*$C$47*$J$43*(M14^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P14" s="37">
@@ -6829,29 +6829,29 @@
         <v>718.37709499999994</v>
       </c>
       <c r="R14" s="35">
-        <f>(P14/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>0.11274853300065001</v>
       </c>
       <c r="S14" s="35">
-        <f>((P14*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>464.84532777167766</v>
       </c>
       <c r="T14" s="66">
-        <f>((Q14*$C$46)/(2*$C$47*$J$43*(R14^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.83453722435084166</v>
       </c>
       <c r="U14" s="39"/>
       <c r="V14" s="40"/>
       <c r="W14" s="40">
-        <f>(U14/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X14" s="40">
-        <f>((U14*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y14" s="68" t="e">
-        <f>((V14*$D$46)/(2*$D$47*$J$43*(W14^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z14" s="41">
@@ -6861,29 +6861,29 @@
         <v>501.5</v>
       </c>
       <c r="AB14" s="41">
-        <f>(Z14/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>0.10578532306482842</v>
       </c>
       <c r="AC14" s="41">
-        <f>((Z14*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>545.13146692722671</v>
       </c>
       <c r="AD14" s="41">
-        <f>((AA14*$D$46)/(2*$D$47*$J$43*(AB14^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.82720548379052117</v>
       </c>
       <c r="AE14" s="42"/>
       <c r="AF14" s="43"/>
       <c r="AG14" s="43">
-        <f>(AE14/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH14" s="43">
-        <f>((AE14*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI14" s="69" t="e">
-        <f>((AF14*$E$46)/(2*$E$47*$J$43*(AG14^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ14" s="44">
@@ -6893,31 +6893,31 @@
         <v>1287.0207039999998</v>
       </c>
       <c r="AL14" s="44">
-        <f>(AJ14/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>0.20353050861123589</v>
       </c>
       <c r="AM14" s="44">
-        <f>((AJ14*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>1244.9743665629849</v>
       </c>
       <c r="AN14" s="44">
-        <f>((AK14*$E$46)/(2*$E$47*$J$43*(AL14^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.68072994457021019</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28">
-        <f>(A15/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" s="29">
-        <f>((A15*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" s="65" t="e">
-        <f>((B15*$B$46)/(2*$B$47*$J$43*(C15^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="32">
@@ -6927,29 +6927,29 @@
         <v>1652.2766590000001</v>
       </c>
       <c r="H15" s="31">
-        <f>(F15/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.13420967099126516</v>
       </c>
       <c r="I15" s="31">
-        <f>((F15*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>392.31936078141717</v>
       </c>
       <c r="J15" s="30">
-        <f>((G15*$B$46)/(2*$B$47*$J$43*(H15^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.96048047196042785</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="34"/>
       <c r="M15" s="35">
-        <f>(K15/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N15" s="36">
-        <f>((K15*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O15" s="38" t="e">
-        <f>((L15*$C$46)/(2*$C$47*$J$43*(M15^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P15" s="37">
@@ -6959,29 +6959,29 @@
         <v>816.47714599999995</v>
       </c>
       <c r="R15" s="35">
-        <f>(P15/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>0.12026510186736</v>
       </c>
       <c r="S15" s="35">
-        <f>((P15*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>495.83501628978951</v>
       </c>
       <c r="T15" s="66">
-        <f>((Q15*$C$46)/(2*$C$47*$J$43*(R15^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.83364245157172323</v>
       </c>
       <c r="U15" s="39"/>
       <c r="V15" s="40"/>
       <c r="W15" s="40">
-        <f>(U15/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X15" s="40">
-        <f>((U15*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y15" s="68" t="e">
-        <f>((V15*$D$46)/(2*$D$47*$J$43*(W15^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z15" s="41">
@@ -6991,29 +6991,29 @@
         <v>562.79999999999995</v>
       </c>
       <c r="AB15" s="41">
-        <f>(Z15/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>0.11283767793581699</v>
       </c>
       <c r="AC15" s="41">
-        <f>((Z15*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>581.47356472237516</v>
       </c>
       <c r="AD15" s="41">
-        <f>((AA15*$D$46)/(2*$D$47*$J$43*(AB15^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.81590408783332558</v>
       </c>
       <c r="AE15" s="42"/>
       <c r="AF15" s="43"/>
       <c r="AG15" s="43">
-        <f>(AE15/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH15" s="43">
-        <f>((AE15*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI15" s="69" t="e">
-        <f>((AF15*$E$46)/(2*$E$47*$J$43*(AG15^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ15" s="44">
@@ -7023,31 +7023,31 @@
         <v>1491.847027</v>
       </c>
       <c r="AL15" s="44">
-        <f>(AJ15/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>0.22049138432883889</v>
       </c>
       <c r="AM15" s="44">
-        <f>((AJ15*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>1348.7222304432339</v>
       </c>
       <c r="AN15" s="44">
-        <f>((AK15*$E$46)/(2*$E$47*$J$43*(AL15^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.67234070073325014</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28">
-        <f>(A16/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16" s="29">
-        <f>((A16*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16" s="65" t="e">
-        <f>((B16*$B$46)/(2*$B$47*$J$43*(C16^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F16" s="32">
@@ -7057,29 +7057,29 @@
         <v>1829.4669959999999</v>
       </c>
       <c r="H16" s="31">
-        <f>(F16/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.14259777542821925</v>
       </c>
       <c r="I16" s="31">
-        <f>((F16*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>416.83932083025576</v>
       </c>
       <c r="J16" s="30">
-        <f>((G16*$B$46)/(2*$B$47*$J$43*(H16^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.94204678830582966</v>
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="34"/>
       <c r="M16" s="35">
-        <f>(K16/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N16" s="36">
-        <f>((K16*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O16" s="38" t="e">
-        <f>((L16*$C$46)/(2*$C$47*$J$43*(M16^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" s="37">
@@ -7089,29 +7089,29 @@
         <v>908.58201899999995</v>
       </c>
       <c r="R16" s="35">
-        <f>(P16/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>0.12778167073407001</v>
       </c>
       <c r="S16" s="35">
-        <f>((P16*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>526.82470480790141</v>
       </c>
       <c r="T16" s="66">
-        <f>((Q16*$C$46)/(2*$C$47*$J$43*(R16^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.82175442155397582</v>
       </c>
       <c r="U16" s="39"/>
       <c r="V16" s="40"/>
       <c r="W16" s="40">
-        <f>(U16/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X16" s="40">
-        <f>((U16*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y16" s="68" t="e">
-        <f>((V16*$D$46)/(2*$D$47*$J$43*(W16^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z16" s="41">
@@ -7121,29 +7121,29 @@
         <v>630</v>
       </c>
       <c r="AB16" s="41">
-        <f>(Z16/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>0.11989003280680556</v>
       </c>
       <c r="AC16" s="41">
-        <f>((Z16*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>617.81566251752372</v>
       </c>
       <c r="AD16" s="41">
-        <f>((AA16*$D$46)/(2*$D$47*$J$43*(AB16^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.80903571173887556</v>
       </c>
       <c r="AE16" s="42"/>
       <c r="AF16" s="43"/>
       <c r="AG16" s="43">
-        <f>(AE16/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH16" s="43">
-        <f>((AE16*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI16" s="69" t="e">
-        <f>((AF16*$E$46)/(2*$E$47*$J$43*(AG16^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ16" s="44">
@@ -7153,31 +7153,31 @@
         <v>1710.8197</v>
       </c>
       <c r="AL16" s="44">
-        <f>(AJ16/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>0.2374522600464419</v>
       </c>
       <c r="AM16" s="44">
-        <f>((AJ16*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>1452.4700943234827</v>
       </c>
       <c r="AN16" s="44">
-        <f>((AK16*$E$46)/(2*$E$47*$J$43*(AL16^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.66481373757900697</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28">
-        <f>(A17/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="29">
-        <f>((A17*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E17" s="65" t="e">
-        <f>((B17*$B$46)/(2*$B$47*$J$43*(C17^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="32">
@@ -7187,29 +7187,29 @@
         <v>2032.3769530000002</v>
       </c>
       <c r="H17" s="31">
-        <f>(F17/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.15098587986517328</v>
       </c>
       <c r="I17" s="31">
-        <f>((F17*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>441.35928087909423</v>
       </c>
       <c r="J17" s="30">
-        <f>((G17*$B$46)/(2*$B$47*$J$43*(H17^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.93347993674349516</v>
       </c>
       <c r="K17" s="33"/>
       <c r="L17" s="34"/>
       <c r="M17" s="35">
-        <f>(K17/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N17" s="36">
-        <f>((K17*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O17" s="38" t="e">
-        <f>((L17*$C$46)/(2*$C$47*$J$43*(M17^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" s="37">
@@ -7219,29 +7219,29 @@
         <v>1010.0415380000001</v>
       </c>
       <c r="R17" s="35">
-        <f>(P17/($J$43*$C$45))</f>
+        <f t="shared" si="9"/>
         <v>0.13529823960078</v>
       </c>
       <c r="S17" s="35">
-        <f>((P17*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="10"/>
         <v>557.81439332601315</v>
       </c>
       <c r="T17" s="66">
-        <f>((Q17*$C$46)/(2*$C$47*$J$43*(R17^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.81483556967464066</v>
       </c>
       <c r="U17" s="39"/>
       <c r="V17" s="40"/>
       <c r="W17" s="40">
-        <f>(U17/($J$43*$D$45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X17" s="40">
-        <f>((U17*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y17" s="68" t="e">
-        <f>((V17*$D$46)/(2*$D$47*$J$43*(W17^2)))</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z17" s="41">
@@ -7251,29 +7251,29 @@
         <v>703.3</v>
       </c>
       <c r="AB17" s="41">
-        <f>(Z17/($J$43*$D$45))</f>
+        <f t="shared" si="15"/>
         <v>0.12694238767779409</v>
       </c>
       <c r="AC17" s="41">
-        <f>((Z17*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="16"/>
         <v>654.15776031267205</v>
       </c>
       <c r="AD17" s="41">
-        <f>((AA17*$D$46)/(2*$D$47*$J$43*(AB17^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.80560210583509695</v>
       </c>
       <c r="AE17" s="42"/>
       <c r="AF17" s="43"/>
       <c r="AG17" s="43">
-        <f>(AE17/($J$43*$E$45))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH17" s="43">
-        <f>((AE17*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI17" s="69" t="e">
-        <f>((AF17*$E$46)/(2*$E$47*$J$43*(AG17^2)))</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ17" s="44">
@@ -7283,31 +7283,31 @@
         <v>1944.1931589999999</v>
       </c>
       <c r="AL17" s="44">
-        <f>(AJ17/($J$43*$E$45))</f>
+        <f t="shared" si="21"/>
         <v>0.25441313576404484</v>
       </c>
       <c r="AM17" s="44">
-        <f>((AJ17*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="22"/>
         <v>1556.2179582037313</v>
       </c>
       <c r="AN17" s="44">
-        <f>((AK17*$E$46)/(2*$E$47*$J$43*(AL17^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.65812548177181873</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28">
-        <f>(A18/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="29">
-        <f>((A18*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18" s="65" t="e">
-        <f>((B18*$B$46)/(2*$B$47*$J$43*(C18^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="32">
@@ -7317,29 +7317,29 @@
         <v>2239.8599469999999</v>
       </c>
       <c r="H18" s="31">
-        <f>(F18/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.15937398430212737</v>
       </c>
       <c r="I18" s="31">
-        <f>((F18*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>465.87924092793287</v>
       </c>
       <c r="J18" s="30">
-        <f>((G18*$B$46)/(2*$B$47*$J$43*(H18^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.92333521376119465</v>
       </c>
       <c r="K18" s="33"/>
       <c r="L18" s="34"/>
       <c r="M18" s="35">
-        <f>(K18/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N18" s="36">
-        <f>((K18*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O18" s="38" t="e">
-        <f>((L18*$C$46)/(2*$C$47*$J$43*(M18^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P18" s="37">
@@ -7349,29 +7349,29 @@
         <v>1106.86995</v>
       </c>
       <c r="R18" s="35">
-        <f t="shared" ref="R18:R33" si="0">(P18/($J$43*$C$45))</f>
+        <f t="shared" ref="R18:R33" si="24">(P18/($J$43*$C$45))</f>
         <v>0.14281480846749001</v>
       </c>
       <c r="S18" s="35">
-        <f t="shared" ref="S18:S33" si="1">((P18*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" ref="S18:S33" si="25">((P18*$C$46)/($G$43*$C$45))</f>
         <v>588.80408184412499</v>
       </c>
       <c r="T18" s="66">
-        <f t="shared" ref="T18:T33" si="2">((Q18*$C$46)/(2*$C$47*$J$43*(R18^2)))</f>
+        <f t="shared" ref="T18:T33" si="26">((Q18*$C$46)/(2*$C$47*$J$43*(R18^2)))</f>
         <v>0.80142917754396259</v>
       </c>
       <c r="U18" s="39"/>
       <c r="V18" s="40"/>
       <c r="W18" s="40">
-        <f t="shared" ref="W18:W33" si="3">(U18/($J$43*$D$45))</f>
+        <f t="shared" ref="W18:W33" si="27">(U18/($J$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="X18" s="40">
-        <f t="shared" ref="X18:X33" si="4">((U18*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="X18:X33" si="28">((U18*$D$46)/($G$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="Y18" s="68" t="e">
-        <f t="shared" ref="Y18:Y33" si="5">((V18*$D$46)/(2*$D$47*$J$43*(W18^2)))</f>
+        <f t="shared" ref="Y18:Y33" si="29">((V18*$D$46)/(2*$D$47*$J$43*(W18^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z18" s="41">
@@ -7381,15 +7381,15 @@
         <v>770.56</v>
       </c>
       <c r="AB18" s="41">
-        <f t="shared" ref="AB18:AB33" si="6">(Z18/($J$43*$D$45))</f>
+        <f t="shared" ref="AB18:AB33" si="30">(Z18/($J$43*$D$45))</f>
         <v>0.13399474254878266</v>
       </c>
       <c r="AC18" s="41">
-        <f t="shared" ref="AC18:AC33" si="7">((Z18*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="AC18:AC33" si="31">((Z18*$D$46)/($G$43*$D$45))</f>
         <v>690.4998581078205</v>
       </c>
       <c r="AD18" s="41">
-        <f t="shared" ref="AD18:AD33" si="8">((AA18*$D$46)/(2*$D$47*$J$43*(AB18^2)))</f>
+        <f t="shared" ref="AD18:AD33" si="32">((AA18*$D$46)/(2*$D$47*$J$43*(AB18^2)))</f>
         <v>0.79218067657230751</v>
       </c>
       <c r="AE18" s="42"/>
@@ -7403,19 +7403,19 @@
       <c r="AM18" s="44"/>
       <c r="AN18" s="44"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28">
-        <f>(A19/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="29">
-        <f>((A19*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19" s="65" t="e">
-        <f>((B19*$B$46)/(2*$B$47*$J$43*(C19^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="32">
@@ -7425,29 +7425,29 @@
         <v>2454.5601419999998</v>
       </c>
       <c r="H19" s="31">
-        <f>(F19/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.16776208873908147</v>
       </c>
       <c r="I19" s="31">
-        <f>((F19*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>490.39920097677145</v>
       </c>
       <c r="J19" s="30">
-        <f>((G19*$B$46)/(2*$B$47*$J$43*(H19^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.91318637548567161</v>
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="34"/>
       <c r="M19" s="35">
-        <f>(K19/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N19" s="36">
-        <f>((K19*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O19" s="38" t="e">
-        <f>((L19*$C$46)/(2*$C$47*$J$43*(M19^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="37">
@@ -7457,29 +7457,29 @@
         <v>1206.9695710000001</v>
       </c>
       <c r="R19" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.15033137733420002</v>
       </c>
       <c r="S19" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>619.79377036223696</v>
       </c>
       <c r="T19" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.78870044229037506</v>
       </c>
       <c r="U19" s="39"/>
       <c r="V19" s="40"/>
       <c r="W19" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X19" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y19" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z19" s="41">
@@ -7489,15 +7489,15 @@
         <v>876.89</v>
       </c>
       <c r="AB19" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.14104709741977123</v>
       </c>
       <c r="AC19" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>726.84195590296906</v>
       </c>
       <c r="AD19" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.81359844842094109</v>
       </c>
       <c r="AE19" s="42"/>
@@ -7511,19 +7511,19 @@
       <c r="AM19" s="44"/>
       <c r="AN19" s="44"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28">
-        <f>(A20/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20" s="29">
-        <f>((A20*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20" s="65" t="e">
-        <f>((B20*$B$46)/(2*$B$47*$J$43*(C20^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="32">
@@ -7533,29 +7533,29 @@
         <v>2682.5190980000002</v>
       </c>
       <c r="H20" s="31">
-        <f>(F20/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.17615019317603553</v>
       </c>
       <c r="I20" s="31">
-        <f>((F20*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>514.91916102561004</v>
       </c>
       <c r="J20" s="30">
-        <f>((G20*$B$46)/(2*$B$47*$J$43*(H20^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.90521130685705553</v>
       </c>
       <c r="K20" s="33"/>
       <c r="L20" s="34"/>
       <c r="M20" s="35">
-        <f>(K20/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N20" s="36">
-        <f>((K20*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O20" s="38" t="e">
-        <f>((L20*$C$46)/(2*$C$47*$J$43*(M20^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="37">
@@ -7565,29 +7565,29 @@
         <v>1322.7979130000001</v>
       </c>
       <c r="R20" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.15784794620091003</v>
       </c>
       <c r="S20" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>650.7834588803488</v>
       </c>
       <c r="T20" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.78402636287472427</v>
       </c>
       <c r="U20" s="39"/>
       <c r="V20" s="40"/>
       <c r="W20" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X20" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y20" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z20" s="41">
@@ -7597,15 +7597,15 @@
         <v>946</v>
       </c>
       <c r="AB20" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.1480994522907598</v>
       </c>
       <c r="AC20" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>763.18405369811751</v>
       </c>
       <c r="AD20" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.79611816353575282</v>
       </c>
       <c r="AE20" s="42"/>
@@ -7619,19 +7619,19 @@
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28">
-        <f>(A21/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D21" s="29">
-        <f>((A21*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" s="65" t="e">
-        <f>((B21*$B$46)/(2*$B$47*$J$43*(C21^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="32">
@@ -7641,29 +7641,29 @@
         <v>2907.2854909999996</v>
       </c>
       <c r="H21" s="31">
-        <f>(F21/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.18453829761298959</v>
       </c>
       <c r="I21" s="31">
-        <f>((F21*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>539.43912107444851</v>
       </c>
       <c r="J21" s="30">
-        <f>((G21*$B$46)/(2*$B$47*$J$43*(H21^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.8938981864749842</v>
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="34"/>
       <c r="M21" s="35">
-        <f>(K21/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N21" s="36">
-        <f>((K21*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O21" s="38" t="e">
-        <f>((L21*$C$46)/(2*$C$47*$J$43*(M21^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="37">
@@ -7673,29 +7673,29 @@
         <v>1456.1470840000002</v>
       </c>
       <c r="R21" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.16536451506762001</v>
       </c>
       <c r="S21" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>681.77314739846054</v>
       </c>
       <c r="T21" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.78638575472177985</v>
       </c>
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
       <c r="W21" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X21" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y21" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z21" s="41">
@@ -7705,15 +7705,15 @@
         <v>1046</v>
       </c>
       <c r="AB21" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.15515180716174834</v>
       </c>
       <c r="AC21" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>799.52615149326584</v>
       </c>
       <c r="AD21" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.80206821935062245</v>
       </c>
       <c r="AE21" s="42"/>
@@ -7727,19 +7727,19 @@
       <c r="AM21" s="44"/>
       <c r="AN21" s="44"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28">
-        <f>(A22/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22" s="29">
-        <f>((A22*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E22" s="65" t="e">
-        <f>((B22*$B$46)/(2*$B$47*$J$43*(C22^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="32">
@@ -7749,29 +7749,29 @@
         <v>3154.9100370000001</v>
       </c>
       <c r="H22" s="31">
-        <f>(F22/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.19292640204994366</v>
       </c>
       <c r="I22" s="31">
-        <f>((F22*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>563.95908112328721</v>
       </c>
       <c r="J22" s="30">
-        <f>((G22*$B$46)/(2*$B$47*$J$43*(H22^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.88751774406624317</v>
       </c>
       <c r="K22" s="33"/>
       <c r="L22" s="34"/>
       <c r="M22" s="35">
-        <f>(K22/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N22" s="36">
-        <f>((K22*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O22" s="38" t="e">
-        <f>((L22*$C$46)/(2*$C$47*$J$43*(M22^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="37">
@@ -7781,29 +7781,29 @@
         <v>1564.378064</v>
       </c>
       <c r="R22" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.17288108393432999</v>
       </c>
       <c r="S22" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>712.76283591657239</v>
       </c>
       <c r="T22" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.77296850730994415</v>
       </c>
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y22" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z22" s="41">
@@ -7813,15 +7813,15 @@
         <v>1113</v>
       </c>
       <c r="AB22" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.16220416203273691</v>
       </c>
       <c r="AC22" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>835.8682492884144</v>
       </c>
       <c r="AD22" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.78084436022081682</v>
       </c>
       <c r="AE22" s="42"/>
@@ -7835,19 +7835,19 @@
       <c r="AM22" s="44"/>
       <c r="AN22" s="44"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28">
-        <f>(A23/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23" s="29">
-        <f>((A23*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23" s="65" t="e">
-        <f>((B23*$B$46)/(2*$B$47*$J$43*(C23^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="32">
@@ -7857,29 +7857,29 @@
         <v>3405.4102220000004</v>
       </c>
       <c r="H23" s="31">
-        <f>(F23/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.20131450648689775</v>
       </c>
       <c r="I23" s="31">
-        <f>((F23*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>588.47904117212579</v>
       </c>
       <c r="J23" s="30">
-        <f>((G23*$B$46)/(2*$B$47*$J$43*(H23^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.87981768789657366</v>
       </c>
       <c r="K23" s="33"/>
       <c r="L23" s="34"/>
       <c r="M23" s="35">
-        <f>(K23/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N23" s="36">
-        <f>((K23*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O23" s="38" t="e">
-        <f>((L23*$C$46)/(2*$C$47*$J$43*(M23^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="37">
@@ -7889,29 +7889,29 @@
         <v>1716.2079779999999</v>
       </c>
       <c r="R23" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.18039765280104</v>
       </c>
       <c r="S23" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>743.75252443468423</v>
       </c>
       <c r="T23" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.77879505912608182</v>
       </c>
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y23" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z23" s="41">
@@ -7921,15 +7921,15 @@
         <v>1215</v>
       </c>
       <c r="AB23" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.16925651690372548</v>
       </c>
       <c r="AC23" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>872.21034708356285</v>
       </c>
       <c r="AD23" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.78285040410447027</v>
       </c>
       <c r="AE23" s="42"/>
@@ -7943,19 +7943,19 @@
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28">
-        <f>(A24/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D24" s="29">
-        <f>((A24*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E24" s="65" t="e">
-        <f>((B24*$B$46)/(2*$B$47*$J$43*(C24^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="32">
@@ -7965,29 +7965,29 @@
         <v>3679.514917</v>
       </c>
       <c r="H24" s="31">
-        <f>(F24/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.20970261092385181</v>
       </c>
       <c r="I24" s="31">
-        <f>((F24*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>612.99900122096426</v>
       </c>
       <c r="J24" s="30">
-        <f>((G24*$B$46)/(2*$B$47*$J$43*(H24^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.87610525942633155</v>
       </c>
       <c r="K24" s="33"/>
       <c r="L24" s="34"/>
       <c r="M24" s="35">
-        <f>(K24/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N24" s="36">
-        <f>((K24*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O24" s="38" t="e">
-        <f>((L24*$C$46)/(2*$C$47*$J$43*(M24^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="37">
@@ -7997,29 +7997,29 @@
         <v>1840.8511000000001</v>
       </c>
       <c r="R24" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.18791422166775001</v>
       </c>
       <c r="S24" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>774.74221295279608</v>
       </c>
       <c r="T24" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.76986468545101616</v>
       </c>
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y24" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z24" s="41">
@@ -8029,15 +8029,15 @@
         <v>1299</v>
       </c>
       <c r="AB24" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.17630887177471405</v>
       </c>
       <c r="AC24" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>908.5524448787113</v>
       </c>
       <c r="AD24" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.77135468083708714</v>
       </c>
       <c r="AE24" s="42"/>
@@ -8051,19 +8051,19 @@
       <c r="AM24" s="44"/>
       <c r="AN24" s="44"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28">
-        <f>(A25/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D25" s="29">
-        <f>((A25*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E25" s="65" t="e">
-        <f>((B25*$B$46)/(2*$B$47*$J$43*(C25^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="32">
@@ -8073,29 +8073,29 @@
         <v>5063.0576199999996</v>
       </c>
       <c r="H25" s="31">
-        <f>(F25/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.25164313310862219</v>
       </c>
       <c r="I25" s="31">
-        <f>((F25*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>735.59880146515707</v>
       </c>
       <c r="J25" s="30">
-        <f>((G25*$B$46)/(2*$B$47*$J$43*(H25^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.83717470420688078</v>
       </c>
       <c r="K25" s="33"/>
       <c r="L25" s="34"/>
       <c r="M25" s="35">
-        <f>(K25/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N25" s="36">
-        <f>((K25*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O25" s="38" t="e">
-        <f>((L25*$C$46)/(2*$C$47*$J$43*(M25^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="37">
@@ -8105,29 +8105,29 @@
         <v>2574.609074</v>
       </c>
       <c r="R25" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.22549706600130001</v>
       </c>
       <c r="S25" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>929.69065554335532</v>
       </c>
       <c r="T25" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.74772954391190971</v>
       </c>
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y25" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z25" s="41">
@@ -8137,15 +8137,15 @@
         <v>1864</v>
       </c>
       <c r="AB25" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.21157064612965684</v>
       </c>
       <c r="AC25" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>1090.2629338544534</v>
       </c>
       <c r="AD25" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.76864956220614733</v>
       </c>
       <c r="AE25" s="42"/>
@@ -8159,19 +8159,19 @@
       <c r="AM25" s="44"/>
       <c r="AN25" s="44"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28">
-        <f>(A26/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D26" s="29">
-        <f>((A26*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26" s="65" t="e">
-        <f>((B26*$B$46)/(2*$B$47*$J$43*(C26^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="32">
@@ -8181,29 +8181,29 @@
         <v>6734.4138929999999</v>
       </c>
       <c r="H26" s="31">
-        <f>(F26/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.29358365529339259</v>
       </c>
       <c r="I26" s="31">
-        <f>((F26*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>858.1986017093501</v>
       </c>
       <c r="J26" s="30">
-        <f>((G26*$B$46)/(2*$B$47*$J$43*(H26^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.81810576409159341</v>
       </c>
       <c r="K26" s="33"/>
       <c r="L26" s="34"/>
       <c r="M26" s="35">
-        <f>(K26/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N26" s="36">
-        <f>((K26*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O26" s="38" t="e">
-        <f>((L26*$C$46)/(2*$C$47*$J$43*(M26^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="37">
@@ -8213,29 +8213,29 @@
         <v>3371.9906769999998</v>
       </c>
       <c r="R26" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.26307991033485001</v>
       </c>
       <c r="S26" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>1084.6390981339146</v>
       </c>
       <c r="T26" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.71949210204785385</v>
       </c>
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y26" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z26" s="41">
@@ -8245,15 +8245,15 @@
         <v>2462</v>
       </c>
       <c r="AB26" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.24683242048459969</v>
       </c>
       <c r="AC26" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>1271.9734228301959</v>
       </c>
       <c r="AD26" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.74589371110465985</v>
       </c>
       <c r="AE26" s="42"/>
@@ -8267,19 +8267,19 @@
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28">
-        <f>(A27/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="29">
-        <f>((A27*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E27" s="65" t="e">
-        <f>((B27*$B$46)/(2*$B$47*$J$43*(C27^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="32">
@@ -8289,29 +8289,29 @@
         <v>8607.9422240000004</v>
       </c>
       <c r="H27" s="31">
-        <f>(F27/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.33552417747816293</v>
       </c>
       <c r="I27" s="31">
-        <f>((F27*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>980.79840195354291</v>
       </c>
       <c r="J27" s="30">
-        <f>((G27*$B$46)/(2*$B$47*$J$43*(H27^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.80061753483046572</v>
       </c>
       <c r="K27" s="33"/>
       <c r="L27" s="34"/>
       <c r="M27" s="35">
-        <f>(K27/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N27" s="36">
-        <f>((K27*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O27" s="38" t="e">
-        <f>((L27*$C$46)/(2*$C$47*$J$43*(M27^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="37">
@@ -8321,29 +8321,29 @@
         <v>4428.6083520000002</v>
       </c>
       <c r="R27" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.30066275466840003</v>
       </c>
       <c r="S27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>1239.5875407244739</v>
       </c>
       <c r="T27" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.72347419725323969</v>
       </c>
       <c r="U27" s="39"/>
       <c r="V27" s="40"/>
       <c r="W27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y27" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z27" s="41">
@@ -8353,15 +8353,15 @@
         <v>3231</v>
       </c>
       <c r="AB27" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.28209419483954246</v>
       </c>
       <c r="AC27" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>1453.6839118059381</v>
       </c>
       <c r="AD27" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.74944878686267968</v>
       </c>
       <c r="AE27" s="42"/>
@@ -8375,19 +8375,19 @@
       <c r="AM27" s="44"/>
       <c r="AN27" s="44"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28">
-        <f>(A28/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D28" s="29">
-        <f>((A28*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E28" s="65" t="e">
-        <f>((B28*$B$46)/(2*$B$47*$J$43*(C28^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="32">
@@ -8397,29 +8397,29 @@
         <v>10575.990461000001</v>
       </c>
       <c r="H28" s="31">
-        <f>(F28/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.37746469966293322</v>
       </c>
       <c r="I28" s="31">
-        <f>((F28*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>1103.3982021977356</v>
       </c>
       <c r="J28" s="30">
-        <f>((G28*$B$46)/(2*$B$47*$J$43*(H28^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.777216048781603</v>
       </c>
       <c r="K28" s="33"/>
       <c r="L28" s="34"/>
       <c r="M28" s="35">
-        <f>(K28/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N28" s="36">
-        <f>((K28*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O28" s="38" t="e">
-        <f>((L28*$C$46)/(2*$C$47*$J$43*(M28^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="37">
@@ -8429,29 +8429,29 @@
         <v>5369.493273</v>
       </c>
       <c r="R28" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.33824559900195</v>
       </c>
       <c r="S28" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>1394.535983315033</v>
       </c>
       <c r="T28" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.69308105781591811</v>
       </c>
       <c r="U28" s="39"/>
       <c r="V28" s="40"/>
       <c r="W28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y28" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z28" s="41">
@@ -8461,15 +8461,15 @@
         <v>3872</v>
       </c>
       <c r="AB28" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.31735596919448528</v>
       </c>
       <c r="AC28" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>1635.3944007816804</v>
       </c>
       <c r="AD28" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.70963545657181748</v>
       </c>
       <c r="AE28" s="42"/>
@@ -8483,19 +8483,19 @@
       <c r="AM28" s="44"/>
       <c r="AN28" s="44"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28">
-        <f>(A29/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D29" s="29">
-        <f>((A29*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29" s="65" t="e">
-        <f>((B29*$B$46)/(2*$B$47*$J$43*(C29^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="32">
@@ -8505,29 +8505,29 @@
         <v>12885.155687999999</v>
       </c>
       <c r="H29" s="31">
-        <f>(F29/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.41940522184770362</v>
       </c>
       <c r="I29" s="31">
-        <f>((F29*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>1225.9980024419285</v>
       </c>
       <c r="J29" s="30">
-        <f>((G29*$B$46)/(2*$B$47*$J$43*(H29^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.7670000612463822</v>
       </c>
       <c r="K29" s="33"/>
       <c r="L29" s="34"/>
       <c r="M29" s="35">
-        <f>(K29/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N29" s="36">
-        <f>((K29*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O29" s="38" t="e">
-        <f>((L29*$C$46)/(2*$C$47*$J$43*(M29^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="37">
@@ -8537,29 +8537,29 @@
         <v>6525.1266369999994</v>
       </c>
       <c r="R29" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.37582844333550003</v>
       </c>
       <c r="S29" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>1549.4844259055922</v>
       </c>
       <c r="T29" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.68222038245272132</v>
       </c>
       <c r="U29" s="39"/>
       <c r="V29" s="40"/>
       <c r="W29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y29" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z29" s="41">
@@ -8569,15 +8569,15 @@
         <v>4820</v>
       </c>
       <c r="AB29" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.3526177435494281</v>
       </c>
       <c r="AC29" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>1817.1048897574226</v>
       </c>
       <c r="AD29" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.71553686713525033</v>
       </c>
       <c r="AE29" s="42"/>
@@ -8591,19 +8591,19 @@
       <c r="AM29" s="44"/>
       <c r="AN29" s="44"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28">
-        <f>(A30/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30" s="29">
-        <f>((A30*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E30" s="65" t="e">
-        <f>((B30*$B$46)/(2*$B$47*$J$43*(C30^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="32">
@@ -8613,29 +8613,29 @@
         <v>15200.071422000001</v>
       </c>
       <c r="H30" s="31">
-        <f>(F30/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.46134574403247397</v>
       </c>
       <c r="I30" s="31">
-        <f>((F30*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>1348.5978026861214</v>
       </c>
       <c r="J30" s="30">
-        <f>((G30*$B$46)/(2*$B$47*$J$43*(H30^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.7477664685069505</v>
       </c>
       <c r="K30" s="33"/>
       <c r="L30" s="34"/>
       <c r="M30" s="35">
-        <f>(K30/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N30" s="36">
-        <f>((K30*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O30" s="38" t="e">
-        <f>((L30*$C$46)/(2*$C$47*$J$43*(M30^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="37">
@@ -8645,29 +8645,29 @@
         <v>7694.003025</v>
       </c>
       <c r="R30" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.41341128766905</v>
       </c>
       <c r="S30" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>1704.4328684961515</v>
       </c>
       <c r="T30" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.66481793682828627</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="40"/>
       <c r="W30" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X30" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y30" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z30" s="41">
@@ -8677,15 +8677,15 @@
         <v>5620</v>
       </c>
       <c r="AB30" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.38787951790437086</v>
       </c>
       <c r="AC30" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>1998.8153787331651</v>
       </c>
       <c r="AD30" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.68950262221804948</v>
       </c>
       <c r="AE30" s="42"/>
@@ -8699,19 +8699,19 @@
       <c r="AM30" s="44"/>
       <c r="AN30" s="44"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28">
-        <f>(A31/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D31" s="29">
-        <f>((A31*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E31" s="65" t="e">
-        <f>((B31*$B$46)/(2*$B$47*$J$43*(C31^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="32">
@@ -8721,29 +8721,29 @@
         <v>17902.912748000002</v>
       </c>
       <c r="H31" s="31">
-        <f>(F31/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.50328626621724437</v>
       </c>
       <c r="I31" s="31">
-        <f>((F31*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>1471.1976029303141</v>
       </c>
       <c r="J31" s="30">
-        <f>((G31*$B$46)/(2*$B$47*$J$43*(H31^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.74005999976396175</v>
       </c>
       <c r="K31" s="33"/>
       <c r="L31" s="34"/>
       <c r="M31" s="35">
-        <f>(K31/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N31" s="36">
-        <f>((K31*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O31" s="38" t="e">
-        <f>((L31*$C$46)/(2*$C$47*$J$43*(M31^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="37">
@@ -8753,29 +8753,29 @@
         <v>9029.906465</v>
       </c>
       <c r="R31" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.45099413200260002</v>
       </c>
       <c r="S31" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>1859.3813110867106</v>
       </c>
       <c r="T31" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.65562650955700541</v>
       </c>
       <c r="U31" s="39"/>
       <c r="V31" s="40"/>
       <c r="W31" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X31" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y31" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z31" s="41">
@@ -8785,15 +8785,15 @@
         <v>6836</v>
       </c>
       <c r="AB31" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.42314129225931368</v>
       </c>
       <c r="AC31" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>2180.5258677089068</v>
       </c>
       <c r="AD31" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.70473288723728844</v>
       </c>
       <c r="AE31" s="42"/>
@@ -8807,19 +8807,19 @@
       <c r="AM31" s="44"/>
       <c r="AN31" s="44"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28">
-        <f>(A32/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D32" s="29">
-        <f>((A32*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E32" s="65" t="e">
-        <f>((B32*$B$46)/(2*$B$47*$J$43*(C32^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="32">
@@ -8829,29 +8829,29 @@
         <v>20740.351382000001</v>
       </c>
       <c r="H32" s="31">
-        <f>(F32/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.54522678840201477</v>
       </c>
       <c r="I32" s="31">
-        <f>((F32*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>1593.7974031745073</v>
       </c>
       <c r="J32" s="30">
-        <f>((G32*$B$46)/(2*$B$47*$J$43*(H32^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.73052508512137715</v>
       </c>
       <c r="K32" s="33"/>
       <c r="L32" s="34"/>
       <c r="M32" s="35">
-        <f>(K32/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N32" s="36">
-        <f>((K32*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O32" s="38" t="e">
-        <f>((L32*$C$46)/(2*$C$47*$J$43*(M32^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="37">
@@ -8861,29 +8861,29 @@
         <v>10437.443716</v>
       </c>
       <c r="R32" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.48857697633615005</v>
       </c>
       <c r="S32" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>2014.3297536772698</v>
       </c>
       <c r="T32" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.64571843835396314</v>
       </c>
       <c r="U32" s="39"/>
       <c r="V32" s="40"/>
       <c r="W32" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X32" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y32" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z32" s="41">
@@ -8893,15 +8893,15 @@
         <v>7781</v>
       </c>
       <c r="AB32" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.4584030666142565</v>
       </c>
       <c r="AC32" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>2362.2363566846493</v>
       </c>
       <c r="AD32" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.68349239647172555</v>
       </c>
       <c r="AE32" s="42"/>
@@ -8915,19 +8915,19 @@
       <c r="AM32" s="44"/>
       <c r="AN32" s="44"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="28">
-        <f>(A33/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D33" s="29">
-        <f>((A33*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E33" s="65" t="e">
-        <f>((B33*$B$46)/(2*$B$47*$J$43*(C33^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="32">
@@ -8937,29 +8937,29 @@
         <v>23868.483141000001</v>
       </c>
       <c r="H33" s="31">
-        <f>(F33/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.58716731058678517</v>
       </c>
       <c r="I33" s="31">
-        <f>((F33*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>1716.3972034187002</v>
       </c>
       <c r="J33" s="30">
-        <f>((G33*$B$46)/(2*$B$47*$J$43*(H33^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.72489395320920769</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="34"/>
       <c r="M33" s="35">
-        <f>(K33/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N33" s="36">
-        <f>((K33*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O33" s="38" t="e">
-        <f>((L33*$C$46)/(2*$C$47*$J$43*(M33^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="37">
@@ -8969,15 +8969,15 @@
         <v>11829.482024999999</v>
       </c>
       <c r="R33" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>0.52615982066970002</v>
       </c>
       <c r="S33" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>2169.2781962678291</v>
       </c>
       <c r="T33" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.63102331112291465</v>
       </c>
       <c r="U33" s="39">
@@ -8987,15 +8987,15 @@
         <v>9084</v>
       </c>
       <c r="W33" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.49366484096919938</v>
       </c>
       <c r="X33" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="28"/>
         <v>2543.9468456603918</v>
       </c>
       <c r="Y33" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>0.6880278708036891</v>
       </c>
       <c r="Z33" s="41">
@@ -9005,15 +9005,15 @@
         <v>9085</v>
       </c>
       <c r="AB33" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="30"/>
         <v>0.49366484096919938</v>
       </c>
       <c r="AC33" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="31"/>
         <v>2543.9468456603918</v>
       </c>
       <c r="AD33" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.68810361143235532</v>
       </c>
       <c r="AE33" s="42"/>
@@ -9027,19 +9027,19 @@
       <c r="AM33" s="44"/>
       <c r="AN33" s="44"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="27"/>
       <c r="C34" s="28">
-        <f>(A34/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D34" s="29">
-        <f>((A34*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E34" s="65" t="e">
-        <f>((B34*$B$46)/(2*$B$47*$J$43*(C34^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="32">
@@ -9049,29 +9049,29 @@
         <v>26666.563706000001</v>
       </c>
       <c r="H34" s="31">
-        <f>(F34/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.62910783277155546</v>
       </c>
       <c r="I34" s="31">
-        <f>((F34*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>1838.9970036628929</v>
       </c>
       <c r="J34" s="30">
-        <f>((G34*$B$46)/(2*$B$47*$J$43*(H34^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.70548903080536529</v>
       </c>
       <c r="K34" s="33"/>
       <c r="L34" s="34"/>
       <c r="M34" s="35">
-        <f>(K34/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N34" s="36">
-        <f>((K34*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O34" s="38" t="e">
-        <f>((L34*$C$46)/(2*$C$47*$J$43*(M34^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="37">
@@ -9081,29 +9081,29 @@
         <v>13696.767903</v>
       </c>
       <c r="R34" s="35">
-        <f>(P34/($J$43*$C$45))</f>
+        <f t="shared" ref="R34:R39" si="33">(P34/($J$43*$C$45))</f>
         <v>0.56374266500324999</v>
       </c>
       <c r="S34" s="35">
-        <f>((P34*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" ref="S34:S39" si="34">((P34*$C$46)/($G$43*$C$45))</f>
         <v>2324.226638858388</v>
       </c>
       <c r="T34" s="66">
-        <f>((Q34*$C$46)/(2*$C$47*$J$43*(R34^2)))</f>
+        <f t="shared" ref="T34:T39" si="35">((Q34*$C$46)/(2*$C$47*$J$43*(R34^2)))</f>
         <v>0.63646030742933546</v>
       </c>
       <c r="U34" s="39"/>
       <c r="V34" s="40"/>
       <c r="W34" s="40">
-        <f>(U34/($J$43*$D$45))</f>
+        <f t="shared" ref="W34:W39" si="36">(U34/($J$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="X34" s="40">
-        <f>((U34*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="X34:X39" si="37">((U34*$D$46)/($G$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="Y34" s="68" t="e">
-        <f>((V34*$D$46)/(2*$D$47*$J$43*(W34^2)))</f>
+        <f t="shared" ref="Y34:Y39" si="38">((V34*$D$46)/(2*$D$47*$J$43*(W34^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z34" s="41">
@@ -9113,29 +9113,29 @@
         <v>10096</v>
       </c>
       <c r="AB34" s="41">
-        <f>(Z34/($J$43*$D$45))</f>
+        <f t="shared" ref="AB34:AB39" si="39">(Z34/($J$43*$D$45))</f>
         <v>0.52892661532414209</v>
       </c>
       <c r="AC34" s="41">
-        <f>((Z34*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="AC34:AC39" si="40">((Z34*$D$46)/($G$43*$D$45))</f>
         <v>2725.6573346361338</v>
       </c>
       <c r="AD34" s="41">
-        <f>((AA34*$D$46)/(2*$D$47*$J$43*(AB34^2)))</f>
+        <f t="shared" ref="AD34:AD39" si="41">((AA34*$D$46)/(2*$D$47*$J$43*(AB34^2)))</f>
         <v>0.66611896824319861</v>
       </c>
       <c r="AE34" s="42"/>
       <c r="AF34" s="43"/>
       <c r="AG34" s="43">
-        <f>(AE34/($J$43*$E$45))</f>
+        <f t="shared" ref="AG34:AG39" si="42">(AE34/($J$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AH34" s="43">
-        <f>((AE34*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" ref="AH34:AH39" si="43">((AE34*$E$46)/($G$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AI34" s="69" t="e">
-        <f>((AF34*$E$46)/(2*$E$47*$J$43*(AG34^2)))</f>
+        <f t="shared" ref="AI34:AI39" si="44">((AF34*$E$46)/(2*$E$47*$J$43*(AG34^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ34" s="44">
@@ -9145,31 +9145,31 @@
         <v>2192.0947880000003</v>
       </c>
       <c r="AL34" s="44">
-        <f>(AJ34/($J$43*$E$45))</f>
+        <f t="shared" ref="AL34:AL39" si="45">(AJ34/($J$43*$E$45))</f>
         <v>0.27137401148164786</v>
       </c>
       <c r="AM34" s="44">
-        <f>((AJ34*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" ref="AM34:AM39" si="46">((AJ34*$E$46)/($G$43*$E$45))</f>
         <v>1659.9658220839801</v>
       </c>
       <c r="AN34" s="44">
-        <f>((AK34*$E$46)/(2*$E$47*$J$43*(AL34^2)))</f>
+        <f t="shared" ref="AN34:AN39" si="47">((AK34*$E$46)/(2*$E$47*$J$43*(AL34^2)))</f>
         <v>0.65218555876816442</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="27"/>
       <c r="C35" s="28">
-        <f>(A35/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D35" s="29">
-        <f>((A35*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E35" s="65" t="e">
-        <f>((B35*$B$46)/(2*$B$47*$J$43*(C35^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="32">
@@ -9179,29 +9179,29 @@
         <v>30076.947868000003</v>
       </c>
       <c r="H35" s="31">
-        <f>(F35/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.67104835495632587</v>
       </c>
       <c r="I35" s="31">
-        <f>((F35*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>1961.5968039070858</v>
       </c>
       <c r="J35" s="30">
-        <f>((G35*$B$46)/(2*$B$47*$J$43*(H35^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.69935796589585097</v>
       </c>
       <c r="K35" s="33"/>
       <c r="L35" s="34"/>
       <c r="M35" s="35">
-        <f>(K35/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N35" s="36">
-        <f>((K35*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O35" s="38" t="e">
-        <f>((L35*$C$46)/(2*$C$47*$J$43*(M35^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="37">
@@ -9211,57 +9211,57 @@
         <v>15196.785183</v>
       </c>
       <c r="R35" s="35">
-        <f>(P35/($J$43*$C$45))</f>
+        <f t="shared" si="33"/>
         <v>0.60132550933680007</v>
       </c>
       <c r="S35" s="35">
-        <f>((P35*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="34"/>
         <v>2479.1750814489478</v>
       </c>
       <c r="T35" s="66">
-        <f>((Q35*$C$46)/(2*$C$47*$J$43*(R35^2)))</f>
+        <f t="shared" si="35"/>
         <v>0.62065106503127798</v>
       </c>
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="40">
-        <f>(U35/($J$43*$D$45))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X35" s="40">
-        <f>((U35*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y35" s="68" t="e">
-        <f>((V35*$D$46)/(2*$D$47*$J$43*(W35^2)))</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z35" s="41"/>
       <c r="AA35" s="41"/>
       <c r="AB35" s="41">
-        <f>(Z35/($J$43*$D$45))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AC35" s="41">
-        <f>((Z35*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AD35" s="41" t="e">
-        <f>((AA35*$D$46)/(2*$D$47*$J$43*(AB35^2)))</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE35" s="42"/>
       <c r="AF35" s="43"/>
       <c r="AG35" s="43">
-        <f>(AE35/($J$43*$E$45))</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AH35" s="43">
-        <f>((AE35*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AI35" s="69" t="e">
-        <f>((AF35*$E$46)/(2*$E$47*$J$43*(AG35^2)))</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ35" s="44">
@@ -9271,31 +9271,31 @@
         <v>2454.6140010000004</v>
       </c>
       <c r="AL35" s="44">
-        <f>(AJ35/($J$43*$E$45))</f>
+        <f t="shared" si="45"/>
         <v>0.28833488719925088</v>
       </c>
       <c r="AM35" s="44">
-        <f>((AJ35*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="46"/>
         <v>1763.7136859642289</v>
       </c>
       <c r="AN35" s="44">
-        <f>((AK35*$E$46)/(2*$E$47*$J$43*(AL35^2)))</f>
+        <f t="shared" si="47"/>
         <v>0.64690004035919191</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="27"/>
       <c r="C36" s="28">
-        <f>(A36/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D36" s="29">
-        <f>((A36*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E36" s="65" t="e">
-        <f>((B36*$B$46)/(2*$B$47*$J$43*(C36^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="32">
@@ -9305,29 +9305,29 @@
         <v>33896.594252999996</v>
       </c>
       <c r="H36" s="31">
-        <f>(F36/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.71298887714109627</v>
       </c>
       <c r="I36" s="31">
-        <f>((F36*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>2084.1966041512787</v>
       </c>
       <c r="J36" s="30">
-        <f>((G36*$B$46)/(2*$B$47*$J$43*(H36^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.69817444797554562</v>
       </c>
       <c r="K36" s="33"/>
       <c r="L36" s="34"/>
       <c r="M36" s="35">
-        <f>(K36/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N36" s="36">
-        <f>((K36*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O36" s="38" t="e">
-        <f>((L36*$C$46)/(2*$C$47*$J$43*(M36^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="37">
@@ -9337,57 +9337,57 @@
         <v>17140.420235999998</v>
       </c>
       <c r="R36" s="35">
-        <f>(P36/($J$43*$C$45))</f>
+        <f t="shared" si="33"/>
         <v>0.63890835367035004</v>
       </c>
       <c r="S36" s="35">
-        <f>((P36*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="34"/>
         <v>2634.1235240395067</v>
       </c>
       <c r="T36" s="66">
-        <f>((Q36*$C$46)/(2*$C$47*$J$43*(R36^2)))</f>
+        <f t="shared" si="35"/>
         <v>0.62009662624530748</v>
       </c>
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="40">
-        <f>(U36/($J$43*$D$45))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X36" s="40">
-        <f>((U36*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y36" s="68" t="e">
-        <f>((V36*$D$46)/(2*$D$47*$J$43*(W36^2)))</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z36" s="41"/>
       <c r="AA36" s="41"/>
       <c r="AB36" s="41">
-        <f>(Z36/($J$43*$D$45))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AC36" s="41">
-        <f>((Z36*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AD36" s="41" t="e">
-        <f>((AA36*$D$46)/(2*$D$47*$J$43*(AB36^2)))</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE36" s="42"/>
       <c r="AF36" s="43"/>
       <c r="AG36" s="43">
-        <f>(AE36/($J$43*$E$45))</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AH36" s="43">
-        <f>((AE36*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AI36" s="69" t="e">
-        <f>((AF36*$E$46)/(2*$E$47*$J$43*(AG36^2)))</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ36" s="44">
@@ -9397,31 +9397,31 @@
         <v>2731.7778770000004</v>
       </c>
       <c r="AL36" s="44">
-        <f>(AJ36/($J$43*$E$45))</f>
+        <f t="shared" si="45"/>
         <v>0.30529576291685384</v>
       </c>
       <c r="AM36" s="44">
-        <f>((AJ36*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="46"/>
         <v>1867.4615498444775</v>
       </c>
       <c r="AN36" s="44">
-        <f>((AK36*$E$46)/(2*$E$47*$J$43*(AL36^2)))</f>
+        <f t="shared" si="47"/>
         <v>0.64217321515713777</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
       <c r="C37" s="28">
-        <f>(A37/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D37" s="29">
-        <f>((A37*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E37" s="65" t="e">
-        <f>((B37*$B$46)/(2*$B$47*$J$43*(C37^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="32">
@@ -9431,29 +9431,29 @@
         <v>37569.15741</v>
       </c>
       <c r="H37" s="31">
-        <f>(F37/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.75492939932586645</v>
       </c>
       <c r="I37" s="31">
-        <f>((F37*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>2206.7964043954712</v>
       </c>
       <c r="J37" s="30">
-        <f>((G37*$B$46)/(2*$B$47*$J$43*(H37^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.69022736418706476</v>
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="34"/>
       <c r="M37" s="35">
-        <f>(K37/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N37" s="36">
-        <f>((K37*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O37" s="38" t="e">
-        <f>((L37*$C$46)/(2*$C$47*$J$43*(M37^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P37" s="37">
@@ -9463,57 +9463,57 @@
         <v>19250.087145999998</v>
       </c>
       <c r="R37" s="35">
-        <f>(P37/($J$43*$C$45))</f>
+        <f t="shared" si="33"/>
         <v>0.67649119800390001</v>
       </c>
       <c r="S37" s="35">
-        <f>((P37*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="34"/>
         <v>2789.0719666300661</v>
       </c>
       <c r="T37" s="66">
-        <f>((Q37*$C$46)/(2*$C$47*$J$43*(R37^2)))</f>
+        <f t="shared" si="35"/>
         <v>0.62118854069929885</v>
       </c>
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="40">
-        <f>(U37/($J$43*$D$45))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X37" s="40">
-        <f>((U37*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y37" s="68" t="e">
-        <f>((V37*$D$46)/(2*$D$47*$J$43*(W37^2)))</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z37" s="41"/>
       <c r="AA37" s="41"/>
       <c r="AB37" s="41">
-        <f>(Z37/($J$43*$D$45))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AC37" s="41">
-        <f>((Z37*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AD37" s="41" t="e">
-        <f>((AA37*$D$46)/(2*$D$47*$J$43*(AB37^2)))</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE37" s="42"/>
       <c r="AF37" s="43"/>
       <c r="AG37" s="43">
-        <f>(AE37/($J$43*$E$45))</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AH37" s="43">
-        <f>((AE37*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AI37" s="69" t="e">
-        <f>((AF37*$E$46)/(2*$E$47*$J$43*(AG37^2)))</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ37" s="44">
@@ -9523,31 +9523,31 @@
         <v>3023.914284</v>
       </c>
       <c r="AL37" s="44">
-        <f>(AJ37/($J$43*$E$45))</f>
+        <f t="shared" si="45"/>
         <v>0.32225663863445686</v>
       </c>
       <c r="AM37" s="44">
-        <f>((AJ37*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="46"/>
         <v>1971.2094137247263</v>
       </c>
       <c r="AN37" s="44">
-        <f>((AK37*$E$46)/(2*$E$47*$J$43*(AL37^2)))</f>
+        <f t="shared" si="47"/>
         <v>0.63799031867955336</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
       <c r="C38" s="28">
-        <f>(A38/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D38" s="29">
-        <f>((A38*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E38" s="65" t="e">
-        <f>((B38*$B$46)/(2*$B$47*$J$43*(C38^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="32">
@@ -9557,29 +9557,29 @@
         <v>41240.901013000002</v>
       </c>
       <c r="H38" s="31">
-        <f>(F38/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.79686992151063685</v>
       </c>
       <c r="I38" s="31">
-        <f>((F38*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>2329.3962046396641</v>
       </c>
       <c r="J38" s="30">
-        <f>((G38*$B$46)/(2*$B$47*$J$43*(H38^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.68002780626609649</v>
       </c>
       <c r="K38" s="33"/>
       <c r="L38" s="34"/>
       <c r="M38" s="35">
-        <f>(K38/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N38" s="36">
-        <f>((K38*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O38" s="38" t="e">
-        <f>((L38*$C$46)/(2*$C$47*$J$43*(M38^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P38" s="37">
@@ -9589,57 +9589,57 @@
         <v>21419.828994</v>
       </c>
       <c r="R38" s="35">
-        <f>(P38/($J$43*$C$45))</f>
+        <f t="shared" si="33"/>
         <v>0.71407404233745009</v>
       </c>
       <c r="S38" s="35">
-        <f>((P38*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="34"/>
         <v>2944.0204092206254</v>
       </c>
       <c r="T38" s="66">
-        <f>((Q38*$C$46)/(2*$C$47*$J$43*(R38^2)))</f>
+        <f t="shared" si="35"/>
         <v>0.62036107977432187</v>
       </c>
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="40">
-        <f>(U38/($J$43*$D$45))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X38" s="40">
-        <f>((U38*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y38" s="68" t="e">
-        <f>((V38*$D$46)/(2*$D$47*$J$43*(W38^2)))</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z38" s="41"/>
       <c r="AA38" s="41"/>
       <c r="AB38" s="41">
-        <f>(Z38/($J$43*$D$45))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AC38" s="41">
-        <f>((Z38*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AD38" s="41" t="e">
-        <f>((AA38*$D$46)/(2*$D$47*$J$43*(AB38^2)))</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE38" s="42"/>
       <c r="AF38" s="43"/>
       <c r="AG38" s="43">
-        <f>(AE38/($J$43*$E$45))</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AH38" s="43">
-        <f>((AE38*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AI38" s="69" t="e">
-        <f>((AF38*$E$46)/(2*$E$47*$J$43*(AG38^2)))</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ38" s="44">
@@ -9649,31 +9649,31 @@
         <v>3331.006738</v>
       </c>
       <c r="AL38" s="44">
-        <f>(AJ38/($J$43*$E$45))</f>
+        <f t="shared" si="45"/>
         <v>0.33921751435205982</v>
       </c>
       <c r="AM38" s="44">
-        <f>((AJ38*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="46"/>
         <v>2074.9572776049749</v>
       </c>
       <c r="AN38" s="44">
-        <f>((AK38*$E$46)/(2*$E$47*$J$43*(AL38^2)))</f>
+        <f t="shared" si="47"/>
         <v>0.63426001541916543</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="28">
-        <f>(A39/($J$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D39" s="29">
-        <f>((A39*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E39" s="65" t="e">
-        <f>((B39*$B$46)/(2*$B$47*$J$43*(C39^2)))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="32">
@@ -9683,29 +9683,29 @@
         <v>45735.810346999999</v>
       </c>
       <c r="H39" s="31">
-        <f>(F39/($J$43*$B$45))</f>
+        <f t="shared" si="3"/>
         <v>0.83881044369540725</v>
       </c>
       <c r="I39" s="31">
-        <f>((F39*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="4"/>
         <v>2451.996004883857</v>
       </c>
       <c r="J39" s="30">
-        <f>((G39*$B$46)/(2*$B$47*$J$43*(H39^2)))</f>
+        <f t="shared" si="5"/>
         <v>0.68061593873428106</v>
       </c>
       <c r="K39" s="33"/>
       <c r="L39" s="34"/>
       <c r="M39" s="35">
-        <f>(K39/($J$43*$C$45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N39" s="36">
-        <f>((K39*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O39" s="38" t="e">
-        <f>((L39*$C$46)/(2*$C$47*$J$43*(M39^2)))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P39" s="37">
@@ -9715,57 +9715,57 @@
         <v>23206.022484000001</v>
       </c>
       <c r="R39" s="35">
-        <f>(P39/($J$43*$C$45))</f>
+        <f t="shared" si="33"/>
         <v>0.75165688667100006</v>
       </c>
       <c r="S39" s="35">
-        <f>((P39*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" si="34"/>
         <v>3098.9688518111843</v>
       </c>
       <c r="T39" s="66">
-        <f>((Q39*$C$46)/(2*$C$47*$J$43*(R39^2)))</f>
+        <f t="shared" si="35"/>
         <v>0.60656376553941094</v>
       </c>
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="40">
-        <f>(U39/($J$43*$D$45))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X39" s="40">
-        <f>((U39*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y39" s="68" t="e">
-        <f>((V39*$D$46)/(2*$D$47*$J$43*(W39^2)))</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z39" s="41"/>
       <c r="AA39" s="41"/>
       <c r="AB39" s="41">
-        <f>(Z39/($J$43*$D$45))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AC39" s="41">
-        <f>((Z39*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AD39" s="41" t="e">
-        <f>((AA39*$D$46)/(2*$D$47*$J$43*(AB39^2)))</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE39" s="42"/>
       <c r="AF39" s="43"/>
       <c r="AG39" s="43">
-        <f>(AE39/($J$43*$E$45))</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AH39" s="43">
-        <f>((AE39*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AI39" s="69" t="e">
-        <f>((AF39*$E$46)/(2*$E$47*$J$43*(AG39^2)))</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ39" s="44">
@@ -9775,37 +9775,37 @@
         <v>3990.689061</v>
       </c>
       <c r="AL39" s="44">
-        <f>(AJ39/($J$43*$E$45))</f>
+        <f t="shared" si="45"/>
         <v>0.37313926578726581</v>
       </c>
       <c r="AM39" s="44">
-        <f>((AJ39*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" si="46"/>
         <v>2282.4530053654726</v>
       </c>
       <c r="AN39" s="44">
-        <f>((AK39*$E$46)/(2*$E$47*$J$43*(AL39^2)))</f>
+        <f t="shared" si="47"/>
         <v>0.6279923348047789</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:40" ht="23" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="71" t="s">
+    <row r="40" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="G41" s="73" t="s">
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="G41" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="75"/>
-    </row>
-    <row r="42" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="89"/>
+    </row>
+    <row r="42" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
         <v>23</v>
       </c>
@@ -9821,18 +9821,18 @@
       <c r="E42" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="76" t="s">
+      <c r="G42" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="78" t="s">
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="78"/>
-      <c r="L42" s="79"/>
-    </row>
-    <row r="43" spans="1:40" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K42" s="92"/>
+      <c r="L42" s="93"/>
+    </row>
+    <row r="43" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>17</v>
       </c>
@@ -9848,18 +9848,18 @@
       <c r="E43" s="62">
         <v>3.5497999999999998E-5</v>
       </c>
-      <c r="G43" s="80">
+      <c r="G43" s="94">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81">
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95">
         <v>996.55</v>
       </c>
-      <c r="K43" s="81"/>
-      <c r="L43" s="82"/>
-    </row>
-    <row r="44" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K43" s="95"/>
+      <c r="L43" s="96"/>
+    </row>
+    <row r="44" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>18</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>2.7095999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>19</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>2.9581666666666666E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>20</v>
       </c>
@@ -9918,29 +9918,35 @@
         <v>5.2403306761145555E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="63" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="64">
-        <f t="shared" ref="B47:E47" si="9">120/1000</f>
+        <f t="shared" ref="B47:E47" si="48">120/1000</f>
         <v>0.12</v>
       </c>
       <c r="C47" s="64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="48"/>
         <v>0.12</v>
       </c>
       <c r="D47" s="64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="48"/>
         <v>0.12</v>
       </c>
       <c r="E47" s="64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="48"/>
         <v>0.12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
@@ -9950,12 +9956,6 @@
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="P2:T2"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9964,384 +9964,732 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB257EB-CFE3-4546-A88F-F6A352110FD8}">
-  <dimension ref="J4:M34"/>
+  <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J4">
-        <v>76</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="M4">
-        <f>J4-K4</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J5">
-        <v>104</v>
-      </c>
-      <c r="K5">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ref="M5:M34" si="0">J5-K5</f>
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="6" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J6">
-        <v>135</v>
-      </c>
-      <c r="K6">
-        <v>10.5</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>124.5</v>
-      </c>
-    </row>
-    <row r="7" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J7">
-        <v>171</v>
-      </c>
-      <c r="K7">
-        <v>14.17</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>156.83000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J8">
-        <v>211</v>
-      </c>
-      <c r="K8">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>193.6</v>
-      </c>
-    </row>
-    <row r="9" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J9">
-        <v>255</v>
-      </c>
-      <c r="K9">
-        <v>21.4</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>233.6</v>
-      </c>
-    </row>
-    <row r="10" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J10">
-        <v>305</v>
-      </c>
-      <c r="K10">
-        <v>24.4</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>280.60000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J11">
-        <v>354</v>
-      </c>
-      <c r="K11">
-        <v>29.3</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>324.7</v>
-      </c>
-    </row>
-    <row r="12" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J12">
-        <v>420</v>
-      </c>
-      <c r="K12">
-        <v>37</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>383</v>
-      </c>
-    </row>
-    <row r="13" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J13">
-        <v>476</v>
-      </c>
-      <c r="K13">
-        <v>39</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>437</v>
-      </c>
-    </row>
-    <row r="14" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J14">
-        <v>546</v>
-      </c>
-      <c r="K14">
-        <v>44.5</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>501.5</v>
-      </c>
-    </row>
-    <row r="15" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J15">
-        <v>616</v>
-      </c>
-      <c r="K15">
-        <v>53.2</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>562.79999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J16">
-        <v>690</v>
-      </c>
-      <c r="K16">
-        <v>60</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J17">
-        <v>770</v>
-      </c>
-      <c r="K17">
-        <v>66.7</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
-        <v>703.3</v>
-      </c>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J18">
-        <v>841</v>
-      </c>
-      <c r="K18">
-        <v>70.44</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
-        <v>770.56</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J19">
-        <v>958</v>
-      </c>
-      <c r="K19">
-        <v>81.11</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
-        <v>876.89</v>
-      </c>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J20">
-        <v>1039</v>
-      </c>
-      <c r="K20">
-        <v>93</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="0"/>
-        <v>946</v>
-      </c>
-    </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J21">
-        <v>1146</v>
-      </c>
-      <c r="K21">
-        <v>100</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="0"/>
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J22">
-        <v>1214</v>
-      </c>
-      <c r="K22">
-        <v>101</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="0"/>
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J23">
-        <v>1335</v>
-      </c>
-      <c r="K23">
-        <v>120</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J24">
-        <v>1421</v>
-      </c>
-      <c r="K24">
-        <v>122</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J25">
-        <v>2043</v>
-      </c>
-      <c r="K25">
-        <v>179</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J26">
-        <v>2703</v>
-      </c>
-      <c r="K26">
-        <v>241</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="27" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J27">
-        <v>3535</v>
-      </c>
-      <c r="K27">
-        <v>304</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
-        <v>3231</v>
-      </c>
-    </row>
-    <row r="28" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J28">
-        <v>4247</v>
-      </c>
-      <c r="K28">
-        <v>375</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
-        <v>3872</v>
-      </c>
-    </row>
-    <row r="29" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J29">
-        <v>5301</v>
-      </c>
-      <c r="K29">
-        <v>4481</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
-        <v>820</v>
-      </c>
-    </row>
-    <row r="30" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J30">
-        <v>6216</v>
-      </c>
-      <c r="K30">
-        <v>596</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="0"/>
-        <v>5620</v>
-      </c>
-    </row>
-    <row r="31" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J31">
-        <v>7532</v>
-      </c>
-      <c r="K31">
-        <v>696</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
-        <v>6836</v>
-      </c>
-    </row>
-    <row r="32" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J32">
-        <v>8559</v>
-      </c>
-      <c r="K32">
-        <v>778</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
-        <v>7781</v>
-      </c>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J33">
-        <v>10044</v>
-      </c>
-      <c r="K33">
-        <v>959</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="0"/>
-        <v>9085</v>
-      </c>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J34">
-        <v>11156</v>
-      </c>
-      <c r="K34">
-        <v>1060</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="0"/>
-        <v>10096</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.01</v>
+      </c>
+      <c r="B2">
+        <v>319.95971800000001</v>
+      </c>
+      <c r="D2">
+        <v>0.01</v>
+      </c>
+      <c r="E2">
+        <v>113.404259</v>
+      </c>
+      <c r="G2">
+        <v>0.01</v>
+      </c>
+      <c r="H2">
+        <v>116.159918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B3">
+        <v>446.83352400000001</v>
+      </c>
+      <c r="D3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E3">
+        <v>153.29000199999999</v>
+      </c>
+      <c r="G3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H3">
+        <v>158.12973099999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="B4">
+        <v>593.93300699999998</v>
+      </c>
+      <c r="D4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E4">
+        <v>198.633782</v>
+      </c>
+      <c r="G4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H4">
+        <v>205.942035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="B5">
+        <v>761.22075500000005</v>
+      </c>
+      <c r="D5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E5">
+        <v>250.106382</v>
+      </c>
+      <c r="G5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H5">
+        <v>259.63926700000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="B6">
+        <v>948.43710400000009</v>
+      </c>
+      <c r="D6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>306.70291200000003</v>
+      </c>
+      <c r="G6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>319.38603699999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.02</v>
+      </c>
+      <c r="B7">
+        <v>1155.5423659999999</v>
+      </c>
+      <c r="D7">
+        <v>0.02</v>
+      </c>
+      <c r="E7">
+        <v>368.43498899999997</v>
+      </c>
+      <c r="G7">
+        <v>0.02</v>
+      </c>
+      <c r="H7">
+        <v>385.79323099999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B8">
+        <v>1382.462209</v>
+      </c>
+      <c r="D8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>435.53941099999997</v>
+      </c>
+      <c r="G8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>456.17051700000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="B9">
+        <v>1629.0593269999999</v>
+      </c>
+      <c r="D9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E9">
+        <v>507.73199799999998</v>
+      </c>
+      <c r="G9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H9">
+        <v>534.10706000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="B10">
+        <v>1895.1794870000001</v>
+      </c>
+      <c r="D10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>587.38157799999999</v>
+      </c>
+      <c r="G10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>617.32445700000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="B11">
+        <v>2180.8409109999998</v>
+      </c>
+      <c r="D11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>674.52912700000002</v>
+      </c>
+      <c r="G11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <v>707.08472099999904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.03</v>
+      </c>
+      <c r="B12">
+        <v>2485.942016</v>
+      </c>
+      <c r="D12">
+        <v>0.03</v>
+      </c>
+      <c r="E12">
+        <v>766.890265</v>
+      </c>
+      <c r="G12">
+        <v>0.03</v>
+      </c>
+      <c r="H12">
+        <v>803.03306799999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B13">
+        <v>2810.3996029999998</v>
+      </c>
+      <c r="D13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>864.95561699999996</v>
+      </c>
+      <c r="G13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H13">
+        <v>906.023909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="B14">
+        <v>3154.124452</v>
+      </c>
+      <c r="D14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E14">
+        <v>967.22361899999999</v>
+      </c>
+      <c r="G14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H14">
+        <v>1014.519509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="B15">
+        <v>3517.0394199999996</v>
+      </c>
+      <c r="D15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E15">
+        <v>1075.198564</v>
+      </c>
+      <c r="G15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H15">
+        <v>1128.044879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="B16">
+        <v>3899.222671</v>
+      </c>
+      <c r="D16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>1187.6497979999999</v>
+      </c>
+      <c r="G16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H16">
+        <v>1246.1826679999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.04</v>
+      </c>
+      <c r="B17">
+        <v>4300.4340549999997</v>
+      </c>
+      <c r="D17">
+        <v>0.04</v>
+      </c>
+      <c r="E17">
+        <v>1303.642445</v>
+      </c>
+      <c r="G17">
+        <v>0.04</v>
+      </c>
+      <c r="H17">
+        <v>1369.3857170000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="B18">
+        <v>4720.8434569999999</v>
+      </c>
+      <c r="D18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E18">
+        <v>1423.432002</v>
+      </c>
+      <c r="G18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H18">
+        <v>1498.5368229999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="B19">
+        <v>5160.2119890000004</v>
+      </c>
+      <c r="D19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E19">
+        <v>1547.2571849999999</v>
+      </c>
+      <c r="G19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H19">
+        <v>1634.053191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="B20">
+        <v>5618.4874440000003</v>
+      </c>
+      <c r="D20">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>1676.246257</v>
+      </c>
+      <c r="G20">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H20">
+        <v>1775.0044499999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B21">
+        <v>6095.8288139999995</v>
+      </c>
+      <c r="D21">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>1811.157414</v>
+      </c>
+      <c r="G21">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H21">
+        <v>1919.257783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.05</v>
+      </c>
+      <c r="B22">
+        <v>6592.1479330000002</v>
+      </c>
+      <c r="D22">
+        <v>0.05</v>
+      </c>
+      <c r="E22">
+        <v>1952.3633440000001</v>
+      </c>
+      <c r="G22">
+        <v>0.05</v>
+      </c>
+      <c r="H22">
+        <v>2067.0413210000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.06</v>
+      </c>
+      <c r="B23">
+        <v>9356.5531520000004</v>
+      </c>
+      <c r="D23">
+        <v>0.06</v>
+      </c>
+      <c r="E23">
+        <v>2738.6997999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.06</v>
+      </c>
+      <c r="H23">
+        <v>2895.449032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B24">
+        <v>12589.560086</v>
+      </c>
+      <c r="D24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E24">
+        <v>3625.8957620000001</v>
+      </c>
+      <c r="G24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H24">
+        <v>3852.6851219999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.08</v>
+      </c>
+      <c r="B25">
+        <v>16286.271397999999</v>
+      </c>
+      <c r="D25">
+        <v>0.08</v>
+      </c>
+      <c r="E25">
+        <v>4587.0483899999999</v>
+      </c>
+      <c r="G25">
+        <v>0.08</v>
+      </c>
+      <c r="H25">
+        <v>4928.8963999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.09</v>
+      </c>
+      <c r="B26">
+        <v>20442.713444000001</v>
+      </c>
+      <c r="D26">
+        <v>0.09</v>
+      </c>
+      <c r="E26">
+        <v>5650.5712890000004</v>
+      </c>
+      <c r="G26">
+        <v>0.09</v>
+      </c>
+      <c r="H26">
+        <v>6113.1111650000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.1</v>
+      </c>
+      <c r="B27">
+        <v>25058.008172999998</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+      <c r="E27">
+        <v>6836.57402</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
+        <v>7395.7729209999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.11</v>
+      </c>
+      <c r="B28">
+        <v>30129.490034999999</v>
+      </c>
+      <c r="D28">
+        <v>0.11</v>
+      </c>
+      <c r="E28">
+        <v>8138.5894950000002</v>
+      </c>
+      <c r="G28">
+        <v>0.11</v>
+      </c>
+      <c r="H28">
+        <v>8813.59476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.12</v>
+      </c>
+      <c r="B29">
+        <v>35649.934062</v>
+      </c>
+      <c r="D29">
+        <v>0.12</v>
+      </c>
+      <c r="E29">
+        <v>9551.6900459999997</v>
+      </c>
+      <c r="G29">
+        <v>0.12</v>
+      </c>
+      <c r="H29">
+        <v>10334.31904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.13</v>
+      </c>
+      <c r="B30">
+        <v>41622.123198000001</v>
+      </c>
+      <c r="D30">
+        <v>0.13</v>
+      </c>
+      <c r="E30">
+        <v>11062.051310000001</v>
+      </c>
+      <c r="G30">
+        <v>0.13</v>
+      </c>
+      <c r="H30">
+        <v>11957.818514000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B31">
+        <v>48041.415539000001</v>
+      </c>
+      <c r="D31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E31">
+        <v>12669.456303000001</v>
+      </c>
+      <c r="G31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H31">
+        <v>13697.831367000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.15</v>
+      </c>
+      <c r="B32">
+        <v>54900.826168</v>
+      </c>
+      <c r="D32">
+        <v>0.15</v>
+      </c>
+      <c r="E32">
+        <v>14384.581819999999</v>
+      </c>
+      <c r="G32">
+        <v>0.15</v>
+      </c>
+      <c r="H32">
+        <v>15567.760908</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.16</v>
+      </c>
+      <c r="B33">
+        <v>62206.539863999998</v>
+      </c>
+      <c r="D33">
+        <v>0.16</v>
+      </c>
+      <c r="E33">
+        <v>16202.841286999999</v>
+      </c>
+      <c r="G33">
+        <v>0.16</v>
+      </c>
+      <c r="H33">
+        <v>17564.586012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.17</v>
+      </c>
+      <c r="B34">
+        <v>69956.112250999999</v>
+      </c>
+      <c r="D34">
+        <v>0.17</v>
+      </c>
+      <c r="E34">
+        <v>18129.665002000002</v>
+      </c>
+      <c r="G34">
+        <v>0.17</v>
+      </c>
+      <c r="H34">
+        <v>19689.604358000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.18</v>
+      </c>
+      <c r="B35">
+        <v>78136.044070999997</v>
+      </c>
+      <c r="D35">
+        <v>0.18</v>
+      </c>
+      <c r="E35">
+        <v>20154.944960000001</v>
+      </c>
+      <c r="G35">
+        <v>0.18</v>
+      </c>
+      <c r="H35">
+        <v>21933.187371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.19</v>
+      </c>
+      <c r="B36">
+        <v>86722.059324999995</v>
+      </c>
+      <c r="D36">
+        <v>0.19</v>
+      </c>
+      <c r="E36">
+        <v>22286.272923</v>
+      </c>
+      <c r="G36">
+        <v>0.19</v>
+      </c>
+      <c r="H36">
+        <v>24286.716686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.2</v>
+      </c>
+      <c r="B37">
+        <v>95761.200211999996</v>
+      </c>
+      <c r="D37">
+        <v>0.2</v>
+      </c>
+      <c r="E37">
+        <v>24506.940301999999</v>
+      </c>
+      <c r="G37">
+        <v>0.2</v>
+      </c>
+      <c r="H37">
+        <v>26758.943177000001</v>
       </c>
     </row>
   </sheetData>

--- a/NewData.xlsx
+++ b/NewData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D69348D-DF2E-41E9-8E07-1C11907E0E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CF522F-F1D7-4908-88C9-5A9FB5E88638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="345" windowWidth="12450" windowHeight="14160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeometryV3" sheetId="2" r:id="rId1"/>
     <sheet name="GeometryV2" sheetId="1" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
+    <sheet name="Gráfico1" sheetId="4" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -789,6 +790,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,42 +868,6 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,6 +883,999 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Pressão</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> x Vazão mássica</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$E$2:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>113.404259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.29000199999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198.633782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250.106382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306.70291200000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>368.43498899999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>435.53941099999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>507.73199799999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>587.38157799999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>674.52912700000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>766.890265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>864.95561699999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>967.22361899999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1075.198564</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1187.6497979999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1303.642445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1423.432002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1547.2571849999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1676.246257</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1811.157414</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1952.3633440000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2738.6997999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3625.8957620000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4587.0483899999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5650.5712890000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6836.57402</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8138.5894950000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9551.6900459999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11062.051310000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12669.456303000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14384.581819999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16202.841286999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18129.665002000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20154.944960000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22286.272923</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24506.940301999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6404-4B76-AE10-AFBC4157D4A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$G$2:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$H$2:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>101.052909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136.63164399999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176.94694200000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.91940700000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271.47625199999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>325.56754999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384.13225899999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>447.133511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>514.53728699999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>586.28818100000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>662.36472200000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>742.75970700000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>827.42023200000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>916.35774900000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1009.537732</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1106.95155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1208.5703510000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1314.434982</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1424.5184119999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1538.763193</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1657.1591550000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2311.130752</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3067.9704099999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3926.8155870000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4885.9306109999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5944.731906</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7102.0294320000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8356.6075880000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9707.0738450000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11154.720847000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12698.285298999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14336.427111999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16068.623325</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17895.703792</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19816.878540999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21831.787533999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6404-4B76-AE10-AFBC4157D4A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$J$2:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$K$2:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>97.328477000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.13779199999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.31021899999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211.760841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>258.420389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309.22935100000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>364.13257700000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>423.07002499999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>486.01637299999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>552.942995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>623.79522499999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>698.56193499999904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>777.22869900000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>859.75832500000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>946.18000300000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1036.4617129999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1130.5907380000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1228.3784499999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1330.0232659999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1435.4928</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1544.7107100000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2147.0085349999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2842.173941</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3629.7554100000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4508.9377619999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5478.8473370000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6538.8652270000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7688.2329920000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8925.7746850000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10249.317606000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11660.144534999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13158.589040999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14744.229343000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16416.307216000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18171.986173000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20013.049533000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6404-4B76-AE10-AFBC4157D4A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="772626943"/>
+        <c:axId val="772626463"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="772626943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772626463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="772626463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772626943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AB3B4829-B209-4B39-B0EE-9E7CD8865E78}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1155,6 +2149,39 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9646081" cy="6013665"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33323E1-BBE2-CDAC-4A14-423D8FF1A387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1433,106 +2460,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="73" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="76" t="s">
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="79" t="s">
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="79" t="s">
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82" t="s">
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="82" t="s">
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="84"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="96"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5078,21 +6105,21 @@
     </row>
     <row r="34" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="G35" s="87" t="s">
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="G35" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="89"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
     </row>
     <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
@@ -5110,16 +6137,16 @@
       <c r="E36" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="90" t="s">
+      <c r="G36" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="92" t="s">
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="92"/>
-      <c r="L36" s="93"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="79"/>
     </row>
     <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
@@ -5129,16 +6156,16 @@
       <c r="C37" s="62"/>
       <c r="D37" s="62"/>
       <c r="E37" s="62"/>
-      <c r="G37" s="94">
+      <c r="G37" s="80">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95">
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81">
         <v>996.55</v>
       </c>
-      <c r="K37" s="95"/>
-      <c r="L37" s="96"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="82"/>
     </row>
     <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
@@ -5214,12 +6241,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -5229,6 +6250,12 @@
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5252,106 +6279,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="73" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="76" t="s">
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="79" t="s">
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="79" t="s">
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82" t="s">
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="82" t="s">
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="84"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="96"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9789,21 +10816,21 @@
     </row>
     <row r="40" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="G41" s="87" t="s">
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="G41" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="89"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="75"/>
     </row>
     <row r="42" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
@@ -9821,16 +10848,16 @@
       <c r="E42" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="90" t="s">
+      <c r="G42" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="92" t="s">
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="K42" s="92"/>
-      <c r="L42" s="93"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="79"/>
     </row>
     <row r="43" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
@@ -9848,16 +10875,16 @@
       <c r="E43" s="62">
         <v>3.5497999999999998E-5</v>
       </c>
-      <c r="G43" s="94">
+      <c r="G43" s="80">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95">
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81">
         <v>996.55</v>
       </c>
-      <c r="K43" s="95"/>
-      <c r="L43" s="96"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="82"/>
     </row>
     <row r="44" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
@@ -9941,12 +10968,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
@@ -9956,6 +10977,12 @@
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="P2:T2"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9964,15 +10991,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB257EB-CFE3-4546-A88F-F6A352110FD8}">
-  <dimension ref="A2:H37"/>
+  <dimension ref="A2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -9989,10 +11016,16 @@
         <v>0.01</v>
       </c>
       <c r="H2">
-        <v>116.159918</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>101.052909</v>
+      </c>
+      <c r="J2">
+        <v>0.01</v>
+      </c>
+      <c r="K2">
+        <v>97.328477000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2E-2</v>
       </c>
@@ -10009,10 +11042,16 @@
         <v>1.2E-2</v>
       </c>
       <c r="H3">
-        <v>158.12973099999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136.63164399999999</v>
+      </c>
+      <c r="J3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K3">
+        <v>131.13779199999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.4E-2</v>
       </c>
@@ -10029,10 +11068,16 @@
         <v>1.4E-2</v>
       </c>
       <c r="H4">
-        <v>205.942035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>176.94694200000001</v>
+      </c>
+      <c r="J4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K4">
+        <v>169.31021899999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.6E-2</v>
       </c>
@@ -10049,10 +11094,16 @@
         <v>1.6E-2</v>
       </c>
       <c r="H5">
-        <v>259.63926700000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>221.91940700000001</v>
+      </c>
+      <c r="J5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K5">
+        <v>211.760841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -10069,10 +11120,16 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H6">
-        <v>319.38603699999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>271.47625199999999</v>
+      </c>
+      <c r="J6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K6">
+        <v>258.420389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.02</v>
       </c>
@@ -10089,10 +11146,16 @@
         <v>0.02</v>
       </c>
       <c r="H7">
-        <v>385.79323099999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>325.56754999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.02</v>
+      </c>
+      <c r="K7">
+        <v>309.22935100000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -10109,10 +11172,16 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H8">
-        <v>456.17051700000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>384.13225899999998</v>
+      </c>
+      <c r="J8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>364.13257700000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.4E-2</v>
       </c>
@@ -10129,10 +11198,16 @@
         <v>2.4E-2</v>
       </c>
       <c r="H9">
-        <v>534.10706000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>447.133511</v>
+      </c>
+      <c r="J9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K9">
+        <v>423.07002499999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -10149,10 +11224,16 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="H10">
-        <v>617.32445700000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>514.53728699999999</v>
+      </c>
+      <c r="J10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K10">
+        <v>486.01637299999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -10169,10 +11250,16 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="H11">
-        <v>707.08472099999904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>586.28818100000001</v>
+      </c>
+      <c r="J11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>552.942995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.03</v>
       </c>
@@ -10189,10 +11276,16 @@
         <v>0.03</v>
       </c>
       <c r="H12">
-        <v>803.03306799999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>662.36472200000003</v>
+      </c>
+      <c r="J12">
+        <v>0.03</v>
+      </c>
+      <c r="K12">
+        <v>623.79522499999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -10209,10 +11302,16 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H13">
-        <v>906.023909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>742.75970700000005</v>
+      </c>
+      <c r="J13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K13">
+        <v>698.56193499999904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -10229,10 +11328,16 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H14">
-        <v>1014.519509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>827.42023200000006</v>
+      </c>
+      <c r="J14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K14">
+        <v>777.22869900000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.5999999999999997E-2</v>
       </c>
@@ -10249,10 +11354,16 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H15">
-        <v>1128.044879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>916.35774900000001</v>
+      </c>
+      <c r="J15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K15">
+        <v>859.75832500000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -10269,10 +11380,16 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H16">
-        <v>1246.1826679999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1009.537732</v>
+      </c>
+      <c r="J16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K16">
+        <v>946.18000300000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.04</v>
       </c>
@@ -10289,10 +11406,16 @@
         <v>0.04</v>
       </c>
       <c r="H17">
-        <v>1369.3857170000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1106.95155</v>
+      </c>
+      <c r="J17">
+        <v>0.04</v>
+      </c>
+      <c r="K17">
+        <v>1036.4617129999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -10309,10 +11432,16 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H18">
-        <v>1498.5368229999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1208.5703510000001</v>
+      </c>
+      <c r="J18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K18">
+        <v>1130.5907380000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4.3999999999999997E-2</v>
       </c>
@@ -10329,10 +11458,16 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="H19">
-        <v>1634.053191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1314.434982</v>
+      </c>
+      <c r="J19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K19">
+        <v>1228.3784499999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -10349,10 +11484,16 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="H20">
-        <v>1775.0044499999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1424.5184119999999</v>
+      </c>
+      <c r="J20">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K20">
+        <v>1330.0232659999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -10369,10 +11510,16 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="H21">
-        <v>1919.257783</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1538.763193</v>
+      </c>
+      <c r="J21">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K21">
+        <v>1435.4928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.05</v>
       </c>
@@ -10389,10 +11536,16 @@
         <v>0.05</v>
       </c>
       <c r="H22">
-        <v>2067.0413210000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1657.1591550000001</v>
+      </c>
+      <c r="J22">
+        <v>0.05</v>
+      </c>
+      <c r="K22">
+        <v>1544.7107100000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.06</v>
       </c>
@@ -10409,10 +11562,16 @@
         <v>0.06</v>
       </c>
       <c r="H23">
-        <v>2895.449032</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2311.130752</v>
+      </c>
+      <c r="J23">
+        <v>0.06</v>
+      </c>
+      <c r="K23">
+        <v>2147.0085349999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -10429,10 +11588,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H24">
-        <v>3852.6851219999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3067.9704099999999</v>
+      </c>
+      <c r="J24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K24">
+        <v>2842.173941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.08</v>
       </c>
@@ -10449,10 +11614,16 @@
         <v>0.08</v>
       </c>
       <c r="H25">
-        <v>4928.8963999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3926.8155870000001</v>
+      </c>
+      <c r="J25">
+        <v>0.08</v>
+      </c>
+      <c r="K25">
+        <v>3629.7554100000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.09</v>
       </c>
@@ -10469,10 +11640,16 @@
         <v>0.09</v>
       </c>
       <c r="H26">
-        <v>6113.1111650000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4885.9306109999998</v>
+      </c>
+      <c r="J26">
+        <v>0.09</v>
+      </c>
+      <c r="K26">
+        <v>4508.9377619999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.1</v>
       </c>
@@ -10489,10 +11666,16 @@
         <v>0.1</v>
       </c>
       <c r="H27">
-        <v>7395.7729209999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5944.731906</v>
+      </c>
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="K27">
+        <v>5478.8473370000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.11</v>
       </c>
@@ -10509,10 +11692,16 @@
         <v>0.11</v>
       </c>
       <c r="H28">
-        <v>8813.59476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7102.0294320000003</v>
+      </c>
+      <c r="J28">
+        <v>0.11</v>
+      </c>
+      <c r="K28">
+        <v>6538.8652270000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.12</v>
       </c>
@@ -10529,10 +11718,16 @@
         <v>0.12</v>
       </c>
       <c r="H29">
-        <v>10334.31904</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8356.6075880000008</v>
+      </c>
+      <c r="J29">
+        <v>0.12</v>
+      </c>
+      <c r="K29">
+        <v>7688.2329920000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.13</v>
       </c>
@@ -10549,10 +11744,16 @@
         <v>0.13</v>
       </c>
       <c r="H30">
-        <v>11957.818514000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9707.0738450000008</v>
+      </c>
+      <c r="J30">
+        <v>0.13</v>
+      </c>
+      <c r="K30">
+        <v>8925.7746850000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.14000000000000001</v>
       </c>
@@ -10569,10 +11770,16 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H31">
-        <v>13697.831367000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11154.720847000001</v>
+      </c>
+      <c r="J31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K31">
+        <v>10249.317606000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.15</v>
       </c>
@@ -10589,10 +11796,16 @@
         <v>0.15</v>
       </c>
       <c r="H32">
-        <v>15567.760908</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12698.285298999999</v>
+      </c>
+      <c r="J32">
+        <v>0.15</v>
+      </c>
+      <c r="K32">
+        <v>11660.144534999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.16</v>
       </c>
@@ -10609,10 +11822,16 @@
         <v>0.16</v>
       </c>
       <c r="H33">
-        <v>17564.586012</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14336.427111999999</v>
+      </c>
+      <c r="J33">
+        <v>0.16</v>
+      </c>
+      <c r="K33">
+        <v>13158.589040999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.17</v>
       </c>
@@ -10629,10 +11848,16 @@
         <v>0.17</v>
       </c>
       <c r="H34">
-        <v>19689.604358000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16068.623325</v>
+      </c>
+      <c r="J34">
+        <v>0.17</v>
+      </c>
+      <c r="K34">
+        <v>14744.229343000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.18</v>
       </c>
@@ -10649,10 +11874,16 @@
         <v>0.18</v>
       </c>
       <c r="H35">
-        <v>21933.187371</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17895.703792</v>
+      </c>
+      <c r="J35">
+        <v>0.18</v>
+      </c>
+      <c r="K35">
+        <v>16416.307216000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.19</v>
       </c>
@@ -10669,10 +11900,16 @@
         <v>0.19</v>
       </c>
       <c r="H36">
-        <v>24286.716686</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19816.878540999998</v>
+      </c>
+      <c r="J36">
+        <v>0.19</v>
+      </c>
+      <c r="K36">
+        <v>18171.986173000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.2</v>
       </c>
@@ -10689,7 +11926,13 @@
         <v>0.2</v>
       </c>
       <c r="H37">
-        <v>26758.943177000001</v>
+        <v>21831.787533999999</v>
+      </c>
+      <c r="J37">
+        <v>0.2</v>
+      </c>
+      <c r="K37">
+        <v>20013.049533000001</v>
       </c>
     </row>
   </sheetData>

--- a/NewData.xlsx
+++ b/NewData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE22864E-A10A-4742-8DAE-19C36AF8CD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD24F855-3DCD-4648-817C-E5BD0C194A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeometryV2" sheetId="1" r:id="rId1"/>
@@ -685,7 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -930,6 +930,48 @@
     <xf numFmtId="11" fontId="2" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="6" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,46 +1017,7 @@
     <xf numFmtId="11" fontId="6" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,94 +1101,94 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>499.26852781351647</c:v>
+                  <c:v>208.19604127793963</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>998.53705562703294</c:v>
+                  <c:v>416.39208255587926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1497.8055834405495</c:v>
+                  <c:v>624.58812383381894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1997.0741112540659</c:v>
+                  <c:v>832.78416511175851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2496.3426390675827</c:v>
+                  <c:v>1040.9802063896982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2995.6111668810991</c:v>
+                  <c:v>1249.1762476676379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3494.8796946946159</c:v>
+                  <c:v>1457.3722889455776</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3994.1482225081318</c:v>
+                  <c:v>1665.568330223517</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4493.4167503216477</c:v>
+                  <c:v>1873.7643715014565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4992.6852781351654</c:v>
+                  <c:v>2081.9604127793964</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5491.9538059486822</c:v>
+                  <c:v>2290.1564540573363</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5991.2223337621981</c:v>
+                  <c:v>2498.3524953352758</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6490.490861575714</c:v>
+                  <c:v>2706.5485366132152</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6989.7593893892317</c:v>
+                  <c:v>2914.7445778911551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7489.0279172027476</c:v>
+                  <c:v>3122.9406191690946</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7988.2964450162635</c:v>
+                  <c:v>3331.136660447034</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8487.5649728297813</c:v>
+                  <c:v>3539.332701724974</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8986.8335006432953</c:v>
+                  <c:v>3747.528743002913</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9486.1020284568131</c:v>
+                  <c:v>3955.7247842808529</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9985.3705562703308</c:v>
+                  <c:v>4163.9208255587928</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10484.639084083845</c:v>
+                  <c:v>4372.1168668367318</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10983.907611897364</c:v>
+                  <c:v>4580.3129081146726</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11483.17613971088</c:v>
+                  <c:v>4788.5089493926116</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11982.444667524396</c:v>
+                  <c:v>4996.7049906705515</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12481.713195337912</c:v>
+                  <c:v>5204.9010319484905</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12980.981723151428</c:v>
+                  <c:v>5413.0970732264304</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13480.250250964948</c:v>
+                  <c:v>5621.2931145043713</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13979.518778778463</c:v>
+                  <c:v>5829.4891557823103</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14478.787306591978</c:v>
+                  <c:v>6037.6851970602493</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14978.055834405495</c:v>
+                  <c:v>6245.8812383381892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,46 +1342,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3168.4828946365287</c:v>
+                  <c:v>1321.2641269601243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3821.7757632805155</c:v>
+                  <c:v>1593.6886469723086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4467.5909510192942</c:v>
+                  <c:v>1862.994958093534</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5106.9723829564782</c:v>
+                  <c:v>2129.6183793192013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5751.3654118584536</c:v>
+                  <c:v>2398.331647171332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6368.502917946611</c:v>
+                  <c:v>2655.6793038609717</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7113.7444071295886</c:v>
+                  <c:v>2966.4465948085103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7811.4721747489775</c:v>
+                  <c:v>3257.4005624944307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8441.4018366427154</c:v>
+                  <c:v>3520.0825754468133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9090.7170164662093</c:v>
+                  <c:v>3790.8483907345303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9748.8836969293261</c:v>
+                  <c:v>4065.3053006734749</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10375.798545020501</c:v>
+                  <c:v>4326.7301298381417</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11000.716319000418</c:v>
+                  <c:v>4587.3221748376964</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11649.202127844559</c:v>
+                  <c:v>4857.7421406575759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,91 +1487,91 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="1">
-                  <c:v>843.60422213060781</c:v>
+                  <c:v>364.75496067546345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1265.4063331959117</c:v>
+                  <c:v>547.13244101319515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1687.2084442612156</c:v>
+                  <c:v>729.5099213509269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2109.0105553265194</c:v>
+                  <c:v>911.88740168865854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2530.8126663918233</c:v>
+                  <c:v>1094.2648820263903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2952.6147774571277</c:v>
+                  <c:v>1276.6423623641222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3374.4168885224312</c:v>
+                  <c:v>1459.0198427018538</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3796.2189995877347</c:v>
+                  <c:v>1641.3973230395852</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4218.0211106530387</c:v>
+                  <c:v>1823.7748033773171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4639.8232217183431</c:v>
+                  <c:v>2006.152283715049</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5061.6253327836466</c:v>
+                  <c:v>2188.5297640527806</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5483.427443848951</c:v>
+                  <c:v>2370.9072443905125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5905.2295549142555</c:v>
+                  <c:v>2553.2847247282443</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6327.0316659795581</c:v>
+                  <c:v>2735.6622050659753</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6748.8337770448625</c:v>
+                  <c:v>2918.0396854037076</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7170.6358881101669</c:v>
+                  <c:v>3100.4171657414395</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7592.4379991754695</c:v>
+                  <c:v>3282.7946460791704</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8014.2401102407748</c:v>
+                  <c:v>3465.1721264169028</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8436.0422213060774</c:v>
+                  <c:v>3647.5496067546342</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8857.8443323713818</c:v>
+                  <c:v>3829.927087092366</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9279.6464434366862</c:v>
+                  <c:v>4012.3045674300979</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9701.4485545019907</c:v>
+                  <c:v>4194.6820477678293</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10123.250665567293</c:v>
+                  <c:v>4377.0595281055612</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10545.052776632598</c:v>
+                  <c:v>4559.4370084432931</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10966.854887697902</c:v>
+                  <c:v>4741.8144887810249</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11388.656998763207</c:v>
+                  <c:v>4924.1919691187568</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11810.459109828511</c:v>
+                  <c:v>5106.5694494564887</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12232.261220893812</c:v>
+                  <c:v>5288.9469297942187</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12654.063331959116</c:v>
+                  <c:v>5471.3244101319506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,46 +1722,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2323.1805772199273</c:v>
+                  <c:v>1004.4895673301418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2949.8379135592813</c:v>
+                  <c:v>1275.4417106185654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3529.8978333512246</c:v>
+                  <c:v>1526.2462083707894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4118.0891605064835</c:v>
+                  <c:v>1780.5665386606358</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4658.3825146052168</c:v>
+                  <c:v>2014.1768928499091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5196.4262574449331</c:v>
+                  <c:v>2246.814567144047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5749.0573232923252</c:v>
+                  <c:v>2485.7594626331984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6241.6026784184642</c:v>
+                  <c:v>2698.7246860482401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6964.2773168505264</c:v>
+                  <c:v>3011.1924907454413</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7491.2958786864538</c:v>
+                  <c:v>3239.0631316867589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8054.9138852363576</c:v>
+                  <c:v>3482.758526306613</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8595.7997708720613</c:v>
+                  <c:v>3716.6250774325495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9126.1456251848376</c:v>
+                  <c:v>3945.934362710525</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9648.7557369350634</c:v>
+                  <c:v>4171.898891762562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,94 +1867,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>370.41658001644328</c:v>
+                  <c:v>155.46521737083518</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>740.83316003288655</c:v>
+                  <c:v>310.93043474167035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1111.2497400493296</c:v>
+                  <c:v>466.39565211250545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1481.6663200657731</c:v>
+                  <c:v>621.86086948334071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1852.0829000822164</c:v>
+                  <c:v>777.32608685417574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2222.4994800986592</c:v>
+                  <c:v>932.79130422501089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2592.9160601151029</c:v>
+                  <c:v>1088.2565215958462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2963.3326401315462</c:v>
+                  <c:v>1243.7217389666814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3333.749220147989</c:v>
+                  <c:v>1399.1869563375164</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3704.1658001644328</c:v>
+                  <c:v>1554.6521737083515</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4074.5823801808756</c:v>
+                  <c:v>1710.1173910791867</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4444.9989601973184</c:v>
+                  <c:v>1865.5826084500218</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4815.4155402137621</c:v>
+                  <c:v>2021.0478258208573</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5185.8321202302059</c:v>
+                  <c:v>2176.5130431916923</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5556.2487002466478</c:v>
+                  <c:v>2331.9782605625273</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5926.6652802630924</c:v>
+                  <c:v>2487.4434779333628</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6297.0818602795362</c:v>
+                  <c:v>2642.9086953041983</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6667.4984402959781</c:v>
+                  <c:v>2798.3739126750329</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7037.9150203124218</c:v>
+                  <c:v>2953.8391300458679</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7408.3316003288655</c:v>
+                  <c:v>3109.304347416703</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7778.7481803453074</c:v>
+                  <c:v>3264.769564787538</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8149.1647603617512</c:v>
+                  <c:v>3420.2347821583735</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8519.5813403781958</c:v>
+                  <c:v>3575.6999995292085</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8889.9979203946368</c:v>
+                  <c:v>3731.1652169000436</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9260.4145004110815</c:v>
+                  <c:v>3886.6304342708791</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9630.8310804275243</c:v>
+                  <c:v>4042.0956516417145</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10001.247660443967</c:v>
+                  <c:v>4197.56086901255</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10371.664240460412</c:v>
+                  <c:v>4353.0260863833846</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10742.080820476853</c:v>
+                  <c:v>4508.4913037542192</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11112.497400493296</c:v>
+                  <c:v>4663.9565211250547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,46 +2108,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2014.5585873835023</c:v>
+                  <c:v>845.51773756983494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2565.1965527105385</c:v>
+                  <c:v>1076.6225411625951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3057.3342658693541</c:v>
+                  <c:v>1283.1745711749252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3538.8982693804292</c:v>
+                  <c:v>1485.2887758913969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3994.9428154773404</c:v>
+                  <c:v>1676.6923693444573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4470.2962336913824</c:v>
+                  <c:v>1876.1999682951712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4934.6041982298211</c:v>
+                  <c:v>2071.0717492256417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5309.1314524983463</c:v>
+                  <c:v>2228.2622318805311</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5782.8011793013202</c:v>
+                  <c:v>2427.0631792791046</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6440.5812433779047</c:v>
+                  <c:v>2703.1359205136591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6913.5079660811843</c:v>
+                  <c:v>2901.6250263260345</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7377.3400798008224</c:v>
+                  <c:v>3096.2970908966768</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7843.7871581865265</c:v>
+                  <c:v>3292.0666658709001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8297.8157832806592</c:v>
+                  <c:v>3482.6241697755772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2254,94 +2257,94 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>238.52295103581164</c:v>
+                  <c:v>123.11567503065052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>477.04590207162329</c:v>
+                  <c:v>246.23135006130104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>715.56885310743485</c:v>
+                  <c:v>369.34702509195154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>954.09180414324658</c:v>
+                  <c:v>492.46270012260209</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1192.6147551790582</c:v>
+                  <c:v>615.57837515325264</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1431.1377062148697</c:v>
+                  <c:v>738.69405018390307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1669.6606572506814</c:v>
+                  <c:v>861.80972521455362</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1908.1836082864932</c:v>
+                  <c:v>984.92540024520417</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2146.7065593223047</c:v>
+                  <c:v>1108.0410752758546</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2385.2295103581164</c:v>
+                  <c:v>1231.1567503065053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2623.7524613939281</c:v>
+                  <c:v>1354.2724253371557</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2862.2754124297394</c:v>
+                  <c:v>1477.3881003678061</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3100.7983634655511</c:v>
+                  <c:v>1600.5037753984568</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3339.3213145013628</c:v>
+                  <c:v>1723.6194504291072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3577.8442655371741</c:v>
+                  <c:v>1846.7351254597575</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3816.3672165729863</c:v>
+                  <c:v>1969.8508004904083</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4054.890167608798</c:v>
+                  <c:v>2092.9664755210588</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4293.4131186446093</c:v>
+                  <c:v>2216.0821505517092</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4531.9360696804206</c:v>
+                  <c:v>2339.1978255823597</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4770.4590207162328</c:v>
+                  <c:v>2462.3135006130105</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5008.981971752044</c:v>
+                  <c:v>2585.4291756436605</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5247.5049227878562</c:v>
+                  <c:v>2708.5448506743114</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5486.0278738236675</c:v>
+                  <c:v>2831.6605257049619</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5724.5508248594788</c:v>
+                  <c:v>2954.7762007356123</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5963.073775895291</c:v>
+                  <c:v>3077.8918757662627</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6201.5967269311022</c:v>
+                  <c:v>3201.0075507969136</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6440.1196779669144</c:v>
+                  <c:v>3324.1232258275641</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6678.6426290027257</c:v>
+                  <c:v>3447.2389008582145</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6917.1655800385361</c:v>
+                  <c:v>3570.3545758888645</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7155.6885310743482</c:v>
+                  <c:v>3693.4702509195149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,46 +2502,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1245.929051827248</c:v>
+                  <c:v>643.09700844251097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1577.2386928421859</c:v>
+                  <c:v>814.10533246577234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1878.8561272614083</c:v>
+                  <c:v>969.78776838348119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2183.637862907683</c:v>
+                  <c:v>1127.1034856264339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2456.7267649311011</c:v>
+                  <c:v>1268.0606738969427</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2742.9135061956081</c:v>
+                  <c:v>1415.7784246735207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3024.1591045058135</c:v>
+                  <c:v>1560.9457619674545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3303.6859856166129</c:v>
+                  <c:v>1705.2259685795282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3639.3980945888534</c:v>
+                  <c:v>1878.5066643473549</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3946.8968452949971</c:v>
+                  <c:v>2037.2247923089053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4217.6900324557737</c:v>
+                  <c:v>2176.997027585312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4496.7080646043632</c:v>
+                  <c:v>2321.014587423987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4768.1439450150019</c:v>
+                  <c:v>2461.1185543553597</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5037.0053605121993</c:v>
+                  <c:v>2599.8936890536716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,46 +3172,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2014.5585873835023</c:v>
+                  <c:v>845.51773756983494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2565.1965527105385</c:v>
+                  <c:v>1076.6225411625951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3057.3342658693541</c:v>
+                  <c:v>1283.1745711749252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3538.8982693804292</c:v>
+                  <c:v>1485.2887758913969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3994.9428154773404</c:v>
+                  <c:v>1676.6923693444573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4470.2962336913824</c:v>
+                  <c:v>1876.1999682951712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4934.6041982298211</c:v>
+                  <c:v>2071.0717492256417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5309.1314524983463</c:v>
+                  <c:v>2228.2622318805311</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5782.8011793013202</c:v>
+                  <c:v>2427.0631792791046</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6440.5812433779047</c:v>
+                  <c:v>2703.1359205136591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6913.5079660811843</c:v>
+                  <c:v>2901.6250263260345</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7377.3400798008224</c:v>
+                  <c:v>3096.2970908966768</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7843.7871581865265</c:v>
+                  <c:v>3292.0666658709001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8297.8157832806592</c:v>
+                  <c:v>3482.6241697755772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,46 +3223,46 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.12789051006890009</c:v>
+                  <c:v>0.57019107907306088</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12307164775234915</c:v>
+                  <c:v>0.5487065115105545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12085638889318363</c:v>
+                  <c:v>0.5388299316247348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11820765642486089</c:v>
+                  <c:v>0.52702073934396942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11670056176064904</c:v>
+                  <c:v>0.5203014610144886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11344244452702318</c:v>
+                  <c:v>0.50577536849842286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11113163384200939</c:v>
+                  <c:v>0.49547277734203671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10976365714739529</c:v>
+                  <c:v>0.48937374695089525</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10702828659435989</c:v>
+                  <c:v>0.47717828470385532</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10487317839404889</c:v>
+                  <c:v>0.46756988241042086</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10270382003465613</c:v>
+                  <c:v>0.45789794675880807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10125538104008108</c:v>
+                  <c:v>0.45144018071468722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9813876221234887E-2</c:v>
+                  <c:v>0.44501333021808581</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.8475658639371522E-2</c:v>
+                  <c:v>0.4390469787927444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4470,94 +4473,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>370.41658001644328</c:v>
+                  <c:v>155.46521737083518</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>740.83316003288655</c:v>
+                  <c:v>310.93043474167035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1111.2497400493296</c:v>
+                  <c:v>466.39565211250545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1481.6663200657731</c:v>
+                  <c:v>621.86086948334071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1852.0829000822164</c:v>
+                  <c:v>777.32608685417574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2222.4994800986592</c:v>
+                  <c:v>932.79130422501089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2592.9160601151029</c:v>
+                  <c:v>1088.2565215958462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2963.3326401315462</c:v>
+                  <c:v>1243.7217389666814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3333.749220147989</c:v>
+                  <c:v>1399.1869563375164</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3704.1658001644328</c:v>
+                  <c:v>1554.6521737083515</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4074.5823801808756</c:v>
+                  <c:v>1710.1173910791867</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4444.9989601973184</c:v>
+                  <c:v>1865.5826084500218</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4815.4155402137621</c:v>
+                  <c:v>2021.0478258208573</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5185.8321202302059</c:v>
+                  <c:v>2176.5130431916923</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5556.2487002466478</c:v>
+                  <c:v>2331.9782605625273</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5926.6652802630924</c:v>
+                  <c:v>2487.4434779333628</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6297.0818602795362</c:v>
+                  <c:v>2642.9086953041983</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6667.4984402959781</c:v>
+                  <c:v>2798.3739126750329</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7037.9150203124218</c:v>
+                  <c:v>2953.8391300458679</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7408.3316003288655</c:v>
+                  <c:v>3109.304347416703</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7778.7481803453074</c:v>
+                  <c:v>3264.769564787538</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8149.1647603617512</c:v>
+                  <c:v>3420.2347821583735</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8519.5813403781958</c:v>
+                  <c:v>3575.6999995292085</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8889.9979203946368</c:v>
+                  <c:v>3731.1652169000436</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9260.4145004110815</c:v>
+                  <c:v>3886.6304342708791</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9630.8310804275243</c:v>
+                  <c:v>4042.0956516417145</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10001.247660443967</c:v>
+                  <c:v>4197.56086901255</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10371.664240460412</c:v>
+                  <c:v>4353.0260863833846</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10742.080820476853</c:v>
+                  <c:v>4508.4913037542192</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11112.497400493296</c:v>
+                  <c:v>4663.9565211250547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4569,94 +4572,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.4925051948291615</c:v>
+                  <c:v>0.45439484503111255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36738459980746013</c:v>
+                  <c:v>0.33895615731370088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31931489090911425</c:v>
+                  <c:v>0.29460611155807942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29231353196312237</c:v>
+                  <c:v>0.26969413409528459</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2744525851690367</c:v>
+                  <c:v>0.25321527816479494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26154027412895087</c:v>
+                  <c:v>0.24130212956117755</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25163376833372852</c:v>
+                  <c:v>0.23216219517493958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24371613468824641</c:v>
+                  <c:v>0.22485723280880671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23718608825505438</c:v>
+                  <c:v>0.21883248531739088</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2316625740465354</c:v>
+                  <c:v>0.21373638397844411</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22690615694899965</c:v>
+                  <c:v>0.20934802131216243</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22274740764983122</c:v>
+                  <c:v>0.20551107854859543</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21906698193128546</c:v>
+                  <c:v>0.20211544639773613</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21577069709750943</c:v>
+                  <c:v>0.19907423007768979</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.21278972275947258</c:v>
+                  <c:v>0.19632392533655127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21007861088792448</c:v>
+                  <c:v>0.19382260094105644</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.20760134862411656</c:v>
+                  <c:v>0.191537030729244</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20532893535691699</c:v>
+                  <c:v>0.1894404581748084</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.20323551624066769</c:v>
+                  <c:v>0.18750902909568315</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.20129271273250451</c:v>
+                  <c:v>0.18571656089781183</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.19948625006393408</c:v>
+                  <c:v>0.18404988340291903</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.19779788808966306</c:v>
+                  <c:v>0.18249216789918424</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19620916523360249</c:v>
+                  <c:v>0.18102638137844015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.19471157064689323</c:v>
+                  <c:v>0.17964467156645889</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19329106934473905</c:v>
+                  <c:v>0.17833408951405491</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.19194679906654658</c:v>
+                  <c:v>0.17709383968288084</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.19066858184251137</c:v>
+                  <c:v>0.17591453168059054</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.18945160085817225</c:v>
+                  <c:v>0.17479172142073859</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.18828900837279602</c:v>
+                  <c:v>0.17371909104491051</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1871750049070838</c:v>
+                  <c:v>0.17269128984102269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4687,91 +4690,91 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>843.60422213060781</c:v>
+                  <c:v>364.75496067546345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1265.4063331959117</c:v>
+                  <c:v>547.13244101319515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1687.2084442612156</c:v>
+                  <c:v>729.5099213509269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2109.0105553265194</c:v>
+                  <c:v>911.88740168865854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2530.8126663918233</c:v>
+                  <c:v>1094.2648820263903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2952.6147774571277</c:v>
+                  <c:v>1276.6423623641222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3374.4168885224312</c:v>
+                  <c:v>1459.0198427018538</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3796.2189995877347</c:v>
+                  <c:v>1641.3973230395852</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4218.0211106530387</c:v>
+                  <c:v>1823.7748033773171</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4639.8232217183431</c:v>
+                  <c:v>2006.152283715049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5061.6253327836466</c:v>
+                  <c:v>2188.5297640527806</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5483.427443848951</c:v>
+                  <c:v>2370.9072443905125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5905.2295549142555</c:v>
+                  <c:v>2553.2847247282443</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6327.0316659795581</c:v>
+                  <c:v>2735.6622050659753</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6748.8337770448625</c:v>
+                  <c:v>2918.0396854037076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7170.6358881101669</c:v>
+                  <c:v>3100.4171657414395</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7592.4379991754695</c:v>
+                  <c:v>3282.7946460791704</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8014.2401102407748</c:v>
+                  <c:v>3465.1721264169028</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8436.0422213060774</c:v>
+                  <c:v>3647.5496067546342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8857.8443323713818</c:v>
+                  <c:v>3829.927087092366</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9279.6464434366862</c:v>
+                  <c:v>4012.3045674300979</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9701.4485545019907</c:v>
+                  <c:v>4194.6820477678293</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10123.250665567293</c:v>
+                  <c:v>4377.0595281055612</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10545.052776632598</c:v>
+                  <c:v>4559.4370084432931</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10966.854887697902</c:v>
+                  <c:v>4741.8144887810249</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11388.656998763207</c:v>
+                  <c:v>4924.1919691187568</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11810.459109828511</c:v>
+                  <c:v>5106.5694494564887</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12232.261220893812</c:v>
+                  <c:v>5288.9469297942187</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12654.063331959116</c:v>
+                  <c:v>5471.3244101319506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4898,94 +4901,94 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>499.26852781351647</c:v>
+                  <c:v>208.19604127793963</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>998.53705562703294</c:v>
+                  <c:v>416.39208255587926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1497.8055834405495</c:v>
+                  <c:v>624.58812383381894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1997.0741112540659</c:v>
+                  <c:v>832.78416511175851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2496.3426390675827</c:v>
+                  <c:v>1040.9802063896982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2995.6111668810991</c:v>
+                  <c:v>1249.1762476676379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3494.8796946946159</c:v>
+                  <c:v>1457.3722889455776</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3994.1482225081318</c:v>
+                  <c:v>1665.568330223517</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4493.4167503216477</c:v>
+                  <c:v>1873.7643715014565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4992.6852781351654</c:v>
+                  <c:v>2081.9604127793964</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5491.9538059486822</c:v>
+                  <c:v>2290.1564540573363</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5991.2223337621981</c:v>
+                  <c:v>2498.3524953352758</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6490.490861575714</c:v>
+                  <c:v>2706.5485366132152</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6989.7593893892317</c:v>
+                  <c:v>2914.7445778911551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7489.0279172027476</c:v>
+                  <c:v>3122.9406191690946</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7988.2964450162635</c:v>
+                  <c:v>3331.136660447034</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8487.5649728297813</c:v>
+                  <c:v>3539.332701724974</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8986.8335006432953</c:v>
+                  <c:v>3747.528743002913</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9486.1020284568131</c:v>
+                  <c:v>3955.7247842808529</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9985.3705562703308</c:v>
+                  <c:v>4163.9208255587928</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10484.639084083845</c:v>
+                  <c:v>4372.1168668367318</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10983.907611897364</c:v>
+                  <c:v>4580.3129081146726</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11483.17613971088</c:v>
+                  <c:v>4788.5089493926116</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11982.444667524396</c:v>
+                  <c:v>4996.7049906705515</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12481.713195337912</c:v>
+                  <c:v>5204.9010319484905</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12980.981723151428</c:v>
+                  <c:v>5413.0970732264304</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13480.250250964948</c:v>
+                  <c:v>5621.2931145043713</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13979.518778778463</c:v>
+                  <c:v>5829.4891557823103</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14478.787306591978</c:v>
+                  <c:v>6037.6851970602493</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14978.055834405495</c:v>
+                  <c:v>6245.8812383381892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5130,94 +5133,94 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>238.52295103581164</c:v>
+                  <c:v>123.11567503065052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>477.04590207162329</c:v>
+                  <c:v>246.23135006130104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>715.56885310743485</c:v>
+                  <c:v>369.34702509195154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>954.09180414324658</c:v>
+                  <c:v>492.46270012260209</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1192.6147551790582</c:v>
+                  <c:v>615.57837515325264</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1431.1377062148697</c:v>
+                  <c:v>738.69405018390307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1669.6606572506814</c:v>
+                  <c:v>861.80972521455362</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1908.1836082864932</c:v>
+                  <c:v>984.92540024520417</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2146.7065593223047</c:v>
+                  <c:v>1108.0410752758546</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2385.2295103581164</c:v>
+                  <c:v>1231.1567503065053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2623.7524613939281</c:v>
+                  <c:v>1354.2724253371557</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2862.2754124297394</c:v>
+                  <c:v>1477.3881003678061</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3100.7983634655511</c:v>
+                  <c:v>1600.5037753984568</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3339.3213145013628</c:v>
+                  <c:v>1723.6194504291072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3577.8442655371741</c:v>
+                  <c:v>1846.7351254597575</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3816.3672165729863</c:v>
+                  <c:v>1969.8508004904083</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4054.890167608798</c:v>
+                  <c:v>2092.9664755210588</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4293.4131186446093</c:v>
+                  <c:v>2216.0821505517092</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4531.9360696804206</c:v>
+                  <c:v>2339.1978255823597</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4770.4590207162328</c:v>
+                  <c:v>2462.3135006130105</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5008.981971752044</c:v>
+                  <c:v>2585.4291756436605</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5247.5049227878562</c:v>
+                  <c:v>2708.5448506743114</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5486.0278738236675</c:v>
+                  <c:v>2831.6605257049619</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5724.5508248594788</c:v>
+                  <c:v>2954.7762007356123</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5963.073775895291</c:v>
+                  <c:v>3077.8918757662627</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6201.5967269311022</c:v>
+                  <c:v>3201.0075507969136</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6440.1196779669144</c:v>
+                  <c:v>3324.1232258275641</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6678.6426290027257</c:v>
+                  <c:v>3447.2389008582145</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6917.1655800385361</c:v>
+                  <c:v>3570.3545758888645</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7155.6885310743482</c:v>
+                  <c:v>3693.4702509195149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5382,7 +5385,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5444,7 +5447,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9189,46 +9192,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1245.929051827248</c:v>
+                  <c:v>643.09700844251097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1577.2386928421859</c:v>
+                  <c:v>814.10533246577234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1878.8561272614083</c:v>
+                  <c:v>969.78776838348119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2183.637862907683</c:v>
+                  <c:v>1127.1034856264339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2456.7267649311011</c:v>
+                  <c:v>1268.0606738969427</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2742.9135061956081</c:v>
+                  <c:v>1415.7784246735207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3024.1591045058135</c:v>
+                  <c:v>1560.9457619674545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3303.6859856166129</c:v>
+                  <c:v>1705.2259685795282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3639.3980945888534</c:v>
+                  <c:v>1878.5066643473549</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3946.8968452949971</c:v>
+                  <c:v>2037.2247923089053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4217.6900324557737</c:v>
+                  <c:v>2176.997027585312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4496.7080646043632</c:v>
+                  <c:v>2321.014587423987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4768.1439450150019</c:v>
+                  <c:v>2461.1185543553597</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5037.0053605121993</c:v>
+                  <c:v>2599.8936890536716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9240,46 +9243,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.1775661610781116</c:v>
+                  <c:v>0.6664903288642513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17469418181334415</c:v>
+                  <c:v>0.65571042354307862</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17250391315998354</c:v>
+                  <c:v>0.6474893026593691</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16835526650682822</c:v>
+                  <c:v>0.63191745690106194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16716685563905187</c:v>
+                  <c:v>0.62745678519829495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16397516764683712</c:v>
+                  <c:v>0.61547686083293374</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16122591124619493</c:v>
+                  <c:v>0.6051575928402555</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15834618398840428</c:v>
+                  <c:v>0.59434860561301039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15578521946335955</c:v>
+                  <c:v>0.58473608666151999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15370757107274227</c:v>
+                  <c:v>0.57693768323420469</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15214073226978705</c:v>
+                  <c:v>0.57105659134868758</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15022295564633673</c:v>
+                  <c:v>0.56385826276687345</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14814883262587747</c:v>
+                  <c:v>0.55607309173193342</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>0.14717439524511278</c:v>
+                  <c:v>0.55241556438313977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9336,46 +9339,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2014.5585873835023</c:v>
+                  <c:v>845.51773756983494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2565.1965527105385</c:v>
+                  <c:v>1076.6225411625951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3057.3342658693541</c:v>
+                  <c:v>1283.1745711749252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3538.8982693804292</c:v>
+                  <c:v>1485.2887758913969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3994.9428154773404</c:v>
+                  <c:v>1676.6923693444573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4470.2962336913824</c:v>
+                  <c:v>1876.1999682951712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4934.6041982298211</c:v>
+                  <c:v>2071.0717492256417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5309.1314524983463</c:v>
+                  <c:v>2228.2622318805311</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5782.8011793013202</c:v>
+                  <c:v>2427.0631792791046</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6440.5812433779047</c:v>
+                  <c:v>2703.1359205136591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6913.5079660811843</c:v>
+                  <c:v>2901.6250263260345</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7377.3400798008224</c:v>
+                  <c:v>3096.2970908966768</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7843.7871581865265</c:v>
+                  <c:v>3292.0666658709001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8297.8157832806592</c:v>
+                  <c:v>3482.6241697755772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9387,46 +9390,46 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.12789051006890009</c:v>
+                  <c:v>0.57019107907306088</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12307164775234915</c:v>
+                  <c:v>0.5487065115105545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12085638889318363</c:v>
+                  <c:v>0.5388299316247348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11820765642486089</c:v>
+                  <c:v>0.52702073934396942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11670056176064904</c:v>
+                  <c:v>0.5203014610144886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11344244452702318</c:v>
+                  <c:v>0.50577536849842286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11113163384200939</c:v>
+                  <c:v>0.49547277734203671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10976365714739529</c:v>
+                  <c:v>0.48937374695089525</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10702828659435989</c:v>
+                  <c:v>0.47717828470385532</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10487317839404889</c:v>
+                  <c:v>0.46756988241042086</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10270382003465613</c:v>
+                  <c:v>0.45789794675880807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10125538104008108</c:v>
+                  <c:v>0.45144018071468722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9813876221234887E-2</c:v>
+                  <c:v>0.44501333021808581</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.8475658639371522E-2</c:v>
+                  <c:v>0.4390469787927444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9483,46 +9486,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2323.1805772199273</c:v>
+                  <c:v>1004.4895673301418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2949.8379135592813</c:v>
+                  <c:v>1275.4417106185654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3529.8978333512246</c:v>
+                  <c:v>1526.2462083707894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4118.0891605064835</c:v>
+                  <c:v>1780.5665386606358</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4658.3825146052168</c:v>
+                  <c:v>2014.1768928499091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5196.4262574449331</c:v>
+                  <c:v>2246.814567144047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5749.0573232923252</c:v>
+                  <c:v>2485.7594626331984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6241.6026784184642</c:v>
+                  <c:v>2698.7246860482401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6964.2773168505264</c:v>
+                  <c:v>3011.1924907454413</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7491.2958786864538</c:v>
+                  <c:v>3239.0631316867589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8054.9138852363576</c:v>
+                  <c:v>3482.758526306613</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8595.7997708720613</c:v>
+                  <c:v>3716.6250774325495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9126.1456251848376</c:v>
+                  <c:v>3945.934362710525</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9648.7557369350634</c:v>
+                  <c:v>4171.898891762562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9537,43 +9540,43 @@
                   <c:v>1.9566866356192898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10408170157403078</c:v>
+                  <c:v>0.5567361975526568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10265976510215137</c:v>
+                  <c:v>0.54913021597718725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9191465517190783E-2</c:v>
+                  <c:v>0.53057817566940102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7352037298294752E-2</c:v>
+                  <c:v>0.52073901800026123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5509812168053071E-2</c:v>
+                  <c:v>0.5108848995669919</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2849162989343453E-2</c:v>
+                  <c:v>0.49665300592598721</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2229505144721377E-2</c:v>
+                  <c:v>0.49333843720755433</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0268213435939576E-2</c:v>
+                  <c:v>0.4828474280126086</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8907869616266094E-2</c:v>
+                  <c:v>0.47557090741315833</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7860818220478865E-2</c:v>
+                  <c:v>0.46997019754853187</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.7747078545054757E-2</c:v>
+                  <c:v>0.46936180055416249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.6991000882767983E-2</c:v>
+                  <c:v>0.46531751806847838</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6497635652732177E-2</c:v>
+                  <c:v>0.4626784923990197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9630,46 +9633,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3168.4828946365287</c:v>
+                  <c:v>1321.2641269601243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3821.7757632805155</c:v>
+                  <c:v>1593.6886469723086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4467.5909510192942</c:v>
+                  <c:v>1862.994958093534</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5106.9723829564782</c:v>
+                  <c:v>2129.6183793192013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5751.3654118584536</c:v>
+                  <c:v>2398.331647171332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6368.502917946611</c:v>
+                  <c:v>2655.6793038609717</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7113.7444071295886</c:v>
+                  <c:v>2966.4465948085103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7811.4721747489775</c:v>
+                  <c:v>3257.4005624944307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8441.4018366427154</c:v>
+                  <c:v>3520.0825754468133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9090.7170164662093</c:v>
+                  <c:v>3790.8483907345303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9748.8836969293261</c:v>
+                  <c:v>4065.3053006734749</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10375.798545020501</c:v>
+                  <c:v>4326.7301298381417</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11000.716319000418</c:v>
+                  <c:v>4587.3221748376964</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11649.202127844559</c:v>
+                  <c:v>4857.7421406575759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9681,46 +9684,46 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>9.2933841662738131E-2</c:v>
+                  <c:v>0.53443800770937611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2950472422897459E-2</c:v>
+                  <c:v>0.53453364682390336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2480791296116596E-2</c:v>
+                  <c:v>0.53183263456438223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1283484672951373E-2</c:v>
+                  <c:v>0.52494724002076865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9999489019074605E-2</c:v>
+                  <c:v>0.5175633197298618</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9537309551429439E-2</c:v>
+                  <c:v>0.51490544753311296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8421497337867833E-2</c:v>
+                  <c:v>0.50848870584112771</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6903580930181426E-2</c:v>
+                  <c:v>0.49975956900271629</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6350938598741017E-2</c:v>
+                  <c:v>0.49658146874013676</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5031084222962017E-2</c:v>
+                  <c:v>0.48899133439900311</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3994576150767025E-2</c:v>
+                  <c:v>0.48303064990380168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3064460818753363E-2</c:v>
+                  <c:v>0.47768180199126964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.202735929246828E-2</c:v>
+                  <c:v>0.47171770469814778</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0664186513269065E-2</c:v>
+                  <c:v>0.4638784576462206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10047,46 +10050,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1245.929051827248</c:v>
+                  <c:v>643.09700844251097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1577.2386928421859</c:v>
+                  <c:v>814.10533246577234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1878.8561272614083</c:v>
+                  <c:v>969.78776838348119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2183.637862907683</c:v>
+                  <c:v>1127.1034856264339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2456.7267649311011</c:v>
+                  <c:v>1268.0606738969427</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2742.9135061956081</c:v>
+                  <c:v>1415.7784246735207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3024.1591045058135</c:v>
+                  <c:v>1560.9457619674545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3303.6859856166129</c:v>
+                  <c:v>1705.2259685795282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3639.3980945888534</c:v>
+                  <c:v>1878.5066643473549</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3946.8968452949971</c:v>
+                  <c:v>2037.2247923089053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4217.6900324557737</c:v>
+                  <c:v>2176.997027585312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4496.7080646043632</c:v>
+                  <c:v>2321.014587423987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4768.1439450150019</c:v>
+                  <c:v>2461.1185543553597</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5037.0053605121993</c:v>
+                  <c:v>2599.8936890536716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10194,46 +10197,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2014.5585873835023</c:v>
+                  <c:v>845.51773756983494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2565.1965527105385</c:v>
+                  <c:v>1076.6225411625951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3057.3342658693541</c:v>
+                  <c:v>1283.1745711749252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3538.8982693804292</c:v>
+                  <c:v>1485.2887758913969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3994.9428154773404</c:v>
+                  <c:v>1676.6923693444573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4470.2962336913824</c:v>
+                  <c:v>1876.1999682951712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4934.6041982298211</c:v>
+                  <c:v>2071.0717492256417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5309.1314524983463</c:v>
+                  <c:v>2228.2622318805311</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5782.8011793013202</c:v>
+                  <c:v>2427.0631792791046</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6440.5812433779047</c:v>
+                  <c:v>2703.1359205136591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6913.5079660811843</c:v>
+                  <c:v>2901.6250263260345</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7377.3400798008224</c:v>
+                  <c:v>3096.2970908966768</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7843.7871581865265</c:v>
+                  <c:v>3292.0666658709001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8297.8157832806592</c:v>
+                  <c:v>3482.6241697755772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10341,46 +10344,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2323.1805772199273</c:v>
+                  <c:v>1004.4895673301418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2949.8379135592813</c:v>
+                  <c:v>1275.4417106185654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3529.8978333512246</c:v>
+                  <c:v>1526.2462083707894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4118.0891605064835</c:v>
+                  <c:v>1780.5665386606358</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4658.3825146052168</c:v>
+                  <c:v>2014.1768928499091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5196.4262574449331</c:v>
+                  <c:v>2246.814567144047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5749.0573232923252</c:v>
+                  <c:v>2485.7594626331984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6241.6026784184642</c:v>
+                  <c:v>2698.7246860482401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6964.2773168505264</c:v>
+                  <c:v>3011.1924907454413</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7491.2958786864538</c:v>
+                  <c:v>3239.0631316867589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8054.9138852363576</c:v>
+                  <c:v>3482.758526306613</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8595.7997708720613</c:v>
+                  <c:v>3716.6250774325495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9126.1456251848376</c:v>
+                  <c:v>3945.934362710525</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9648.7557369350634</c:v>
+                  <c:v>4171.898891762562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10488,46 +10491,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3168.4828946365287</c:v>
+                  <c:v>1321.2641269601243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3821.7757632805155</c:v>
+                  <c:v>1593.6886469723086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4467.5909510192942</c:v>
+                  <c:v>1862.994958093534</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5106.9723829564782</c:v>
+                  <c:v>2129.6183793192013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5751.3654118584536</c:v>
+                  <c:v>2398.331647171332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6368.502917946611</c:v>
+                  <c:v>2655.6793038609717</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7113.7444071295886</c:v>
+                  <c:v>2966.4465948085103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7811.4721747489775</c:v>
+                  <c:v>3257.4005624944307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8441.4018366427154</c:v>
+                  <c:v>3520.0825754468133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9090.7170164662093</c:v>
+                  <c:v>3790.8483907345303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9748.8836969293261</c:v>
+                  <c:v>4065.3053006734749</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10375.798545020501</c:v>
+                  <c:v>4326.7301298381417</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11000.716319000418</c:v>
+                  <c:v>4587.3221748376964</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11649.202127844559</c:v>
+                  <c:v>4857.7421406575759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11179,46 +11182,46 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2014.5585873835023</c:v>
+                  <c:v>845.51773756983494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2565.1965527105385</c:v>
+                  <c:v>1076.6225411625951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3057.3342658693541</c:v>
+                  <c:v>1283.1745711749252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3538.8982693804292</c:v>
+                  <c:v>1485.2887758913969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3994.9428154773404</c:v>
+                  <c:v>1676.6923693444573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4470.2962336913824</c:v>
+                  <c:v>1876.1999682951712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4934.6041982298211</c:v>
+                  <c:v>2071.0717492256417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5309.1314524983463</c:v>
+                  <c:v>2228.2622318805311</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5782.8011793013202</c:v>
+                  <c:v>2427.0631792791046</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6440.5812433779047</c:v>
+                  <c:v>2703.1359205136591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6913.5079660811843</c:v>
+                  <c:v>2901.6250263260345</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7377.3400798008224</c:v>
+                  <c:v>3096.2970908966768</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7843.7871581865265</c:v>
+                  <c:v>3292.0666658709001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8297.8157832806592</c:v>
+                  <c:v>3482.6241697755772</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -15592,10 +15595,10 @@
       <xdr:rowOff>56032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>97116</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>449035</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15622,16 +15625,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>612320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>145777</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>136815</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>258534</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>14354</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16495,140 +16498,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:AU39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ44" sqref="AJ44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="74" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="70"/>
-    <col min="28" max="28" width="9.54296875" style="74" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="11.81640625" customWidth="1"/>
-    <col min="34" max="34" width="10.54296875" customWidth="1"/>
-    <col min="40" max="40" width="9.1796875" style="71"/>
+    <col min="23" max="23" width="8.7109375" style="70"/>
+    <col min="28" max="28" width="9.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="11.85546875" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:47" ht="60" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="93"/>
+      <c r="AU1" s="93"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A2" s="109" t="s">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="109" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="112" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="112" t="s">
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="101" t="s">
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="101" t="s">
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="103"/>
-      <c r="AJ2" s="104" t="s">
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="104" t="s">
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="106"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="91"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -16771,7 +16775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>5.223518518518519E-2</v>
       </c>
@@ -16780,15 +16784,15 @@
       </c>
       <c r="C4" s="80">
         <f t="shared" ref="C4:C39" si="0">(A4/($K$43*$B$45))</f>
-        <v>0.48753122961441842</v>
+        <v>0.25164344215869794</v>
       </c>
       <c r="D4" s="29">
         <f t="shared" ref="D4:D39" si="1">((A4*$B$46)/($G$43*$B$45))</f>
-        <v>1245.929051827248</v>
+        <v>643.09700844251097</v>
       </c>
       <c r="E4" s="81">
         <f>((B4*$B$46)/(2*$B$47*$K$43*(C4^2)))</f>
-        <v>0.1775661610781116</v>
+        <v>0.6664903288642513</v>
       </c>
       <c r="F4" s="32">
         <v>0.01</v>
@@ -16801,11 +16805,11 @@
       </c>
       <c r="I4" s="31">
         <f t="shared" ref="I4:I39" si="2">(F4/($K$43*$B$45))</f>
-        <v>9.3333875985317796E-2</v>
+        <v>4.8175083761370183E-2</v>
       </c>
       <c r="J4" s="31">
         <f t="shared" ref="J4:J39" si="3">((F4*$B$46)/($G$43*$B$45))</f>
-        <v>238.52295103581164</v>
+        <v>123.11567503065052</v>
       </c>
       <c r="K4" s="30">
         <f>(G4*$B$46)/(2*$B$47*$K$43*H4^2)</f>
@@ -16819,15 +16823,15 @@
       </c>
       <c r="N4" s="35">
         <f t="shared" ref="N4:N39" si="4">(L4/($K$43*$C$45))</f>
-        <v>0.5076083833819266</v>
+        <v>0.23091334192201346</v>
       </c>
       <c r="O4" s="36">
         <f t="shared" ref="O4:O39" si="5">((L4*$C$46)/($G$43*$C$45))</f>
-        <v>2014.5585873835023</v>
+        <v>845.51773756983494</v>
       </c>
       <c r="P4" s="73">
         <f t="shared" ref="P4:P39" si="6">((M4*$C$46)/(2*$C$47*$K$43*(N4^2)))</f>
-        <v>0.12789051006890009</v>
+        <v>0.57019107907306088</v>
       </c>
       <c r="Q4" s="37">
         <v>0.01</v>
@@ -16843,15 +16847,15 @@
       </c>
       <c r="U4" s="35">
         <f t="shared" ref="U4:U39" si="7">(Q4/($K$43*$C$45))</f>
-        <v>9.3333875985317796E-2</v>
+        <v>4.2458000939059846E-2</v>
       </c>
       <c r="V4" s="35">
         <f t="shared" ref="V4:V39" si="8">((Q4*$C$46)/($G$43*$C$45))</f>
-        <v>370.41658001644328</v>
+        <v>155.46521737083518</v>
       </c>
       <c r="W4" s="38">
-        <f t="shared" ref="W4:W33" si="9">(R4*$C$46)/(2*$C$47*$K$43*(T4^2))</f>
-        <v>0.4925051948291615</v>
+        <f t="shared" ref="W4:W35" si="9">(R4*$C$46)/(2*$C$47*$K$43*(T4^2))</f>
+        <v>0.45439484503111255</v>
       </c>
       <c r="X4" s="39">
         <v>5.5077499999999995E-2</v>
@@ -16865,7 +16869,7 @@
       </c>
       <c r="AA4" s="40">
         <f t="shared" ref="AA4:AA17" si="10">((X4*$D$46)/($G$43*$D$45))</f>
-        <v>2323.1805772199273</v>
+        <v>1004.4895673301418</v>
       </c>
       <c r="AB4" s="76">
         <f t="shared" ref="AB4:AB17" si="11">((Y4*$D$46)/(2*$D$47*$K$43*(Z4^2)))</f>
@@ -16883,7 +16887,7 @@
       </c>
       <c r="AG4" s="41">
         <f t="shared" ref="AG4:AG17" si="12">(AC4/($K$43*$D$45))</f>
-        <v>9.3333875985317796E-2</v>
+        <v>4.0355410003439326E-2</v>
       </c>
       <c r="AH4" s="41"/>
       <c r="AI4" s="41"/>
@@ -16895,15 +16899,15 @@
       </c>
       <c r="AL4" s="83">
         <f>(AJ4/($K$43*$E$45))</f>
-        <v>0.59232011047182298</v>
+        <v>0.24699874977019706</v>
       </c>
       <c r="AM4" s="43">
         <f t="shared" ref="AM4:AM17" si="13">((AJ4*$E$46)/($G$43*$E$45))</f>
-        <v>3168.4828946365287</v>
+        <v>1321.2641269601243</v>
       </c>
       <c r="AN4" s="78">
         <f t="shared" ref="AN4:AN17" si="14">((AK4*$E$46)/(2*$E$47*$K$43*(AL4^2)))</f>
-        <v>9.2933841662738131E-2</v>
+        <v>0.53443800770937611</v>
       </c>
       <c r="AO4" s="44">
         <v>0.01</v>
@@ -16919,18 +16923,18 @@
       </c>
       <c r="AS4" s="44">
         <f t="shared" ref="AS4:AS17" si="15">(AO4/($K$43*$E$45))</f>
-        <v>9.3333875985317796E-2</v>
+        <v>3.8920425411888455E-2</v>
       </c>
       <c r="AT4" s="44">
         <f t="shared" ref="AT4:AT17" si="16">((AO4*$E$46)/($G$43*$E$45))</f>
-        <v>499.26852781351647</v>
+        <v>208.19604127793963</v>
       </c>
       <c r="AU4" s="44">
         <f>(AP4*$E$46)/(2*$E$47*$K$43*(AR4^2))</f>
         <v>0.35436307301442777</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>6.6125238095238084E-2</v>
       </c>
@@ -16939,15 +16943,15 @@
       </c>
       <c r="C5" s="80">
         <f t="shared" si="0"/>
-        <v>0.61717247718805635</v>
+        <v>0.31855888839786412</v>
       </c>
       <c r="D5" s="29">
         <f t="shared" si="1"/>
-        <v>1577.2386928421859</v>
+        <v>814.10533246577234</v>
       </c>
       <c r="E5" s="65">
         <f t="shared" ref="E5:E39" si="17">((B5*$B$46)/(2*$B$47*$K$43*(C5^2)))</f>
-        <v>0.17469418181334415</v>
+        <v>0.65571042354307862</v>
       </c>
       <c r="F5" s="32">
         <v>0.02</v>
@@ -16960,14 +16964,14 @@
       </c>
       <c r="I5" s="31">
         <f t="shared" si="2"/>
-        <v>0.18666775197063559</v>
+        <v>9.6350167522740365E-2</v>
       </c>
       <c r="J5" s="31">
         <f t="shared" si="3"/>
-        <v>477.04590207162329</v>
+        <v>246.23135006130104</v>
       </c>
       <c r="K5" s="30">
-        <f t="shared" ref="K5:K33" si="18">(G5*$B$46)/(2*$B$47*$K$43*H5^2)</f>
+        <f>(G5*$B$46)/(2*$B$47*$K$43*H5^2)</f>
         <v>0.47925835975445386</v>
       </c>
       <c r="L5" s="33">
@@ -16978,15 +16982,15 @@
       </c>
       <c r="N5" s="35">
         <f t="shared" si="4"/>
-        <v>0.64635264684432325</v>
+        <v>0.29402873283647923</v>
       </c>
       <c r="O5" s="36">
         <f t="shared" si="5"/>
-        <v>2565.1965527105385</v>
+        <v>1076.6225411625951</v>
       </c>
       <c r="P5" s="73">
         <f t="shared" si="6"/>
-        <v>0.12307164775234915</v>
+        <v>0.5487065115105545</v>
       </c>
       <c r="Q5" s="37">
         <v>0.02</v>
@@ -17002,15 +17006,15 @@
       </c>
       <c r="U5" s="35">
         <f t="shared" si="7"/>
-        <v>0.18666775197063559</v>
+        <v>8.4916001878119693E-2</v>
       </c>
       <c r="V5" s="35">
         <f t="shared" si="8"/>
-        <v>740.83316003288655</v>
+        <v>310.93043474167035</v>
       </c>
       <c r="W5" s="38">
         <f t="shared" si="9"/>
-        <v>0.36738459980746013</v>
+        <v>0.33895615731370088</v>
       </c>
       <c r="X5" s="39">
         <v>6.9934166666666672E-2</v>
@@ -17019,16 +17023,16 @@
         <v>2739.3333333333335</v>
       </c>
       <c r="Z5" s="40">
-        <f t="shared" ref="Z5:Z17" si="19">(X5/($K$43*$D$45))</f>
-        <v>0.65272268388032129</v>
+        <f t="shared" ref="Z5:Z17" si="18">(X5/($K$43*$D$45))</f>
+        <v>0.28222219690821931</v>
       </c>
       <c r="AA5" s="40">
         <f t="shared" si="10"/>
-        <v>2949.8379135592813</v>
+        <v>1275.4417106185654</v>
       </c>
       <c r="AB5" s="76">
         <f t="shared" si="11"/>
-        <v>0.10408170157403078</v>
+        <v>0.5567361975526568</v>
       </c>
       <c r="AC5" s="41">
         <v>0.02</v>
@@ -17044,11 +17048,11 @@
       </c>
       <c r="AG5" s="41">
         <f t="shared" si="12"/>
-        <v>0.18666775197063559</v>
+        <v>8.0710820006878653E-2</v>
       </c>
       <c r="AH5" s="41">
-        <f t="shared" ref="AH5:AH17" si="20">((AC5*$D$46)/($G$43*$D$45))</f>
-        <v>843.60422213060781</v>
+        <f t="shared" ref="AH5:AH17" si="19">((AC5*$D$46)/($G$43*$D$45))</f>
+        <v>364.75496067546345</v>
       </c>
       <c r="AI5" s="41">
         <f>(AD5*$D$46)/(2*$D$47*$K$43*AF5^2)</f>
@@ -17061,16 +17065,16 @@
         <v>2476.166666666667</v>
       </c>
       <c r="AL5" s="43">
-        <f t="shared" ref="AL5:AL17" si="21">(AJ5/($K$43*$E$45))</f>
-        <v>0.71444748719861151</v>
+        <f t="shared" ref="AL5:AL17" si="20">(AJ5/($K$43*$E$45))</f>
+        <v>0.29792612642165317</v>
       </c>
       <c r="AM5" s="43">
         <f t="shared" si="13"/>
-        <v>3821.7757632805155</v>
+        <v>1593.6886469723086</v>
       </c>
       <c r="AN5" s="78">
         <f t="shared" si="14"/>
-        <v>9.2950472422897459E-2</v>
+        <v>0.53453364682390336</v>
       </c>
       <c r="AO5" s="44">
         <v>0.02</v>
@@ -17086,18 +17090,18 @@
       </c>
       <c r="AS5" s="44">
         <f t="shared" si="15"/>
-        <v>0.18666775197063559</v>
+        <v>7.7840850823776911E-2</v>
       </c>
       <c r="AT5" s="44">
         <f t="shared" si="16"/>
-        <v>998.53705562703294</v>
+        <v>416.39208255587926</v>
       </c>
       <c r="AU5" s="44">
-        <f t="shared" ref="AU5:AU33" si="22">(AP5*$E$46)/(2*$E$47*$K$43*(AR5^2))</f>
+        <f t="shared" ref="AU5:AU33" si="21">(AP5*$E$46)/(2*$E$47*$K$43*(AR5^2))</f>
         <v>0.27384211991944757</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>7.877045454545456E-2</v>
       </c>
@@ -17106,15 +17110,15 @@
       </c>
       <c r="C6" s="80">
         <f t="shared" si="0"/>
-        <v>0.73519518358525693</v>
+        <v>0.37947732456484762</v>
       </c>
       <c r="D6" s="29">
         <f t="shared" si="1"/>
-        <v>1878.8561272614083</v>
+        <v>969.78776838348119</v>
       </c>
       <c r="E6" s="65">
         <f t="shared" si="17"/>
-        <v>0.17250391315998354</v>
+        <v>0.6474893026593691</v>
       </c>
       <c r="F6" s="32">
         <v>0.03</v>
@@ -17127,14 +17131,14 @@
       </c>
       <c r="I6" s="31">
         <f t="shared" si="2"/>
-        <v>0.2800016279559534</v>
+        <v>0.14452525128411053</v>
       </c>
       <c r="J6" s="31">
         <f t="shared" si="3"/>
-        <v>715.56885310743485</v>
+        <v>369.34702509195154</v>
       </c>
       <c r="K6" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="K5:K33" si="22">(G6*$B$46)/(2*$B$47*$K$43*H6^2)</f>
         <v>0.40960478002751072</v>
       </c>
       <c r="L6" s="33">
@@ -17145,15 +17149,15 @@
       </c>
       <c r="N6" s="35">
         <f t="shared" si="4"/>
-        <v>0.77035660013827079</v>
+        <v>0.35043869020533186</v>
       </c>
       <c r="O6" s="36">
         <f t="shared" si="5"/>
-        <v>3057.3342658693541</v>
+        <v>1283.1745711749252</v>
       </c>
       <c r="P6" s="73">
         <f t="shared" si="6"/>
-        <v>0.12085638889318363</v>
+        <v>0.5388299316247348</v>
       </c>
       <c r="Q6" s="37">
         <v>0.03</v>
@@ -17169,15 +17173,15 @@
       </c>
       <c r="U6" s="35">
         <f t="shared" si="7"/>
-        <v>0.2800016279559534</v>
+        <v>0.12737400281717953</v>
       </c>
       <c r="V6" s="35">
         <f t="shared" si="8"/>
-        <v>1111.2497400493296</v>
+        <v>466.39565211250545</v>
       </c>
       <c r="W6" s="38">
         <f t="shared" si="9"/>
-        <v>0.31931489090911425</v>
+        <v>0.29460611155807942</v>
       </c>
       <c r="X6" s="39">
         <v>8.36861111111111E-2</v>
@@ -17186,16 +17190,16 @@
         <v>3868.9999999999995</v>
       </c>
       <c r="Z6" s="40">
-        <f t="shared" si="19"/>
-        <v>0.78107491161379694</v>
+        <f t="shared" si="18"/>
+        <v>0.33771873254822676</v>
       </c>
       <c r="AA6" s="40">
         <f t="shared" si="10"/>
-        <v>3529.8978333512246</v>
+        <v>1526.2462083707894</v>
       </c>
       <c r="AB6" s="76">
         <f t="shared" si="11"/>
-        <v>0.10265976510215137</v>
+        <v>0.54913021597718725</v>
       </c>
       <c r="AC6" s="41">
         <v>0.03</v>
@@ -17211,11 +17215,11 @@
       </c>
       <c r="AG6" s="41">
         <f t="shared" si="12"/>
-        <v>0.2800016279559534</v>
+        <v>0.12106623001031797</v>
       </c>
       <c r="AH6" s="41">
-        <f t="shared" si="20"/>
-        <v>1265.4063331959117</v>
+        <f t="shared" si="19"/>
+        <v>547.13244101319515</v>
       </c>
       <c r="AI6" s="41">
         <f t="shared" ref="AI6:AI33" si="23">(AD6*$D$46)/(2*$D$47*$K$43*AF6^2)</f>
@@ -17228,16 +17232,16 @@
         <v>3366.636363636364</v>
       </c>
       <c r="AL6" s="43">
-        <f t="shared" si="21"/>
-        <v>0.83517697701007421</v>
+        <f t="shared" si="20"/>
+        <v>0.34827058124705385</v>
       </c>
       <c r="AM6" s="43">
         <f t="shared" si="13"/>
-        <v>4467.5909510192942</v>
+        <v>1862.994958093534</v>
       </c>
       <c r="AN6" s="78">
         <f t="shared" si="14"/>
-        <v>9.2480791296116596E-2</v>
+        <v>0.53183263456438223</v>
       </c>
       <c r="AO6" s="44">
         <v>0.03</v>
@@ -17253,18 +17257,18 @@
       </c>
       <c r="AS6" s="44">
         <f t="shared" si="15"/>
-        <v>0.2800016279559534</v>
+        <v>0.11676127623566536</v>
       </c>
       <c r="AT6" s="44">
         <f t="shared" si="16"/>
-        <v>1497.8055834405495</v>
+        <v>624.58812383381894</v>
       </c>
       <c r="AU6" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.24525049008142019</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>9.1548333333333343E-2</v>
       </c>
@@ -17273,15 +17277,15 @@
       </c>
       <c r="C7" s="80">
         <f t="shared" si="0"/>
-        <v>0.85445607899958698</v>
+        <v>0.4410348626547172</v>
       </c>
       <c r="D7" s="29">
         <f t="shared" si="1"/>
-        <v>2183.637862907683</v>
+        <v>1127.1034856264339</v>
       </c>
       <c r="E7" s="65">
         <f t="shared" si="17"/>
-        <v>0.16835526650682822</v>
+        <v>0.63191745690106194</v>
       </c>
       <c r="F7" s="32">
         <v>0.04</v>
@@ -17294,14 +17298,14 @@
       </c>
       <c r="I7" s="31">
         <f t="shared" si="2"/>
-        <v>0.37333550394127119</v>
+        <v>0.19270033504548073</v>
       </c>
       <c r="J7" s="31">
         <f t="shared" si="3"/>
-        <v>954.09180414324658</v>
+        <v>492.46270012260209</v>
       </c>
       <c r="K7" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.37053419220885125</v>
       </c>
       <c r="L7" s="33">
@@ -17312,15 +17316,15 @@
       </c>
       <c r="N7" s="35">
         <f t="shared" si="4"/>
-        <v>0.89169629551772867</v>
+        <v>0.40563666463828785</v>
       </c>
       <c r="O7" s="36">
         <f t="shared" si="5"/>
-        <v>3538.8982693804292</v>
+        <v>1485.2887758913969</v>
       </c>
       <c r="P7" s="73">
         <f t="shared" si="6"/>
-        <v>0.11820765642486089</v>
+        <v>0.52702073934396942</v>
       </c>
       <c r="Q7" s="37">
         <v>0.04</v>
@@ -17336,15 +17340,15 @@
       </c>
       <c r="U7" s="35">
         <f t="shared" si="7"/>
-        <v>0.37333550394127119</v>
+        <v>0.16983200375623939</v>
       </c>
       <c r="V7" s="35">
         <f t="shared" si="8"/>
-        <v>1481.6663200657731</v>
+        <v>621.86086948334071</v>
       </c>
       <c r="W7" s="38">
         <f t="shared" si="9"/>
-        <v>0.29231353196312237</v>
+        <v>0.26969413409528459</v>
       </c>
       <c r="X7" s="39">
         <v>9.7630833333333319E-2</v>
@@ -17353,16 +17357,16 @@
         <v>5087.9166666666661</v>
       </c>
       <c r="Z7" s="40">
-        <f t="shared" si="19"/>
-        <v>0.91122640906765628</v>
+        <f t="shared" si="18"/>
+        <v>0.39399323081441168</v>
       </c>
       <c r="AA7" s="40">
         <f t="shared" si="10"/>
-        <v>4118.0891605064835</v>
+        <v>1780.5665386606358</v>
       </c>
       <c r="AB7" s="76">
         <f t="shared" si="11"/>
-        <v>9.9191465517190783E-2</v>
+        <v>0.53057817566940102</v>
       </c>
       <c r="AC7" s="41">
         <v>0.04</v>
@@ -17378,11 +17382,11 @@
       </c>
       <c r="AG7" s="41">
         <f t="shared" si="12"/>
-        <v>0.37333550394127119</v>
+        <v>0.16142164001375731</v>
       </c>
       <c r="AH7" s="41">
-        <f t="shared" si="20"/>
-        <v>1687.2084442612156</v>
+        <f t="shared" si="19"/>
+        <v>729.5099213509269</v>
       </c>
       <c r="AI7" s="41">
         <f t="shared" si="23"/>
@@ -17395,16 +17399,16 @@
         <v>4342.272727272727</v>
       </c>
       <c r="AL7" s="43">
-        <f t="shared" si="21"/>
-        <v>0.95470373255599905</v>
+        <f t="shared" si="20"/>
+        <v>0.39811349331771506</v>
       </c>
       <c r="AM7" s="43">
         <f t="shared" si="13"/>
-        <v>5106.9723829564782</v>
+        <v>2129.6183793192013</v>
       </c>
       <c r="AN7" s="78">
         <f t="shared" si="14"/>
-        <v>9.1283484672951373E-2</v>
+        <v>0.52494724002076865</v>
       </c>
       <c r="AO7" s="44">
         <v>0.04</v>
@@ -17420,18 +17424,18 @@
       </c>
       <c r="AS7" s="44">
         <f t="shared" si="15"/>
-        <v>0.37333550394127119</v>
+        <v>0.15568170164755382</v>
       </c>
       <c r="AT7" s="44">
         <f t="shared" si="16"/>
-        <v>1997.0741112540659</v>
+        <v>832.78416511175851</v>
       </c>
       <c r="AU7" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.22969345386516304</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>0.10299750000000001</v>
       </c>
@@ -17440,15 +17444,15 @@
       </c>
       <c r="C8" s="80">
         <f t="shared" si="0"/>
-        <v>0.96131558917977711</v>
+        <v>0.49619131897117258</v>
       </c>
       <c r="D8" s="29">
         <f t="shared" si="1"/>
-        <v>2456.7267649311011</v>
+        <v>1268.0606738969427</v>
       </c>
       <c r="E8" s="65">
         <f t="shared" si="17"/>
-        <v>0.16716685563905187</v>
+        <v>0.62745678519829495</v>
       </c>
       <c r="F8" s="32">
         <v>0.05</v>
@@ -17461,14 +17465,14 @@
       </c>
       <c r="I8" s="31">
         <f t="shared" si="2"/>
-        <v>0.46666937992658902</v>
+        <v>0.24087541880685093</v>
       </c>
       <c r="J8" s="31">
         <f t="shared" si="3"/>
-        <v>1192.6147551790582</v>
+        <v>615.57837515325264</v>
       </c>
       <c r="K8" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.34489454768460226</v>
       </c>
       <c r="L8" s="33">
@@ -17479,15 +17483,15 @@
       </c>
       <c r="N8" s="35">
         <f t="shared" si="4"/>
-        <v>1.0066058525016526</v>
+        <v>0.45790954012776042</v>
       </c>
       <c r="O8" s="36">
         <f t="shared" si="5"/>
-        <v>3994.9428154773404</v>
+        <v>1676.6923693444573</v>
       </c>
       <c r="P8" s="73">
         <f t="shared" si="6"/>
-        <v>0.11670056176064904</v>
+        <v>0.5203014610144886</v>
       </c>
       <c r="Q8" s="37">
         <v>0.05</v>
@@ -17503,15 +17507,15 @@
       </c>
       <c r="U8" s="35">
         <f t="shared" si="7"/>
-        <v>0.46666937992658902</v>
+        <v>0.21229000469529924</v>
       </c>
       <c r="V8" s="35">
         <f t="shared" si="8"/>
-        <v>1852.0829000822164</v>
+        <v>777.32608685417574</v>
       </c>
       <c r="W8" s="38">
         <f t="shared" si="9"/>
-        <v>0.2744525851690367</v>
+        <v>0.25321527816479494</v>
       </c>
       <c r="X8" s="39">
         <v>0.11044</v>
@@ -17520,16 +17524,16 @@
         <v>6389.8333333333321</v>
       </c>
       <c r="Z8" s="40">
-        <f t="shared" si="19"/>
-        <v>1.0307793263818497</v>
+        <f t="shared" si="18"/>
+        <v>0.44568514807798387</v>
       </c>
       <c r="AA8" s="40">
         <f t="shared" si="10"/>
-        <v>4658.3825146052168</v>
+        <v>2014.1768928499091</v>
       </c>
       <c r="AB8" s="76">
         <f t="shared" si="11"/>
-        <v>9.7352037298294752E-2</v>
+        <v>0.52073901800026123</v>
       </c>
       <c r="AC8" s="41">
         <v>0.05</v>
@@ -17545,11 +17549,11 @@
       </c>
       <c r="AG8" s="41">
         <f t="shared" si="12"/>
-        <v>0.46666937992658902</v>
+        <v>0.20177705001719662</v>
       </c>
       <c r="AH8" s="41">
-        <f t="shared" si="20"/>
-        <v>2109.0105553265194</v>
+        <f t="shared" si="19"/>
+        <v>911.88740168865854</v>
       </c>
       <c r="AI8" s="41">
         <f t="shared" si="23"/>
@@ -17562,16 +17566,16 @@
         <v>5429.75</v>
       </c>
       <c r="AL8" s="43">
-        <f t="shared" si="21"/>
-        <v>1.0751673622358671</v>
+        <f t="shared" si="20"/>
+        <v>0.44834708390103339</v>
       </c>
       <c r="AM8" s="43">
         <f t="shared" si="13"/>
-        <v>5751.3654118584536</v>
+        <v>2398.331647171332</v>
       </c>
       <c r="AN8" s="78">
         <f t="shared" si="14"/>
-        <v>8.9999489019074605E-2</v>
+        <v>0.5175633197298618</v>
       </c>
       <c r="AO8" s="44">
         <v>0.05</v>
@@ -17587,18 +17591,18 @@
       </c>
       <c r="AS8" s="44">
         <f t="shared" si="15"/>
-        <v>0.46666937992658902</v>
+        <v>0.1946021270594423</v>
       </c>
       <c r="AT8" s="44">
         <f t="shared" si="16"/>
-        <v>2496.3426390675827</v>
+        <v>1040.9802063896982</v>
       </c>
       <c r="AU8" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.2193970587837665</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>0.1149957894736842</v>
       </c>
@@ -17607,15 +17611,15 @@
       </c>
       <c r="C9" s="80">
         <f t="shared" si="0"/>
-        <v>1.0733002753570555</v>
+        <v>0.55399317900996281</v>
       </c>
       <c r="D9" s="29">
         <f t="shared" si="1"/>
-        <v>2742.9135061956081</v>
+        <v>1415.7784246735207</v>
       </c>
       <c r="E9" s="65">
         <f t="shared" si="17"/>
-        <v>0.16397516764683712</v>
+        <v>0.61547686083293374</v>
       </c>
       <c r="F9" s="32">
         <v>0.06</v>
@@ -17628,14 +17632,14 @@
       </c>
       <c r="I9" s="31">
         <f t="shared" si="2"/>
-        <v>0.56000325591190681</v>
+        <v>0.28905050256822107</v>
       </c>
       <c r="J9" s="31">
         <f t="shared" si="3"/>
-        <v>1431.1377062148697</v>
+        <v>738.69405018390307</v>
       </c>
       <c r="K9" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.32649752190064257</v>
       </c>
       <c r="L9" s="33">
@@ -17646,15 +17650,15 @@
       </c>
       <c r="N9" s="35">
         <f t="shared" si="4"/>
-        <v>1.1263806665308107</v>
+        <v>0.51239564297990914</v>
       </c>
       <c r="O9" s="36">
         <f t="shared" si="5"/>
-        <v>4470.2962336913824</v>
+        <v>1876.1999682951712</v>
       </c>
       <c r="P9" s="73">
         <f t="shared" si="6"/>
-        <v>0.11344244452702318</v>
+        <v>0.50577536849842286</v>
       </c>
       <c r="Q9" s="37">
         <v>0.06</v>
@@ -17670,15 +17674,15 @@
       </c>
       <c r="U9" s="35">
         <f t="shared" si="7"/>
-        <v>0.56000325591190681</v>
+        <v>0.25474800563435906</v>
       </c>
       <c r="V9" s="35">
         <f t="shared" si="8"/>
-        <v>2222.4994800986592</v>
+        <v>932.79130422501089</v>
       </c>
       <c r="W9" s="38">
         <f t="shared" si="9"/>
-        <v>0.26154027412895087</v>
+        <v>0.24130212956117755</v>
       </c>
       <c r="X9" s="39">
         <v>0.12319583333333334</v>
@@ -17687,16 +17691,16 @@
         <v>7800.6666666666652</v>
       </c>
       <c r="Z9" s="40">
-        <f t="shared" si="19"/>
-        <v>1.1498344630241215</v>
+        <f t="shared" si="18"/>
+        <v>0.49716183648820439</v>
       </c>
       <c r="AA9" s="40">
         <f t="shared" si="10"/>
-        <v>5196.4262574449331</v>
+        <v>2246.814567144047</v>
       </c>
       <c r="AB9" s="76">
         <f t="shared" si="11"/>
-        <v>9.5509812168053071E-2</v>
+        <v>0.5108848995669919</v>
       </c>
       <c r="AC9" s="41">
         <v>0.06</v>
@@ -17712,11 +17716,11 @@
       </c>
       <c r="AG9" s="41">
         <f t="shared" si="12"/>
-        <v>0.56000325591190681</v>
+        <v>0.24213246002063593</v>
       </c>
       <c r="AH9" s="41">
-        <f t="shared" si="20"/>
-        <v>2530.8126663918233</v>
+        <f t="shared" si="19"/>
+        <v>1094.2648820263903</v>
       </c>
       <c r="AI9" s="41">
         <f t="shared" si="23"/>
@@ -17729,16 +17733,16 @@
         <v>6623.3333333333339</v>
       </c>
       <c r="AL9" s="43">
-        <f t="shared" si="21"/>
-        <v>1.1905358107767186</v>
+        <f t="shared" si="20"/>
+        <v>0.49645597307891176</v>
       </c>
       <c r="AM9" s="43">
         <f t="shared" si="13"/>
-        <v>6368.502917946611</v>
+        <v>2655.6793038609717</v>
       </c>
       <c r="AN9" s="78">
         <f t="shared" si="14"/>
-        <v>8.9537309551429439E-2</v>
+        <v>0.51490544753311296</v>
       </c>
       <c r="AO9" s="44">
         <v>0.06</v>
@@ -17754,18 +17758,18 @@
       </c>
       <c r="AS9" s="44">
         <f t="shared" si="15"/>
-        <v>0.56000325591190681</v>
+        <v>0.23352255247133072</v>
       </c>
       <c r="AT9" s="44">
         <f t="shared" si="16"/>
-        <v>2995.6111668810991</v>
+        <v>1249.1762476676379</v>
       </c>
       <c r="AU9" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.21178118096271273</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>0.12678692307692307</v>
       </c>
@@ -17774,15 +17778,15 @@
       </c>
       <c r="C10" s="80">
         <f t="shared" si="0"/>
-        <v>1.1833514955021567</v>
+        <v>0.61079706390771671</v>
       </c>
       <c r="D10" s="29">
         <f t="shared" si="1"/>
-        <v>3024.1591045058135</v>
+        <v>1560.9457619674545</v>
       </c>
       <c r="E10" s="65">
         <f t="shared" si="17"/>
-        <v>0.16122591124619493</v>
+        <v>0.6051575928402555</v>
       </c>
       <c r="F10" s="32">
         <v>7.0000000000000007E-2</v>
@@ -17795,14 +17799,14 @@
       </c>
       <c r="I10" s="31">
         <f t="shared" si="2"/>
-        <v>0.65333713189722464</v>
+        <v>0.33722558632959132</v>
       </c>
       <c r="J10" s="31">
         <f t="shared" si="3"/>
-        <v>1669.6606572506814</v>
+        <v>861.80972521455362</v>
       </c>
       <c r="K10" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.31250634993995002</v>
       </c>
       <c r="L10" s="33">
@@ -17813,15 +17817,15 @@
       </c>
       <c r="N10" s="35">
         <f t="shared" si="4"/>
-        <v>1.2433723572896378</v>
+        <v>0.56561569050993843</v>
       </c>
       <c r="O10" s="36">
         <f t="shared" si="5"/>
-        <v>4934.6041982298211</v>
+        <v>2071.0717492256417</v>
       </c>
       <c r="P10" s="73">
         <f t="shared" si="6"/>
-        <v>0.11113163384200939</v>
+        <v>0.49547277734203671</v>
       </c>
       <c r="Q10" s="37">
         <v>7.0000000000000007E-2</v>
@@ -17837,15 +17841,15 @@
       </c>
       <c r="U10" s="35">
         <f t="shared" si="7"/>
-        <v>0.65333713189722464</v>
+        <v>0.29720600657341895</v>
       </c>
       <c r="V10" s="35">
         <f t="shared" si="8"/>
-        <v>2592.9160601151029</v>
+        <v>1088.2565215958462</v>
       </c>
       <c r="W10" s="38">
         <f t="shared" si="9"/>
-        <v>0.25163376833372852</v>
+        <v>0.23216219517493958</v>
       </c>
       <c r="X10" s="39">
         <v>0.13629749999999999</v>
@@ -17854,16 +17858,16 @@
         <v>9282.0833333333303</v>
       </c>
       <c r="Z10" s="40">
-        <f t="shared" si="19"/>
-        <v>1.2721173962108852</v>
+        <f t="shared" si="18"/>
+        <v>0.55003414949437712</v>
       </c>
       <c r="AA10" s="40">
         <f t="shared" si="10"/>
-        <v>5749.0573232923252</v>
+        <v>2485.7594626331984</v>
       </c>
       <c r="AB10" s="76">
         <f t="shared" si="11"/>
-        <v>9.2849162989343453E-2</v>
+        <v>0.49665300592598721</v>
       </c>
       <c r="AC10" s="41">
         <v>7.0000000000000007E-2</v>
@@ -17879,11 +17883,11 @@
       </c>
       <c r="AG10" s="41">
         <f t="shared" si="12"/>
-        <v>0.65333713189722464</v>
+        <v>0.28248787002407527</v>
       </c>
       <c r="AH10" s="41">
-        <f t="shared" si="20"/>
-        <v>2952.6147774571277</v>
+        <f t="shared" si="19"/>
+        <v>1276.6423623641222</v>
       </c>
       <c r="AI10" s="41">
         <f t="shared" si="23"/>
@@ -17896,16 +17900,16 @@
         <v>8161.166666666667</v>
       </c>
       <c r="AL10" s="43">
-        <f t="shared" si="21"/>
-        <v>1.3298521763308033</v>
+        <f t="shared" si="20"/>
+        <v>0.55455119474372405</v>
       </c>
       <c r="AM10" s="43">
         <f t="shared" si="13"/>
-        <v>7113.7444071295886</v>
+        <v>2966.4465948085103</v>
       </c>
       <c r="AN10" s="78">
         <f t="shared" si="14"/>
-        <v>8.8421497337867833E-2</v>
+        <v>0.50848870584112771</v>
       </c>
       <c r="AO10" s="44">
         <v>7.0000000000000007E-2</v>
@@ -17921,18 +17925,18 @@
       </c>
       <c r="AS10" s="44">
         <f t="shared" si="15"/>
-        <v>0.65333713189722464</v>
+        <v>0.2724429778832192</v>
       </c>
       <c r="AT10" s="44">
         <f t="shared" si="16"/>
-        <v>3494.8796946946159</v>
+        <v>1457.3722889455776</v>
       </c>
       <c r="AU10" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.205622254503014</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>0.13850600000000002</v>
       </c>
@@ -17941,15 +17945,15 @@
       </c>
       <c r="C11" s="80">
         <f t="shared" si="0"/>
-        <v>1.2927301827222428</v>
+        <v>0.66725381514523396</v>
       </c>
       <c r="D11" s="29">
         <f t="shared" si="1"/>
-        <v>3303.6859856166129</v>
+        <v>1705.2259685795282</v>
       </c>
       <c r="E11" s="65">
         <f t="shared" si="17"/>
-        <v>0.15834618398840428</v>
+        <v>0.59434860561301039</v>
       </c>
       <c r="F11" s="32">
         <v>0.08</v>
@@ -17962,14 +17966,14 @@
       </c>
       <c r="I11" s="31">
         <f t="shared" si="2"/>
-        <v>0.74667100788254237</v>
+        <v>0.38540067009096146</v>
       </c>
       <c r="J11" s="31">
         <f t="shared" si="3"/>
-        <v>1908.1836082864932</v>
+        <v>984.92540024520417</v>
       </c>
       <c r="K11" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.30140979175575705</v>
       </c>
       <c r="L11" s="33">
@@ -17980,15 +17984,15 @@
       </c>
       <c r="N11" s="35">
         <f t="shared" si="4"/>
-        <v>1.3377419999807623</v>
+        <v>0.60854486639275296</v>
       </c>
       <c r="O11" s="36">
         <f t="shared" si="5"/>
-        <v>5309.1314524983463</v>
+        <v>2228.2622318805311</v>
       </c>
       <c r="P11" s="73">
         <f t="shared" si="6"/>
-        <v>0.10976365714739529</v>
+        <v>0.48937374695089525</v>
       </c>
       <c r="Q11" s="37">
         <v>0.08</v>
@@ -18004,15 +18008,15 @@
       </c>
       <c r="U11" s="35">
         <f t="shared" si="7"/>
-        <v>0.74667100788254237</v>
+        <v>0.33966400751247877</v>
       </c>
       <c r="V11" s="35">
         <f t="shared" si="8"/>
-        <v>2963.3326401315462</v>
+        <v>1243.7217389666814</v>
       </c>
       <c r="W11" s="38">
         <f t="shared" si="9"/>
-        <v>0.24371613468824641</v>
+        <v>0.22485723280880671</v>
       </c>
       <c r="X11" s="39">
         <v>0.14797466666666664</v>
@@ -18021,16 +18025,16 @@
         <v>10867.666666666666</v>
       </c>
       <c r="Z11" s="40">
-        <f t="shared" si="19"/>
-        <v>1.3811049187635405</v>
+        <f t="shared" si="18"/>
+        <v>0.5971578343455598</v>
       </c>
       <c r="AA11" s="40">
         <f t="shared" si="10"/>
-        <v>6241.6026784184642</v>
+        <v>2698.7246860482401</v>
       </c>
       <c r="AB11" s="76">
         <f t="shared" si="11"/>
-        <v>9.2229505144721377E-2</v>
+        <v>0.49333843720755433</v>
       </c>
       <c r="AC11" s="41">
         <v>0.08</v>
@@ -18046,11 +18050,11 @@
       </c>
       <c r="AG11" s="41">
         <f t="shared" si="12"/>
-        <v>0.74667100788254237</v>
+        <v>0.32284328002751461</v>
       </c>
       <c r="AH11" s="41">
-        <f t="shared" si="20"/>
-        <v>3374.4168885224312</v>
+        <f t="shared" si="19"/>
+        <v>1459.0198427018538</v>
       </c>
       <c r="AI11" s="41">
         <f t="shared" si="23"/>
@@ -18063,16 +18067,16 @@
         <v>9671.6666666666661</v>
       </c>
       <c r="AL11" s="43">
-        <f t="shared" si="21"/>
-        <v>1.4602862680202848</v>
+        <f t="shared" si="20"/>
+        <v>0.60894248925683814</v>
       </c>
       <c r="AM11" s="43">
         <f t="shared" si="13"/>
-        <v>7811.4721747489775</v>
+        <v>3257.4005624944307</v>
       </c>
       <c r="AN11" s="78">
         <f t="shared" si="14"/>
-        <v>8.6903580930181426E-2</v>
+        <v>0.49975956900271629</v>
       </c>
       <c r="AO11" s="44">
         <v>0.08</v>
@@ -18088,18 +18092,18 @@
       </c>
       <c r="AS11" s="44">
         <f t="shared" si="15"/>
-        <v>0.74667100788254237</v>
+        <v>0.31136340329510764</v>
       </c>
       <c r="AT11" s="44">
         <f t="shared" si="16"/>
-        <v>3994.1482225081318</v>
+        <v>1665.568330223517</v>
       </c>
       <c r="AU11" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.20044892158151983</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>0.152580625</v>
       </c>
@@ -18108,15 +18112,15 @@
       </c>
       <c r="C12" s="80">
         <f t="shared" si="0"/>
-        <v>1.4240941131512281</v>
+        <v>0.73505843897372136</v>
       </c>
       <c r="D12" s="29">
         <f t="shared" si="1"/>
-        <v>3639.3980945888534</v>
+        <v>1878.5066643473549</v>
       </c>
       <c r="E12" s="65">
         <f t="shared" si="17"/>
-        <v>0.15578521946335955</v>
+        <v>0.58473608666151999</v>
       </c>
       <c r="F12" s="32">
         <v>0.09</v>
@@ -18129,14 +18133,14 @@
       </c>
       <c r="I12" s="31">
         <f t="shared" si="2"/>
-        <v>0.84000488386786021</v>
+        <v>0.4335757538523316</v>
       </c>
       <c r="J12" s="31">
         <f t="shared" si="3"/>
-        <v>2146.7065593223047</v>
+        <v>1108.0410752758546</v>
       </c>
       <c r="K12" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.29232646961736897</v>
       </c>
       <c r="L12" s="33">
@@ -18147,15 +18151,15 @@
       </c>
       <c r="N12" s="35">
         <f t="shared" si="4"/>
-        <v>1.4570925742381715</v>
+        <v>0.66283798066024102</v>
       </c>
       <c r="O12" s="36">
         <f t="shared" si="5"/>
-        <v>5782.8011793013202</v>
+        <v>2427.0631792791046</v>
       </c>
       <c r="P12" s="73">
         <f t="shared" si="6"/>
-        <v>0.10702828659435989</v>
+        <v>0.47717828470385532</v>
       </c>
       <c r="Q12" s="37">
         <v>0.09</v>
@@ -18171,15 +18175,15 @@
       </c>
       <c r="U12" s="35">
         <f t="shared" si="7"/>
-        <v>0.84000488386786021</v>
+        <v>0.3821220084515386</v>
       </c>
       <c r="V12" s="35">
         <f t="shared" si="8"/>
-        <v>3333.749220147989</v>
+        <v>1399.1869563375164</v>
       </c>
       <c r="W12" s="38">
         <f t="shared" si="9"/>
-        <v>0.23718608825505438</v>
+        <v>0.21883248531739088</v>
       </c>
       <c r="X12" s="39">
         <v>0.16510769230769232</v>
@@ -18188,16 +18192,16 @@
         <v>13242.23076923077</v>
       </c>
       <c r="Z12" s="40">
-        <f t="shared" si="19"/>
-        <v>1.5410140878068164</v>
+        <f t="shared" si="18"/>
+        <v>0.66629886177986286</v>
       </c>
       <c r="AA12" s="40">
         <f t="shared" si="10"/>
-        <v>6964.2773168505264</v>
+        <v>3011.1924907454413</v>
       </c>
       <c r="AB12" s="76">
         <f t="shared" si="11"/>
-        <v>9.0268213435939576E-2</v>
+        <v>0.4828474280126086</v>
       </c>
       <c r="AC12" s="41">
         <v>0.09</v>
@@ -18213,11 +18217,11 @@
       </c>
       <c r="AG12" s="41">
         <f t="shared" si="12"/>
-        <v>0.84000488386786021</v>
+        <v>0.3631986900309539</v>
       </c>
       <c r="AH12" s="41">
-        <f t="shared" si="20"/>
-        <v>3796.2189995877347</v>
+        <f t="shared" si="19"/>
+        <v>1641.3973230395852</v>
       </c>
       <c r="AI12" s="41">
         <f t="shared" si="23"/>
@@ -18230,16 +18234,16 @@
         <v>11222.615384615385</v>
       </c>
       <c r="AL12" s="43">
-        <f t="shared" si="21"/>
-        <v>1.5780460979862216</v>
+        <f t="shared" si="20"/>
+        <v>0.65804858959094292</v>
       </c>
       <c r="AM12" s="43">
         <f t="shared" si="13"/>
-        <v>8441.4018366427154</v>
+        <v>3520.0825754468133</v>
       </c>
       <c r="AN12" s="78">
         <f t="shared" si="14"/>
-        <v>8.6350938598741017E-2</v>
+        <v>0.49658146874013676</v>
       </c>
       <c r="AO12" s="44">
         <v>0.09</v>
@@ -18255,18 +18259,18 @@
       </c>
       <c r="AS12" s="44">
         <f t="shared" si="15"/>
-        <v>0.84000488386786021</v>
+        <v>0.35028382870699609</v>
       </c>
       <c r="AT12" s="44">
         <f t="shared" si="16"/>
-        <v>4493.4167503216477</v>
+        <v>1873.7643715014565</v>
       </c>
       <c r="AU12" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.1960041459953919</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>0.16547241379310343</v>
       </c>
@@ -18275,15 +18279,15 @@
       </c>
       <c r="C13" s="80">
         <f t="shared" si="0"/>
-        <v>1.5444181747956707</v>
+        <v>0.79716473946788646</v>
       </c>
       <c r="D13" s="29">
         <f t="shared" si="1"/>
-        <v>3946.8968452949971</v>
+        <v>2037.2247923089053</v>
       </c>
       <c r="E13" s="65">
         <f t="shared" si="17"/>
-        <v>0.15370757107274227</v>
+        <v>0.57693768323420469</v>
       </c>
       <c r="F13" s="32">
         <v>0.1</v>
@@ -18296,14 +18300,14 @@
       </c>
       <c r="I13" s="31">
         <f t="shared" si="2"/>
-        <v>0.93333875985317805</v>
+        <v>0.48175083761370185</v>
       </c>
       <c r="J13" s="31">
         <f t="shared" si="3"/>
-        <v>2385.2295103581164</v>
+        <v>1231.1567503065053</v>
       </c>
       <c r="K13" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.28470436233237484</v>
       </c>
       <c r="L13" s="33">
@@ -18314,15 +18318,15 @@
       </c>
       <c r="N13" s="35">
         <f t="shared" si="4"/>
-        <v>1.6228334353071145</v>
+        <v>0.73823424552780903</v>
       </c>
       <c r="O13" s="36">
         <f t="shared" si="5"/>
-        <v>6440.5812433779047</v>
+        <v>2703.1359205136591</v>
       </c>
       <c r="P13" s="73">
         <f t="shared" si="6"/>
-        <v>0.10487317839404889</v>
+        <v>0.46756988241042086</v>
       </c>
       <c r="Q13" s="37">
         <v>0.1</v>
@@ -18338,15 +18342,15 @@
       </c>
       <c r="U13" s="35">
         <f t="shared" si="7"/>
-        <v>0.93333875985317805</v>
+        <v>0.42458000939059848</v>
       </c>
       <c r="V13" s="35">
         <f t="shared" si="8"/>
-        <v>3704.1658001644328</v>
+        <v>1554.6521737083515</v>
       </c>
       <c r="W13" s="38">
         <f t="shared" si="9"/>
-        <v>0.2316625740465354</v>
+        <v>0.21373638397844411</v>
       </c>
       <c r="X13" s="39">
         <v>0.17760214285714285</v>
@@ -18355,16 +18359,16 @@
         <v>15091.357142857139</v>
       </c>
       <c r="Z13" s="40">
-        <f t="shared" si="19"/>
-        <v>1.6576296376155266</v>
+        <f t="shared" si="18"/>
+        <v>0.71672072924894026</v>
       </c>
       <c r="AA13" s="40">
         <f t="shared" si="10"/>
-        <v>7491.2958786864538</v>
+        <v>3239.0631316867589</v>
       </c>
       <c r="AB13" s="76">
         <f t="shared" si="11"/>
-        <v>8.8907869616266094E-2</v>
+        <v>0.47557090741315833</v>
       </c>
       <c r="AC13" s="41">
         <v>0.1</v>
@@ -18380,11 +18384,11 @@
       </c>
       <c r="AG13" s="41">
         <f t="shared" si="12"/>
-        <v>0.93333875985317805</v>
+        <v>0.40355410003439324</v>
       </c>
       <c r="AH13" s="41">
-        <f t="shared" si="20"/>
-        <v>4218.0211106530387</v>
+        <f t="shared" si="19"/>
+        <v>1823.7748033773171</v>
       </c>
       <c r="AI13" s="41">
         <f t="shared" si="23"/>
@@ -18397,16 +18401,16 @@
         <v>12816.571428571428</v>
       </c>
       <c r="AL13" s="43">
-        <f t="shared" si="21"/>
-        <v>1.6994298806460941</v>
+        <f t="shared" si="20"/>
+        <v>0.70866588593005153</v>
       </c>
       <c r="AM13" s="43">
         <f t="shared" si="13"/>
-        <v>9090.7170164662093</v>
+        <v>3790.8483907345303</v>
       </c>
       <c r="AN13" s="78">
         <f t="shared" si="14"/>
-        <v>8.5031084222962017E-2</v>
+        <v>0.48899133439900311</v>
       </c>
       <c r="AO13" s="44">
         <v>0.1</v>
@@ -18422,18 +18426,18 @@
       </c>
       <c r="AS13" s="44">
         <f t="shared" si="15"/>
-        <v>0.93333875985317805</v>
+        <v>0.3892042541188846</v>
       </c>
       <c r="AT13" s="44">
         <f t="shared" si="16"/>
-        <v>4992.6852781351654</v>
+        <v>2081.9604127793964</v>
       </c>
       <c r="AU13" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.19213177731236256</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>0.17682533333333333</v>
       </c>
@@ -18442,15 +18446,15 @@
       </c>
       <c r="C14" s="80">
         <f t="shared" si="0"/>
-        <v>1.6503793732395815</v>
+        <v>0.8518575244465536</v>
       </c>
       <c r="D14" s="29">
         <f t="shared" si="1"/>
-        <v>4217.6900324557737</v>
+        <v>2176.997027585312</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="17"/>
-        <v>0.15214073226978705</v>
+        <v>0.57105659134868758</v>
       </c>
       <c r="F14" s="32">
         <v>0.11</v>
@@ -18463,14 +18467,14 @@
       </c>
       <c r="I14" s="31">
         <f t="shared" si="2"/>
-        <v>1.0266726358384959</v>
+        <v>0.529925921375072</v>
       </c>
       <c r="J14" s="31">
         <f t="shared" si="3"/>
-        <v>2623.7524613939281</v>
+        <v>1354.2724253371557</v>
       </c>
       <c r="K14" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.27819475257778276</v>
       </c>
       <c r="L14" s="33">
@@ -18481,15 +18485,15 @@
       </c>
       <c r="N14" s="35">
         <f t="shared" si="4"/>
-        <v>1.7419967948008264</v>
+        <v>0.79244219495531854</v>
       </c>
       <c r="O14" s="36">
         <f t="shared" si="5"/>
-        <v>6913.5079660811843</v>
+        <v>2901.6250263260345</v>
       </c>
       <c r="P14" s="73">
         <f t="shared" si="6"/>
-        <v>0.10270382003465613</v>
+        <v>0.45789794675880807</v>
       </c>
       <c r="Q14" s="37">
         <v>0.11</v>
@@ -18505,15 +18509,15 @@
       </c>
       <c r="U14" s="35">
         <f t="shared" si="7"/>
-        <v>1.0266726358384959</v>
+        <v>0.4670380103296583</v>
       </c>
       <c r="V14" s="35">
         <f t="shared" si="8"/>
-        <v>4074.5823801808756</v>
+        <v>1710.1173910791867</v>
       </c>
       <c r="W14" s="38">
         <f t="shared" si="9"/>
-        <v>0.22690615694899965</v>
+        <v>0.20934802131216243</v>
       </c>
       <c r="X14" s="39">
         <v>0.19096428571428573</v>
@@ -18522,16 +18526,16 @@
         <v>17242.142857142851</v>
       </c>
       <c r="Z14" s="40">
-        <f t="shared" si="19"/>
-        <v>1.782343696048194</v>
+        <f t="shared" si="18"/>
+        <v>0.77064420460139316</v>
       </c>
       <c r="AA14" s="40">
         <f t="shared" si="10"/>
-        <v>8054.9138852363576</v>
+        <v>3482.758526306613</v>
       </c>
       <c r="AB14" s="76">
         <f t="shared" si="11"/>
-        <v>8.7860818220478865E-2</v>
+        <v>0.46997019754853187</v>
       </c>
       <c r="AC14" s="41">
         <v>0.11</v>
@@ -18547,11 +18551,11 @@
       </c>
       <c r="AG14" s="41">
         <f t="shared" si="12"/>
-        <v>1.0266726358384959</v>
+        <v>0.44390951003783258</v>
       </c>
       <c r="AH14" s="41">
-        <f t="shared" si="20"/>
-        <v>4639.8232217183431</v>
+        <f t="shared" si="19"/>
+        <v>2006.152283715049</v>
       </c>
       <c r="AI14" s="41">
         <f t="shared" si="23"/>
@@ -18564,16 +18568,16 @@
         <v>14559.916666666666</v>
       </c>
       <c r="AL14" s="43">
-        <f t="shared" si="21"/>
-        <v>1.8224683737813103</v>
+        <f t="shared" si="20"/>
+        <v>0.75997320006767122</v>
       </c>
       <c r="AM14" s="43">
         <f t="shared" si="13"/>
-        <v>9748.8836969293261</v>
+        <v>4065.3053006734749</v>
       </c>
       <c r="AN14" s="78">
         <f t="shared" si="14"/>
-        <v>8.3994576150767025E-2</v>
+        <v>0.48303064990380168</v>
       </c>
       <c r="AO14" s="44">
         <v>0.11</v>
@@ -18589,18 +18593,18 @@
       </c>
       <c r="AS14" s="44">
         <f t="shared" si="15"/>
-        <v>1.0266726358384959</v>
+        <v>0.42812467953077299</v>
       </c>
       <c r="AT14" s="44">
         <f t="shared" si="16"/>
-        <v>5491.9538059486822</v>
+        <v>2290.1564540573363</v>
       </c>
       <c r="AU14" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.18871044836567716</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>0.18852307692307693</v>
       </c>
@@ -18609,15 +18613,15 @@
       </c>
       <c r="C15" s="80">
         <f t="shared" si="0"/>
-        <v>1.7595589481908991</v>
+        <v>0.90821150217204649</v>
       </c>
       <c r="D15" s="29">
         <f t="shared" si="1"/>
-        <v>4496.7080646043632</v>
+        <v>2321.014587423987</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="17"/>
-        <v>0.15022295564633673</v>
+        <v>0.56385826276687345</v>
       </c>
       <c r="F15" s="32">
         <v>0.12</v>
@@ -18630,14 +18634,14 @@
       </c>
       <c r="I15" s="31">
         <f t="shared" si="2"/>
-        <v>1.1200065118238136</v>
+        <v>0.57810100513644214</v>
       </c>
       <c r="J15" s="31">
         <f t="shared" si="3"/>
-        <v>2862.2754124297394</v>
+        <v>1477.3881003678061</v>
       </c>
       <c r="K15" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.27254534996084828</v>
       </c>
       <c r="L15" s="33">
@@ -18648,15 +18652,15 @@
       </c>
       <c r="N15" s="35">
         <f t="shared" si="4"/>
-        <v>1.8588685854155844</v>
+        <v>0.84560769936929558</v>
       </c>
       <c r="O15" s="36">
         <f t="shared" si="5"/>
-        <v>7377.3400798008224</v>
+        <v>3096.2970908966768</v>
       </c>
       <c r="P15" s="73">
         <f t="shared" si="6"/>
-        <v>0.10125538104008108</v>
+        <v>0.45144018071468722</v>
       </c>
       <c r="Q15" s="37">
         <v>0.12</v>
@@ -18672,15 +18676,15 @@
       </c>
       <c r="U15" s="35">
         <f t="shared" si="7"/>
-        <v>1.1200065118238136</v>
+        <v>0.50949601126871813</v>
       </c>
       <c r="V15" s="35">
         <f t="shared" si="8"/>
-        <v>4444.9989601973184</v>
+        <v>1865.5826084500218</v>
       </c>
       <c r="W15" s="38">
         <f t="shared" si="9"/>
-        <v>0.22274740764983122</v>
+        <v>0.20551107854859543</v>
       </c>
       <c r="X15" s="39">
         <v>0.20378749999999998</v>
@@ -18689,16 +18693,16 @@
         <v>19610.083333333336</v>
       </c>
       <c r="Z15" s="40">
-        <f t="shared" si="19"/>
-        <v>1.9020277252357949</v>
+        <f t="shared" si="18"/>
+        <v>0.82239281160758904</v>
       </c>
       <c r="AA15" s="40">
         <f t="shared" si="10"/>
-        <v>8595.7997708720613</v>
+        <v>3716.6250774325495</v>
       </c>
       <c r="AB15" s="76">
         <f t="shared" si="11"/>
-        <v>8.7747078545054757E-2</v>
+        <v>0.46936180055416249</v>
       </c>
       <c r="AC15" s="41">
         <v>0.12</v>
@@ -18714,11 +18718,11 @@
       </c>
       <c r="AG15" s="41">
         <f t="shared" si="12"/>
-        <v>1.1200065118238136</v>
+        <v>0.48426492004127186</v>
       </c>
       <c r="AH15" s="41">
-        <f t="shared" si="20"/>
-        <v>5061.6253327836466</v>
+        <f t="shared" si="19"/>
+        <v>2188.5297640527806</v>
       </c>
       <c r="AI15" s="41">
         <f t="shared" si="23"/>
@@ -18731,16 +18735,16 @@
         <v>16310.083333333334</v>
       </c>
       <c r="AL15" s="43">
-        <f t="shared" si="21"/>
-        <v>1.9396646107268747</v>
+        <f t="shared" si="20"/>
+        <v>0.80884428090986593</v>
       </c>
       <c r="AM15" s="43">
         <f t="shared" si="13"/>
-        <v>10375.798545020501</v>
+        <v>4326.7301298381417</v>
       </c>
       <c r="AN15" s="78">
         <f t="shared" si="14"/>
-        <v>8.3064460818753363E-2</v>
+        <v>0.47768180199126964</v>
       </c>
       <c r="AO15" s="44">
         <v>0.12</v>
@@ -18756,18 +18760,18 @@
       </c>
       <c r="AS15" s="44">
         <f t="shared" si="15"/>
-        <v>1.1200065118238136</v>
+        <v>0.46704510494266144</v>
       </c>
       <c r="AT15" s="44">
         <f t="shared" si="16"/>
-        <v>5991.2223337621981</v>
+        <v>2498.3524953352758</v>
       </c>
       <c r="AU15" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.18568567462706428</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>0.19990294117647056</v>
       </c>
@@ -18776,15 +18780,15 @@
       </c>
       <c r="C16" s="80">
         <f t="shared" si="0"/>
-        <v>1.8657716320864983</v>
+        <v>0.96303409353207259</v>
       </c>
       <c r="D16" s="29">
         <f t="shared" si="1"/>
-        <v>4768.1439450150019</v>
+        <v>2461.1185543553597</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="17"/>
-        <v>0.14814883262587747</v>
+        <v>0.55607309173193342</v>
       </c>
       <c r="F16" s="32">
         <v>0.13</v>
@@ -18797,14 +18801,14 @@
       </c>
       <c r="I16" s="31">
         <f t="shared" si="2"/>
-        <v>1.2133403878091316</v>
+        <v>0.62627608889781239</v>
       </c>
       <c r="J16" s="31">
         <f t="shared" si="3"/>
-        <v>3100.7983634655511</v>
+        <v>1600.5037753984568</v>
       </c>
       <c r="K16" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.2675818218172743</v>
       </c>
       <c r="L16" s="33">
@@ -18815,15 +18819,15 @@
       </c>
       <c r="N16" s="35">
         <f t="shared" si="4"/>
-        <v>1.9763992687500953</v>
+        <v>0.89907293705180646</v>
       </c>
       <c r="O16" s="36">
         <f t="shared" si="5"/>
-        <v>7843.7871581865265</v>
+        <v>3292.0666658709001</v>
       </c>
       <c r="P16" s="73">
         <f t="shared" si="6"/>
-        <v>9.9813876221234887E-2</v>
+        <v>0.44501333021808581</v>
       </c>
       <c r="Q16" s="37">
         <v>0.13</v>
@@ -18839,15 +18843,15 @@
       </c>
       <c r="U16" s="35">
         <f t="shared" si="7"/>
-        <v>1.2133403878091316</v>
+        <v>0.55195401220777796</v>
       </c>
       <c r="V16" s="35">
         <f t="shared" si="8"/>
-        <v>4815.4155402137621</v>
+        <v>2021.0478258208573</v>
       </c>
       <c r="W16" s="38">
         <f t="shared" si="9"/>
-        <v>0.21906698193128546</v>
+        <v>0.20211544639773613</v>
       </c>
       <c r="X16" s="39">
         <v>0.21636083333333334</v>
@@ -18856,16 +18860,16 @@
         <v>21914.083333333336</v>
       </c>
       <c r="Z16" s="40">
-        <f t="shared" si="19"/>
-        <v>2.0193795186413346</v>
+        <f t="shared" si="18"/>
+        <v>0.87313301378524688</v>
       </c>
       <c r="AA16" s="40">
         <f t="shared" si="10"/>
-        <v>9126.1456251848376</v>
+        <v>3945.934362710525</v>
       </c>
       <c r="AB16" s="76">
         <f t="shared" si="11"/>
-        <v>8.6991000882767983E-2</v>
+        <v>0.46531751806847838</v>
       </c>
       <c r="AC16" s="41">
         <v>0.13</v>
@@ -18881,11 +18885,11 @@
       </c>
       <c r="AG16" s="41">
         <f t="shared" si="12"/>
-        <v>1.2133403878091316</v>
+        <v>0.5246203300447112</v>
       </c>
       <c r="AH16" s="41">
-        <f t="shared" si="20"/>
-        <v>5483.427443848951</v>
+        <f t="shared" si="19"/>
+        <v>2370.9072443905125</v>
       </c>
       <c r="AI16" s="41">
         <f t="shared" si="23"/>
@@ -18898,16 +18902,16 @@
         <v>18105</v>
       </c>
       <c r="AL16" s="43">
-        <f t="shared" si="21"/>
-        <v>2.0564875121684971</v>
+        <f t="shared" si="20"/>
+        <v>0.85755968005041283</v>
       </c>
       <c r="AM16" s="43">
         <f t="shared" si="13"/>
-        <v>11000.716319000418</v>
+        <v>4587.3221748376964</v>
       </c>
       <c r="AN16" s="78">
         <f t="shared" si="14"/>
-        <v>8.202735929246828E-2</v>
+        <v>0.47171770469814778</v>
       </c>
       <c r="AO16" s="44">
         <v>0.13</v>
@@ -18923,18 +18927,18 @@
       </c>
       <c r="AS16" s="44">
         <f t="shared" si="15"/>
-        <v>1.2133403878091316</v>
+        <v>0.50596553035454994</v>
       </c>
       <c r="AT16" s="44">
         <f t="shared" si="16"/>
-        <v>6490.490861575714</v>
+        <v>2706.5485366132152</v>
       </c>
       <c r="AU16" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.1829454383499256</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>0.21117487179487177</v>
       </c>
@@ -18943,15 +18947,15 @@
       </c>
       <c r="C17" s="80">
         <f>(A17/($K$43*$B$45))</f>
-        <v>1.9709769295317947</v>
+        <v>1.0173367137014557</v>
       </c>
       <c r="D17" s="29">
         <f t="shared" si="1"/>
-        <v>5037.0053605121993</v>
+        <v>2599.8936890536716</v>
       </c>
       <c r="E17" s="79">
         <f>((B17*$B$46)/(2*$B$47*$K$43*(C17^2)))</f>
-        <v>0.14717439524511278</v>
+        <v>0.55241556438313977</v>
       </c>
       <c r="F17" s="32">
         <v>0.14000000000000001</v>
@@ -18964,14 +18968,14 @@
       </c>
       <c r="I17" s="31">
         <f t="shared" si="2"/>
-        <v>1.3066742637944493</v>
+        <v>0.67445117265918264</v>
       </c>
       <c r="J17" s="31">
         <f t="shared" si="3"/>
-        <v>3339.3213145013628</v>
+        <v>1723.6194504291072</v>
       </c>
       <c r="K17" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.26317270525089054</v>
       </c>
       <c r="L17" s="33">
@@ -18982,15 +18986,15 @@
       </c>
       <c r="N17" s="35">
         <f t="shared" si="4"/>
-        <v>2.0908008740627921</v>
+        <v>0.95111474303616861</v>
       </c>
       <c r="O17" s="36">
         <f t="shared" si="5"/>
-        <v>8297.8157832806592</v>
+        <v>3482.6241697755772</v>
       </c>
       <c r="P17" s="73">
         <f t="shared" si="6"/>
-        <v>9.8475658639371522E-2</v>
+        <v>0.4390469787927444</v>
       </c>
       <c r="Q17" s="37">
         <v>0.14000000000000001</v>
@@ -19006,15 +19010,15 @@
       </c>
       <c r="U17" s="35">
         <f t="shared" si="7"/>
-        <v>1.3066742637944493</v>
+        <v>0.59441201314683789</v>
       </c>
       <c r="V17" s="35">
         <f t="shared" si="8"/>
-        <v>5185.8321202302059</v>
+        <v>2176.5130431916923</v>
       </c>
       <c r="W17" s="38">
         <f t="shared" si="9"/>
-        <v>0.21577069709750943</v>
+        <v>0.19907423007768979</v>
       </c>
       <c r="X17" s="39">
         <v>0.22875076923076923</v>
@@ -19023,16 +19027,16 @@
         <v>24356.846153846156</v>
       </c>
       <c r="Z17" s="40">
-        <f t="shared" si="19"/>
-        <v>2.1350195926930668</v>
+        <f t="shared" si="18"/>
+        <v>0.92313310809098248</v>
       </c>
       <c r="AA17" s="40">
         <f t="shared" si="10"/>
-        <v>9648.7557369350634</v>
+        <v>4171.898891762562</v>
       </c>
       <c r="AB17" s="76">
         <f t="shared" si="11"/>
-        <v>8.6497635652732177E-2</v>
+        <v>0.4626784923990197</v>
       </c>
       <c r="AC17" s="41">
         <v>0.14000000000000001</v>
@@ -19048,11 +19052,11 @@
       </c>
       <c r="AG17" s="41">
         <f t="shared" si="12"/>
-        <v>1.3066742637944493</v>
+        <v>0.56497574004815054</v>
       </c>
       <c r="AH17" s="41">
-        <f t="shared" si="20"/>
-        <v>5905.2295549142555</v>
+        <f t="shared" si="19"/>
+        <v>2553.2847247282443</v>
       </c>
       <c r="AI17" s="41">
         <f t="shared" si="23"/>
@@ -19065,16 +19069,16 @@
         <v>19965.076923076926</v>
       </c>
       <c r="AL17" s="43">
-        <f t="shared" si="21"/>
-        <v>2.1777162511918884</v>
+        <f t="shared" si="20"/>
+        <v>0.90811232286232624</v>
       </c>
       <c r="AM17" s="43">
         <f t="shared" si="13"/>
-        <v>11649.202127844559</v>
+        <v>4857.7421406575759</v>
       </c>
       <c r="AN17" s="78">
         <f t="shared" si="14"/>
-        <v>8.0664186513269065E-2</v>
+        <v>0.4638784576462206</v>
       </c>
       <c r="AO17" s="44">
         <v>0.14000000000000001</v>
@@ -19090,18 +19094,18 @@
       </c>
       <c r="AS17" s="44">
         <f t="shared" si="15"/>
-        <v>1.3066742637944493</v>
+        <v>0.54488595576643839</v>
       </c>
       <c r="AT17" s="44">
         <f t="shared" si="16"/>
-        <v>6989.7593893892317</v>
+        <v>2914.7445778911551</v>
       </c>
       <c r="AU17" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.18045760924819249</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28">
@@ -19127,14 +19131,14 @@
       </c>
       <c r="I18" s="31">
         <f t="shared" si="2"/>
-        <v>1.400008139779767</v>
+        <v>0.72262625642055267</v>
       </c>
       <c r="J18" s="31">
         <f t="shared" si="3"/>
-        <v>3577.8442655371741</v>
+        <v>1846.7351254597575</v>
       </c>
       <c r="K18" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.25921548029271735</v>
       </c>
       <c r="L18" s="33"/>
@@ -19165,15 +19169,15 @@
       </c>
       <c r="U18" s="35">
         <f t="shared" si="7"/>
-        <v>1.400008139779767</v>
+        <v>0.63687001408589761</v>
       </c>
       <c r="V18" s="35">
         <f t="shared" si="8"/>
-        <v>5556.2487002466478</v>
+        <v>2331.9782605625273</v>
       </c>
       <c r="W18" s="38">
         <f t="shared" si="9"/>
-        <v>0.21278972275947258</v>
+        <v>0.19632392533655127</v>
       </c>
       <c r="X18" s="39"/>
       <c r="Y18" s="40"/>
@@ -19203,11 +19207,11 @@
       </c>
       <c r="AG18" s="41">
         <f t="shared" ref="AG18:AG33" si="27">(AC18/($K$43*$D$45))</f>
-        <v>1.400008139779767</v>
+        <v>0.60533115005158988</v>
       </c>
       <c r="AH18" s="41">
         <f t="shared" ref="AH18:AH33" si="28">((AC18*$D$46)/($G$43*$D$45))</f>
-        <v>6327.0316659795581</v>
+        <v>2735.6622050659753</v>
       </c>
       <c r="AI18" s="41">
         <f t="shared" si="23"/>
@@ -19241,18 +19245,18 @@
       </c>
       <c r="AS18" s="44">
         <f t="shared" ref="AS18:AS33" si="32">(AO18/($K$43*$E$45))</f>
-        <v>1.400008139779767</v>
+        <v>0.58380638117832684</v>
       </c>
       <c r="AT18" s="44">
         <f t="shared" ref="AT18:AT33" si="33">((AO18*$E$46)/($G$43*$E$45))</f>
-        <v>7489.0279172027476</v>
+        <v>3122.9406191690946</v>
       </c>
       <c r="AU18" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.17820246165239648</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28">
@@ -19278,14 +19282,14 @@
       </c>
       <c r="I19" s="31">
         <f t="shared" si="2"/>
-        <v>1.4933420157650847</v>
+        <v>0.77080134018192292</v>
       </c>
       <c r="J19" s="31">
         <f t="shared" si="3"/>
-        <v>3816.3672165729863</v>
+        <v>1969.8508004904083</v>
       </c>
       <c r="K19" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.25563460785573466</v>
       </c>
       <c r="L19" s="33"/>
@@ -19316,15 +19320,15 @@
       </c>
       <c r="U19" s="35">
         <f t="shared" si="7"/>
-        <v>1.4933420157650847</v>
+        <v>0.67932801502495754</v>
       </c>
       <c r="V19" s="35">
         <f t="shared" si="8"/>
-        <v>5926.6652802630924</v>
+        <v>2487.4434779333628</v>
       </c>
       <c r="W19" s="38">
         <f t="shared" si="9"/>
-        <v>0.21007861088792448</v>
+        <v>0.19382260094105644</v>
       </c>
       <c r="X19" s="39"/>
       <c r="Y19" s="40"/>
@@ -19354,11 +19358,11 @@
       </c>
       <c r="AG19" s="41">
         <f t="shared" si="27"/>
-        <v>1.4933420157650847</v>
+        <v>0.64568656005502922</v>
       </c>
       <c r="AH19" s="41">
         <f t="shared" si="28"/>
-        <v>6748.8337770448625</v>
+        <v>2918.0396854037076</v>
       </c>
       <c r="AI19" s="41">
         <f t="shared" si="23"/>
@@ -19392,18 +19396,18 @@
       </c>
       <c r="AS19" s="44">
         <f t="shared" si="32"/>
-        <v>1.4933420157650847</v>
+        <v>0.62272680659021529</v>
       </c>
       <c r="AT19" s="44">
         <f t="shared" si="33"/>
-        <v>7988.2964450162635</v>
+        <v>3331.136660447034</v>
       </c>
       <c r="AU19" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.17613708708849934</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28">
@@ -19429,14 +19433,14 @@
       </c>
       <c r="I20" s="31">
         <f t="shared" si="2"/>
-        <v>1.5866758917504027</v>
+        <v>0.81897642394329317</v>
       </c>
       <c r="J20" s="31">
         <f t="shared" si="3"/>
-        <v>4054.890167608798</v>
+        <v>2092.9664755210588</v>
       </c>
       <c r="K20" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.25237160429054073</v>
       </c>
       <c r="L20" s="33"/>
@@ -19467,15 +19471,15 @@
       </c>
       <c r="U20" s="35">
         <f t="shared" si="7"/>
-        <v>1.5866758917504027</v>
+        <v>0.72178601596401737</v>
       </c>
       <c r="V20" s="35">
         <f t="shared" si="8"/>
-        <v>6297.0818602795362</v>
+        <v>2642.9086953041983</v>
       </c>
       <c r="W20" s="38">
         <f t="shared" si="9"/>
-        <v>0.20760134862411656</v>
+        <v>0.191537030729244</v>
       </c>
       <c r="X20" s="39"/>
       <c r="Y20" s="40"/>
@@ -19505,11 +19509,11 @@
       </c>
       <c r="AG20" s="41">
         <f t="shared" si="27"/>
-        <v>1.5866758917504027</v>
+        <v>0.68604197005846856</v>
       </c>
       <c r="AH20" s="41">
         <f t="shared" si="28"/>
-        <v>7170.6358881101669</v>
+        <v>3100.4171657414395</v>
       </c>
       <c r="AI20" s="41">
         <f t="shared" si="23"/>
@@ -19543,18 +19547,18 @@
       </c>
       <c r="AS20" s="44">
         <f t="shared" si="32"/>
-        <v>1.5866758917504027</v>
+        <v>0.66164723200210374</v>
       </c>
       <c r="AT20" s="44">
         <f t="shared" si="33"/>
-        <v>8487.5649728297813</v>
+        <v>3539.332701724974</v>
       </c>
       <c r="AU20" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.17425075160304804</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28">
@@ -19579,15 +19583,15 @@
         <v>1.1877530000000001</v>
       </c>
       <c r="I21" s="31">
-        <f t="shared" si="2"/>
-        <v>1.6800097677357204</v>
+        <f>(F21/($K$43*$B$45))</f>
+        <v>0.8671515077046632</v>
       </c>
       <c r="J21" s="31">
         <f t="shared" si="3"/>
-        <v>4293.4131186446093</v>
+        <v>2216.0821505517092</v>
       </c>
       <c r="K21" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.2493803560891559</v>
       </c>
       <c r="L21" s="33"/>
@@ -19618,15 +19622,15 @@
       </c>
       <c r="U21" s="35">
         <f t="shared" si="7"/>
-        <v>1.6800097677357204</v>
+        <v>0.76424401690307719</v>
       </c>
       <c r="V21" s="35">
         <f t="shared" si="8"/>
-        <v>6667.4984402959781</v>
+        <v>2798.3739126750329</v>
       </c>
       <c r="W21" s="38">
         <f t="shared" si="9"/>
-        <v>0.20532893535691699</v>
+        <v>0.1894404581748084</v>
       </c>
       <c r="X21" s="39"/>
       <c r="Y21" s="40"/>
@@ -19656,11 +19660,11 @@
       </c>
       <c r="AG21" s="41">
         <f t="shared" si="27"/>
-        <v>1.6800097677357204</v>
+        <v>0.72639738006190779</v>
       </c>
       <c r="AH21" s="41">
         <f t="shared" si="28"/>
-        <v>7592.4379991754695</v>
+        <v>3282.7946460791704</v>
       </c>
       <c r="AI21" s="41">
         <f t="shared" si="23"/>
@@ -19694,18 +19698,18 @@
       </c>
       <c r="AS21" s="44">
         <f t="shared" si="32"/>
-        <v>1.6800097677357204</v>
+        <v>0.70056765741399218</v>
       </c>
       <c r="AT21" s="44">
         <f t="shared" si="33"/>
-        <v>8986.8335006432953</v>
+        <v>3747.528743002913</v>
       </c>
       <c r="AU21" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.17252297699775665</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28">
@@ -19731,14 +19735,14 @@
       </c>
       <c r="I22" s="31">
         <f t="shared" si="2"/>
-        <v>1.7733436437210381</v>
+        <v>0.91532659146603346</v>
       </c>
       <c r="J22" s="31">
         <f t="shared" si="3"/>
-        <v>4531.9360696804206</v>
+        <v>2339.1978255823597</v>
       </c>
       <c r="K22" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.24662267894697476</v>
       </c>
       <c r="L22" s="33"/>
@@ -19769,15 +19773,15 @@
       </c>
       <c r="U22" s="35">
         <f t="shared" si="7"/>
-        <v>1.7733436437210381</v>
+        <v>0.80670201784213702</v>
       </c>
       <c r="V22" s="35">
         <f t="shared" si="8"/>
-        <v>7037.9150203124218</v>
+        <v>2953.8391300458679</v>
       </c>
       <c r="W22" s="38">
         <f t="shared" si="9"/>
-        <v>0.20323551624066769</v>
+        <v>0.18750902909568315</v>
       </c>
       <c r="X22" s="39"/>
       <c r="Y22" s="40"/>
@@ -19807,11 +19811,11 @@
       </c>
       <c r="AG22" s="41">
         <f t="shared" si="27"/>
-        <v>1.7733436437210381</v>
+        <v>0.76675279006534713</v>
       </c>
       <c r="AH22" s="41">
         <f t="shared" si="28"/>
-        <v>8014.2401102407748</v>
+        <v>3465.1721264169028</v>
       </c>
       <c r="AI22" s="41">
         <f t="shared" si="23"/>
@@ -19845,18 +19849,18 @@
       </c>
       <c r="AS22" s="44">
         <f t="shared" si="32"/>
-        <v>1.7733436437210381</v>
+        <v>0.73948808282588063</v>
       </c>
       <c r="AT22" s="44">
         <f t="shared" si="33"/>
-        <v>9486.1020284568131</v>
+        <v>3955.7247842808529</v>
       </c>
       <c r="AU22" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.17094767906041766</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28">
@@ -19882,14 +19886,14 @@
       </c>
       <c r="I23" s="31">
         <f t="shared" si="2"/>
-        <v>1.8666775197063561</v>
+        <v>0.96350167522740371</v>
       </c>
       <c r="J23" s="31">
         <f t="shared" si="3"/>
-        <v>4770.4590207162328</v>
+        <v>2462.3135006130105</v>
       </c>
       <c r="K23" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.24406790753644483</v>
       </c>
       <c r="L23" s="33"/>
@@ -19920,15 +19924,15 @@
       </c>
       <c r="U23" s="35">
         <f t="shared" si="7"/>
-        <v>1.8666775197063561</v>
+        <v>0.84916001878119696</v>
       </c>
       <c r="V23" s="35">
         <f t="shared" si="8"/>
-        <v>7408.3316003288655</v>
+        <v>3109.304347416703</v>
       </c>
       <c r="W23" s="38">
         <f t="shared" si="9"/>
-        <v>0.20129271273250451</v>
+        <v>0.18571656089781183</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="40"/>
@@ -19958,11 +19962,11 @@
       </c>
       <c r="AG23" s="41">
         <f t="shared" si="27"/>
-        <v>1.8666775197063561</v>
+        <v>0.80710820006878647</v>
       </c>
       <c r="AH23" s="41">
         <f t="shared" si="28"/>
-        <v>8436.0422213060774</v>
+        <v>3647.5496067546342</v>
       </c>
       <c r="AI23" s="41">
         <f t="shared" si="23"/>
@@ -19996,18 +20000,18 @@
       </c>
       <c r="AS23" s="44">
         <f t="shared" si="32"/>
-        <v>1.8666775197063561</v>
+        <v>0.77840850823776919</v>
       </c>
       <c r="AT23" s="44">
         <f t="shared" si="33"/>
-        <v>9985.3705562703308</v>
+        <v>4163.9208255587928</v>
       </c>
       <c r="AU23" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.16948945461349474</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28">
@@ -20033,14 +20037,14 @@
       </c>
       <c r="I24" s="31">
         <f t="shared" si="2"/>
-        <v>1.9600113956916738</v>
+        <v>1.0116767589887738</v>
       </c>
       <c r="J24" s="31">
         <f t="shared" si="3"/>
-        <v>5008.981971752044</v>
+        <v>2585.4291756436605</v>
       </c>
       <c r="K24" s="30">
-        <f t="shared" si="18"/>
+        <f>(G24*$B$46)/(2*$B$47*$K$43*H24^2)</f>
         <v>0.24168897629210415</v>
       </c>
       <c r="L24" s="33"/>
@@ -20071,15 +20075,15 @@
       </c>
       <c r="U24" s="35">
         <f t="shared" si="7"/>
-        <v>1.9600113956916738</v>
+        <v>0.89161801972025667</v>
       </c>
       <c r="V24" s="35">
         <f t="shared" si="8"/>
-        <v>7778.7481803453074</v>
+        <v>3264.769564787538</v>
       </c>
       <c r="W24" s="38">
         <f t="shared" si="9"/>
-        <v>0.19948625006393408</v>
+        <v>0.18404988340291903</v>
       </c>
       <c r="X24" s="39"/>
       <c r="Y24" s="40"/>
@@ -20109,11 +20113,11 @@
       </c>
       <c r="AG24" s="41">
         <f t="shared" si="27"/>
-        <v>1.9600113956916738</v>
+        <v>0.84746361007222581</v>
       </c>
       <c r="AH24" s="41">
         <f t="shared" si="28"/>
-        <v>8857.8443323713818</v>
+        <v>3829.927087092366</v>
       </c>
       <c r="AI24" s="41">
         <f t="shared" si="23"/>
@@ -20147,18 +20151,18 @@
       </c>
       <c r="AS24" s="44">
         <f t="shared" si="32"/>
-        <v>1.9600113956916738</v>
+        <v>0.81732893364965753</v>
       </c>
       <c r="AT24" s="44">
         <f t="shared" si="33"/>
-        <v>10484.639084083845</v>
+        <v>4372.1168668367318</v>
       </c>
       <c r="AU24" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.1681388951589467</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28">
@@ -20184,14 +20188,14 @@
       </c>
       <c r="I25" s="31">
         <f t="shared" si="2"/>
-        <v>2.0533452716769918</v>
+        <v>1.059851842750144</v>
       </c>
       <c r="J25" s="31">
         <f t="shared" si="3"/>
-        <v>5247.5049227878562</v>
+        <v>2708.5448506743114</v>
       </c>
       <c r="K25" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.23946817137522983</v>
       </c>
       <c r="L25" s="33"/>
@@ -20222,15 +20226,15 @@
       </c>
       <c r="U25" s="35">
         <f t="shared" si="7"/>
-        <v>2.0533452716769918</v>
+        <v>0.93407602065931661</v>
       </c>
       <c r="V25" s="35">
         <f t="shared" si="8"/>
-        <v>8149.1647603617512</v>
+        <v>3420.2347821583735</v>
       </c>
       <c r="W25" s="38">
         <f t="shared" si="9"/>
-        <v>0.19779788808966306</v>
+        <v>0.18249216789918424</v>
       </c>
       <c r="X25" s="39"/>
       <c r="Y25" s="40"/>
@@ -20260,11 +20264,11 @@
       </c>
       <c r="AG25" s="41">
         <f t="shared" si="27"/>
-        <v>2.0533452716769918</v>
+        <v>0.88781902007566516</v>
       </c>
       <c r="AH25" s="41">
         <f t="shared" si="28"/>
-        <v>9279.6464434366862</v>
+        <v>4012.3045674300979</v>
       </c>
       <c r="AI25" s="41">
         <f t="shared" si="23"/>
@@ -20298,18 +20302,18 @@
       </c>
       <c r="AS25" s="44">
         <f t="shared" si="32"/>
-        <v>2.0533452716769918</v>
+        <v>0.85624935906154598</v>
       </c>
       <c r="AT25" s="44">
         <f t="shared" si="33"/>
-        <v>10983.907611897364</v>
+        <v>4580.3129081146726</v>
       </c>
       <c r="AU25" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.16687418593307254</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28">
@@ -20335,14 +20339,14 @@
       </c>
       <c r="I26" s="31">
         <f t="shared" si="2"/>
-        <v>2.1466791476623097</v>
+        <v>1.1080269265115144</v>
       </c>
       <c r="J26" s="31">
         <f t="shared" si="3"/>
-        <v>5486.0278738236675</v>
+        <v>2831.6605257049619</v>
       </c>
       <c r="K26" s="30">
-        <f t="shared" si="18"/>
+        <f>(G26*$B$46)/(2*$B$47*$K$43*H26^2)</f>
         <v>0.23738180039580023</v>
       </c>
       <c r="L26" s="33"/>
@@ -20373,15 +20377,15 @@
       </c>
       <c r="U26" s="35">
         <f t="shared" si="7"/>
-        <v>2.1466791476623097</v>
+        <v>0.97653402159837643</v>
       </c>
       <c r="V26" s="35">
         <f t="shared" si="8"/>
-        <v>8519.5813403781958</v>
+        <v>3575.6999995292085</v>
       </c>
       <c r="W26" s="38">
         <f t="shared" si="9"/>
-        <v>0.19620916523360249</v>
+        <v>0.18102638137844015</v>
       </c>
       <c r="X26" s="39"/>
       <c r="Y26" s="40"/>
@@ -20411,11 +20415,11 @@
       </c>
       <c r="AG26" s="41">
         <f t="shared" si="27"/>
-        <v>2.1466791476623097</v>
+        <v>0.9281744300791045</v>
       </c>
       <c r="AH26" s="41">
         <f t="shared" si="28"/>
-        <v>9701.4485545019907</v>
+        <v>4194.6820477678293</v>
       </c>
       <c r="AI26" s="41">
         <f t="shared" si="23"/>
@@ -20449,18 +20453,18 @@
       </c>
       <c r="AS26" s="44">
         <f t="shared" si="32"/>
-        <v>2.1466791476623097</v>
+        <v>0.89516978447343454</v>
       </c>
       <c r="AT26" s="44">
         <f t="shared" si="33"/>
-        <v>11483.17613971088</v>
+        <v>4788.5089493926116</v>
       </c>
       <c r="AU26" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.16566565359569016</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28">
@@ -20486,14 +20490,14 @@
       </c>
       <c r="I27" s="31">
         <f t="shared" si="2"/>
-        <v>2.2400130236476272</v>
+        <v>1.1562020102728843</v>
       </c>
       <c r="J27" s="31">
         <f t="shared" si="3"/>
-        <v>5724.5508248594788</v>
+        <v>2954.7762007356123</v>
       </c>
       <c r="K27" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.23541486502313622</v>
       </c>
       <c r="L27" s="33"/>
@@ -20524,15 +20528,15 @@
       </c>
       <c r="U27" s="35">
         <f t="shared" si="7"/>
-        <v>2.2400130236476272</v>
+        <v>1.0189920225374363</v>
       </c>
       <c r="V27" s="35">
         <f t="shared" si="8"/>
-        <v>8889.9979203946368</v>
+        <v>3731.1652169000436</v>
       </c>
       <c r="W27" s="38">
         <f t="shared" si="9"/>
-        <v>0.19471157064689323</v>
+        <v>0.17964467156645889</v>
       </c>
       <c r="X27" s="39"/>
       <c r="Y27" s="40"/>
@@ -20562,11 +20566,11 @@
       </c>
       <c r="AG27" s="41">
         <f t="shared" si="27"/>
-        <v>2.2400130236476272</v>
+        <v>0.96852984008254372</v>
       </c>
       <c r="AH27" s="41">
         <f t="shared" si="28"/>
-        <v>10123.250665567293</v>
+        <v>4377.0595281055612</v>
       </c>
       <c r="AI27" s="41">
         <f t="shared" si="23"/>
@@ -20600,18 +20604,18 @@
       </c>
       <c r="AS27" s="44">
         <f t="shared" si="32"/>
-        <v>2.2400130236476272</v>
+        <v>0.93409020988532288</v>
       </c>
       <c r="AT27" s="44">
         <f t="shared" si="33"/>
-        <v>11982.444667524396</v>
+        <v>4996.7049906705515</v>
       </c>
       <c r="AU27" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.16451838181167217</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28">
@@ -20637,14 +20641,14 @@
       </c>
       <c r="I28" s="31">
         <f t="shared" si="2"/>
-        <v>2.3333468996329452</v>
+        <v>1.2043770940342546</v>
       </c>
       <c r="J28" s="31">
-        <f t="shared" si="3"/>
-        <v>5963.073775895291</v>
+        <f>((F28*$B$46)/($G$43*$B$45))</f>
+        <v>3077.8918757662627</v>
       </c>
       <c r="K28" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.23355888826931503</v>
       </c>
       <c r="L28" s="33"/>
@@ -20675,15 +20679,15 @@
       </c>
       <c r="U28" s="35">
         <f t="shared" si="7"/>
-        <v>2.3333468996329452</v>
+        <v>1.0614500234764961</v>
       </c>
       <c r="V28" s="35">
         <f t="shared" si="8"/>
-        <v>9260.4145004110815</v>
+        <v>3886.6304342708791</v>
       </c>
       <c r="W28" s="38">
         <f t="shared" si="9"/>
-        <v>0.19329106934473905</v>
+        <v>0.17833408951405491</v>
       </c>
       <c r="X28" s="39"/>
       <c r="Y28" s="40"/>
@@ -20713,11 +20717,11 @@
       </c>
       <c r="AG28" s="41">
         <f t="shared" si="27"/>
-        <v>2.3333468996329452</v>
+        <v>1.0088852500859831</v>
       </c>
       <c r="AH28" s="41">
         <f t="shared" si="28"/>
-        <v>10545.052776632598</v>
+        <v>4559.4370084432931</v>
       </c>
       <c r="AI28" s="41">
         <f t="shared" si="23"/>
@@ -20751,18 +20755,18 @@
       </c>
       <c r="AS28" s="44">
         <f t="shared" si="32"/>
-        <v>2.3333468996329452</v>
+        <v>0.97301063529721132</v>
       </c>
       <c r="AT28" s="44">
         <f t="shared" si="33"/>
-        <v>12481.713195337912</v>
+        <v>5204.9010319484905</v>
       </c>
       <c r="AU28" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.1634193019364738</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28">
@@ -20788,14 +20792,14 @@
       </c>
       <c r="I29" s="31">
         <f t="shared" si="2"/>
-        <v>2.4266807756182631</v>
+        <v>1.2525521777956248</v>
       </c>
       <c r="J29" s="31">
         <f t="shared" si="3"/>
-        <v>6201.5967269311022</v>
+        <v>3201.0075507969136</v>
       </c>
       <c r="K29" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.23179750115443784</v>
       </c>
       <c r="L29" s="33"/>
@@ -20826,15 +20830,15 @@
       </c>
       <c r="U29" s="35">
         <f t="shared" si="7"/>
-        <v>2.4266807756182631</v>
+        <v>1.1039080244155559</v>
       </c>
       <c r="V29" s="35">
         <f t="shared" si="8"/>
-        <v>9630.8310804275243</v>
+        <v>4042.0956516417145</v>
       </c>
       <c r="W29" s="38">
         <f t="shared" si="9"/>
-        <v>0.19194679906654658</v>
+        <v>0.17709383968288084</v>
       </c>
       <c r="X29" s="39"/>
       <c r="Y29" s="40"/>
@@ -20864,11 +20868,11 @@
       </c>
       <c r="AG29" s="41">
         <f t="shared" si="27"/>
-        <v>2.4266807756182631</v>
+        <v>1.0492406600894224</v>
       </c>
       <c r="AH29" s="41">
         <f t="shared" si="28"/>
-        <v>10966.854887697902</v>
+        <v>4741.8144887810249</v>
       </c>
       <c r="AI29" s="41">
         <f t="shared" si="23"/>
@@ -20902,18 +20906,18 @@
       </c>
       <c r="AS29" s="44">
         <f t="shared" si="32"/>
-        <v>2.4266807756182631</v>
+        <v>1.0119310607090999</v>
       </c>
       <c r="AT29" s="44">
         <f t="shared" si="33"/>
-        <v>12980.981723151428</v>
+        <v>5413.0970732264304</v>
       </c>
       <c r="AU29" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.16236109964495332</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28">
@@ -20939,14 +20943,14 @@
       </c>
       <c r="I30" s="31">
         <f t="shared" si="2"/>
-        <v>2.5200146516035806</v>
+        <v>1.3007272615569949</v>
       </c>
       <c r="J30" s="31">
         <f t="shared" si="3"/>
-        <v>6440.1196779669144</v>
+        <v>3324.1232258275641</v>
       </c>
       <c r="K30" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.23011855677710469</v>
       </c>
       <c r="L30" s="33"/>
@@ -20977,15 +20981,15 @@
       </c>
       <c r="U30" s="35">
         <f t="shared" si="7"/>
-        <v>2.5200146516035806</v>
+        <v>1.146366025354616</v>
       </c>
       <c r="V30" s="35">
         <f t="shared" si="8"/>
-        <v>10001.247660443967</v>
+        <v>4197.56086901255</v>
       </c>
       <c r="W30" s="38">
         <f t="shared" si="9"/>
-        <v>0.19066858184251137</v>
+        <v>0.17591453168059054</v>
       </c>
       <c r="X30" s="39"/>
       <c r="Y30" s="40"/>
@@ -21015,11 +21019,11 @@
       </c>
       <c r="AG30" s="41">
         <f t="shared" si="27"/>
-        <v>2.5200146516035806</v>
+        <v>1.0895960700928617</v>
       </c>
       <c r="AH30" s="41">
         <f t="shared" si="28"/>
-        <v>11388.656998763207</v>
+        <v>4924.1919691187568</v>
       </c>
       <c r="AI30" s="41">
         <f t="shared" si="23"/>
@@ -21053,18 +21057,18 @@
       </c>
       <c r="AS30" s="44">
         <f t="shared" si="32"/>
-        <v>2.5200146516035806</v>
+        <v>1.0508514861209883</v>
       </c>
       <c r="AT30" s="44">
         <f t="shared" si="33"/>
-        <v>13480.250250964948</v>
+        <v>5621.2931145043713</v>
       </c>
       <c r="AU30" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.16133660996339078</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28">
@@ -21090,14 +21094,14 @@
       </c>
       <c r="I31" s="31">
         <f t="shared" si="2"/>
-        <v>2.6133485275888986</v>
+        <v>1.3489023453183653</v>
       </c>
       <c r="J31" s="31">
         <f t="shared" si="3"/>
-        <v>6678.6426290027257</v>
+        <v>3447.2389008582145</v>
       </c>
       <c r="K31" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.22852240942714191</v>
       </c>
       <c r="L31" s="33"/>
@@ -21128,15 +21132,15 @@
       </c>
       <c r="U31" s="35">
         <f t="shared" si="7"/>
-        <v>2.6133485275888986</v>
+        <v>1.1888240262936758</v>
       </c>
       <c r="V31" s="35">
         <f t="shared" si="8"/>
-        <v>10371.664240460412</v>
+        <v>4353.0260863833846</v>
       </c>
       <c r="W31" s="38">
         <f t="shared" si="9"/>
-        <v>0.18945160085817225</v>
+        <v>0.17479172142073859</v>
       </c>
       <c r="X31" s="39"/>
       <c r="Y31" s="40"/>
@@ -21166,11 +21170,11 @@
       </c>
       <c r="AG31" s="41">
         <f t="shared" si="27"/>
-        <v>2.6133485275888986</v>
+        <v>1.1299514800963011</v>
       </c>
       <c r="AH31" s="41">
         <f t="shared" si="28"/>
-        <v>11810.459109828511</v>
+        <v>5106.5694494564887</v>
       </c>
       <c r="AI31" s="41">
         <f t="shared" si="23"/>
@@ -21204,18 +21208,18 @@
       </c>
       <c r="AS31" s="44">
         <f t="shared" si="32"/>
-        <v>2.6133485275888986</v>
+        <v>1.0897719115328768</v>
       </c>
       <c r="AT31" s="44">
         <f t="shared" si="33"/>
-        <v>13979.518778778463</v>
+        <v>5829.4891557823103</v>
       </c>
       <c r="AU31" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.16036051317985731</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28">
@@ -21241,14 +21245,14 @@
       </c>
       <c r="I32" s="31">
         <f t="shared" si="2"/>
-        <v>2.7066824035742161</v>
+        <v>1.3970774290797352</v>
       </c>
       <c r="J32" s="31">
         <f t="shared" si="3"/>
-        <v>6917.1655800385361</v>
+        <v>3570.3545758888645</v>
       </c>
       <c r="K32" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.22699641581633412</v>
       </c>
       <c r="L32" s="33"/>
@@ -21279,15 +21283,15 @@
       </c>
       <c r="U32" s="35">
         <f t="shared" si="7"/>
-        <v>2.7066824035742161</v>
+        <v>1.2312820272327354</v>
       </c>
       <c r="V32" s="35">
         <f t="shared" si="8"/>
-        <v>10742.080820476853</v>
+        <v>4508.4913037542192</v>
       </c>
       <c r="W32" s="38">
         <f t="shared" si="9"/>
-        <v>0.18828900837279602</v>
+        <v>0.17371909104491051</v>
       </c>
       <c r="X32" s="39"/>
       <c r="Y32" s="40"/>
@@ -21317,11 +21321,11 @@
       </c>
       <c r="AG32" s="41">
         <f t="shared" si="27"/>
-        <v>2.7066824035742161</v>
+        <v>1.1703068900997402</v>
       </c>
       <c r="AH32" s="41">
         <f t="shared" si="28"/>
-        <v>12232.261220893812</v>
+        <v>5288.9469297942187</v>
       </c>
       <c r="AI32" s="41">
         <f t="shared" si="23"/>
@@ -21355,18 +21359,18 @@
       </c>
       <c r="AS32" s="44">
         <f t="shared" si="32"/>
-        <v>2.7066824035742161</v>
+        <v>1.128692336944765</v>
       </c>
       <c r="AT32" s="44">
         <f t="shared" si="33"/>
-        <v>14478.787306591978</v>
+        <v>6037.6851970602493</v>
       </c>
       <c r="AU32" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.15942763712675823</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="28">
@@ -21392,14 +21396,14 @@
       </c>
       <c r="I33" s="31">
         <f t="shared" si="2"/>
-        <v>2.800016279559534</v>
+        <v>1.4452525128411053</v>
       </c>
       <c r="J33" s="31">
         <f t="shared" si="3"/>
-        <v>7155.6885310743482</v>
+        <v>3693.4702509195149</v>
       </c>
       <c r="K33" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.22553593775005318</v>
       </c>
       <c r="L33" s="33"/>
@@ -21430,15 +21434,15 @@
       </c>
       <c r="U33" s="35">
         <f t="shared" si="7"/>
-        <v>2.800016279559534</v>
+        <v>1.2737400281717952</v>
       </c>
       <c r="V33" s="35">
         <f t="shared" si="8"/>
-        <v>11112.497400493296</v>
+        <v>4663.9565211250547</v>
       </c>
       <c r="W33" s="38">
         <f t="shared" si="9"/>
-        <v>0.1871750049070838</v>
+        <v>0.17269128984102269</v>
       </c>
       <c r="X33" s="39"/>
       <c r="Y33" s="40"/>
@@ -21468,11 +21472,11 @@
       </c>
       <c r="AG33" s="41">
         <f t="shared" si="27"/>
-        <v>2.800016279559534</v>
+        <v>1.2106623001031798</v>
       </c>
       <c r="AH33" s="41">
         <f t="shared" si="28"/>
-        <v>12654.063331959116</v>
+        <v>5471.3244101319506</v>
       </c>
       <c r="AI33" s="41">
         <f t="shared" si="23"/>
@@ -21506,18 +21510,18 @@
       </c>
       <c r="AS33" s="44">
         <f t="shared" si="32"/>
-        <v>2.800016279559534</v>
+        <v>1.1676127623566537</v>
       </c>
       <c r="AT33" s="44">
         <f t="shared" si="33"/>
-        <v>14978.055834405495</v>
+        <v>6245.8812383381892</v>
       </c>
       <c r="AU33" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.15853238941979694</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="27"/>
       <c r="C34" s="28">
@@ -21574,21 +21578,21 @@
         <v>0</v>
       </c>
       <c r="W34" s="38" t="e">
-        <f t="shared" ref="W34:W39" si="35">((S34*$C$46)/(2*$C$47*$K$43*(U34^2)))</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X34" s="39"/>
       <c r="Y34" s="40"/>
       <c r="Z34" s="40">
-        <f t="shared" ref="Z34:Z39" si="36">(X34/($K$43*$D$45))</f>
+        <f t="shared" ref="Z34:Z39" si="35">(X34/($K$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="AA34" s="40">
-        <f t="shared" ref="AA34:AA39" si="37">((X34*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="AA34:AA39" si="36">((X34*$D$46)/($G$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="AB34" s="76" t="e">
-        <f t="shared" ref="AB34:AB39" si="38">((Y34*$D$46)/(2*$D$47*$K$43*(Z34^2)))</f>
+        <f t="shared" ref="AB34:AB39" si="37">((Y34*$D$46)/(2*$D$47*$K$43*(Z34^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC34" s="41"/>
@@ -21596,29 +21600,29 @@
       <c r="AE34" s="41"/>
       <c r="AF34" s="41"/>
       <c r="AG34" s="41">
-        <f t="shared" ref="AG34:AG39" si="39">(AC34/($K$43*$D$45))</f>
+        <f t="shared" ref="AG34:AG39" si="38">(AC34/($K$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="AH34" s="41">
-        <f t="shared" ref="AH34:AH39" si="40">((AC34*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="AH34:AH39" si="39">((AC34*$D$46)/($G$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="AI34" s="41" t="e">
-        <f t="shared" ref="AI34:AI39" si="41">((AE34*$D$46)/(2*$D$47*$K$43*(AG34^2)))</f>
+        <f t="shared" ref="AI34:AI39" si="40">((AE34*$D$46)/(2*$D$47*$K$43*(AG34^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ34" s="42"/>
       <c r="AK34" s="43"/>
       <c r="AL34" s="43">
-        <f t="shared" ref="AL34:AL39" si="42">(AJ34/($K$43*$E$45))</f>
+        <f t="shared" ref="AL34:AL39" si="41">(AJ34/($K$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AM34" s="43">
-        <f t="shared" ref="AM34:AM39" si="43">((AJ34*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" ref="AM34:AM39" si="42">((AJ34*$E$46)/($G$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AN34" s="78" t="e">
-        <f t="shared" ref="AN34:AN39" si="44">((AK34*$E$46)/(2*$E$47*$K$43*(AL34^2)))</f>
+        <f t="shared" ref="AN34:AN39" si="43">((AK34*$E$46)/(2*$E$47*$K$43*(AL34^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO34" s="44"/>
@@ -21626,19 +21630,19 @@
       <c r="AQ34" s="44"/>
       <c r="AR34" s="44"/>
       <c r="AS34" s="44">
-        <f t="shared" ref="AS34:AS39" si="45">(AO34/($K$43*$E$45))</f>
+        <f t="shared" ref="AS34:AS39" si="44">(AO34/($K$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AT34" s="44">
-        <f t="shared" ref="AT34:AT39" si="46">((AO34*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" ref="AT34:AT39" si="45">((AO34*$E$46)/($G$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AU34" s="44" t="e">
-        <f t="shared" ref="AU34:AU39" si="47">((AQ34*$E$46)/(2*$E$47*$K$43*(AS34^2)))</f>
+        <f t="shared" ref="AU34:AU39" si="46">((AQ34*$E$46)/(2*$E$47*$K$43*(AS34^2)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="27"/>
       <c r="C35" s="28">
@@ -21682,34 +21686,41 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="35"/>
+      <c r="Q35" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="R35" s="35">
+        <f>17683-8169.24</f>
+        <v>9513.76</v>
+      </c>
       <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
+      <c r="T35" s="35">
+        <v>1.3343400000000001</v>
+      </c>
       <c r="U35" s="35">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="38" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>0.84916001878119696</v>
+      </c>
+      <c r="V35" s="115">
+        <f>(Q35*F46)/(G43*F45)</f>
+        <v>3650.6572641670828</v>
+      </c>
+      <c r="W35" s="38">
+        <f t="shared" si="9"/>
+        <v>7.0082622197316494E-2</v>
       </c>
       <c r="X35" s="39"/>
       <c r="Y35" s="40"/>
       <c r="Z35" s="40">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="40">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="40">
+      <c r="AB35" s="76" t="e">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="76" t="e">
-        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC35" s="41"/>
@@ -21717,29 +21728,29 @@
       <c r="AE35" s="41"/>
       <c r="AF35" s="41"/>
       <c r="AG35" s="41">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="41">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AH35" s="41">
+      <c r="AI35" s="41" t="e">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="41" t="e">
-        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ35" s="42"/>
       <c r="AK35" s="43"/>
       <c r="AL35" s="43">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AM35" s="43">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AM35" s="43">
+      <c r="AN35" s="78" t="e">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="78" t="e">
-        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO35" s="44"/>
@@ -21747,19 +21758,19 @@
       <c r="AQ35" s="44"/>
       <c r="AR35" s="44"/>
       <c r="AS35" s="44">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AT35" s="44">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AT35" s="44">
+      <c r="AU35" s="44" t="e">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AU35" s="44" t="e">
-        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="27"/>
       <c r="C36" s="28">
@@ -21816,21 +21827,21 @@
         <v>0</v>
       </c>
       <c r="W36" s="38" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="W34:W39" si="47">((S36*$C$46)/(2*$C$47*$K$43*(U36^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X36" s="39"/>
       <c r="Y36" s="40"/>
       <c r="Z36" s="40">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="40">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="40">
+      <c r="AB36" s="76" t="e">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="76" t="e">
-        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC36" s="41"/>
@@ -21838,29 +21849,29 @@
       <c r="AE36" s="41"/>
       <c r="AF36" s="41"/>
       <c r="AG36" s="41">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="41">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AH36" s="41">
+      <c r="AI36" s="41" t="e">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AI36" s="41" t="e">
-        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ36" s="42"/>
       <c r="AK36" s="43"/>
       <c r="AL36" s="43">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="43">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AM36" s="43">
+      <c r="AN36" s="78" t="e">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AN36" s="78" t="e">
-        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO36" s="44"/>
@@ -21868,19 +21879,19 @@
       <c r="AQ36" s="44"/>
       <c r="AR36" s="44"/>
       <c r="AS36" s="44">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AT36" s="44">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AT36" s="44">
+      <c r="AU36" s="44" t="e">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AU36" s="44" t="e">
-        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
       <c r="C37" s="28">
@@ -21937,21 +21948,21 @@
         <v>0</v>
       </c>
       <c r="W37" s="38" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X37" s="39"/>
       <c r="Y37" s="40"/>
       <c r="Z37" s="40">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="40">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA37" s="40">
+      <c r="AB37" s="76" t="e">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="76" t="e">
-        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC37" s="41"/>
@@ -21959,29 +21970,29 @@
       <c r="AE37" s="41"/>
       <c r="AF37" s="41"/>
       <c r="AG37" s="41">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="41">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AH37" s="41">
+      <c r="AI37" s="41" t="e">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AI37" s="41" t="e">
-        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ37" s="42"/>
       <c r="AK37" s="43"/>
       <c r="AL37" s="43">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="43">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AM37" s="43">
+      <c r="AN37" s="78" t="e">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AN37" s="78" t="e">
-        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO37" s="44"/>
@@ -21989,19 +22000,19 @@
       <c r="AQ37" s="44"/>
       <c r="AR37" s="44"/>
       <c r="AS37" s="44">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AT37" s="44">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AT37" s="44">
+      <c r="AU37" s="44" t="e">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AU37" s="44" t="e">
-        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
       <c r="C38" s="28">
@@ -22058,21 +22069,21 @@
         <v>0</v>
       </c>
       <c r="W38" s="38" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X38" s="39"/>
       <c r="Y38" s="40"/>
       <c r="Z38" s="40">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="40">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="40">
+      <c r="AB38" s="76" t="e">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="76" t="e">
-        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC38" s="41"/>
@@ -22080,29 +22091,29 @@
       <c r="AE38" s="41"/>
       <c r="AF38" s="41"/>
       <c r="AG38" s="41">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="41">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AH38" s="41">
+      <c r="AI38" s="41" t="e">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AI38" s="41" t="e">
-        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ38" s="42"/>
       <c r="AK38" s="43"/>
       <c r="AL38" s="43">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AM38" s="43">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AM38" s="43">
+      <c r="AN38" s="78" t="e">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AN38" s="78" t="e">
-        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO38" s="44"/>
@@ -22110,19 +22121,19 @@
       <c r="AQ38" s="44"/>
       <c r="AR38" s="44"/>
       <c r="AS38" s="44">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AT38" s="44">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AT38" s="44">
+      <c r="AU38" s="44" t="e">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AU38" s="44" t="e">
-        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="28">
@@ -22179,21 +22190,21 @@
         <v>0</v>
       </c>
       <c r="W39" s="38" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X39" s="39"/>
       <c r="Y39" s="40"/>
       <c r="Z39" s="40">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="40">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="40">
+      <c r="AB39" s="76" t="e">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="76" t="e">
-        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC39" s="41"/>
@@ -22201,29 +22212,29 @@
       <c r="AE39" s="41"/>
       <c r="AF39" s="41"/>
       <c r="AG39" s="41">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="41">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AH39" s="41">
+      <c r="AI39" s="41" t="e">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AI39" s="41" t="e">
-        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ39" s="42"/>
       <c r="AK39" s="43"/>
       <c r="AL39" s="43">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AM39" s="43">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AM39" s="43">
+      <c r="AN39" s="78" t="e">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AN39" s="78" t="e">
-        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO39" s="44"/>
@@ -22231,19 +22242,19 @@
       <c r="AQ39" s="44"/>
       <c r="AR39" s="44"/>
       <c r="AS39" s="44">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AT39" s="44">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AT39" s="44">
+      <c r="AU39" s="44" t="e">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AU39" s="44" t="e">
-        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AO40">
         <v>0.25</v>
       </c>
@@ -22251,28 +22262,28 @@
         <v>17657.522394</v>
       </c>
     </row>
-    <row r="41" spans="1:47" ht="23" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="90" t="s">
+    <row r="41" spans="1:47" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="G41" s="92" t="s">
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="G41" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="93"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="95"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="109"/>
       <c r="V41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
         <v>22</v>
       </c>
@@ -22288,19 +22299,19 @@
       <c r="E42" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="96" t="s">
+      <c r="G42" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="97"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="99" t="s">
+      <c r="H42" s="111"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="L42" s="99"/>
-      <c r="M42" s="100"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="114"/>
     </row>
-    <row r="43" spans="1:47" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>16</v>
       </c>
@@ -22316,20 +22327,23 @@
       <c r="E43" s="62">
         <v>3.0938878999999999E-5</v>
       </c>
-      <c r="G43" s="86">
+      <c r="F43" s="84">
+        <v>1.3619E-5</v>
+      </c>
+      <c r="G43" s="100">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H43" s="87"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88">
+      <c r="H43" s="101"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102">
         <v>996.55</v>
       </c>
-      <c r="L43" s="88"/>
-      <c r="M43" s="89"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="103"/>
       <c r="V43" s="70"/>
     </row>
-    <row r="44" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>17</v>
       </c>
@@ -22345,25 +22359,36 @@
       <c r="E44" s="62">
         <v>2.7004856599999998E-2</v>
       </c>
+      <c r="F44" s="84">
+        <v>1.2834E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="62">
-        <v>1.0751315458747668E-4</v>
+        <f>B43/B47</f>
+        <v>2.0829480000000001E-4</v>
       </c>
       <c r="C45" s="62">
-        <v>1.0751315458747668E-4</v>
+        <f>C43/C47</f>
+        <v>2.3634224916666669E-4</v>
       </c>
       <c r="D45" s="62">
-        <v>1.0751315458747668E-4</v>
+        <f>D43/D47</f>
+        <v>2.4865611416666667E-4</v>
       </c>
       <c r="E45" s="62">
-        <v>1.0751315458747668E-4</v>
+        <f>E43/E47</f>
+        <v>2.5782399166666666E-4</v>
+      </c>
+      <c r="F45" s="84">
+        <f>F43/F47</f>
+        <v>2.7237999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>19</v>
       </c>
@@ -22372,7 +22397,8 @@
         <v>2.1893675317820795E-3</v>
       </c>
       <c r="C46" s="62">
-        <v>3.3999999999999998E-3</v>
+        <f>(4*C43)/C44</f>
+        <v>3.1369059439904728E-3</v>
       </c>
       <c r="D46" s="62">
         <f>(4*D43)/D44</f>
@@ -22382,8 +22408,12 @@
         <f>(4*E43)/E44</f>
         <v>4.5827133183147508E-3</v>
       </c>
+      <c r="F46" s="84">
+        <f>4*F43/F44</f>
+        <v>4.2446626149290944E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:47" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="63" t="s">
         <v>20</v>
       </c>
@@ -22403,8 +22433,12 @@
         <f t="shared" si="48"/>
         <v>0.12</v>
       </c>
+      <c r="F47" s="84">
+        <v>0.05</v>
+      </c>
+      <c r="G47" s="84"/>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="85" t="s">
         <v>35</v>
       </c>
@@ -22418,18 +22452,18 @@
         <v>4.66E-4</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="84">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="84">
         <f>B53/2</f>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="84">
         <f>PI()*B54^2</f>
         <v>4.523893421169302E-4</v>
@@ -22437,6 +22471,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:M42"/>
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="AC2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
@@ -22446,12 +22486,6 @@
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:M42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22466,115 +22500,115 @@
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:40" ht="60" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="109" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="109" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="101" t="s">
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="101" t="s">
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="104" t="s">
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="104" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="106"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -22696,7 +22730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>6.3184166666666666E-2</v>
       </c>
@@ -22830,7 +22864,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>7.5650833333333348E-2</v>
       </c>
@@ -22964,7 +22998,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>8.6670000000000011E-2</v>
       </c>
@@ -23098,7 +23132,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>9.8470000000000002E-2</v>
       </c>
@@ -23232,7 +23266,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>0.10903833333333335</v>
       </c>
@@ -23366,7 +23400,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>0.12042416666666667</v>
       </c>
@@ -23500,7 +23534,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>0.13245166666666669</v>
       </c>
@@ -23634,7 +23668,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>0.14441916666666665</v>
       </c>
@@ -23768,7 +23802,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>0.15659153846153848</v>
       </c>
@@ -23902,7 +23936,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>0.16848923076923078</v>
       </c>
@@ -24036,7 +24070,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>0.18045083333333334</v>
       </c>
@@ -24170,7 +24204,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>0.19241166666666668</v>
       </c>
@@ -24304,7 +24338,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>0.20409750000000002</v>
       </c>
@@ -24438,7 +24472,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>0.21544153846153849</v>
       </c>
@@ -24572,7 +24606,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28">
@@ -24690,7 +24724,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28">
@@ -24808,7 +24842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28">
@@ -24926,7 +24960,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28">
@@ -25044,7 +25078,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28">
@@ -25162,7 +25196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28">
@@ -25280,7 +25314,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28">
@@ -25394,7 +25428,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28">
@@ -25508,7 +25542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28">
@@ -25622,7 +25656,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28">
@@ -25736,7 +25770,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28">
@@ -25850,7 +25884,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28">
@@ -25964,7 +25998,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28">
@@ -26078,7 +26112,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28">
@@ -26192,7 +26226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28">
@@ -26306,7 +26340,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
       <c r="C33" s="28">
@@ -26420,25 +26454,25 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="1:40" ht="23" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="90" t="s">
+    <row r="34" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="G35" s="92" t="s">
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="G35" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="95"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="109"/>
     </row>
-    <row r="36" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>29</v>
       </c>
@@ -26454,18 +26488,18 @@
       <c r="E36" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="96" t="s">
+      <c r="G36" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="99" t="s">
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="99"/>
-      <c r="L36" s="100"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="114"/>
     </row>
-    <row r="37" spans="1:40" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>16</v>
       </c>
@@ -26481,18 +26515,18 @@
       <c r="E37" s="62">
         <v>3.4579127900000001E-5</v>
       </c>
-      <c r="G37" s="86">
+      <c r="G37" s="100">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88">
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102">
         <v>996.55</v>
       </c>
-      <c r="K37" s="88"/>
-      <c r="L37" s="89"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="103"/>
     </row>
-    <row r="38" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>17</v>
       </c>
@@ -26509,7 +26543,7 @@
         <v>2.6823155099999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>18</v>
       </c>
@@ -26526,7 +26560,7 @@
         <v>6.11E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>19</v>
       </c>
@@ -26547,7 +26581,7 @@
         <v>5.1566085751038292E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="63" t="s">
         <v>20</v>
       </c>
@@ -26568,25 +26602,25 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C44" s="84">
         <f>11.7/1000</f>
         <v>1.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C45" s="84">
         <f>C44/2</f>
         <v>5.8499999999999993E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C47" s="84">
         <f>PI()*C45^2</f>
         <v>1.0751315458747668E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C48" s="84">
         <f>PI()*(C45)^2</f>
         <v>1.0751315458747668E-4</v>
@@ -26594,6 +26628,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -26603,12 +26643,6 @@
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26623,115 +26657,115 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:40" ht="60" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="109" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="109" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="101" t="s">
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="101" t="s">
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="104" t="s">
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="104" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="106"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -26853,7 +26887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>6.232583333333333E-2</v>
       </c>
@@ -26987,7 +27021,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>7.335916666666667E-2</v>
       </c>
@@ -27121,7 +27155,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>8.5369090909090894E-2</v>
       </c>
@@ -27255,7 +27289,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>9.7405454545454559E-2</v>
       </c>
@@ -27389,7 +27423,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>0.10933727272727273</v>
       </c>
@@ -27523,7 +27557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>0.12105500000000002</v>
       </c>
@@ -27657,7 +27691,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>0.13287750000000001</v>
       </c>
@@ -27791,7 +27825,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>0.14477333333333334</v>
       </c>
@@ -27925,7 +27959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>0.15668916666666668</v>
       </c>
@@ -28059,7 +28093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>0.16912916666666666</v>
       </c>
@@ -28193,7 +28227,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>0.18102416666666668</v>
       </c>
@@ -28327,7 +28361,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>0.19320249999999997</v>
       </c>
@@ -28461,7 +28495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>0.20477999999999999</v>
       </c>
@@ -28595,7 +28629,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>0.2166576923076923</v>
       </c>
@@ -28729,7 +28763,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28">
@@ -28847,7 +28881,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28">
@@ -28965,7 +28999,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28">
@@ -29083,7 +29117,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28">
@@ -29201,7 +29235,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28">
@@ -29319,7 +29353,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28">
@@ -29437,7 +29471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28">
@@ -29551,7 +29585,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28">
@@ -29665,7 +29699,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28">
@@ -29779,7 +29813,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28">
@@ -29893,7 +29927,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28">
@@ -30007,7 +30041,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28">
@@ -30121,7 +30155,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28">
@@ -30235,7 +30269,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28">
@@ -30349,7 +30383,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28">
@@ -30463,7 +30497,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
       <c r="C33" s="28">
@@ -30577,25 +30611,25 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="1:40" ht="23" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="90" t="s">
+    <row r="34" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="G35" s="92" t="s">
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="G35" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="95"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="109"/>
     </row>
-    <row r="36" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>30</v>
       </c>
@@ -30611,18 +30645,18 @@
       <c r="E36" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="96" t="s">
+      <c r="G36" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="99" t="s">
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="99"/>
-      <c r="L36" s="100"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="114"/>
     </row>
-    <row r="37" spans="1:40" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>16</v>
       </c>
@@ -30638,18 +30672,18 @@
       <c r="E37" s="62">
         <v>3.2836784600000003E-5</v>
       </c>
-      <c r="G37" s="86">
+      <c r="G37" s="100">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88">
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102">
         <v>996.55</v>
       </c>
-      <c r="K37" s="88"/>
-      <c r="L37" s="89"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="103"/>
     </row>
-    <row r="38" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>17</v>
       </c>
@@ -30666,7 +30700,7 @@
         <v>2.5482635699999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>18</v>
       </c>
@@ -30683,7 +30717,7 @@
         <v>1.0751315458747668E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>19</v>
       </c>
@@ -30704,7 +30738,7 @@
         <v>5.1543780614499001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="63" t="s">
         <v>20</v>
       </c>
@@ -30725,13 +30759,19 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>4.523893421169302E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -30741,12 +30781,6 @@
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -30761,9 +30795,9 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -30789,7 +30823,7 @@
         <v>97.328477000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2E-2</v>
       </c>
@@ -30815,7 +30849,7 @@
         <v>131.13779199999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.4E-2</v>
       </c>
@@ -30841,7 +30875,7 @@
         <v>169.31021899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.6E-2</v>
       </c>
@@ -30867,7 +30901,7 @@
         <v>211.760841</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -30893,7 +30927,7 @@
         <v>258.420389</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.02</v>
       </c>
@@ -30919,7 +30953,7 @@
         <v>309.22935100000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -30945,7 +30979,7 @@
         <v>364.13257700000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.4E-2</v>
       </c>
@@ -30971,7 +31005,7 @@
         <v>423.07002499999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -30997,7 +31031,7 @@
         <v>486.01637299999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -31023,7 +31057,7 @@
         <v>552.942995</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.03</v>
       </c>
@@ -31049,7 +31083,7 @@
         <v>623.79522499999996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -31075,7 +31109,7 @@
         <v>698.56193499999904</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -31101,7 +31135,7 @@
         <v>777.22869900000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.5999999999999997E-2</v>
       </c>
@@ -31127,7 +31161,7 @@
         <v>859.75832500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -31153,7 +31187,7 @@
         <v>946.18000300000006</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.04</v>
       </c>
@@ -31179,7 +31213,7 @@
         <v>1036.4617129999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -31205,7 +31239,7 @@
         <v>1130.5907380000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4.3999999999999997E-2</v>
       </c>
@@ -31231,7 +31265,7 @@
         <v>1228.3784499999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -31257,7 +31291,7 @@
         <v>1330.0232659999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -31283,7 +31317,7 @@
         <v>1435.4928</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.05</v>
       </c>
@@ -31309,7 +31343,7 @@
         <v>1544.7107100000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.06</v>
       </c>
@@ -31335,7 +31369,7 @@
         <v>2147.0085349999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -31361,7 +31395,7 @@
         <v>2842.173941</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.08</v>
       </c>
@@ -31387,7 +31421,7 @@
         <v>3629.7554100000002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.09</v>
       </c>
@@ -31413,7 +31447,7 @@
         <v>4508.9377619999996</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.1</v>
       </c>
@@ -31439,7 +31473,7 @@
         <v>5478.8473370000002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.11</v>
       </c>
@@ -31465,7 +31499,7 @@
         <v>6538.8652270000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.12</v>
       </c>
@@ -31491,7 +31525,7 @@
         <v>7688.2329920000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.13</v>
       </c>
@@ -31517,7 +31551,7 @@
         <v>8925.7746850000003</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.14000000000000001</v>
       </c>
@@ -31543,7 +31577,7 @@
         <v>10249.317606000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.15</v>
       </c>
@@ -31569,7 +31603,7 @@
         <v>11660.144534999999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.16</v>
       </c>
@@ -31595,7 +31629,7 @@
         <v>13158.589040999999</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.17</v>
       </c>
@@ -31621,7 +31655,7 @@
         <v>14744.229343000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.18</v>
       </c>
@@ -31647,7 +31681,7 @@
         <v>16416.307216000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.19</v>
       </c>
@@ -31673,7 +31707,7 @@
         <v>18171.986173000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.2</v>
       </c>

--- a/NewData.xlsx
+++ b/NewData.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD24F855-3DCD-4648-817C-E5BD0C194A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3F12EA-86C1-4B11-8F5A-89CBB47FAAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeometryV2" sheetId="1" r:id="rId1"/>
-    <sheet name="GeometryV3" sheetId="2" r:id="rId2"/>
-    <sheet name="GeometryV4" sheetId="5" r:id="rId3"/>
-    <sheet name="f x Re (V4)" sheetId="10" r:id="rId4"/>
-    <sheet name="p x re (v4)" sheetId="11" r:id="rId5"/>
-    <sheet name="f x re(V3)" sheetId="8" r:id="rId6"/>
-    <sheet name="p x Re (V3)" sheetId="9" r:id="rId7"/>
-    <sheet name="f x Re (V2)" sheetId="6" r:id="rId8"/>
-    <sheet name="P x Re (V2)" sheetId="7" r:id="rId9"/>
+    <sheet name="P x Re (V2)" sheetId="7" r:id="rId2"/>
+    <sheet name="f x Re (V2)" sheetId="6" r:id="rId3"/>
+    <sheet name="GeometryV3" sheetId="2" r:id="rId4"/>
+    <sheet name="GeometryV4" sheetId="5" r:id="rId5"/>
+    <sheet name="f x Re (V4)" sheetId="10" r:id="rId6"/>
+    <sheet name="p x re (v4)" sheetId="11" r:id="rId7"/>
+    <sheet name="f x re(V3)" sheetId="8" r:id="rId8"/>
+    <sheet name="p x Re (V3)" sheetId="9" r:id="rId9"/>
     <sheet name="P x Re (V2,V3,V4)" sheetId="12" r:id="rId10"/>
     <sheet name="f x Re (V2,V3,V4)" sheetId="13" r:id="rId11"/>
     <sheet name="Gráfico1" sheetId="4" r:id="rId12"/>
@@ -685,7 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -930,48 +930,6 @@
     <xf numFmtId="11" fontId="2" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="6" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1017,7 +975,46 @@
     <xf numFmtId="11" fontId="6" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2837,615 +2834,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GeometryV4!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.3745 (Exp) V4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV4!$N$4:$N$17</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2482.1586068116017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2971.513109560974</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3480.8372688018344</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3982.0543350193971</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4444.3573547251381</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4927.2837822958245</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5374.5044410200362</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5892.655683783596</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6365.0616101769829</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6843.9935304569735</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6843.9935304569735</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7783.7049705459631</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7783.7049705459631</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8719.7098995440174</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV4!$O$4:$O$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.10204835054963037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10080428788127811</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9572576751508615E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8419248590824779E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.7020659099904011E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.5261212180868859E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.4341894402226387E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.2329718916704551E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0929110755278361E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.970665733388182E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.970665733388182E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.7788862903972628E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.7788862903972628E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.5586465857438315E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D74-4E46-AF69-02A906BFD70D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GeometryV3!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.3745 (Exp) V3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV3!$N$4:$N$17</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>497.92682503410953</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>590.53096100810274</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>694.76491658248597</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>797.09259903515476</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>892.02764729893522</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>991.13198473867214</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1082.8500172996137</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1179.1504703680512</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1278.2927836683473</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1376.0299901279468</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1474.248224154632</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1571.2259134030446</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1664.2604424633773</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1758.9892791486664</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV3!$O$4:$O$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2.5953459747506815</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6317619150622069</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6074324417411026</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5664877449925809</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5334298040080308</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.501172482725035</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4739094453695372</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4528222046372221</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4160499793933328</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3848112922956259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3518752024222702</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.3253977837525808</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.293794279957913</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.264421771640317</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9D74-4E46-AF69-02A906BFD70D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GeometryV2!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.3745 (Exp) V2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV2!$O$4:$O$17</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>845.51773756983494</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1076.6225411625951</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1283.1745711749252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1485.2887758913969</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1676.6923693444573</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1876.1999682951712</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2071.0717492256417</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2228.2622318805311</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2427.0631792791046</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2703.1359205136591</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2901.6250263260345</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3096.2970908966768</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3292.0666658709001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3482.6241697755772</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV2!$P$4:$P$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.57019107907306088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5487065115105545</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5388299316247348</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52702073934396942</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5203014610144886</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50577536849842286</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.49547277734203671</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.48937374695089525</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47717828470385532</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.46756988241042086</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.45789794675880807</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45144018071468722</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.44501333021808581</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.4390469787927444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9D74-4E46-AF69-02A906BFD70D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2118447119"/>
-        <c:axId val="2118441839"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2118447119"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2118441839"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2118441839"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2118447119"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -4428,6 +3816,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>p x Re(V2)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4464,644 +3877,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV2!$V$4:$V$33</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>155.46521737083518</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>310.93043474167035</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>466.39565211250545</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>621.86086948334071</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>777.32608685417574</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>932.79130422501089</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1088.2565215958462</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1243.7217389666814</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1399.1869563375164</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1554.6521737083515</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1710.1173910791867</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1865.5826084500218</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2021.0478258208573</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2176.5130431916923</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2331.9782605625273</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2487.4434779333628</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2642.9086953041983</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2798.3739126750329</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2953.8391300458679</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3109.304347416703</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3264.769564787538</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3420.2347821583735</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3575.6999995292085</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3731.1652169000436</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3886.6304342708791</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4042.0956516417145</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4197.56086901255</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4353.0260863833846</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4508.4913037542192</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4663.9565211250547</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV2!$W$4:$W$33</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.45439484503111255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33895615731370088</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29460611155807942</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26969413409528459</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25321527816479494</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24130212956117755</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23216219517493958</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22485723280880671</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21883248531739088</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21373638397844411</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.20934802131216243</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.20551107854859543</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.20211544639773613</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.19907423007768979</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.19632392533655127</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.19382260094105644</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.191537030729244</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1894404581748084</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18750902909568315</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.18571656089781183</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.18404988340291903</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.18249216789918424</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.18102638137844015</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.17964467156645889</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.17833408951405491</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.17709383968288084</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.17591453168059054</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.17479172142073859</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.17371909104491051</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.17269128984102269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-EABD-4D20-8F3A-D7B02AF5A0C0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV2!$AH$5:$AH$33</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>364.75496067546345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>547.13244101319515</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>729.5099213509269</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>911.88740168865854</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1094.2648820263903</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1276.6423623641222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1459.0198427018538</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1641.3973230395852</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1823.7748033773171</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2006.152283715049</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2188.5297640527806</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2370.9072443905125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2553.2847247282443</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2735.6622050659753</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2918.0396854037076</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3100.4171657414395</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3282.7946460791704</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3465.1721264169028</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3647.5496067546342</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3829.927087092366</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4012.3045674300979</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4194.6820477678293</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4377.0595281055612</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4559.4370084432931</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4741.8144887810249</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4924.1919691187568</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5106.5694494564887</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5288.9469297942187</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5471.3244101319506</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV2!$AI$5:$AI$33</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0.33907626123784435</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29912544171020466</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27697931036834572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26227551608170713</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25150826316924069</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24316662571858691</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2364452075444278</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23085314009433147</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2260978957540031</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.22197947614796831</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.21837283156032528</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.21517606977583917</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.21230983636636963</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.20971905313107067</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20736585161379567</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.20520354821554934</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.20321503851425851</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.20137376493485834</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19966257469525139</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19807158658718677</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.19658430528852477</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.19519315945261015</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.19389126890544961</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.19266103098071435</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.19149837623830138</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.19039698631563021</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1893515072855976</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.18835628925422201</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.18740505946705899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-EABD-4D20-8F3A-D7B02AF5A0C0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV2!$AT$4:$AT$33</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>208.19604127793963</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>416.39208255587926</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>624.58812383381894</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>832.78416511175851</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1040.9802063896982</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1249.1762476676379</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1457.3722889455776</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1665.568330223517</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1873.7643715014565</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2081.9604127793964</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2290.1564540573363</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2498.3524953352758</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2706.5485366132152</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2914.7445778911551</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3122.9406191690946</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3331.136660447034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3539.332701724974</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3747.528743002913</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3955.7247842808529</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4163.9208255587928</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4372.1168668367318</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4580.3129081146726</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4788.5089493926116</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4996.7049906705515</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5204.9010319484905</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5413.0970732264304</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5621.2931145043713</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5829.4891557823103</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6037.6851970602493</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6245.8812383381892</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV2!$AU$4:$AU$33</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.35436307301442777</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27384211991944757</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24525049008142019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22969345386516304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2193970587837665</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.21178118096271273</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.205622254503014</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20044892158151983</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1960041459953919</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.19213177731236256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.18871044836567716</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.18568567462706428</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1829454383499256</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.18045760924819249</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.17820246165239648</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.17613708708849934</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17425075160304804</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17252297699775665</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.17094767906041766</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.16948945461349474</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1681388951589467</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.16687418593307254</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.16566565359569016</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.16451838181167217</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.1634193019364738</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.16236109964495332</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.16133660996339078</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.16036051317985731</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15942763712675823</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.15853238941979694</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-EABD-4D20-8F3A-D7B02AF5A0C0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -5128,198 +3905,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>GeometryV2!$J$4:$J$33</c:f>
+              <c:f>GeometryV2!$D$4:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>123.11567503065052</c:v>
+                  <c:v>643.09700844251097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>246.23135006130104</c:v>
+                  <c:v>814.10533246577234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>369.34702509195154</c:v>
+                  <c:v>969.78776838348119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>492.46270012260209</c:v>
+                  <c:v>1127.1034856264339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>615.57837515325264</c:v>
+                  <c:v>1268.0606738969427</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>738.69405018390307</c:v>
+                  <c:v>1415.7784246735207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>861.80972521455362</c:v>
+                  <c:v>1560.9457619674545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>984.92540024520417</c:v>
+                  <c:v>1705.2259685795282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1108.0410752758546</c:v>
+                  <c:v>1878.5066643473549</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1231.1567503065053</c:v>
+                  <c:v>2037.2247923089053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1354.2724253371557</c:v>
+                  <c:v>2176.997027585312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1477.3881003678061</c:v>
+                  <c:v>2321.014587423987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1600.5037753984568</c:v>
+                  <c:v>2461.1185543553597</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1723.6194504291072</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1846.7351254597575</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1969.8508004904083</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2092.9664755210588</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2216.0821505517092</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2339.1978255823597</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2462.3135006130105</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2585.4291756436605</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2708.5448506743114</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2831.6605257049619</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2954.7762007356123</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3077.8918757662627</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3201.0075507969136</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3324.1232258275641</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3447.2389008582145</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3570.3545758888645</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3693.4702509195149</c:v>
+                  <c:v>2599.8936890536716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>GeometryV2!$K$4:$K$33</c:f>
+              <c:f>GeometryV2!$B$4:$B$17</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.65434155210407541</c:v>
+                  <c:v>4610.5925925925931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47925835975445386</c:v>
+                  <c:v>7269.1428571428578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40960478002751072</c:v>
+                  <c:v>10185.818181818184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37053419220885125</c:v>
+                  <c:v>13427.583333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34489454768460226</c:v>
+                  <c:v>16876.166666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32649752190064257</c:v>
+                  <c:v>20635.368421052633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31250634993995002</c:v>
+                  <c:v>24663.461538461539</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30140979175575705</c:v>
+                  <c:v>28907.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29232646961736897</c:v>
+                  <c:v>34514.000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28470436233237484</c:v>
+                  <c:v>40051.310344827587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27819475257778276</c:v>
+                  <c:v>45269.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.27254534996084828</c:v>
+                  <c:v>50808.41025641025</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2675818218172743</c:v>
+                  <c:v>56338.705882352944</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26317270525089054</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.25921548029271735</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25563460785573466</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.25237160429054073</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.2493803560891559</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.24662267894697476</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.24406790753644483</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.24168897629210415</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.23946817137522983</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23738180039580023</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23541486502313622</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.23355888826931503</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.23179750115443784</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.23011855677710469</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.22852240942714191</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.22699641581633412</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.22553593775005318</c:v>
+                  <c:v>62457.846153846163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5327,7 +4008,448 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-EABD-4D20-8F3A-D7B02AF5A0C0}"/>
+              <c16:uniqueId val="{00000000-858B-4233-86A0-1DF33B46D5F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GeometryV2!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3745 (Exp) V2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GeometryV2!$O$4:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>845.51773756983494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1076.6225411625951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1283.1745711749252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1485.2887758913969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1676.6923693444573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1876.1999682951712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2071.0717492256417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2228.2622318805311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2427.0631792791046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2703.1359205136591</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2901.6250263260345</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3096.2970908966768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3292.0666658709001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3482.6241697755772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GeometryV2!$M$4:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2318.0740740740744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3616.8333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5045.272727272727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6611.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8318.0833333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10124.588235294119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12085.692307692307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13817.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15984.692307692309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19428.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21923.642857142859</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24612</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27426.583333333332</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30282.076923076929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-858B-4233-86A0-1DF33B46D5F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GeometryV2!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3996 (Exp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GeometryV2!$AA$4:$AA$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1004.4895673301418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1275.4417106185654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1526.2462083707894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1780.5665386606358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014.1768928499091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2246.814567144047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2485.7594626331984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2698.7246860482401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3011.1924907454413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3239.0631316867589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3482.758526306613</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3716.6250774325495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3945.934362710525</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4171.898891762562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GeometryV2!$Y$4:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1700.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2739.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3868.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5087.9166666666661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6389.8333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7800.6666666666652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9282.0833333333303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10867.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13242.23076923077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15091.357142857139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17242.142857142851</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19610.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21914.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24356.846153846156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-858B-4233-86A0-1DF33B46D5F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GeometryV2!$AJ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4162 (Exp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GeometryV2!$AM$4:$AM$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1321.2641269601243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1593.6886469723086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1862.994958093534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2129.6183793192013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2398.331647171332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2655.6793038609717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2966.4465948085103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3257.4005624944307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3520.0825754468133</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3790.8483907345303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4065.3053006734749</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4326.7301298381417</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4587.3221748376964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4857.7421406575759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GeometryV2!$AK$4:$AK$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1701.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2476.166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3366.636363636364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4342.272727272727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5429.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6623.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8161.166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9671.6666666666661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11222.615384615385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12816.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14559.916666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16310.083333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19965.076923076926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-858B-4233-86A0-1DF33B46D5F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5339,11 +4461,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="833944928"/>
-        <c:axId val="833946368"/>
+        <c:axId val="1871652335"/>
+        <c:axId val="1871649935"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="833944928"/>
+        <c:axId val="1871652335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5363,7 +4485,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5385,7 +4507,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5400,12 +4522,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="833946368"/>
+        <c:crossAx val="1871649935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="833946368"/>
+        <c:axId val="1871649935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5425,7 +4547,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5447,7 +4569,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5462,15 +4584,68 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="833944928"/>
+        <c:crossAx val="1871652335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -5481,15 +4656,879 @@
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>f x Re (V2)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GeometryV2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3326 (Exp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GeometryV2!$D$4:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>643.09700844251097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>814.10533246577234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>969.78776838348119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1127.1034856264339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1268.0606738969427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1415.7784246735207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1560.9457619674545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1705.2259685795282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1878.5066643473549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2037.2247923089053</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2176.997027585312</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2321.014587423987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2461.1185543553597</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2599.8936890536716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GeometryV2!$E$4:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>0.6664903288642513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65571042354307862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6474893026593691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63191745690106194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62745678519829495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61547686083293374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6051575928402555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59434860561301039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58473608666151999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57693768323420469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57105659134868758</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56385826276687345</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55607309173193342</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>0.55241556438313977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C00-4AF0-BBD7-DED6C9F3FA77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GeometryV2!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3745 (Exp) V2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GeometryV2!$O$4:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>845.51773756983494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1076.6225411625951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1283.1745711749252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1485.2887758913969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1676.6923693444573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1876.1999682951712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2071.0717492256417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2228.2622318805311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2427.0631792791046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2703.1359205136591</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2901.6250263260345</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3096.2970908966768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3292.0666658709001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3482.6241697755772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GeometryV2!$P$4:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.57019107907306088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5487065115105545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5388299316247348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52702073934396942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5203014610144886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50577536849842286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49547277734203671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48937374695089525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47717828470385532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46756988241042086</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45789794675880807</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45144018071468722</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44501333021808581</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4390469787927444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C00-4AF0-BBD7-DED6C9F3FA77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GeometryV2!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3996 (Exp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GeometryV2!$AA$4:$AA$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1004.4895673301418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1275.4417106185654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1526.2462083707894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1780.5665386606358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014.1768928499091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2246.814567144047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2485.7594626331984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2698.7246860482401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3011.1924907454413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3239.0631316867589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3482.758526306613</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3716.6250774325495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3945.934362710525</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4171.898891762562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GeometryV2!$AB$4:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.9566866356192898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5567361975526568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54913021597718725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53057817566940102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52073901800026123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5108848995669919</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49665300592598721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49333843720755433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4828474280126086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47557090741315833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46997019754853187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46936180055416249</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46531751806847838</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4626784923990197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C00-4AF0-BBD7-DED6C9F3FA77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GeometryV2!$AJ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4162 (Exp)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GeometryV2!$AM$4:$AM$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1321.2641269601243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1593.6886469723086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1862.994958093534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2129.6183793192013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2398.331647171332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2655.6793038609717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2966.4465948085103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3257.4005624944307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3520.0825754468133</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3790.8483907345303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4065.3053006734749</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4326.7301298381417</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4587.3221748376964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4857.7421406575759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GeometryV2!$AN$4:$AN$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.53443800770937611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53453364682390336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53183263456438223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52494724002076865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5175633197298618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51490544753311296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50848870584112771</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49975956900271629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49658146874013676</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48899133439900311</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48303064990380168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47768180199126964</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47171770469814778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4638784576462206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9C00-4AF0-BBD7-DED6C9F3FA77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="937361871"/>
+        <c:axId val="937362831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="937361871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937362831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="937362831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937361871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -6377,7 +6416,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -7300,7 +7339,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -8179,7 +8218,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -9072,1703 +9111,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>f x Re (V2)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GeometryV2!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.3326 (Exp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV2!$D$4:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>643.09700844251097</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>814.10533246577234</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>969.78776838348119</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1127.1034856264339</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1268.0606738969427</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1415.7784246735207</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1560.9457619674545</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1705.2259685795282</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1878.5066643473549</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2037.2247923089053</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2176.997027585312</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2321.014587423987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2461.1185543553597</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2599.8936890536716</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV2!$E$4:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>0.6664903288642513</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65571042354307862</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6474893026593691</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63191745690106194</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.62745678519829495</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61547686083293374</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6051575928402555</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.59434860561301039</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.58473608666151999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.57693768323420469</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.57105659134868758</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.56385826276687345</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.55607309173193342</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>0.55241556438313977</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C00-4AF0-BBD7-DED6C9F3FA77}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GeometryV2!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.3745 (Exp) V2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV2!$O$4:$O$17</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>845.51773756983494</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1076.6225411625951</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1283.1745711749252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1485.2887758913969</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1676.6923693444573</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1876.1999682951712</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2071.0717492256417</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2228.2622318805311</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2427.0631792791046</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2703.1359205136591</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2901.6250263260345</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3096.2970908966768</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3292.0666658709001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3482.6241697755772</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV2!$P$4:$P$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.57019107907306088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5487065115105545</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5388299316247348</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52702073934396942</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5203014610144886</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50577536849842286</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.49547277734203671</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.48937374695089525</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47717828470385532</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.46756988241042086</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.45789794675880807</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45144018071468722</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.44501333021808581</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.4390469787927444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C00-4AF0-BBD7-DED6C9F3FA77}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GeometryV2!$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.3996 (Exp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV2!$AA$4:$AA$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1004.4895673301418</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1275.4417106185654</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1526.2462083707894</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1780.5665386606358</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014.1768928499091</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2246.814567144047</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2485.7594626331984</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2698.7246860482401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3011.1924907454413</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3239.0631316867589</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3482.758526306613</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3716.6250774325495</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3945.934362710525</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4171.898891762562</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV2!$AB$4:$AB$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.9566866356192898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5567361975526568</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54913021597718725</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53057817566940102</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.52073901800026123</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5108848995669919</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.49665300592598721</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49333843720755433</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4828474280126086</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.47557090741315833</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.46997019754853187</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.46936180055416249</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.46531751806847838</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.4626784923990197</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9C00-4AF0-BBD7-DED6C9F3FA77}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GeometryV2!$AJ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.4162 (Exp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV2!$AM$4:$AM$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1321.2641269601243</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1593.6886469723086</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1862.994958093534</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2129.6183793192013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2398.331647171332</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2655.6793038609717</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2966.4465948085103</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3257.4005624944307</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3520.0825754468133</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3790.8483907345303</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4065.3053006734749</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4326.7301298381417</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4587.3221748376964</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4857.7421406575759</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV2!$AN$4:$AN$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.53443800770937611</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53453364682390336</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53183263456438223</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52494724002076865</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5175633197298618</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51490544753311296</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.50848870584112771</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49975956900271629</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.49658146874013676</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.48899133439900311</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.48303064990380168</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.47768180199126964</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.47171770469814778</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.4638784576462206</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9C00-4AF0-BBD7-DED6C9F3FA77}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="937361871"/>
-        <c:axId val="937362831"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="937361871"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="937362831"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="937362831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="937361871"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>p x Re(V2)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV2!$D$4:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>643.09700844251097</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>814.10533246577234</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>969.78776838348119</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1127.1034856264339</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1268.0606738969427</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1415.7784246735207</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1560.9457619674545</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1705.2259685795282</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1878.5066643473549</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2037.2247923089053</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2176.997027585312</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2321.014587423987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2461.1185543553597</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2599.8936890536716</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV2!$B$4:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>4610.5925925925931</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7269.1428571428578</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10185.818181818184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13427.583333333332</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16876.166666666661</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20635.368421052633</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24663.461538461539</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28907.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34514.000000000007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40051.310344827587</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45269.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50808.41025641025</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>56338.705882352944</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62457.846153846163</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-858B-4233-86A0-1DF33B46D5F2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GeometryV2!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.3745 (Exp) V2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV2!$O$4:$O$17</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>845.51773756983494</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1076.6225411625951</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1283.1745711749252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1485.2887758913969</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1676.6923693444573</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1876.1999682951712</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2071.0717492256417</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2228.2622318805311</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2427.0631792791046</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2703.1359205136591</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2901.6250263260345</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3096.2970908966768</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3292.0666658709001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3482.6241697755772</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV2!$M$4:$M$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2318.0740740740744</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3616.8333333333335</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5045.272727272727</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6611.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8318.0833333333321</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10124.588235294119</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12085.692307692307</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13817.666666666668</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15984.692307692309</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19428.699999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21923.642857142859</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24612</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27426.583333333332</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30282.076923076929</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-858B-4233-86A0-1DF33B46D5F2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GeometryV2!$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.3996 (Exp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV2!$AA$4:$AA$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1004.4895673301418</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1275.4417106185654</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1526.2462083707894</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1780.5665386606358</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014.1768928499091</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2246.814567144047</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2485.7594626331984</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2698.7246860482401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3011.1924907454413</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3239.0631316867589</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3482.758526306613</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3716.6250774325495</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3945.934362710525</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4171.898891762562</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV2!$Y$4:$Y$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1700.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2739.3333333333335</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3868.9999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5087.9166666666661</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6389.8333333333321</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7800.6666666666652</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9282.0833333333303</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10867.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13242.23076923077</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15091.357142857139</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17242.142857142851</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19610.083333333336</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21914.083333333336</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24356.846153846156</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-858B-4233-86A0-1DF33B46D5F2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GeometryV2!$AJ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.4162 (Exp)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GeometryV2!$AM$4:$AM$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1321.2641269601243</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1593.6886469723086</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1862.994958093534</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2129.6183793192013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2398.331647171332</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2655.6793038609717</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2966.4465948085103</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3257.4005624944307</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3520.0825754468133</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3790.8483907345303</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4065.3053006734749</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4326.7301298381417</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4587.3221748376964</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4857.7421406575759</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GeometryV2!$AK$4:$AK$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1701.6666666666665</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2476.166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3366.636363636364</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4342.272727272727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5429.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6623.3333333333339</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8161.166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9671.6666666666661</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11222.615384615385</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12816.571428571428</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14559.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16310.083333333334</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18105</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19965.076923076926</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-858B-4233-86A0-1DF33B46D5F2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1871652335"/>
-        <c:axId val="1871649935"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1871652335"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1871649935"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1871649935"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1871652335"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -11437,6 +9780,615 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="33772128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GeometryV4!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3745 (Exp) V4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GeometryV4!$N$4:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2482.1586068116017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2971.513109560974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3480.8372688018344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3982.0543350193971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4444.3573547251381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4927.2837822958245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5374.5044410200362</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5892.655683783596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6365.0616101769829</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6843.9935304569735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6843.9935304569735</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7783.7049705459631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7783.7049705459631</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8719.7098995440174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GeometryV4!$O$4:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.10204835054963037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10080428788127811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9572576751508615E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8419248590824779E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7020659099904011E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5261212180868859E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4341894402226387E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2329718916704551E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0929110755278361E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.970665733388182E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.970665733388182E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7788862903972628E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7788862903972628E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5586465857438315E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D74-4E46-AF69-02A906BFD70D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GeometryV3!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3745 (Exp) V3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GeometryV3!$N$4:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>497.92682503410953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>590.53096100810274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>694.76491658248597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>797.09259903515476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>892.02764729893522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>991.13198473867214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1082.8500172996137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1179.1504703680512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1278.2927836683473</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1376.0299901279468</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1474.248224154632</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1571.2259134030446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1664.2604424633773</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1758.9892791486664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GeometryV3!$O$4:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.5953459747506815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6317619150622069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6074324417411026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5664877449925809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5334298040080308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.501172482725035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4739094453695372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4528222046372221</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4160499793933328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3848112922956259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3518752024222702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3253977837525808</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.293794279957913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.264421771640317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D74-4E46-AF69-02A906BFD70D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GeometryV2!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3745 (Exp) V2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GeometryV2!$O$4:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>845.51773756983494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1076.6225411625951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1283.1745711749252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1485.2887758913969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1676.6923693444573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1876.1999682951712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2071.0717492256417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2228.2622318805311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2427.0631792791046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2703.1359205136591</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2901.6250263260345</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3096.2970908966768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3292.0666658709001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3482.6241697755772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GeometryV2!$P$4:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.57019107907306088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5487065115105545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5388299316247348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52702073934396942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5203014610144886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50577536849842286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49547277734203671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48937374695089525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47717828470385532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46756988241042086</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45789794675880807</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45144018071468722</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44501333021808581</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4390469787927444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D74-4E46-AF69-02A906BFD70D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2118447119"/>
+        <c:axId val="2118441839"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2118447119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2118441839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2118441839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2118447119"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15355,6 +14307,28 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8752DB62-51D7-4759-A5A9-43F90F7669F2}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F3F70524-92C6-42AD-8A57-4F113156AEF7}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B5DDB3AB-CB04-4A28-8D77-9918D6105CF5}">
   <sheetPr/>
   <sheetViews>
@@ -15365,7 +14339,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{823726C3-C58E-4CFA-8C85-8BC2B5E838E0}">
   <sheetPr/>
   <sheetViews>
@@ -15376,7 +14350,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D26687F6-CF78-43FD-9591-DDFD6A5168FE}">
   <sheetPr/>
   <sheetViews>
@@ -15387,30 +14361,8 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{98DE965F-2297-4464-8457-CA088ED505B0}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F3F70524-92C6-42AD-8A57-4F113156AEF7}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8752DB62-51D7-4759-A5A9-43F90F7669F2}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
@@ -15623,42 +14575,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>612320</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>176895</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>258534</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>14354</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5D7DE9-3C2B-CD82-0147-37F5B5B9DC80}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15762,6 +14678,72 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9646081" cy="6013665"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33B3438-3158-ADCB-3CDB-F7BBFE31A6BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9646081" cy="6013665"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029112DF-7A04-6312-34B1-A6D287BDC587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15898,7 +14880,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -16035,7 +15017,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -16068,7 +15050,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -16101,7 +15083,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -16134,7 +15116,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -16145,72 +15127,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8350F9-1060-1C6C-338C-D524EBB8FFBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9646081" cy="6013665"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029112DF-7A04-6312-34B1-A6D287BDC587}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9646081" cy="6013665"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33B3438-3158-ADCB-3CDB-F7BBFE31A6BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16498,7 +15414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AJ44" sqref="AJ44"/>
     </sheetView>
   </sheetViews>
@@ -16517,120 +15433,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="93"/>
-      <c r="AS1" s="93"/>
-      <c r="AT1" s="93"/>
-      <c r="AU1" s="93"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="94" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="97" t="s">
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="97" t="s">
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="86" t="s">
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="86" t="s">
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="89" t="s">
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="103"/>
+      <c r="AJ2" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="89" t="s">
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="90"/>
-      <c r="AQ2" s="90"/>
-      <c r="AR2" s="90"/>
-      <c r="AS2" s="90"/>
-      <c r="AT2" s="90"/>
-      <c r="AU2" s="91"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="106"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -17138,7 +16054,7 @@
         <v>369.34702509195154</v>
       </c>
       <c r="K6" s="30">
-        <f t="shared" ref="K5:K33" si="22">(G6*$B$46)/(2*$B$47*$K$43*H6^2)</f>
+        <f t="shared" ref="K6:K33" si="22">(G6*$B$46)/(2*$B$47*$K$43*H6^2)</f>
         <v>0.40960478002751072</v>
       </c>
       <c r="L6" s="33">
@@ -21701,7 +20617,7 @@
         <f t="shared" si="7"/>
         <v>0.84916001878119696</v>
       </c>
-      <c r="V35" s="115">
+      <c r="V35" s="34">
         <f>(Q35*F46)/(G43*F45)</f>
         <v>3650.6572641670828</v>
       </c>
@@ -21827,7 +20743,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="38" t="e">
-        <f t="shared" ref="W34:W39" si="47">((S36*$C$46)/(2*$C$47*$K$43*(U36^2)))</f>
+        <f t="shared" ref="W36:W39" si="47">((S36*$C$46)/(2*$C$47*$K$43*(U36^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X36" s="39"/>
@@ -22263,22 +21179,22 @@
       </c>
     </row>
     <row r="41" spans="1:47" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="104" t="s">
+      <c r="A41" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="G41" s="106" t="s">
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="G41" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="107"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="109"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="95"/>
       <c r="V41" t="s">
         <v>38</v>
       </c>
@@ -22299,17 +21215,17 @@
       <c r="E42" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="111"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="113" t="s">
+      <c r="H42" s="97"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="L42" s="113"/>
-      <c r="M42" s="114"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="100"/>
     </row>
     <row r="43" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
@@ -22330,17 +21246,17 @@
       <c r="F43" s="84">
         <v>1.3619E-5</v>
       </c>
-      <c r="G43" s="100">
+      <c r="G43" s="86">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H43" s="101"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="102">
+      <c r="H43" s="87"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88">
         <v>996.55</v>
       </c>
-      <c r="L43" s="102"/>
-      <c r="M43" s="103"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="89"/>
       <c r="V43" s="70"/>
     </row>
     <row r="44" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -22471,12 +21387,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:M42"/>
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="AC2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
@@ -22486,6 +21396,12 @@
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:M42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22507,106 +21423,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="94" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97" t="s">
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="97" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="86" t="s">
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="86" t="s">
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="89" t="s">
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="89" t="s">
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="91"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="106"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -26456,21 +25372,21 @@
     </row>
     <row r="34" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="G35" s="106" t="s">
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="G35" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="109"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="95"/>
     </row>
     <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
@@ -26488,16 +25404,16 @@
       <c r="E36" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="110" t="s">
+      <c r="G36" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="113" t="s">
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="113"/>
-      <c r="L36" s="114"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="100"/>
     </row>
     <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
@@ -26515,16 +25431,16 @@
       <c r="E37" s="62">
         <v>3.4579127900000001E-5</v>
       </c>
-      <c r="G37" s="100">
+      <c r="G37" s="86">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102">
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88">
         <v>996.55</v>
       </c>
-      <c r="K37" s="102"/>
-      <c r="L37" s="103"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="89"/>
     </row>
     <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
@@ -26628,12 +25544,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -26643,6 +25553,12 @@
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26664,106 +25580,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="94" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97" t="s">
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="97" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="86" t="s">
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="86" t="s">
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="89" t="s">
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="89" t="s">
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="91"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="106"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -30613,21 +29529,21 @@
     </row>
     <row r="34" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="G35" s="106" t="s">
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="G35" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="109"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="95"/>
     </row>
     <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
@@ -30645,16 +29561,16 @@
       <c r="E36" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="110" t="s">
+      <c r="G36" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="113" t="s">
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="113"/>
-      <c r="L36" s="114"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="100"/>
     </row>
     <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
@@ -30672,16 +29588,16 @@
       <c r="E37" s="62">
         <v>3.2836784600000003E-5</v>
       </c>
-      <c r="G37" s="100">
+      <c r="G37" s="86">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102">
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88">
         <v>996.55</v>
       </c>
-      <c r="K37" s="102"/>
-      <c r="L37" s="103"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="89"/>
     </row>
     <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
@@ -30766,12 +29682,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -30781,6 +29691,12 @@
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/NewData.xlsx
+++ b/NewData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BibowC\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3F12EA-86C1-4B11-8F5A-89CBB47FAAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43268C5-ACD0-487C-9C79-5C4BFB4E757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1260" windowWidth="22380" windowHeight="16590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeometryV2" sheetId="1" r:id="rId1"/>
@@ -14332,7 +14332,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B5DDB3AB-CB04-4A28-8D77-9918D6105CF5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="175" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -14343,7 +14343,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{823726C3-C58E-4CFA-8C85-8BC2B5E838E0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="175" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -14354,7 +14354,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D26687F6-CF78-43FD-9591-DDFD6A5168FE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="175" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -14365,7 +14365,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{98DE965F-2297-4464-8457-CA088ED505B0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="175" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -14376,7 +14376,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{911BC752-5AFD-4C8E-AB87-720B9EAEDF2F}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="175" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -14582,7 +14582,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9646081" cy="6013665"/>
+    <xdr:ext cx="9641114" cy="6008914"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -15021,7 +15021,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9646081" cy="6013665"/>
+    <xdr:ext cx="9641114" cy="6008914"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -15054,7 +15054,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9646081" cy="6013665"/>
+    <xdr:ext cx="9641114" cy="6008914"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -15087,7 +15087,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9646081" cy="6013665"/>
+    <xdr:ext cx="9641114" cy="6008914"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -15120,7 +15120,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9646081" cy="6013665"/>
+    <xdr:ext cx="9641114" cy="6008914"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -15414,25 +15414,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ44" sqref="AJ44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" style="74" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" style="70"/>
-    <col min="28" max="28" width="9.5703125" style="74" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="11.85546875" customWidth="1"/>
-    <col min="34" max="34" width="10.5703125" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="71"/>
+    <col min="23" max="23" width="8.7265625" style="70"/>
+    <col min="28" max="28" width="9.54296875" style="74" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="11.81640625" customWidth="1"/>
+    <col min="34" max="34" width="10.54296875" customWidth="1"/>
+    <col min="40" max="40" width="9.1796875" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="60" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="107" t="s">
         <v>26</v>
       </c>
@@ -15483,7 +15483,7 @@
       <c r="AT1" s="108"/>
       <c r="AU1" s="108"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="109" t="s">
         <v>13</v>
       </c>
@@ -15548,7 +15548,7 @@
       <c r="AT2" s="105"/>
       <c r="AU2" s="106"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="26">
         <v>5.223518518518519E-2</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>0.35436307301442777</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>6.6125238095238084E-2</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>0.27384211991944757</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>7.877045454545456E-2</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>0.24525049008142019</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="26">
         <v>9.1548333333333343E-2</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>0.22969345386516304</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="26">
         <v>0.10299750000000001</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>0.2193970587837665</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="26">
         <v>0.1149957894736842</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>0.21178118096271273</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="26">
         <v>0.12678692307692307</v>
       </c>
@@ -16852,7 +16852,7 @@
         <v>0.205622254503014</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="26">
         <v>0.13850600000000002</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>0.20044892158151983</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="26">
         <v>0.152580625</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>0.1960041459953919</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
         <v>0.16547241379310343</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>0.19213177731236256</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="26">
         <v>0.17682533333333333</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>0.18871044836567716</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
         <v>0.18852307692307693</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>0.18568567462706428</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="26">
         <v>0.19990294117647056</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>0.1829454383499256</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="26">
         <v>0.21117487179487177</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>0.18045760924819249</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28">
@@ -18172,7 +18172,7 @@
         <v>0.17820246165239648</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28">
@@ -18323,7 +18323,7 @@
         <v>0.17613708708849934</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28">
@@ -18474,7 +18474,7 @@
         <v>0.17425075160304804</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28">
@@ -18625,7 +18625,7 @@
         <v>0.17252297699775665</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28">
@@ -18776,7 +18776,7 @@
         <v>0.17094767906041766</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28">
@@ -18927,7 +18927,7 @@
         <v>0.16948945461349474</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28">
@@ -19078,7 +19078,7 @@
         <v>0.1681388951589467</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28">
@@ -19229,7 +19229,7 @@
         <v>0.16687418593307254</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28">
@@ -19380,7 +19380,7 @@
         <v>0.16566565359569016</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28">
@@ -19531,7 +19531,7 @@
         <v>0.16451838181167217</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28">
@@ -19682,7 +19682,7 @@
         <v>0.1634193019364738</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28">
@@ -19833,7 +19833,7 @@
         <v>0.16236109964495332</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28">
@@ -19984,7 +19984,7 @@
         <v>0.16133660996339078</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28">
@@ -20135,7 +20135,7 @@
         <v>0.16036051317985731</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28">
@@ -20286,7 +20286,7 @@
         <v>0.15942763712675823</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="28">
@@ -20437,7 +20437,7 @@
         <v>0.15853238941979694</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
       <c r="B34" s="27"/>
       <c r="C34" s="28">
@@ -20558,7 +20558,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="26"/>
       <c r="B35" s="27"/>
       <c r="C35" s="28">
@@ -20686,7 +20686,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="26"/>
       <c r="B36" s="27"/>
       <c r="C36" s="28">
@@ -20807,7 +20807,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
       <c r="C37" s="28">
@@ -20928,7 +20928,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
       <c r="C38" s="28">
@@ -21049,7 +21049,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="28">
@@ -21170,7 +21170,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AO40">
         <v>0.25</v>
       </c>
@@ -21178,7 +21178,7 @@
         <v>17657.522394</v>
       </c>
     </row>
-    <row r="41" spans="1:47" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:47" ht="23" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="90" t="s">
         <v>21</v>
       </c>
@@ -21199,7 +21199,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="59" t="s">
         <v>22</v>
       </c>
@@ -21227,7 +21227,7 @@
       <c r="L42" s="99"/>
       <c r="M42" s="100"/>
     </row>
-    <row r="43" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="61" t="s">
         <v>16</v>
       </c>
@@ -21259,7 +21259,7 @@
       <c r="M43" s="89"/>
       <c r="V43" s="70"/>
     </row>
-    <row r="44" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="61" t="s">
         <v>17</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>1.2834E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="61" t="s">
         <v>18</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>2.7237999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="61" t="s">
         <v>19</v>
       </c>
@@ -21329,7 +21329,7 @@
         <v>4.2446626149290944E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="63" t="s">
         <v>20</v>
       </c>
@@ -21354,7 +21354,7 @@
       </c>
       <c r="G47" s="84"/>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="85" t="s">
         <v>35</v>
       </c>
@@ -21368,18 +21368,18 @@
         <v>4.66E-4</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="84">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="84">
         <f>B53/2</f>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="84">
         <f>PI()*B54^2</f>
         <v>4.523893421169302E-4</v>
@@ -21412,17 +21412,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C6C83F-B0F5-4A4A-8BD9-9E683DBD08A5}">
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="60" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="107" t="s">
         <v>27</v>
       </c>
@@ -21466,7 +21466,7 @@
       <c r="AM1" s="108"/>
       <c r="AN1" s="108"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" s="109" t="s">
         <v>13</v>
       </c>
@@ -21524,7 +21524,7 @@
       <c r="AM2" s="105"/>
       <c r="AN2" s="106"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="26">
         <v>6.3184166666666666E-2</v>
       </c>
@@ -21780,7 +21780,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>7.5650833333333348E-2</v>
       </c>
@@ -21914,7 +21914,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>8.6670000000000011E-2</v>
       </c>
@@ -22048,7 +22048,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="26">
         <v>9.8470000000000002E-2</v>
       </c>
@@ -22182,7 +22182,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="26">
         <v>0.10903833333333335</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="26">
         <v>0.12042416666666667</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="26">
         <v>0.13245166666666669</v>
       </c>
@@ -22584,7 +22584,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="26">
         <v>0.14441916666666665</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" s="26">
         <v>0.15659153846153848</v>
       </c>
@@ -22852,7 +22852,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
         <v>0.16848923076923078</v>
       </c>
@@ -22986,7 +22986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="26">
         <v>0.18045083333333334</v>
       </c>
@@ -23120,7 +23120,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
         <v>0.19241166666666668</v>
       </c>
@@ -23254,7 +23254,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="26">
         <v>0.20409750000000002</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="26">
         <v>0.21544153846153849</v>
       </c>
@@ -23522,7 +23522,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28">
@@ -23640,7 +23640,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28">
@@ -23758,7 +23758,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28">
@@ -23876,7 +23876,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28">
@@ -23994,7 +23994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28">
@@ -24112,7 +24112,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28">
@@ -24230,7 +24230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28">
@@ -24344,7 +24344,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28">
@@ -24458,7 +24458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28">
@@ -24572,7 +24572,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28">
@@ -24686,7 +24686,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28">
@@ -24800,7 +24800,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28">
@@ -24914,7 +24914,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28">
@@ -25028,7 +25028,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28">
@@ -25142,7 +25142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28">
@@ -25256,7 +25256,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
       <c r="C33" s="28">
@@ -25370,8 +25370,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:40" ht="23" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="90" t="s">
         <v>21</v>
       </c>
@@ -25388,7 +25388,7 @@
       <c r="K35" s="94"/>
       <c r="L35" s="95"/>
     </row>
-    <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="59" t="s">
         <v>29</v>
       </c>
@@ -25415,7 +25415,7 @@
       <c r="K36" s="99"/>
       <c r="L36" s="100"/>
     </row>
-    <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="61" t="s">
         <v>16</v>
       </c>
@@ -25442,7 +25442,7 @@
       <c r="K37" s="88"/>
       <c r="L37" s="89"/>
     </row>
-    <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="61" t="s">
         <v>17</v>
       </c>
@@ -25459,7 +25459,7 @@
         <v>2.6823155099999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="61" t="s">
         <v>18</v>
       </c>
@@ -25476,7 +25476,7 @@
         <v>6.11E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="61" t="s">
         <v>19</v>
       </c>
@@ -25497,7 +25497,7 @@
         <v>5.1566085751038292E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="63" t="s">
         <v>20</v>
       </c>
@@ -25518,25 +25518,25 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C44" s="84">
         <f>11.7/1000</f>
         <v>1.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C45" s="84">
         <f>C44/2</f>
         <v>5.8499999999999993E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C47" s="84">
         <f>PI()*C45^2</f>
         <v>1.0751315458747668E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="C48" s="84">
         <f>PI()*(C45)^2</f>
         <v>1.0751315458747668E-4</v>
@@ -25570,16 +25570,16 @@
   <dimension ref="A1:AN44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="N4" sqref="N4:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" style="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="60" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="107" t="s">
         <v>28</v>
       </c>
@@ -25623,7 +25623,7 @@
       <c r="AM1" s="108"/>
       <c r="AN1" s="108"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" s="109" t="s">
         <v>13</v>
       </c>
@@ -25681,7 +25681,7 @@
       <c r="AM2" s="105"/>
       <c r="AN2" s="106"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -25803,7 +25803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="26">
         <v>6.232583333333333E-2</v>
       </c>
@@ -25937,7 +25937,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>7.335916666666667E-2</v>
       </c>
@@ -26071,7 +26071,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>8.5369090909090894E-2</v>
       </c>
@@ -26205,7 +26205,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="26">
         <v>9.7405454545454559E-2</v>
       </c>
@@ -26339,7 +26339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="26">
         <v>0.10933727272727273</v>
       </c>
@@ -26473,7 +26473,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="26">
         <v>0.12105500000000002</v>
       </c>
@@ -26607,7 +26607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="26">
         <v>0.13287750000000001</v>
       </c>
@@ -26741,7 +26741,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="26">
         <v>0.14477333333333334</v>
       </c>
@@ -26875,7 +26875,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" s="26">
         <v>0.15668916666666668</v>
       </c>
@@ -27009,7 +27009,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
         <v>0.16912916666666666</v>
       </c>
@@ -27143,7 +27143,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="26">
         <v>0.18102416666666668</v>
       </c>
@@ -27277,7 +27277,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
         <v>0.19320249999999997</v>
       </c>
@@ -27411,7 +27411,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="26">
         <v>0.20477999999999999</v>
       </c>
@@ -27545,7 +27545,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="26">
         <v>0.2166576923076923</v>
       </c>
@@ -27679,7 +27679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28">
@@ -27797,7 +27797,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28">
@@ -27915,7 +27915,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28">
@@ -28033,7 +28033,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28">
@@ -28151,7 +28151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28">
@@ -28269,7 +28269,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28">
@@ -28387,7 +28387,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28">
@@ -28501,7 +28501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28">
@@ -28615,7 +28615,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28">
@@ -28729,7 +28729,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28">
@@ -28843,7 +28843,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28">
@@ -28957,7 +28957,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28">
@@ -29071,7 +29071,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28">
@@ -29185,7 +29185,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28">
@@ -29299,7 +29299,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28">
@@ -29413,7 +29413,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
       <c r="C33" s="28">
@@ -29527,8 +29527,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:40" ht="23" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="90" t="s">
         <v>21</v>
       </c>
@@ -29545,7 +29545,7 @@
       <c r="K35" s="94"/>
       <c r="L35" s="95"/>
     </row>
-    <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="59" t="s">
         <v>30</v>
       </c>
@@ -29572,7 +29572,7 @@
       <c r="K36" s="99"/>
       <c r="L36" s="100"/>
     </row>
-    <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="61" t="s">
         <v>16</v>
       </c>
@@ -29599,7 +29599,7 @@
       <c r="K37" s="88"/>
       <c r="L37" s="89"/>
     </row>
-    <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="61" t="s">
         <v>17</v>
       </c>
@@ -29616,7 +29616,7 @@
         <v>2.5482635699999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="61" t="s">
         <v>18</v>
       </c>
@@ -29633,7 +29633,7 @@
         <v>1.0751315458747668E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="61" t="s">
         <v>19</v>
       </c>
@@ -29654,7 +29654,7 @@
         <v>5.1543780614499001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="63" t="s">
         <v>20</v>
       </c>
@@ -29675,7 +29675,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="D44">
         <v>4.523893421169302E-4</v>
       </c>
@@ -29711,9 +29711,9 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -29739,7 +29739,7 @@
         <v>97.328477000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.2E-2</v>
       </c>
@@ -29765,7 +29765,7 @@
         <v>131.13779199999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.4E-2</v>
       </c>
@@ -29791,7 +29791,7 @@
         <v>169.31021899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.6E-2</v>
       </c>
@@ -29817,7 +29817,7 @@
         <v>211.760841</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -29843,7 +29843,7 @@
         <v>258.420389</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.02</v>
       </c>
@@ -29869,7 +29869,7 @@
         <v>309.22935100000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -29895,7 +29895,7 @@
         <v>364.13257700000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.4E-2</v>
       </c>
@@ -29921,7 +29921,7 @@
         <v>423.07002499999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>486.01637299999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -29973,7 +29973,7 @@
         <v>552.942995</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.03</v>
       </c>
@@ -29999,7 +29999,7 @@
         <v>623.79522499999996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -30025,7 +30025,7 @@
         <v>698.56193499999904</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -30051,7 +30051,7 @@
         <v>777.22869900000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.5999999999999997E-2</v>
       </c>
@@ -30077,7 +30077,7 @@
         <v>859.75832500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -30103,7 +30103,7 @@
         <v>946.18000300000006</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.04</v>
       </c>
@@ -30129,7 +30129,7 @@
         <v>1036.4617129999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -30155,7 +30155,7 @@
         <v>1130.5907380000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4.3999999999999997E-2</v>
       </c>
@@ -30181,7 +30181,7 @@
         <v>1228.3784499999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -30207,7 +30207,7 @@
         <v>1330.0232659999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -30233,7 +30233,7 @@
         <v>1435.4928</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.05</v>
       </c>
@@ -30259,7 +30259,7 @@
         <v>1544.7107100000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.06</v>
       </c>
@@ -30285,7 +30285,7 @@
         <v>2147.0085349999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -30311,7 +30311,7 @@
         <v>2842.173941</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.08</v>
       </c>
@@ -30337,7 +30337,7 @@
         <v>3629.7554100000002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.09</v>
       </c>
@@ -30363,7 +30363,7 @@
         <v>4508.9377619999996</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1</v>
       </c>
@@ -30389,7 +30389,7 @@
         <v>5478.8473370000002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.11</v>
       </c>
@@ -30415,7 +30415,7 @@
         <v>6538.8652270000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.12</v>
       </c>
@@ -30441,7 +30441,7 @@
         <v>7688.2329920000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.13</v>
       </c>
@@ -30467,7 +30467,7 @@
         <v>8925.7746850000003</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.14000000000000001</v>
       </c>
@@ -30493,7 +30493,7 @@
         <v>10249.317606000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.15</v>
       </c>
@@ -30519,7 +30519,7 @@
         <v>11660.144534999999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.16</v>
       </c>
@@ -30545,7 +30545,7 @@
         <v>13158.589040999999</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.17</v>
       </c>
@@ -30571,7 +30571,7 @@
         <v>14744.229343000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.18</v>
       </c>
@@ -30597,7 +30597,7 @@
         <v>16416.307216000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.19</v>
       </c>
@@ -30623,7 +30623,7 @@
         <v>18171.986173000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.2</v>
       </c>

--- a/NewData.xlsx
+++ b/NewData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C9D0FE-E022-4CEA-9D9C-95340895A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D57F0-49D9-445B-911A-542D22C8708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="225" windowWidth="17715" windowHeight="14160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="915" windowWidth="17715" windowHeight="14160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P x Re (V2)" sheetId="7" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="40">
   <si>
     <t>0.3326</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>m=rho v a</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -930,6 +933,48 @@
     <xf numFmtId="11" fontId="2" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="6" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,48 +1019,6 @@
     </xf>
     <xf numFmtId="11" fontId="6" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15414,8 +15417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4:AM17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15433,120 +15436,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="93"/>
+      <c r="AU1" s="93"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="109" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="112" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="112" t="s">
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="101" t="s">
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="101" t="s">
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="103"/>
-      <c r="AJ2" s="104" t="s">
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="104" t="s">
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="106"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="91"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -15699,11 +15702,11 @@
         <v>4610.5925925925931</v>
       </c>
       <c r="C4" s="80">
-        <f>(A4/($K$43*$B$45))</f>
+        <f t="shared" ref="C4:C39" si="0">(A4/($K$43*$B$45))</f>
         <v>0.25478682929035146</v>
       </c>
       <c r="D4" s="29">
-        <f>((A4*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" ref="D4:D39" si="1">((A4*$B$46)/($G$43*$B$45))</f>
         <v>737.59820954498014</v>
       </c>
       <c r="E4" s="81">
@@ -15720,11 +15723,11 @@
         <v>5.7716000000000003E-2</v>
       </c>
       <c r="I4" s="31">
-        <f t="shared" ref="I4:I39" si="0">(F4/($K$43*$B$45))</f>
+        <f t="shared" ref="I4:I39" si="2">(F4/($K$43*$B$45))</f>
         <v>4.8776859579816992E-2</v>
       </c>
       <c r="J4" s="31">
-        <f t="shared" ref="J4:J39" si="1">((F4*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" ref="J4:J39" si="3">((F4*$B$46)/($G$43*$B$45))</f>
         <v>141.2071589159745</v>
       </c>
       <c r="K4" s="30">
@@ -15738,15 +15741,15 @@
         <v>2318.0740740740744</v>
       </c>
       <c r="N4" s="35">
-        <f t="shared" ref="N4:N39" si="2">(L4/($K$43*$C$45))</f>
+        <f t="shared" ref="N4:N39" si="4">(L4/($K$43*$C$45))</f>
         <v>0.20465466972165075</v>
       </c>
       <c r="O4" s="36">
-        <f t="shared" ref="O4:O39" si="3">((L4*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" ref="O4:O39" si="5">((L4*$C$46)/($G$43*$C$45))</f>
         <v>966.30104990470977</v>
       </c>
       <c r="P4" s="73">
-        <f t="shared" ref="P4:P39" si="4">((M4*$C$46)/(2*$C$47*$K$43*(N4^2)))</f>
+        <f t="shared" ref="P4:P39" si="6">((M4*$C$46)/(2*$C$47*$K$43*(N4^2)))</f>
         <v>0.93603535129520476</v>
       </c>
       <c r="Q4" s="37">
@@ -15762,15 +15765,15 @@
         <v>5.7056999999999997E-2</v>
       </c>
       <c r="U4" s="35">
-        <f t="shared" ref="U4:U39" si="5">(Q4/($K$43*$C$45))</f>
+        <f t="shared" ref="U4:U39" si="7">(Q4/($K$43*$C$45))</f>
         <v>3.7629822888966935E-2</v>
       </c>
       <c r="V4" s="35">
-        <f t="shared" ref="V4:V39" si="6">((Q4*$C$46)/($G$43*$C$45))</f>
+        <f t="shared" ref="V4:V39" si="8">((Q4*$C$46)/($G$43*$C$45))</f>
         <v>177.67362657686897</v>
       </c>
       <c r="W4" s="38">
-        <f t="shared" ref="W4:W35" si="7">(R4*$C$46)/(2*$C$47*$K$43*(T4^2))</f>
+        <f t="shared" ref="W4:W35" si="9">(R4*$C$46)/(2*$C$47*$K$43*(T4^2))</f>
         <v>0.58593641893020043</v>
       </c>
       <c r="X4" s="39">
@@ -15784,11 +15787,11 @@
         <v>0.11860123434432482</v>
       </c>
       <c r="AA4" s="40">
-        <f t="shared" ref="AA4:AA17" si="8">((X4*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="AA4:AA17" si="10">((X4*$D$46)/($G$43*$D$45))</f>
         <v>1171.5881417482033</v>
       </c>
       <c r="AB4" s="76">
-        <f t="shared" ref="AB4:AB17" si="9">((Y4*$D$46)/(2*$D$47*$K$43*(Z4^2)))</f>
+        <f t="shared" ref="AB4:AB17" si="11">((Y4*$D$46)/(2*$D$47*$K$43*(Z4^2)))</f>
         <v>2.0243777390490445</v>
       </c>
       <c r="AC4" s="41">
@@ -15802,7 +15805,7 @@
         <v>5.2315E-2</v>
       </c>
       <c r="AG4" s="41">
-        <f t="shared" ref="AG4:AG17" si="10">(AC4/($K$43*$D$45))</f>
+        <f t="shared" ref="AG4:AG17" si="12">(AC4/($K$43*$D$45))</f>
         <v>4.5494723154259557E-2</v>
       </c>
       <c r="AH4" s="41"/>
@@ -15818,11 +15821,11 @@
         <v>0.24981577091505083</v>
       </c>
       <c r="AM4" s="43">
-        <f t="shared" ref="AM4:AM17" si="11">((AJ4*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" ref="AM4:AM17" si="13">((AJ4*$E$46)/($G$43*$E$45))</f>
         <v>1514.0046793941676</v>
       </c>
       <c r="AN4" s="78">
-        <f t="shared" ref="AN4:AN17" si="12">((AK4*$E$46)/(2*$E$47*$K$43*(AL4^2)))</f>
+        <f t="shared" ref="AN4:AN17" si="14">((AK4*$E$46)/(2*$E$47*$K$43*(AL4^2)))</f>
         <v>0.59191537241919945</v>
       </c>
       <c r="AO4" s="44">
@@ -15838,11 +15841,11 @@
         <v>5.5125E-2</v>
       </c>
       <c r="AS4" s="44">
-        <f t="shared" ref="AS4:AS17" si="13">(AO4/($K$43*$E$45))</f>
+        <f t="shared" ref="AS4:AS17" si="15">(AO4/($K$43*$E$45))</f>
         <v>3.9364312927327297E-2</v>
       </c>
       <c r="AT4" s="44">
-        <f t="shared" ref="AT4:AT17" si="14">((AO4*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" ref="AT4:AT17" si="16">((AO4*$E$46)/($G$43*$E$45))</f>
         <v>238.56681967999495</v>
       </c>
       <c r="AU4" s="44">
@@ -15858,15 +15861,15 @@
         <v>7269.1428571428578</v>
       </c>
       <c r="C5" s="80">
-        <f>(A5/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0.32253814532533931</v>
       </c>
       <c r="D5" s="29">
-        <f>((A5*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>933.73570040709353</v>
       </c>
       <c r="E5" s="65">
-        <f t="shared" ref="E5:E39" si="15">((B5*$B$46)/(2*$B$47*$K$43*(C5^2)))</f>
+        <f t="shared" ref="E5:E39" si="17">((B5*$B$46)/(2*$B$47*$K$43*(C5^2)))</f>
         <v>0.72457172200140596</v>
       </c>
       <c r="F5" s="32">
@@ -15879,11 +15882,11 @@
         <v>0.11978999999999999</v>
       </c>
       <c r="I5" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.7553719159633984E-2</v>
       </c>
       <c r="J5" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>282.41431783194901</v>
       </c>
       <c r="K5" s="30">
@@ -15897,15 +15900,15 @@
         <v>3616.8333333333335</v>
       </c>
       <c r="N5" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26059279514324413</v>
       </c>
       <c r="O5" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1230.4194763159135</v>
       </c>
       <c r="P5" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.90076592060104399</v>
       </c>
       <c r="Q5" s="37">
@@ -15921,15 +15924,15 @@
         <v>0.118371</v>
       </c>
       <c r="U5" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.525964577793387E-2</v>
       </c>
       <c r="V5" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>355.34725315373794</v>
       </c>
       <c r="W5" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.43707968777051781</v>
       </c>
       <c r="X5" s="39">
@@ -15939,15 +15942,15 @@
         <v>2739.3333333333335</v>
       </c>
       <c r="Z5" s="40">
-        <f t="shared" ref="Z5:Z17" si="16">(X5/($K$43*$D$45))</f>
+        <f t="shared" ref="Z5:Z17" si="18">(X5/($K$43*$D$45))</f>
         <v>0.3181635551523847</v>
       </c>
       <c r="AA5" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1487.6136420445582</v>
       </c>
       <c r="AB5" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.45321179917710785</v>
       </c>
       <c r="AC5" s="41">
@@ -15963,11 +15966,11 @@
         <v>0.10803</v>
       </c>
       <c r="AG5" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.0989446308519115E-2</v>
       </c>
       <c r="AH5" s="41">
-        <f t="shared" ref="AH5:AH17" si="17">((AC5*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="AH5:AH17" si="19">((AC5*$D$46)/($G$43*$D$45))</f>
         <v>425.43257836619426</v>
       </c>
       <c r="AI5" s="41">
@@ -15981,15 +15984,15 @@
         <v>2476.166666666667</v>
       </c>
       <c r="AL5" s="43">
-        <f t="shared" ref="AL5:AL17" si="18">(AJ5/($K$43*$E$45))</f>
+        <f t="shared" ref="AL5:AL17" si="20">(AJ5/($K$43*$E$45))</f>
         <v>0.30132397438045866</v>
       </c>
       <c r="AM5" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1826.1693629454414</v>
       </c>
       <c r="AN5" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.59202129726226183</v>
       </c>
       <c r="AO5" s="44">
@@ -16005,15 +16008,15 @@
         <v>0.114069</v>
       </c>
       <c r="AS5" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.8728625854654594E-2</v>
       </c>
       <c r="AT5" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>477.1336393599899</v>
       </c>
       <c r="AU5" s="44">
-        <f t="shared" ref="AU5:AU33" si="19">(AP5*$E$46)/(2*$E$47*$K$43*(AR5^2))</f>
+        <f t="shared" ref="AU5:AU33" si="21">(AP5*$E$46)/(2*$E$47*$K$43*(AR5^2))</f>
         <v>0.3102506677043399</v>
       </c>
     </row>
@@ -16025,15 +16028,15 @@
         <v>10185.818181818184</v>
       </c>
       <c r="C6" s="80">
-        <f>(A6/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0.38421754004019937</v>
       </c>
       <c r="D6" s="29">
-        <f>((A6*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>1112.295209288355</v>
       </c>
       <c r="E6" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.71548723668347569</v>
       </c>
       <c r="F6" s="32">
@@ -16046,15 +16049,15 @@
         <v>0.183417</v>
       </c>
       <c r="I6" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14633057873945096</v>
       </c>
       <c r="J6" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>423.62147674792345</v>
       </c>
       <c r="K6" s="30">
-        <f t="shared" ref="K6:K33" si="20">(G6*$B$46)/(2*$B$47*$K$43*H6^2)</f>
+        <f t="shared" ref="K6:K33" si="22">(G6*$B$46)/(2*$B$47*$K$43*H6^2)</f>
         <v>0.46399897754472896</v>
       </c>
       <c r="L6" s="33">
@@ -16064,15 +16067,15 @@
         <v>5045.272727272727</v>
       </c>
       <c r="N6" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.31058800589305818</v>
       </c>
       <c r="O6" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1466.4777333957993</v>
       </c>
       <c r="P6" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.88455235945931687</v>
       </c>
       <c r="Q6" s="37">
@@ -16088,15 +16091,15 @@
         <v>0.181062</v>
       </c>
       <c r="U6" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11288946866690079</v>
       </c>
       <c r="V6" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>533.02087973060679</v>
       </c>
       <c r="W6" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.3798908633954084</v>
       </c>
       <c r="X6" s="39">
@@ -16106,15 +16109,15 @@
         <v>3868.9999999999995</v>
       </c>
       <c r="Z6" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.38072764568566037</v>
       </c>
       <c r="AA6" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1780.1399011719909</v>
       </c>
       <c r="AB6" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.44702014034572685</v>
       </c>
       <c r="AC6" s="41">
@@ -16130,15 +16133,15 @@
         <v>0.16492599999999999</v>
       </c>
       <c r="AG6" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13648416946277867</v>
       </c>
       <c r="AH6" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>638.14886754929148</v>
       </c>
       <c r="AI6" s="41">
-        <f t="shared" ref="AI6:AI33" si="21">(AD6*$D$46)/(2*$D$47*$K$43*AF6^2)</f>
+        <f t="shared" ref="AI6:AI33" si="23">(AD6*$D$46)/(2*$D$47*$K$43*AF6^2)</f>
         <v>0.30947361440412607</v>
       </c>
       <c r="AJ6" s="42">
@@ -16148,15 +16151,15 @@
         <v>3366.636363636364</v>
       </c>
       <c r="AL6" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.35224260779543209</v>
       </c>
       <c r="AM6" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2134.7609661746892</v>
       </c>
       <c r="AN6" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.58902979842714775</v>
       </c>
       <c r="AO6" s="44">
@@ -16172,15 +16175,15 @@
         <v>0.17423</v>
       </c>
       <c r="AS6" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.11809293878198189</v>
       </c>
       <c r="AT6" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>715.70045903998471</v>
       </c>
       <c r="AU6" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.2778576514268854</v>
       </c>
     </row>
@@ -16192,15 +16195,15 @@
         <v>13427.583333333332</v>
       </c>
       <c r="C7" s="80">
-        <f>(A7/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0.44654401997662796</v>
       </c>
       <c r="D7" s="29">
-        <f>((A7*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>1292.7280053492607</v>
       </c>
       <c r="E7" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.69828006917366148</v>
       </c>
       <c r="F7" s="32">
@@ -16213,15 +16216,15 @@
         <v>0.24799399999999999</v>
       </c>
       <c r="I7" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.19510743831926797</v>
       </c>
       <c r="J7" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>564.82863566389801</v>
       </c>
       <c r="K7" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.41973994131299369</v>
       </c>
       <c r="L7" s="33">
@@ -16231,15 +16234,15 @@
         <v>6611.666666666667</v>
       </c>
       <c r="N7" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35950905624404189</v>
       </c>
       <c r="O7" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1697.4642160443095</v>
       </c>
       <c r="P7" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.86516618901447451</v>
       </c>
       <c r="Q7" s="37">
@@ -16255,15 +16258,15 @@
         <v>0.24468400000000001</v>
       </c>
       <c r="U7" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15051929155586774</v>
       </c>
       <c r="V7" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>710.69450630747588</v>
       </c>
       <c r="W7" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.34776718280651353</v>
       </c>
       <c r="X7" s="39">
@@ -16273,15 +16276,15 @@
         <v>5087.9166666666661</v>
       </c>
       <c r="Z7" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.44416877338196548</v>
       </c>
       <c r="AA7" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2076.7668576520091</v>
       </c>
       <c r="AB7" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.43191782868850265</v>
       </c>
       <c r="AC7" s="41">
@@ -16297,15 +16300,15 @@
         <v>0.22256400000000001</v>
       </c>
       <c r="AG7" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.18197889261703823</v>
       </c>
       <c r="AH7" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>850.86515673238853</v>
       </c>
       <c r="AI7" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.28656134297629671</v>
       </c>
       <c r="AJ7" s="42">
@@ -16315,15 +16318,15 @@
         <v>4342.272727272727</v>
       </c>
       <c r="AL7" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.40265397835972855</v>
       </c>
       <c r="AM7" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2440.2783106139705</v>
       </c>
       <c r="AN7" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.5814038982914066</v>
       </c>
       <c r="AO7" s="44">
@@ -16339,15 +16342,15 @@
         <v>0.23521500000000001</v>
       </c>
       <c r="AS7" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15745725170930919</v>
       </c>
       <c r="AT7" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>954.2672787199798</v>
       </c>
       <c r="AU7" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.26023223691791891</v>
       </c>
     </row>
@@ -16359,15 +16362,15 @@
         <v>16876.166666666661</v>
       </c>
       <c r="C8" s="80">
-        <f>(A8/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0.50238945945722002</v>
       </c>
       <c r="D8" s="29">
-        <f>((A8*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>1454.3984350448086</v>
       </c>
       <c r="E8" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.69335094732213975</v>
       </c>
       <c r="F8" s="32">
@@ -16380,15 +16383,15 @@
         <v>0.31326799999999999</v>
       </c>
       <c r="I8" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.24388429789908495</v>
       </c>
       <c r="J8" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>706.03579457987257</v>
       </c>
       <c r="K8" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.39069543445186083</v>
       </c>
       <c r="L8" s="33">
@@ -16398,15 +16401,15 @@
         <v>8318.0833333333321</v>
       </c>
       <c r="N8" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40583763985750837</v>
       </c>
       <c r="O8" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1916.2100626315316</v>
       </c>
       <c r="P8" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.85413570768563596</v>
       </c>
       <c r="Q8" s="37">
@@ -16422,15 +16425,15 @@
         <v>0.30903000000000003</v>
       </c>
       <c r="U8" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18814911444483468</v>
       </c>
       <c r="V8" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>888.36813288434473</v>
       </c>
       <c r="W8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.32651790602099745</v>
       </c>
       <c r="X8" s="39">
@@ -16440,15 +16443,15 @@
         <v>6389.8333333333321</v>
       </c>
       <c r="Z8" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.50244372251564251</v>
       </c>
       <c r="AA8" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2349.2386977381248</v>
       </c>
       <c r="AB8" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.42390825006002436</v>
       </c>
       <c r="AC8" s="41">
@@ -16464,15 +16467,15 @@
         <v>0.28079399999999999</v>
       </c>
       <c r="AG8" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.22747361577129779</v>
       </c>
       <c r="AH8" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1063.5814459154858</v>
       </c>
       <c r="AI8" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.27134887446367423</v>
       </c>
       <c r="AJ8" s="42">
@@ -16482,15 +16485,15 @@
         <v>5429.75</v>
       </c>
       <c r="AL8" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.45346048312575743</v>
       </c>
       <c r="AM8" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2748.1903598720082</v>
       </c>
       <c r="AN8" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.57322585731030462</v>
       </c>
       <c r="AO8" s="44">
@@ -16506,15 +16509,15 @@
         <v>0.29685699999999998</v>
       </c>
       <c r="AS8" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.1968215646366365</v>
       </c>
       <c r="AT8" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1192.8340983999747</v>
       </c>
       <c r="AU8" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.24856688956415668</v>
       </c>
     </row>
@@ -16526,15 +16529,15 @@
         <v>20635.368421052633</v>
       </c>
       <c r="C9" s="80">
-        <f>(A9/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0.56091334754280908</v>
       </c>
       <c r="D9" s="29">
-        <f>((A9*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>1623.8228718878472</v>
       </c>
       <c r="E9" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.68011291706489152</v>
       </c>
       <c r="F9" s="32">
@@ -16547,15 +16550,15 @@
         <v>0.37907000000000002</v>
       </c>
       <c r="I9" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.29266115747890192</v>
       </c>
       <c r="J9" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>847.2429534958469</v>
       </c>
       <c r="K9" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.36985534280779364</v>
       </c>
       <c r="L9" s="33">
@@ -16565,15 +16568,15 @@
         <v>10124.588235294119</v>
       </c>
       <c r="N9" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.45412777021902023</v>
       </c>
       <c r="O9" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2144.2175824786477</v>
       </c>
       <c r="P9" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.83028942770993663</v>
       </c>
       <c r="Q9" s="37">
@@ -16589,15 +16592,15 @@
         <v>0.37391600000000003</v>
       </c>
       <c r="U9" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22577893733380158</v>
       </c>
       <c r="V9" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1066.0417594612136</v>
       </c>
       <c r="W9" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.3111560512215466</v>
       </c>
       <c r="X9" s="39">
@@ -16607,15 +16610,15 @@
         <v>7800.6666666666652</v>
       </c>
       <c r="Z9" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.56047603312583016</v>
       </c>
       <c r="AA9" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2620.5760509485976</v>
       </c>
       <c r="AB9" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.41588649260276123</v>
       </c>
       <c r="AC9" s="41">
@@ -16631,15 +16634,15 @@
         <v>0.33948299999999998</v>
       </c>
       <c r="AG9" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.27296833892555733</v>
       </c>
       <c r="AH9" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1276.297735098583</v>
       </c>
       <c r="AI9" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.26020913102703069</v>
       </c>
       <c r="AJ9" s="42">
@@ -16649,15 +16652,15 @@
         <v>6623.3333333333339</v>
       </c>
       <c r="AL9" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.50211805426334455</v>
       </c>
       <c r="AM9" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3043.0788295647885</v>
       </c>
       <c r="AN9" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.57028213813523299</v>
       </c>
       <c r="AO9" s="44">
@@ -16673,15 +16676,15 @@
         <v>0.35896299999999998</v>
       </c>
       <c r="AS9" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.23618587756396378</v>
       </c>
       <c r="AT9" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1431.4009180799694</v>
       </c>
       <c r="AU9" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.23993844635815295</v>
       </c>
     </row>
@@ -16693,15 +16696,15 @@
         <v>24663.461538461539</v>
       </c>
       <c r="C10" s="80">
-        <f>(A10/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0.61842679434801351</v>
       </c>
       <c r="D10" s="29">
-        <f>((A10*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>1790.3221195390513</v>
       </c>
       <c r="E10" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.66870994174104759</v>
       </c>
       <c r="F10" s="32">
@@ -16714,15 +16717,15 @@
         <v>0.44528600000000002</v>
       </c>
       <c r="I10" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.34143801705871896</v>
       </c>
       <c r="J10" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>988.45011241182158</v>
       </c>
       <c r="K10" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.35400618820569701</v>
       </c>
       <c r="L10" s="33">
@@ -16732,15 +16735,15 @@
         <v>12085.692307692307</v>
       </c>
       <c r="N10" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.50129581672153534</v>
       </c>
       <c r="O10" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2366.9270516509146</v>
       </c>
       <c r="P10" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.81337651923722598</v>
       </c>
       <c r="Q10" s="37">
@@ -16756,15 +16759,15 @@
         <v>0.43923600000000002</v>
       </c>
       <c r="U10" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26340876022276855</v>
       </c>
       <c r="V10" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1243.7153860380827</v>
       </c>
       <c r="W10" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.29937022116187118</v>
       </c>
       <c r="X10" s="39">
@@ -16774,15 +16777,15 @@
         <v>9282.0833333333303</v>
       </c>
       <c r="Z10" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.62008170291176912</v>
       </c>
       <c r="AA10" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2899.2698424933183</v>
       </c>
       <c r="AB10" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.40430100175253336</v>
       </c>
       <c r="AC10" s="41">
@@ -16798,15 +16801,15 @@
         <v>0.39851199999999998</v>
       </c>
       <c r="AG10" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.31846306207981689</v>
       </c>
       <c r="AH10" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1489.0140242816803</v>
       </c>
       <c r="AI10" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.25157891663555926</v>
       </c>
       <c r="AJ10" s="42">
@@ -16816,15 +16819,15 @@
         <v>8161.166666666667</v>
       </c>
       <c r="AL10" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.56087585202620183</v>
       </c>
       <c r="AM10" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3399.1795690737949</v>
       </c>
       <c r="AN10" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.56317529319991799</v>
       </c>
       <c r="AO10" s="44">
@@ -16840,15 +16843,15 @@
         <v>0.42146899999999998</v>
       </c>
       <c r="AS10" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.27555019049129109</v>
       </c>
       <c r="AT10" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1669.9677377599648</v>
       </c>
       <c r="AU10" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.23296066278334882</v>
       </c>
     </row>
@@ -16860,15 +16863,15 @@
         <v>28907.8</v>
       </c>
       <c r="C11" s="80">
-        <f>(A11/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0.67558877129621331</v>
       </c>
       <c r="D11" s="29">
-        <f>((A11*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>1955.8038752815967</v>
       </c>
       <c r="E11" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.65676581792185118</v>
       </c>
       <c r="F11" s="32">
@@ -16881,15 +16884,15 @@
         <v>0.51183999999999996</v>
       </c>
       <c r="I11" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.39021487663853593</v>
       </c>
       <c r="J11" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1129.657271327796</v>
       </c>
       <c r="K11" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.34143604278067213</v>
       </c>
       <c r="L11" s="33">
@@ -16899,15 +16902,15 @@
         <v>13817.666666666668</v>
       </c>
       <c r="N11" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.53934323415784458</v>
       </c>
       <c r="O11" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2546.5723999093861</v>
       </c>
       <c r="P11" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.80336424744929669</v>
       </c>
       <c r="Q11" s="37">
@@ -16923,15 +16926,15 @@
         <v>0.50490900000000005</v>
       </c>
       <c r="U11" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.30103858311173548</v>
       </c>
       <c r="V11" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1421.3890126149518</v>
       </c>
       <c r="W11" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.28995056436770417</v>
       </c>
       <c r="X11" s="39">
@@ -16941,15 +16944,15 @@
         <v>10867.666666666666</v>
       </c>
       <c r="Z11" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.67320664938438379</v>
       </c>
       <c r="AA11" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3147.6621986439068</v>
       </c>
       <c r="AB11" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.40160277293432356</v>
       </c>
       <c r="AC11" s="41">
@@ -16965,15 +16968,15 @@
         <v>0.45780700000000002</v>
       </c>
       <c r="AG11" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.36395778523407646</v>
       </c>
       <c r="AH11" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1701.7303134647771</v>
       </c>
       <c r="AI11" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.24462497261666899</v>
       </c>
       <c r="AJ11" s="42">
@@ -16983,15 +16986,15 @@
         <v>9671.6666666666661</v>
       </c>
       <c r="AL11" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.61588747934214172</v>
       </c>
       <c r="AM11" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3732.5766995765875</v>
       </c>
       <c r="AN11" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.55350736126380429</v>
       </c>
       <c r="AO11" s="44">
@@ -17007,15 +17010,15 @@
         <v>0.48432399999999998</v>
       </c>
       <c r="AS11" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.31491450341861837</v>
       </c>
       <c r="AT11" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1908.5345574399596</v>
       </c>
       <c r="AU11" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.22709951186316707</v>
       </c>
     </row>
@@ -17027,15 +17030,15 @@
         <v>34514.000000000007</v>
       </c>
       <c r="C12" s="80">
-        <f>(A12/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0.74424037202257132</v>
       </c>
       <c r="D12" s="29">
-        <f>((A12*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>2154.5476561873711</v>
       </c>
       <c r="E12" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.64614381290351108</v>
       </c>
       <c r="F12" s="32">
@@ -17048,15 +17051,15 @@
         <v>0.57868299999999895</v>
       </c>
       <c r="I12" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.43899173621835291</v>
       </c>
       <c r="J12" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1270.8644302437706</v>
       </c>
       <c r="K12" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.33114648467385904</v>
       </c>
       <c r="L12" s="33">
@@ -17066,15 +17069,15 @@
         <v>15984.692307692309</v>
       </c>
       <c r="N12" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.58746232193374825</v>
       </c>
       <c r="O12" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2773.7723221078559</v>
       </c>
       <c r="P12" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7833439696729888</v>
       </c>
       <c r="Q12" s="37">
@@ -17090,15 +17093,15 @@
         <v>0.57087600000000005</v>
       </c>
       <c r="U12" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33866840600070236</v>
       </c>
       <c r="V12" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1599.0626391918204</v>
       </c>
       <c r="W12" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.28218172850021722</v>
       </c>
       <c r="X12" s="39">
@@ -17108,15 +17111,15 @@
         <v>13242.23076923077</v>
       </c>
       <c r="Z12" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.75115287521771312</v>
       </c>
       <c r="AA12" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3512.1095623276906</v>
       </c>
       <c r="AB12" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.39306255375452931</v>
       </c>
       <c r="AC12" s="41">
@@ -17132,15 +17135,15 @@
         <v>0.51732699999999998</v>
       </c>
       <c r="AG12" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.40945250838833597</v>
       </c>
       <c r="AH12" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1914.4466026478742</v>
       </c>
       <c r="AI12" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.23883944893844705</v>
       </c>
       <c r="AJ12" s="42">
@@ -17150,15 +17153,15 @@
         <v>11222.615384615385</v>
       </c>
       <c r="AL12" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.66555363483082186</v>
       </c>
       <c r="AM12" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4033.5776793864247</v>
       </c>
       <c r="AN12" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.54998746489907335</v>
       </c>
       <c r="AO12" s="44">
@@ -17174,15 +17177,15 @@
         <v>0.54747199999999996</v>
       </c>
       <c r="AS12" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.35427881634594566</v>
       </c>
       <c r="AT12" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2147.1013771199546</v>
       </c>
       <c r="AU12" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.22206378326963372</v>
       </c>
     </row>
@@ -17194,15 +17197,15 @@
         <v>40051.310344827587</v>
       </c>
       <c r="C13" s="80">
-        <f>(A13/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0.80712246919195774</v>
       </c>
       <c r="D13" s="29">
-        <f>((A13*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>2336.5889430692646</v>
       </c>
       <c r="E13" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.6375264379201161</v>
       </c>
       <c r="F13" s="32">
@@ -17215,15 +17218,15 @@
         <v>0.64578100000000005</v>
       </c>
       <c r="I13" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.48776859579816989</v>
       </c>
       <c r="J13" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1412.0715891597451</v>
       </c>
       <c r="K13" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.32251218605376974</v>
       </c>
       <c r="L13" s="33">
@@ -17233,15 +17236,15 @@
         <v>19428.699999999997</v>
       </c>
       <c r="N13" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.65428478249962352</v>
       </c>
       <c r="O13" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3089.2824147426504</v>
       </c>
       <c r="P13" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76757065341777564</v>
       </c>
       <c r="Q13" s="37">
@@ -17257,15 +17260,15 @@
         <v>0.63710299999999997</v>
       </c>
       <c r="U13" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.37629822888966935</v>
       </c>
       <c r="V13" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1776.7362657686895</v>
       </c>
       <c r="W13" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27561037012830736</v>
       </c>
       <c r="X13" s="39">
@@ -17275,15 +17278,15 @@
         <v>15091.357142857139</v>
       </c>
       <c r="Z13" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.80799603208889692</v>
       </c>
       <c r="AA13" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3777.8868779537729</v>
       </c>
       <c r="AB13" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.38713909304347294</v>
       </c>
       <c r="AC13" s="41">
@@ -17299,15 +17302,15 @@
         <v>0.57702900000000001</v>
       </c>
       <c r="AG13" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.45494723154259559</v>
       </c>
       <c r="AH13" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2127.1628918309716</v>
       </c>
       <c r="AI13" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.23391969806415699</v>
       </c>
       <c r="AJ13" s="42">
@@ -17317,15 +17320,15 @@
         <v>12816.571428571428</v>
       </c>
       <c r="AL13" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.71674822151741313</v>
       </c>
       <c r="AM13" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4343.8416932204682</v>
       </c>
       <c r="AN13" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.54158103210343456</v>
       </c>
       <c r="AO13" s="44">
@@ -17341,15 +17344,15 @@
         <v>0.61088900000000002</v>
       </c>
       <c r="AS13" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.393643129273273</v>
       </c>
       <c r="AT13" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2385.6681967999493</v>
       </c>
       <c r="AU13" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.21767656566461147</v>
       </c>
     </row>
@@ -17361,15 +17364,15 @@
         <v>45269.4</v>
       </c>
       <c r="C14" s="80">
-        <f>(A14/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0.86249844541543319</v>
       </c>
       <c r="D14" s="29">
-        <f>((A14*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>2496.9002944370163</v>
       </c>
       <c r="E14" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.63102772641311855</v>
       </c>
       <c r="F14" s="32">
@@ -17382,15 +17385,15 @@
         <v>0.71308499999999997</v>
       </c>
       <c r="I14" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.53654545537798692</v>
       </c>
       <c r="J14" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1553.2787480757197</v>
       </c>
       <c r="K14" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.31513812105837824</v>
       </c>
       <c r="L14" s="33">
@@ -17400,15 +17403,15 @@
         <v>21923.642857142859</v>
       </c>
       <c r="N14" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.70232839008866299</v>
       </c>
       <c r="O14" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3316.1259483773356</v>
       </c>
       <c r="P14" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.75169303972364432</v>
       </c>
       <c r="Q14" s="37">
@@ -17424,15 +17427,15 @@
         <v>0.70354899999999998</v>
       </c>
       <c r="U14" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.41392805177863629</v>
       </c>
       <c r="V14" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1954.4098923455585</v>
       </c>
       <c r="W14" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26995163184426713</v>
       </c>
       <c r="X14" s="39">
@@ -17442,15 +17445,15 @@
         <v>17242.142857142851</v>
       </c>
       <c r="Z14" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.86878673109223514</v>
       </c>
       <c r="AA14" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4062.1214223643588</v>
       </c>
       <c r="AB14" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.382579828160797</v>
       </c>
       <c r="AC14" s="41">
@@ -17466,15 +17469,15 @@
         <v>0.63688699999999998</v>
       </c>
       <c r="AG14" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.50044195469685504</v>
       </c>
       <c r="AH14" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2339.8791810140688</v>
       </c>
       <c r="AI14" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.22965880272263942</v>
       </c>
       <c r="AJ14" s="42">
@@ -17484,15 +17487,15 @@
         <v>14559.916666666666</v>
       </c>
       <c r="AL14" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.76864069565663518</v>
       </c>
       <c r="AM14" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4658.3352433448072</v>
       </c>
       <c r="AN14" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.53497929208503181</v>
       </c>
       <c r="AO14" s="44">
@@ -17508,15 +17511,15 @@
         <v>0.67453099999999999</v>
       </c>
       <c r="AS14" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.43300744220060028</v>
       </c>
       <c r="AT14" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2624.2350164799441</v>
       </c>
       <c r="AU14" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.21380035556786822</v>
       </c>
     </row>
@@ -17528,15 +17531,15 @@
         <v>50808.41025641025</v>
       </c>
       <c r="C15" s="80">
-        <f>(A15/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0.91955636506319605</v>
       </c>
       <c r="D15" s="29">
-        <f>((A15*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>2662.080808240541</v>
       </c>
       <c r="E15" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.6230734448449311</v>
       </c>
       <c r="F15" s="32">
@@ -17549,15 +17552,15 @@
         <v>0.78056700000000001</v>
       </c>
       <c r="I15" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.58532231495780385</v>
       </c>
       <c r="J15" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1694.4859069916938</v>
       </c>
       <c r="K15" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.30873849594213798</v>
       </c>
       <c r="L15" s="33">
@@ -17567,15 +17570,15 @@
         <v>24612</v>
       </c>
       <c r="N15" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.74944809593096173</v>
       </c>
       <c r="O15" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3538.6071714471141</v>
       </c>
       <c r="P15" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74109186140019978</v>
       </c>
       <c r="Q15" s="37">
@@ -17591,15 +17594,15 @@
         <v>0.77018399999999998</v>
       </c>
       <c r="U15" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.45155787466760317</v>
       </c>
       <c r="V15" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2132.0835189224272</v>
       </c>
       <c r="W15" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26500394256673876</v>
       </c>
       <c r="X15" s="39">
@@ -17609,15 +17612,15 @@
         <v>19610.083333333336</v>
       </c>
       <c r="Z15" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.92712558947986679</v>
       </c>
       <c r="AA15" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4334.8920781900406</v>
       </c>
       <c r="AB15" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.38208456182524303</v>
       </c>
       <c r="AC15" s="41">
@@ -17633,15 +17636,15 @@
         <v>0.69685699999999895</v>
       </c>
       <c r="AG15" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.54593667785111466</v>
       </c>
       <c r="AH15" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2552.5954701971659</v>
       </c>
       <c r="AI15" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.22592738713315463</v>
       </c>
       <c r="AJ15" s="42">
@@ -17651,15 +17654,15 @@
         <v>16310.083333333334</v>
       </c>
       <c r="AL15" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.81806915125571589</v>
       </c>
       <c r="AM15" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4957.8956465896554</v>
       </c>
       <c r="AN15" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.5290551900217636</v>
       </c>
       <c r="AO15" s="44">
@@ -17675,15 +17678,15 @@
         <v>0.73829900000000004</v>
       </c>
       <c r="AS15" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.47237175512792756</v>
       </c>
       <c r="AT15" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2862.8018361599388</v>
       </c>
       <c r="AU15" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.21037342448679405</v>
       </c>
     </row>
@@ -17695,15 +17698,15 @@
         <v>56338.705882352944</v>
       </c>
       <c r="C16" s="80">
-        <f>(A16/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0.97506376913571202</v>
       </c>
       <c r="D16" s="29">
-        <f>((A16*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>2822.7726382476581</v>
       </c>
       <c r="E16" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.61447069189129999</v>
       </c>
       <c r="F16" s="32">
@@ -17716,15 +17719,15 @@
         <v>0.84819299999999997</v>
       </c>
       <c r="I16" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.63409917453762088</v>
       </c>
       <c r="J16" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1835.6930659076688</v>
       </c>
       <c r="K16" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.30311582722357922</v>
       </c>
       <c r="L16" s="33">
@@ -17734,15 +17737,15 @@
         <v>27426.583333333332</v>
       </c>
       <c r="N16" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.7968334504038932</v>
       </c>
       <c r="O16" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3762.3426857140357</v>
       </c>
       <c r="P16" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.73054143456418574</v>
       </c>
       <c r="Q16" s="37">
@@ -17758,15 +17761,15 @@
         <v>0.83698399999999995</v>
       </c>
       <c r="U16" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.48918769755657016</v>
       </c>
       <c r="V16" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2309.7571454992963</v>
       </c>
       <c r="W16" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26062531775566167</v>
       </c>
       <c r="X16" s="39">
@@ -17776,15 +17779,15 @@
         <v>21914.083333333336</v>
       </c>
       <c r="Z16" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.98432762139248919</v>
       </c>
       <c r="AA16" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4602.3473591229222</v>
       </c>
       <c r="AB16" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.37879230860051188</v>
       </c>
       <c r="AC16" s="41">
@@ -17800,15 +17803,15 @@
         <v>0.75692400000000004</v>
       </c>
       <c r="AG16" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.59143140100537417</v>
       </c>
       <c r="AH16" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2765.3117593802631</v>
       </c>
       <c r="AI16" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.22262003414379458</v>
       </c>
       <c r="AJ16" s="42">
@@ -17818,15 +17821,15 @@
         <v>18105</v>
       </c>
       <c r="AL16" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.86734014960308725</v>
       </c>
       <c r="AM16" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5256.5017825557807</v>
       </c>
       <c r="AN16" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.52244967016823851</v>
       </c>
       <c r="AO16" s="44">
@@ -17842,15 +17845,15 @@
         <v>0.802261</v>
       </c>
       <c r="AS16" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.51173606805525496</v>
       </c>
       <c r="AT16" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3101.3686558399345</v>
       </c>
       <c r="AU16" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.20726886140898845</v>
       </c>
     </row>
@@ -17862,11 +17865,11 @@
         <v>62457.846153846163</v>
       </c>
       <c r="C17" s="80">
-        <f>(A17/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>1.0300447068324314</v>
       </c>
       <c r="D17" s="29">
-        <f>((A17*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>2981.9403680598998</v>
       </c>
       <c r="E17" s="79">
@@ -17883,15 +17886,15 @@
         <v>0.915933</v>
       </c>
       <c r="I17" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.68287603411743791</v>
       </c>
       <c r="J17" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1976.9002248236432</v>
       </c>
       <c r="K17" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.29812119415669902</v>
       </c>
       <c r="L17" s="33">
@@ -17901,15 +17904,15 @@
         <v>30282.076923076929</v>
       </c>
       <c r="N17" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.84295724094279112</v>
       </c>
       <c r="O17" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3980.121577756619</v>
       </c>
       <c r="P17" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72074697081801675</v>
       </c>
       <c r="Q17" s="37">
@@ -17925,15 +17928,15 @@
         <v>0.90394099999999999</v>
       </c>
       <c r="U17" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.52681752044553709</v>
       </c>
       <c r="V17" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2487.4307720761653</v>
       </c>
       <c r="W17" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.25670370768625606</v>
       </c>
       <c r="X17" s="39">
@@ -17943,15 +17946,15 @@
         <v>24356.846153846156</v>
       </c>
       <c r="Z17" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0406952917477761</v>
       </c>
       <c r="AA17" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4865.9014778548226</v>
       </c>
       <c r="AB17" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.37664400644773721</v>
       </c>
       <c r="AC17" s="41">
@@ -17967,15 +17970,15 @@
         <v>0.817083</v>
       </c>
       <c r="AG17" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.63692612415963379</v>
       </c>
       <c r="AH17" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2978.0280485633607</v>
       </c>
       <c r="AI17" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.21965464407906796</v>
       </c>
       <c r="AJ17" s="42">
@@ -17985,15 +17988,15 @@
         <v>19965.076923076926</v>
       </c>
       <c r="AL17" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.91846934538889979</v>
       </c>
       <c r="AM17" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5566.3694958303922</v>
       </c>
       <c r="AN17" s="78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.513767333262382</v>
       </c>
       <c r="AO17" s="44">
@@ -18009,15 +18012,15 @@
         <v>0.86636299999999999</v>
       </c>
       <c r="AS17" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.55110038098258218</v>
       </c>
       <c r="AT17" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3339.9354755199297</v>
       </c>
       <c r="AU17" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.20445026418160051</v>
       </c>
     </row>
@@ -18025,15 +18028,15 @@
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28">
-        <f>(A18/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="29">
-        <f>((A18*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="32">
@@ -18046,29 +18049,29 @@
         <v>0.98377300000000001</v>
       </c>
       <c r="I18" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.73165289369725484</v>
       </c>
       <c r="J18" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2118.1073837396175</v>
       </c>
       <c r="K18" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.29363846245033681</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="34"/>
       <c r="N18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O18" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P18" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q18" s="37">
@@ -18084,29 +18087,29 @@
         <v>0.97103600000000001</v>
       </c>
       <c r="U18" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.56444734333450397</v>
       </c>
       <c r="V18" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2665.1043986530344</v>
       </c>
       <c r="W18" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.25315722442701244</v>
       </c>
       <c r="X18" s="39"/>
       <c r="Y18" s="40"/>
       <c r="Z18" s="40">
-        <f t="shared" ref="Z18:Z33" si="22">(X18/($K$43*$D$45))</f>
+        <f t="shared" ref="Z18:Z33" si="24">(X18/($K$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="AA18" s="40">
-        <f t="shared" ref="AA18:AA33" si="23">((X18*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="AA18:AA33" si="25">((X18*$D$46)/($G$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="AB18" s="76" t="e">
-        <f t="shared" ref="AB18:AB33" si="24">((Y18*$D$46)/(2*$D$47*$K$43*(Z18^2)))</f>
+        <f t="shared" ref="AB18:AB33" si="26">((Y18*$D$46)/(2*$D$47*$K$43*(Z18^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC18" s="41">
@@ -18122,29 +18125,29 @@
         <v>0.87731000000000003</v>
       </c>
       <c r="AG18" s="41">
-        <f t="shared" ref="AG18:AG33" si="25">(AC18/($K$43*$D$45))</f>
+        <f t="shared" ref="AG18:AG33" si="27">(AC18/($K$43*$D$45))</f>
         <v>0.6824208473138933</v>
       </c>
       <c r="AH18" s="41">
-        <f t="shared" ref="AH18:AH33" si="26">((AC18*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="AH18:AH33" si="28">((AC18*$D$46)/($G$43*$D$45))</f>
         <v>3190.7443377464569</v>
       </c>
       <c r="AI18" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.216974233321021</v>
       </c>
       <c r="AJ18" s="42"/>
       <c r="AK18" s="43"/>
       <c r="AL18" s="43">
-        <f t="shared" ref="AL18:AL33" si="27">(AJ18/($K$43*$E$45))</f>
+        <f t="shared" ref="AL18:AL33" si="29">(AJ18/($K$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AM18" s="43">
-        <f t="shared" ref="AM18:AM33" si="28">((AJ18*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" ref="AM18:AM33" si="30">((AJ18*$E$46)/($G$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AN18" s="78" t="e">
-        <f t="shared" ref="AN18:AN33" si="29">((AK18*$E$46)/(2*$E$47*$K$43*(AL18^2)))</f>
+        <f t="shared" ref="AN18:AN33" si="31">((AK18*$E$46)/(2*$E$47*$K$43*(AL18^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO18" s="44">
@@ -18160,15 +18163,15 @@
         <v>0.93055200000000005</v>
       </c>
       <c r="AS18" s="44">
-        <f t="shared" ref="AS18:AS33" si="30">(AO18/($K$43*$E$45))</f>
+        <f t="shared" ref="AS18:AS33" si="32">(AO18/($K$43*$E$45))</f>
         <v>0.59046469390990941</v>
       </c>
       <c r="AT18" s="44">
-        <f t="shared" ref="AT18:AT33" si="31">((AO18*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" ref="AT18:AT33" si="33">((AO18*$E$46)/($G$43*$E$45))</f>
         <v>3578.502295199924</v>
       </c>
       <c r="AU18" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.20189528451823335</v>
       </c>
     </row>
@@ -18176,15 +18179,15 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28">
-        <f>(A19/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="29">
-        <f>((A19*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="32">
@@ -18197,29 +18200,29 @@
         <v>1.0516989999999999</v>
       </c>
       <c r="I19" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.78042975327707187</v>
       </c>
       <c r="J19" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2259.314542655592</v>
       </c>
       <c r="K19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.28958206166964651</v>
       </c>
       <c r="L19" s="33"/>
       <c r="M19" s="34"/>
       <c r="N19" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O19" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P19" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" s="37">
@@ -18235,29 +18238,29 @@
         <v>1.038246</v>
       </c>
       <c r="U19" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.60207716622347096</v>
       </c>
       <c r="V19" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2842.7780252299035</v>
       </c>
       <c r="W19" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.24993179818174188</v>
       </c>
       <c r="X19" s="39"/>
       <c r="Y19" s="40"/>
       <c r="Z19" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA19" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB19" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC19" s="41">
@@ -18273,29 +18276,29 @@
         <v>0.93759300000000001</v>
       </c>
       <c r="AG19" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.72791557046815292</v>
       </c>
       <c r="AH19" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3403.4606269295541</v>
       </c>
       <c r="AI19" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.21453962336337684</v>
       </c>
       <c r="AJ19" s="42"/>
       <c r="AK19" s="43"/>
       <c r="AL19" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM19" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN19" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO19" s="44">
@@ -18311,15 +18314,15 @@
         <v>0.99484300000000003</v>
       </c>
       <c r="AS19" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.62982900683723675</v>
       </c>
       <c r="AT19" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3817.0691148799192</v>
       </c>
       <c r="AU19" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.19955530906925148</v>
       </c>
     </row>
@@ -18327,15 +18330,15 @@
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28">
-        <f>(A20/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20" s="29">
-        <f>((A20*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="32">
@@ -18348,29 +18351,29 @@
         <v>1.1196969999999999</v>
       </c>
       <c r="I20" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.8292066128568889</v>
       </c>
       <c r="J20" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2400.5217015715666</v>
       </c>
       <c r="K20" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.28588574172466658</v>
       </c>
       <c r="L20" s="33"/>
       <c r="M20" s="34"/>
       <c r="N20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O20" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P20" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" s="37">
@@ -18386,29 +18389,29 @@
         <v>1.1055440000000001</v>
       </c>
       <c r="U20" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.63970698911243795</v>
       </c>
       <c r="V20" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3020.4516518067721</v>
       </c>
       <c r="W20" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.24698458423385644</v>
       </c>
       <c r="X20" s="39"/>
       <c r="Y20" s="40"/>
       <c r="Z20" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA20" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB20" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC20" s="41">
@@ -18424,29 +18427,29 @@
         <v>0.99793600000000005</v>
       </c>
       <c r="AG20" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.77341029362241243</v>
       </c>
       <c r="AH20" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3616.1769161126517</v>
       </c>
       <c r="AI20" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.21230251559926391</v>
       </c>
       <c r="AJ20" s="42"/>
       <c r="AK20" s="43"/>
       <c r="AL20" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM20" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN20" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO20" s="44">
@@ -18462,15 +18465,15 @@
         <v>1.0591919999999999</v>
       </c>
       <c r="AS20" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.66919331976456409</v>
       </c>
       <c r="AT20" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4055.6359345599139</v>
       </c>
       <c r="AU20" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.19741817675356607</v>
       </c>
     </row>
@@ -18478,15 +18481,15 @@
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28">
-        <f>(A21/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D21" s="29">
-        <f>((A21*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="32">
@@ -18503,25 +18506,25 @@
         <v>0.87798347243670583</v>
       </c>
       <c r="J21" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2541.7288604875412</v>
       </c>
       <c r="K21" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.28249726538185677</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="34"/>
       <c r="N21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O21" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P21" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="37">
@@ -18537,29 +18540,29 @@
         <v>1.172895</v>
       </c>
       <c r="U21" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.67733681200140472</v>
       </c>
       <c r="V21" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3198.1252783836408</v>
       </c>
       <c r="W21" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.24428108038030982</v>
       </c>
       <c r="X21" s="39"/>
       <c r="Y21" s="40"/>
       <c r="Z21" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA21" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB21" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC21" s="41">
@@ -18575,29 +18578,29 @@
         <v>1.058314</v>
       </c>
       <c r="AG21" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.81890501677667193</v>
       </c>
       <c r="AH21" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3828.8932052957484</v>
       </c>
       <c r="AI21" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.21024521388324222</v>
       </c>
       <c r="AJ21" s="42"/>
       <c r="AK21" s="43"/>
       <c r="AL21" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM21" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN21" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO21" s="44">
@@ -18613,15 +18616,15 @@
         <v>1.123567</v>
       </c>
       <c r="AS21" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70855763269189131</v>
       </c>
       <c r="AT21" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4294.2027542399092</v>
       </c>
       <c r="AU21" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.19546068670385441</v>
       </c>
     </row>
@@ -18629,15 +18632,15 @@
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28">
-        <f>(A22/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22" s="29">
-        <f>((A22*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E22" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="32">
@@ -18650,29 +18653,29 @@
         <v>1.2558579999999999</v>
       </c>
       <c r="I22" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.92676033201652286</v>
       </c>
       <c r="J22" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2682.9360194035157</v>
       </c>
       <c r="K22" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.2793733775837588</v>
       </c>
       <c r="L22" s="33"/>
       <c r="M22" s="34"/>
       <c r="N22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O22" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P22" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="37">
@@ -18688,29 +18691,29 @@
         <v>1.240281</v>
       </c>
       <c r="U22" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.71496663489037171</v>
       </c>
       <c r="V22" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3375.7989049605103</v>
       </c>
       <c r="W22" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.24179052695432893</v>
       </c>
       <c r="X22" s="39"/>
       <c r="Y22" s="40"/>
       <c r="Z22" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA22" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB22" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC22" s="41">
@@ -18726,29 +18729,29 @@
         <v>1.118735</v>
       </c>
       <c r="AG22" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.86439973993093155</v>
       </c>
       <c r="AH22" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4041.609494478846</v>
       </c>
       <c r="AI22" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.20834024188732672</v>
       </c>
       <c r="AJ22" s="42"/>
       <c r="AK22" s="43"/>
       <c r="AL22" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM22" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN22" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO22" s="44">
@@ -18764,15 +18767,15 @@
         <v>1.187924</v>
       </c>
       <c r="AS22" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.74792194561921865</v>
       </c>
       <c r="AT22" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4532.7695739199035</v>
       </c>
       <c r="AU22" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.19367594578439157</v>
       </c>
     </row>
@@ -18780,15 +18783,15 @@
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28">
-        <f>(A23/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23" s="29">
-        <f>((A23*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="32">
@@ -18801,29 +18804,29 @@
         <v>1.3240000000000001</v>
       </c>
       <c r="I23" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.97553719159633978</v>
       </c>
       <c r="J23" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2824.1431783194903</v>
       </c>
       <c r="K23" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.27647934074593977</v>
       </c>
       <c r="L23" s="33"/>
       <c r="M23" s="34"/>
       <c r="N23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O23" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P23" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="37">
@@ -18839,29 +18842,29 @@
         <v>1.3077209999999999</v>
       </c>
       <c r="U23" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.7525964577793387</v>
       </c>
       <c r="V23" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3553.4725315373789</v>
       </c>
       <c r="W23" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.23947916183126047</v>
       </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="40"/>
       <c r="Z23" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA23" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB23" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC23" s="41">
@@ -18877,29 +18880,29 @@
         <v>1.1791910000000001</v>
       </c>
       <c r="AG23" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.90989446308519117</v>
       </c>
       <c r="AH23" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4254.3257836619432</v>
       </c>
       <c r="AI23" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.20656985343304984</v>
       </c>
       <c r="AJ23" s="42"/>
       <c r="AK23" s="43"/>
       <c r="AL23" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM23" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN23" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO23" s="44">
@@ -18915,15 +18918,15 @@
         <v>1.252302</v>
       </c>
       <c r="AS23" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.78728625854654599</v>
       </c>
       <c r="AT23" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4771.3363935998987</v>
       </c>
       <c r="AU23" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.19202384380514267</v>
       </c>
     </row>
@@ -18931,15 +18934,15 @@
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28">
-        <f>(A24/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D24" s="29">
-        <f>((A24*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E24" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="32">
@@ -18952,11 +18955,11 @@
         <v>1.392185</v>
       </c>
       <c r="I24" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0243140511761568</v>
       </c>
       <c r="J24" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2965.3503372354644</v>
       </c>
       <c r="K24" s="30">
@@ -18966,15 +18969,15 @@
       <c r="L24" s="33"/>
       <c r="M24" s="34"/>
       <c r="N24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O24" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P24" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="37">
@@ -18990,29 +18993,29 @@
         <v>1.3751850000000001</v>
       </c>
       <c r="U24" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.79022628066830558</v>
       </c>
       <c r="V24" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3731.1461581142476</v>
       </c>
       <c r="W24" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.23733000223240508</v>
       </c>
       <c r="X24" s="39"/>
       <c r="Y24" s="40"/>
       <c r="Z24" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA24" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB24" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC24" s="41">
@@ -19028,29 +19031,29 @@
         <v>1.23966</v>
       </c>
       <c r="AG24" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.95538918623945057</v>
       </c>
       <c r="AH24" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4467.0420728450399</v>
       </c>
       <c r="AI24" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.20492382547413829</v>
       </c>
       <c r="AJ24" s="42"/>
       <c r="AK24" s="43"/>
       <c r="AL24" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM24" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN24" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="44">
@@ -19066,15 +19069,15 @@
         <v>1.3166789999999999</v>
       </c>
       <c r="AS24" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.82665057147387322</v>
       </c>
       <c r="AT24" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5009.903213279893</v>
       </c>
       <c r="AU24" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.19049372136571957</v>
       </c>
     </row>
@@ -19082,15 +19085,15 @@
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28">
-        <f>(A25/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D25" s="29">
-        <f>((A25*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E25" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="32">
@@ -19103,29 +19106,29 @@
         <v>1.4603980000000001</v>
       </c>
       <c r="I25" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0730909107559738</v>
       </c>
       <c r="J25" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3106.5574961514394</v>
       </c>
       <c r="K25" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.27126877441505876</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="34"/>
       <c r="N25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O25" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P25" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="37">
@@ -19141,29 +19144,29 @@
         <v>1.4426859999999999</v>
       </c>
       <c r="U25" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.82785610355727257</v>
       </c>
       <c r="V25" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3908.8197846911171</v>
       </c>
       <c r="W25" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.23532134774622152</v>
       </c>
       <c r="X25" s="39"/>
       <c r="Y25" s="40"/>
       <c r="Z25" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA25" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB25" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC25" s="41">
@@ -19179,29 +19182,29 @@
         <v>1.3001419999999999</v>
       </c>
       <c r="AG25" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0008839093937101</v>
       </c>
       <c r="AH25" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4679.7583620281375</v>
       </c>
       <c r="AI25" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.20338509203675154</v>
       </c>
       <c r="AJ25" s="42"/>
       <c r="AK25" s="43"/>
       <c r="AL25" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM25" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN25" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO25" s="44">
@@ -19217,15 +19220,15 @@
         <v>1.381078</v>
       </c>
       <c r="AS25" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.86601488440120056</v>
       </c>
       <c r="AT25" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5248.4700329598882</v>
       </c>
       <c r="AU25" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.18906086333097055</v>
       </c>
     </row>
@@ -19233,15 +19236,15 @@
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28">
-        <f>(A26/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D26" s="29">
-        <f>((A26*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="32">
@@ -19254,11 +19257,11 @@
         <v>1.5286500000000001</v>
       </c>
       <c r="I26" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1218677703357909</v>
       </c>
       <c r="J26" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3247.7646550674135</v>
       </c>
       <c r="K26" s="30">
@@ -19268,15 +19271,15 @@
       <c r="L26" s="33"/>
       <c r="M26" s="34"/>
       <c r="N26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O26" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P26" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="37">
@@ -19292,29 +19295,29 @@
         <v>1.5102310000000001</v>
       </c>
       <c r="U26" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.86548592644623945</v>
       </c>
       <c r="V26" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4086.4934112679862</v>
       </c>
       <c r="W26" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.23343123452360751</v>
       </c>
       <c r="X26" s="39"/>
       <c r="Y26" s="40"/>
       <c r="Z26" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA26" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB26" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC26" s="41">
@@ -19330,29 +19333,29 @@
         <v>1.3606210000000001</v>
       </c>
       <c r="AG26" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0463786325479698</v>
       </c>
       <c r="AH26" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4892.4746512112342</v>
       </c>
       <c r="AI26" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.20194581984531806</v>
       </c>
       <c r="AJ26" s="42"/>
       <c r="AK26" s="43"/>
       <c r="AL26" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM26" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN26" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO26" s="44">
@@ -19368,15 +19371,15 @@
         <v>1.4455849999999999</v>
       </c>
       <c r="AS26" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.9053791973285279</v>
       </c>
       <c r="AT26" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5487.0368526398834</v>
       </c>
       <c r="AU26" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.18769165115599373</v>
       </c>
     </row>
@@ -19384,15 +19387,15 @@
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28">
-        <f>(A27/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="29">
-        <f>((A27*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E27" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="32">
@@ -19405,29 +19408,29 @@
         <v>1.5969390000000001</v>
       </c>
       <c r="I27" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1706446299156077</v>
       </c>
       <c r="J27" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3388.9718139833876</v>
       </c>
       <c r="K27" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.26667720201465689</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="34"/>
       <c r="N27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O27" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P27" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="37">
@@ -19443,29 +19446,29 @@
         <v>1.577812</v>
       </c>
       <c r="U27" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.90311574933520633</v>
       </c>
       <c r="V27" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4264.1670378448543</v>
       </c>
       <c r="W27" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.23164953715602937</v>
       </c>
       <c r="X27" s="39"/>
       <c r="Y27" s="40"/>
       <c r="Z27" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA27" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB27" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC27" s="41">
@@ -19481,29 +19484,29 @@
         <v>1.4210910000000001</v>
       </c>
       <c r="AG27" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0918733557022293</v>
       </c>
       <c r="AH27" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5105.1909403943318</v>
       </c>
       <c r="AI27" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.20059889070788059</v>
       </c>
       <c r="AJ27" s="42"/>
       <c r="AK27" s="43"/>
       <c r="AL27" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM27" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN27" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO27" s="44">
@@ -19519,15 +19522,15 @@
         <v>1.510157</v>
       </c>
       <c r="AS27" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.94474351025585512</v>
       </c>
       <c r="AT27" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5725.6036723198777</v>
       </c>
       <c r="AU27" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.186391844401888</v>
       </c>
     </row>
@@ -19535,15 +19538,15 @@
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28">
-        <f>(A28/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D28" s="29">
-        <f>((A28*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E28" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="32">
@@ -19556,7 +19559,7 @@
         <v>1.665251</v>
       </c>
       <c r="I28" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2194214894954247</v>
       </c>
       <c r="J28" s="31">
@@ -19564,21 +19567,21 @@
         <v>3530.1789728993626</v>
       </c>
       <c r="K28" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.26457475751666554</v>
       </c>
       <c r="L28" s="33"/>
       <c r="M28" s="34"/>
       <c r="N28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O28" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P28" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="37">
@@ -19594,29 +19597,29 @@
         <v>1.645443</v>
       </c>
       <c r="U28" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.94074557222417332</v>
       </c>
       <c r="V28" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4441.8406644217239</v>
       </c>
       <c r="W28" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22995955813690733</v>
       </c>
       <c r="X28" s="39"/>
       <c r="Y28" s="40"/>
       <c r="Z28" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA28" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB28" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC28" s="41">
@@ -19632,29 +19635,29 @@
         <v>1.481562</v>
       </c>
       <c r="AG28" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1373680788564888</v>
       </c>
       <c r="AH28" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5317.9072295774286</v>
       </c>
       <c r="AI28" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.19932609299810336</v>
       </c>
       <c r="AJ28" s="42"/>
       <c r="AK28" s="43"/>
       <c r="AL28" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM28" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN28" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO28" s="44">
@@ -19670,15 +19673,15 @@
         <v>1.57481</v>
       </c>
       <c r="AS28" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.98410782318318246</v>
       </c>
       <c r="AT28" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5964.1704919998738</v>
       </c>
       <c r="AU28" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.18514663688873773</v>
       </c>
     </row>
@@ -19686,15 +19689,15 @@
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28">
-        <f>(A29/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D29" s="29">
-        <f>((A29*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="32">
@@ -19707,29 +19710,29 @@
         <v>1.7335989999999999</v>
       </c>
       <c r="I29" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2681983490752418</v>
       </c>
       <c r="J29" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3671.3861318153376</v>
       </c>
       <c r="K29" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.26257946385747388</v>
       </c>
       <c r="L29" s="33"/>
       <c r="M29" s="34"/>
       <c r="N29" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O29" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P29" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="37">
@@ -19745,29 +19748,29 @@
         <v>1.713096</v>
       </c>
       <c r="U29" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.97837539511314031</v>
       </c>
       <c r="V29" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4619.5142909985925</v>
       </c>
       <c r="W29" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22836027162958095</v>
       </c>
       <c r="X29" s="39"/>
       <c r="Y29" s="40"/>
       <c r="Z29" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA29" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB29" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC29" s="41">
@@ -19783,29 +19786,29 @@
         <v>1.542035</v>
       </c>
       <c r="AG29" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1828628020107483</v>
       </c>
       <c r="AH29" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5530.6235187605262</v>
       </c>
       <c r="AI29" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.19812321649458201</v>
       </c>
       <c r="AJ29" s="42"/>
       <c r="AK29" s="43"/>
       <c r="AL29" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM29" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN29" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO29" s="44">
@@ -19821,15 +19824,15 @@
         <v>1.639586</v>
       </c>
       <c r="AS29" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.0234721361105099</v>
       </c>
       <c r="AT29" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6202.737311679869</v>
       </c>
       <c r="AU29" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.1839477418188081</v>
       </c>
     </row>
@@ -19837,15 +19840,15 @@
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28">
-        <f>(A30/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30" s="29">
-        <f>((A30*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E30" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="32">
@@ -19858,29 +19861,29 @@
         <v>1.801993</v>
       </c>
       <c r="I30" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3169752086550588</v>
       </c>
       <c r="J30" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3812.5932907313118</v>
       </c>
       <c r="K30" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.26067756106624002</v>
       </c>
       <c r="L30" s="33"/>
       <c r="M30" s="34"/>
       <c r="N30" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O30" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P30" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="37">
@@ -19896,29 +19899,29 @@
         <v>1.7807729999999999</v>
       </c>
       <c r="U30" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0160052180021073</v>
       </c>
       <c r="V30" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4797.1879175754621</v>
       </c>
       <c r="W30" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22683956884161161</v>
       </c>
       <c r="X30" s="39"/>
       <c r="Y30" s="40"/>
       <c r="Z30" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA30" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB30" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC30" s="41">
@@ -19934,29 +19937,29 @@
         <v>1.602501</v>
       </c>
       <c r="AG30" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.2283575251650081</v>
       </c>
       <c r="AH30" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5743.3398079436229</v>
       </c>
       <c r="AI30" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.19698372425250271</v>
       </c>
       <c r="AJ30" s="42"/>
       <c r="AK30" s="43"/>
       <c r="AL30" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM30" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN30" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO30" s="44">
@@ -19972,15 +19975,15 @@
         <v>1.704499</v>
       </c>
       <c r="AS30" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.062836449037837</v>
       </c>
       <c r="AT30" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6441.3041313598642</v>
       </c>
       <c r="AU30" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.18278704160273296</v>
       </c>
     </row>
@@ -19988,15 +19991,15 @@
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28">
-        <f>(A31/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D31" s="29">
-        <f>((A31*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E31" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="32">
@@ -20009,29 +20012,29 @@
         <v>1.8704019999999999</v>
       </c>
       <c r="I31" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3657520682348758</v>
       </c>
       <c r="J31" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3953.8004496472863</v>
       </c>
       <c r="K31" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.2588694504813398</v>
       </c>
       <c r="L31" s="33"/>
       <c r="M31" s="34"/>
       <c r="N31" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O31" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P31" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="37">
@@ -20047,29 +20050,29 @@
         <v>1.848471</v>
       </c>
       <c r="U31" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0536350408910742</v>
       </c>
       <c r="V31" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4974.8615441523307</v>
       </c>
       <c r="W31" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22539171917960524</v>
       </c>
       <c r="X31" s="39"/>
       <c r="Y31" s="40"/>
       <c r="Z31" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA31" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB31" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC31" s="41">
@@ -20085,29 +20088,29 @@
         <v>1.662963</v>
       </c>
       <c r="AG31" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.2738522483192676</v>
       </c>
       <c r="AH31" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5956.0560971267214</v>
       </c>
       <c r="AI31" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.19590207712694202</v>
       </c>
       <c r="AJ31" s="42"/>
       <c r="AK31" s="43"/>
       <c r="AL31" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM31" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN31" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO31" s="44">
@@ -20123,15 +20126,15 @@
         <v>1.7694540000000001</v>
       </c>
       <c r="AS31" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.1022007619651644</v>
       </c>
       <c r="AT31" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6679.8709510398594</v>
       </c>
       <c r="AU31" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.18168116833924666</v>
       </c>
     </row>
@@ -20139,15 +20142,15 @@
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28">
-        <f>(A32/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D32" s="29">
-        <f>((A32*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E32" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="32">
@@ -20160,29 +20163,29 @@
         <v>1.938841</v>
       </c>
       <c r="I32" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4145289278146926</v>
       </c>
       <c r="J32" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4095.00760856326</v>
       </c>
       <c r="K32" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.25714080982654314</v>
       </c>
       <c r="L32" s="33"/>
       <c r="M32" s="34"/>
       <c r="N32" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O32" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P32" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="37">
@@ -20198,29 +20201,29 @@
         <v>1.9161900000000001</v>
       </c>
       <c r="U32" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0912648637800411</v>
       </c>
       <c r="V32" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5152.5351707291984</v>
       </c>
       <c r="W32" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22400857584485762</v>
       </c>
       <c r="X32" s="39"/>
       <c r="Y32" s="40"/>
       <c r="Z32" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA32" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB32" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC32" s="41">
@@ -20236,29 +20239,29 @@
         <v>1.723422</v>
       </c>
       <c r="AG32" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.3193469714735269</v>
       </c>
       <c r="AH32" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6168.7723863098172</v>
       </c>
       <c r="AI32" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.19487242976719538</v>
       </c>
       <c r="AJ32" s="42"/>
       <c r="AK32" s="43"/>
       <c r="AL32" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM32" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN32" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO32" s="44">
@@ -20274,15 +20277,15 @@
         <v>1.8344640000000001</v>
       </c>
       <c r="AS32" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.1415650748924915</v>
       </c>
       <c r="AT32" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6918.4377707198528</v>
       </c>
       <c r="AU32" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.1806242621976914</v>
       </c>
     </row>
@@ -20290,15 +20293,15 @@
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="28">
-        <f>(A33/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D33" s="29">
-        <f>((A33*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E33" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="32">
@@ -20311,29 +20314,29 @@
         <v>2.0073110000000001</v>
       </c>
       <c r="I33" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4633057873945097</v>
       </c>
       <c r="J33" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4236.214767479235</v>
       </c>
       <c r="K33" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.25548638496989146</v>
       </c>
       <c r="L33" s="33"/>
       <c r="M33" s="34"/>
       <c r="N33" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O33" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P33" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="37">
@@ -20349,29 +20352,29 @@
         <v>1.98394</v>
       </c>
       <c r="U33" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1288946866690079</v>
       </c>
       <c r="V33" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5330.2087973060688</v>
       </c>
       <c r="W33" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22268323916165439</v>
       </c>
       <c r="X33" s="39"/>
       <c r="Y33" s="40"/>
       <c r="Z33" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA33" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB33" s="76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC33" s="41">
@@ -20387,29 +20390,29 @@
         <v>1.783882</v>
       </c>
       <c r="AG33" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.3648416946277866</v>
       </c>
       <c r="AH33" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6381.4886754929139</v>
       </c>
       <c r="AI33" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.19388829241438735</v>
       </c>
       <c r="AJ33" s="42"/>
       <c r="AK33" s="43"/>
       <c r="AL33" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM33" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN33" s="78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO33" s="44">
@@ -20425,15 +20428,15 @@
         <v>1.899518</v>
       </c>
       <c r="AS33" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.1809293878198188</v>
       </c>
       <c r="AT33" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7157.004590399848</v>
       </c>
       <c r="AU33" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.17960998726099714</v>
       </c>
     </row>
@@ -20441,44 +20444,44 @@
       <c r="A34" s="26"/>
       <c r="B34" s="27"/>
       <c r="C34" s="28">
-        <f>(A34/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D34" s="29">
-        <f>((A34*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E34" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
       <c r="I34" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J34" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K34" s="30" t="e">
-        <f t="shared" ref="K34:K39" si="32">((G34*$B$46)/(2*$B$47*$K$43*(I34^2)))</f>
+        <f t="shared" ref="K34:K39" si="34">((G34*$B$46)/(2*$B$47*$K$43*(I34^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L34" s="33"/>
       <c r="M34" s="34"/>
       <c r="N34" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O34" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P34" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="37"/>
@@ -20486,29 +20489,29 @@
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
       <c r="U34" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V34" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W34" s="38" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X34" s="39"/>
       <c r="Y34" s="40"/>
       <c r="Z34" s="40">
-        <f t="shared" ref="Z34:Z39" si="33">(X34/($K$43*$D$45))</f>
+        <f t="shared" ref="Z34:Z39" si="35">(X34/($K$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="AA34" s="40">
-        <f t="shared" ref="AA34:AA39" si="34">((X34*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="AA34:AA39" si="36">((X34*$D$46)/($G$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="AB34" s="76" t="e">
-        <f t="shared" ref="AB34:AB39" si="35">((Y34*$D$46)/(2*$D$47*$K$43*(Z34^2)))</f>
+        <f t="shared" ref="AB34:AB39" si="37">((Y34*$D$46)/(2*$D$47*$K$43*(Z34^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC34" s="41"/>
@@ -20516,29 +20519,29 @@
       <c r="AE34" s="41"/>
       <c r="AF34" s="41"/>
       <c r="AG34" s="41">
-        <f t="shared" ref="AG34:AG39" si="36">(AC34/($K$43*$D$45))</f>
+        <f t="shared" ref="AG34:AG39" si="38">(AC34/($K$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="AH34" s="41">
-        <f t="shared" ref="AH34:AH39" si="37">((AC34*$D$46)/($G$43*$D$45))</f>
+        <f t="shared" ref="AH34:AH39" si="39">((AC34*$D$46)/($G$43*$D$45))</f>
         <v>0</v>
       </c>
       <c r="AI34" s="41" t="e">
-        <f t="shared" ref="AI34:AI39" si="38">((AE34*$D$46)/(2*$D$47*$K$43*(AG34^2)))</f>
+        <f t="shared" ref="AI34:AI39" si="40">((AE34*$D$46)/(2*$D$47*$K$43*(AG34^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ34" s="42"/>
       <c r="AK34" s="43"/>
       <c r="AL34" s="43">
-        <f t="shared" ref="AL34:AL39" si="39">(AJ34/($K$43*$E$45))</f>
+        <f t="shared" ref="AL34:AL39" si="41">(AJ34/($K$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AM34" s="43">
-        <f t="shared" ref="AM34:AM39" si="40">((AJ34*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" ref="AM34:AM39" si="42">((AJ34*$E$46)/($G$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AN34" s="78" t="e">
-        <f t="shared" ref="AN34:AN39" si="41">((AK34*$E$46)/(2*$E$47*$K$43*(AL34^2)))</f>
+        <f t="shared" ref="AN34:AN39" si="43">((AK34*$E$46)/(2*$E$47*$K$43*(AL34^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO34" s="44"/>
@@ -20546,15 +20549,15 @@
       <c r="AQ34" s="44"/>
       <c r="AR34" s="44"/>
       <c r="AS34" s="44">
-        <f t="shared" ref="AS34:AS39" si="42">(AO34/($K$43*$E$45))</f>
+        <f t="shared" ref="AS34:AS39" si="44">(AO34/($K$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AT34" s="44">
-        <f t="shared" ref="AT34:AT39" si="43">((AO34*$E$46)/($G$43*$E$45))</f>
+        <f t="shared" ref="AT34:AT39" si="45">((AO34*$E$46)/($G$43*$E$45))</f>
         <v>0</v>
       </c>
       <c r="AU34" s="44" t="e">
-        <f t="shared" ref="AU34:AU39" si="44">((AQ34*$E$46)/(2*$E$47*$K$43*(AS34^2)))</f>
+        <f t="shared" ref="AU34:AU39" si="46">((AQ34*$E$46)/(2*$E$47*$K$43*(AS34^2)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20562,44 +20565,44 @@
       <c r="A35" s="26"/>
       <c r="B35" s="27"/>
       <c r="C35" s="28">
-        <f>(A35/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D35" s="29">
-        <f>((A35*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E35" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J35" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K35" s="30" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="33"/>
       <c r="M35" s="34"/>
       <c r="N35" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O35" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P35" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="37">
@@ -20614,7 +20617,7 @@
         <v>1.3343400000000001</v>
       </c>
       <c r="U35" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.7525964577793387</v>
       </c>
       <c r="V35" s="34">
@@ -20622,21 +20625,21 @@
         <v>3650.6572641670828</v>
       </c>
       <c r="W35" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.0370656992647291E-2</v>
       </c>
       <c r="X35" s="39"/>
       <c r="Y35" s="40"/>
       <c r="Z35" s="40">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA35" s="40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AB35" s="76" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC35" s="41"/>
@@ -20644,29 +20647,29 @@
       <c r="AE35" s="41"/>
       <c r="AF35" s="41"/>
       <c r="AG35" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AH35" s="41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AI35" s="41" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ35" s="42"/>
       <c r="AK35" s="43"/>
       <c r="AL35" s="43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AM35" s="43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN35" s="78" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO35" s="44"/>
@@ -20674,15 +20677,15 @@
       <c r="AQ35" s="44"/>
       <c r="AR35" s="44"/>
       <c r="AS35" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AT35" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AU35" s="44" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20690,44 +20693,44 @@
       <c r="A36" s="26"/>
       <c r="B36" s="27"/>
       <c r="C36" s="28">
-        <f>(A36/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D36" s="29">
-        <f>((A36*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E36" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="30" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="33"/>
       <c r="M36" s="34"/>
       <c r="N36" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O36" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P36" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="37"/>
@@ -20735,29 +20738,29 @@
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
       <c r="U36" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V36" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W36" s="38" t="e">
-        <f t="shared" ref="W36:W39" si="45">((S36*$C$46)/(2*$C$47*$K$43*(U36^2)))</f>
+        <f t="shared" ref="W36:W39" si="47">((S36*$C$46)/(2*$C$47*$K$43*(U36^2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X36" s="39"/>
       <c r="Y36" s="40"/>
       <c r="Z36" s="40">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA36" s="40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AB36" s="76" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC36" s="41"/>
@@ -20765,29 +20768,29 @@
       <c r="AE36" s="41"/>
       <c r="AF36" s="41"/>
       <c r="AG36" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AH36" s="41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AI36" s="41" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ36" s="42"/>
       <c r="AK36" s="43"/>
       <c r="AL36" s="43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AM36" s="43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN36" s="78" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO36" s="44"/>
@@ -20795,15 +20798,15 @@
       <c r="AQ36" s="44"/>
       <c r="AR36" s="44"/>
       <c r="AS36" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AT36" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AU36" s="44" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20811,44 +20814,44 @@
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
       <c r="C37" s="28">
-        <f>(A37/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D37" s="29">
-        <f>((A37*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E37" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="31"/>
       <c r="H37" s="31"/>
       <c r="I37" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J37" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K37" s="30" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="34"/>
       <c r="N37" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O37" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P37" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="37"/>
@@ -20856,29 +20859,29 @@
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V37" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W37" s="38" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X37" s="39"/>
       <c r="Y37" s="40"/>
       <c r="Z37" s="40">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA37" s="40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AB37" s="76" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC37" s="41"/>
@@ -20886,29 +20889,29 @@
       <c r="AE37" s="41"/>
       <c r="AF37" s="41"/>
       <c r="AG37" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AH37" s="41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AI37" s="41" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ37" s="42"/>
       <c r="AK37" s="43"/>
       <c r="AL37" s="43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AM37" s="43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN37" s="78" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO37" s="44"/>
@@ -20916,15 +20919,15 @@
       <c r="AQ37" s="44"/>
       <c r="AR37" s="44"/>
       <c r="AS37" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AT37" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AU37" s="44" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20932,44 +20935,44 @@
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
       <c r="C38" s="28">
-        <f>(A38/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D38" s="29">
-        <f>((A38*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E38" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>
       <c r="I38" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J38" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K38" s="30" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L38" s="33"/>
       <c r="M38" s="34"/>
       <c r="N38" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O38" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P38" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="37"/>
@@ -20977,29 +20980,29 @@
       <c r="S38" s="35"/>
       <c r="T38" s="35"/>
       <c r="U38" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V38" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W38" s="38" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X38" s="39"/>
       <c r="Y38" s="40"/>
       <c r="Z38" s="40">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA38" s="40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AB38" s="76" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC38" s="41"/>
@@ -21007,29 +21010,29 @@
       <c r="AE38" s="41"/>
       <c r="AF38" s="41"/>
       <c r="AG38" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AH38" s="41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AI38" s="41" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ38" s="42"/>
       <c r="AK38" s="43"/>
       <c r="AL38" s="43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AM38" s="43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN38" s="78" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO38" s="44"/>
@@ -21037,15 +21040,15 @@
       <c r="AQ38" s="44"/>
       <c r="AR38" s="44"/>
       <c r="AS38" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AT38" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AU38" s="44" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21053,44 +21056,44 @@
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="28">
-        <f>(A39/($K$43*$B$45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D39" s="29">
-        <f>((A39*$B$46)/($G$43*$B$45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E39" s="65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
       <c r="I39" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J39" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K39" s="30" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="33"/>
       <c r="M39" s="34"/>
       <c r="N39" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O39" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P39" s="73" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="37"/>
@@ -21098,29 +21101,29 @@
       <c r="S39" s="35"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V39" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W39" s="38" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X39" s="39"/>
       <c r="Y39" s="40"/>
       <c r="Z39" s="40">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA39" s="40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AB39" s="76" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC39" s="41"/>
@@ -21128,29 +21131,29 @@
       <c r="AE39" s="41"/>
       <c r="AF39" s="41"/>
       <c r="AG39" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AH39" s="41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AI39" s="41" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ39" s="42"/>
       <c r="AK39" s="43"/>
       <c r="AL39" s="43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AM39" s="43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN39" s="78" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO39" s="44"/>
@@ -21158,15 +21161,15 @@
       <c r="AQ39" s="44"/>
       <c r="AR39" s="44"/>
       <c r="AS39" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AT39" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AU39" s="44" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21179,22 +21182,22 @@
       </c>
     </row>
     <row r="41" spans="1:47" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="G41" s="92" t="s">
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="G41" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="93"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="95"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="109"/>
       <c r="V41" t="s">
         <v>38</v>
       </c>
@@ -21215,17 +21218,17 @@
       <c r="E42" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="96" t="s">
+      <c r="G42" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="97"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="99" t="s">
+      <c r="H42" s="111"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="L42" s="99"/>
-      <c r="M42" s="100"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="114"/>
     </row>
     <row r="43" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
@@ -21246,17 +21249,17 @@
       <c r="F43" s="84">
         <v>1.3619E-5</v>
       </c>
-      <c r="G43" s="86">
+      <c r="G43" s="100">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H43" s="87"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88">
+      <c r="H43" s="101"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102">
         <v>996.55</v>
       </c>
-      <c r="L43" s="88"/>
-      <c r="M43" s="89"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="103"/>
       <c r="V43" s="70"/>
     </row>
     <row r="44" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -21288,15 +21291,15 @@
         <v>2.05725E-4</v>
       </c>
       <c r="C45" s="62">
-        <f t="shared" ref="C45:E45" si="46">C43/C47</f>
+        <f t="shared" ref="C45:E45" si="48">C43/C47</f>
         <v>2.6666666666666668E-4</v>
       </c>
       <c r="D45" s="62">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2.205666666666667E-4</v>
       </c>
       <c r="E45" s="62">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2.5491666666666664E-4</v>
       </c>
       <c r="F45" s="84">
@@ -21334,19 +21337,19 @@
         <v>20</v>
       </c>
       <c r="B47" s="64">
-        <f t="shared" ref="B47:E47" si="47">120/1000</f>
+        <f t="shared" ref="B47:E47" si="49">120/1000</f>
         <v>0.12</v>
       </c>
       <c r="C47" s="64">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.12</v>
       </c>
       <c r="D47" s="64">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.12</v>
       </c>
       <c r="E47" s="64">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.12</v>
       </c>
       <c r="F47" s="84">
@@ -21368,18 +21371,23 @@
         <v>4.66E-4</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="84">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="84">
         <f>B53/2</f>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="84">
         <f>PI()*B54^2</f>
         <v>4.523893421169302E-4</v>
@@ -21387,6 +21395,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:M42"/>
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="AC2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
@@ -21396,12 +21410,6 @@
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:M42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21424,106 +21432,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="109" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="101" t="s">
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="101" t="s">
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="104" t="s">
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="104" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="106"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -25373,21 +25381,21 @@
     </row>
     <row r="34" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="G35" s="92" t="s">
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="G35" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="95"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="109"/>
     </row>
     <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
@@ -25405,16 +25413,16 @@
       <c r="E36" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="96" t="s">
+      <c r="G36" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="99" t="s">
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="99"/>
-      <c r="L36" s="100"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="114"/>
     </row>
     <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
@@ -25432,16 +25440,16 @@
       <c r="E37" s="62">
         <v>3.1727000000000003E-5</v>
       </c>
-      <c r="G37" s="86">
+      <c r="G37" s="100">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88">
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102">
         <v>996.55</v>
       </c>
-      <c r="K37" s="88"/>
-      <c r="L37" s="89"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="103"/>
     </row>
     <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
@@ -25549,6 +25557,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -25558,12 +25572,6 @@
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25585,106 +25593,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="109" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="112" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="101" t="s">
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="101" t="s">
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="104" t="s">
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="104" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="106"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -29534,21 +29542,21 @@
     </row>
     <row r="34" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="G35" s="92" t="s">
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="G35" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="95"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="109"/>
     </row>
     <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
@@ -29566,16 +29574,16 @@
       <c r="E36" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="96" t="s">
+      <c r="G36" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="99" t="s">
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="99"/>
-      <c r="L36" s="100"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="114"/>
     </row>
     <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
@@ -29593,16 +29601,16 @@
       <c r="E37" s="62">
         <v>3.4205999999999997E-5</v>
       </c>
-      <c r="G37" s="86">
+      <c r="G37" s="100">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88">
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102">
         <v>996.55</v>
       </c>
-      <c r="K37" s="88"/>
-      <c r="L37" s="89"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="103"/>
     </row>
     <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
@@ -29691,6 +29699,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -29700,12 +29714,6 @@
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="AE2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
